--- a/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
@@ -455,34 +455,34 @@
         <v>-0.049</v>
       </c>
       <c r="B2">
-        <v>8.135690459407478</v>
+        <v>8.135096413656667</v>
       </c>
       <c r="C2">
-        <v>0.00024546518908729584</v>
+        <v>0.00024547421372916374</v>
       </c>
       <c r="D2">
-        <v>-3.651372872599641e-7</v>
+        <v>-2.297460982976394e-7</v>
       </c>
       <c r="E2">
-        <v>0.00199914222129421</v>
+        <v>0.001999093298062759</v>
       </c>
       <c r="F2">
-        <v>4.8959693334852404e-5</v>
+        <v>4.895850065801972e-5</v>
       </c>
       <c r="G2">
-        <v>8.1356904666502</v>
+        <v>8.135096420964151</v>
       </c>
       <c r="H2">
-        <v>0.000245465190343652</v>
+        <v>0.00024547421498519916</v>
       </c>
       <c r="I2">
-        <v>-3.6513833875807665e-7</v>
+        <v>-2.2974716097846562e-7</v>
       </c>
       <c r="J2">
-        <v>0.0019991422222299326</v>
+        <v>0.0019990932990173564</v>
       </c>
       <c r="K2">
-        <v>4.895969335370809e-5</v>
+        <v>4.895850067704268e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -490,34 +490,34 @@
         <v>-0.047</v>
       </c>
       <c r="B3">
-        <v>8.106241071884819</v>
+        <v>8.104388942708276</v>
       </c>
       <c r="C3">
-        <v>0.00023639556726188764</v>
+        <v>0.00023642264118749144</v>
       </c>
       <c r="D3">
-        <v>-1.096056335762519e-6</v>
+        <v>-6.889671100388346e-7</v>
       </c>
       <c r="E3">
-        <v>0.0019974062708462553</v>
+        <v>0.001997257777178231</v>
       </c>
       <c r="F3">
-        <v>4.891051558519124e-5</v>
+        <v>4.890697463079368e-5</v>
       </c>
       <c r="G3">
-        <v>8.1062410938092</v>
+        <v>8.104388964814978</v>
       </c>
       <c r="H3">
-        <v>0.0002363955710123989</v>
+        <v>0.0002364226449035619</v>
       </c>
       <c r="I3">
-        <v>-1.0960594992080693e-6</v>
+        <v>-6.889703013751901e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019974062736556383</v>
+        <v>0.0019972577800446705</v>
       </c>
       <c r="K3">
-        <v>4.891051563864159e-5</v>
+        <v>4.89069746845494e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -525,34 +525,34 @@
         <v>-0.045</v>
       </c>
       <c r="B4">
-        <v>8.075664106353907</v>
+        <v>8.072458785385557</v>
       </c>
       <c r="C4">
-        <v>0.00022732594543648218</v>
+        <v>0.00022737106864582178</v>
       </c>
       <c r="D4">
-        <v>-1.8279509700411822e-6</v>
+        <v>-1.147776525835528e-6</v>
       </c>
       <c r="E4">
-        <v>0.0019956403011649965</v>
+        <v>0.001995389575056424</v>
       </c>
       <c r="F4">
-        <v>4.8862005958874305e-5</v>
+        <v>4.885618896323914e-5</v>
       </c>
       <c r="G4">
-        <v>8.075664143261521</v>
+        <v>8.072458822583384</v>
       </c>
       <c r="H4">
-        <v>0.00022732595157240506</v>
+        <v>0.00022737107471369847</v>
       </c>
       <c r="I4">
-        <v>-1.8279562595589805e-6</v>
+        <v>-1.1477818514549168e-6</v>
       </c>
       <c r="J4">
-        <v>0.0019956403057717646</v>
+        <v>0.0019953895797532976</v>
       </c>
       <c r="K4">
-        <v>4.886200604344952e-5</v>
+        <v>4.8856189048040285e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -560,34 +560,34 @@
         <v>-0.043000000000000003</v>
       </c>
       <c r="B5">
-        <v>8.043948416636074</v>
+        <v>8.039295428512167</v>
       </c>
       <c r="C5">
-        <v>0.0002182563236110961</v>
+        <v>0.00021831949610417155</v>
       </c>
       <c r="D5">
-        <v>-2.560980515549564e-6</v>
+        <v>-1.6061058253089532e-6</v>
       </c>
       <c r="E5">
-        <v>0.0019938406068488045</v>
+        <v>0.001993484502652199</v>
       </c>
       <c r="F5">
-        <v>4.881438603339155e-5</v>
+        <v>4.880639635911501e-5</v>
       </c>
       <c r="G5">
-        <v>8.043948468736982</v>
+        <v>8.039295480982673</v>
       </c>
       <c r="H5">
-        <v>0.00021825633202368289</v>
+        <v>0.00021831950441562125</v>
       </c>
       <c r="I5">
-        <v>-2.5609879456479488e-6</v>
+        <v>-1.606113290555409e-6</v>
       </c>
       <c r="J5">
-        <v>0.0019938406131786196</v>
+        <v>0.0019934845090997786</v>
       </c>
       <c r="K5">
-        <v>4.881438614537302e-5</v>
+        <v>4.8806396470992314e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -595,34 +595,34 @@
         <v>-0.041</v>
       </c>
       <c r="B6">
-        <v>8.011102944746286</v>
+        <v>8.004912732423584</v>
       </c>
       <c r="C6">
-        <v>0.00020918670178584462</v>
+        <v>0.00020926792356265546</v>
       </c>
       <c r="D6">
-        <v>-3.2953286737630697e-6</v>
+        <v>-2.0638761618560073e-6</v>
       </c>
       <c r="E6">
-        <v>0.0019920031599299807</v>
+        <v>0.001991538006282835</v>
       </c>
       <c r="F6">
-        <v>4.876790091606122e-5</v>
+        <v>4.875787685249672e-5</v>
       </c>
       <c r="G6">
-        <v>8.011103012104526</v>
+        <v>8.004912800166885</v>
       </c>
       <c r="H6">
-        <v>0.00020918671236631902</v>
+        <v>0.0002092679340094166</v>
       </c>
       <c r="I6">
-        <v>-3.2953382594148594e-6</v>
+        <v>-2.0638857717593985e-6</v>
       </c>
       <c r="J6">
-        <v>0.001992003167906536</v>
+        <v>0.0019915380143963163</v>
       </c>
       <c r="K6">
-        <v>4.876790105125531e-5</v>
+        <v>4.875787698680783e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -630,34 +630,34 @@
         <v>-0.03900000000000001</v>
       </c>
       <c r="B7">
-        <v>7.977162314051046</v>
+        <v>7.969355790734516</v>
       </c>
       <c r="C7">
-        <v>0.00020011707996145476</v>
+        <v>0.0002002163510219987</v>
       </c>
       <c r="D7">
-        <v>-4.03120468546029e-6</v>
+        <v>-2.520998152460302e-6</v>
       </c>
       <c r="E7">
-        <v>0.0019901236832229646</v>
+        <v>0.0019895452661997603</v>
       </c>
       <c r="F7">
-        <v>4.8722815701521376e-5</v>
+        <v>4.8710933026423354e-5</v>
       </c>
       <c r="G7">
-        <v>7.9771623963783</v>
+        <v>7.969355873246741</v>
       </c>
       <c r="H7">
-        <v>0.00020011709260087335</v>
+        <v>0.0002002163634956429</v>
       </c>
       <c r="I7">
-        <v>-4.0312164422909175e-6</v>
+        <v>-2.521009911772393e-6</v>
       </c>
       <c r="J7">
-        <v>0.001990123692720452</v>
+        <v>0.0019895452758098464</v>
       </c>
       <c r="K7">
-        <v>4.872281585235284e-5</v>
+        <v>4.8710933172978756e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -665,34 +665,34 @@
         <v>-0.037000000000000005</v>
       </c>
       <c r="B8">
-        <v>7.942192265196398</v>
+        <v>7.93270743302684</v>
       </c>
       <c r="C8">
-        <v>0.00019104745814216094</v>
+        <v>0.00019116477848642389</v>
       </c>
       <c r="D8">
-        <v>-4.768843104155307e-6</v>
+        <v>-2.977372439453194e-6</v>
       </c>
       <c r="E8">
-        <v>0.001988197772675819</v>
+        <v>0.0019875013590621477</v>
       </c>
       <c r="F8">
-        <v>4.867940899531063e-5</v>
+        <v>4.866588139187271e-5</v>
       </c>
       <c r="G8">
-        <v>7.94219236071589</v>
+        <v>7.932707527487246</v>
       </c>
       <c r="H8">
-        <v>0.000191047472730682</v>
+        <v>0.0001911647928776271</v>
       </c>
       <c r="I8">
-        <v>-4.76885704922409e-6</v>
+        <v>-2.977386353041504e-6</v>
       </c>
       <c r="J8">
-        <v>0.001988197783207331</v>
+        <v>0.001987501369415623</v>
       </c>
       <c r="K8">
-        <v>4.867940913147999e-5</v>
+        <v>4.866588150388387e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,34 +700,34 @@
         <v>-0.035</v>
       </c>
       <c r="B9">
-        <v>7.90629405441834</v>
+        <v>7.895093137531807</v>
       </c>
       <c r="C9">
-        <v>0.00018197783635071508</v>
+        <v>0.0001821132059786206</v>
       </c>
       <c r="D9">
-        <v>-5.508501584332466e-6</v>
+        <v>-3.4328912976434353e-6</v>
       </c>
       <c r="E9">
-        <v>0.0019862210743719</v>
+        <v>0.0019854014899063936</v>
       </c>
       <c r="F9">
-        <v>4.863796311128161e-5</v>
+        <v>4.862303950514404e-5</v>
       </c>
       <c r="G9">
-        <v>7.90629415530172</v>
+        <v>7.8950932318310265</v>
       </c>
       <c r="H9">
-        <v>0.00018197785277406861</v>
+        <v>0.00018211322217364246</v>
       </c>
       <c r="I9">
-        <v>-5.50851773978623e-6</v>
+        <v>-3.432907372652858e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019862210838480074</v>
+        <v>0.0019854014977818174</v>
       </c>
       <c r="K9">
-        <v>4.863796310230949e-5</v>
+        <v>4.8623039381504214e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,34 +735,34 @@
         <v>-0.033</v>
       </c>
       <c r="B10">
-        <v>7.869606695636119</v>
+        <v>7.856682836715198</v>
       </c>
       <c r="C10">
-        <v>0.00017290821469987918</v>
+        <v>0.00017306163361104093</v>
       </c>
       <c r="D10">
-        <v>-6.2504561606078155e-6</v>
+        <v>-3.887441450222554e-6</v>
       </c>
       <c r="E10">
-        <v>0.001984189512845381</v>
+        <v>0.001983241285307664</v>
       </c>
       <c r="F10">
-        <v>4.859875105618525e-5</v>
+        <v>4.858270916422377e-5</v>
       </c>
       <c r="G10">
-        <v>7.869606775613551</v>
+        <v>7.8566828918036435</v>
       </c>
       <c r="H10">
-        <v>0.00017290823282377837</v>
+        <v>0.0001730616514761794</v>
       </c>
       <c r="I10">
-        <v>-6.250474568869138e-6</v>
+        <v>-3.8874597062765476e-6</v>
       </c>
       <c r="J10">
-        <v>0.0019841895143200695</v>
+        <v>0.001983241280422198</v>
       </c>
       <c r="K10">
-        <v>4.8598750467709465e-5</v>
+        <v>4.858270816142409e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,34 +770,34 @@
         <v>-0.031</v>
       </c>
       <c r="B11">
-        <v>7.83230589960364</v>
+        <v>7.817688165071236</v>
       </c>
       <c r="C11">
-        <v>0.00016383859370503912</v>
+        <v>0.00016401006189765486</v>
       </c>
       <c r="D11">
-        <v>-6.994993692328759e-6</v>
+        <v>-4.340907963431978e-6</v>
       </c>
       <c r="E11">
-        <v>0.0019820995533642743</v>
+        <v>0.001981017118973278</v>
       </c>
       <c r="F11">
-        <v>4.856202113068488e-5</v>
+        <v>4.854515705513176e-5</v>
       </c>
       <c r="G11">
-        <v>7.832305890926555</v>
+        <v>7.8176880853782995</v>
       </c>
       <c r="H11">
-        <v>0.00016383861331232253</v>
+        <v>0.00016401008121656082</v>
       </c>
       <c r="I11">
-        <v>-6.995014471397942e-6</v>
+        <v>-4.3409284753044925e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019820995292413276</v>
+        <v>0.0019810170766271966</v>
       </c>
       <c r="K11">
-        <v>4.856201886015101e-5</v>
+        <v>4.854515362267667e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,34 +805,34 @@
         <v>-0.029000000000000005</v>
       </c>
       <c r="B12">
-        <v>7.794598891807502</v>
+        <v>7.778354310963234</v>
       </c>
       <c r="C12">
-        <v>0.00015476897553803648</v>
+        <v>0.00015495849300433697</v>
       </c>
       <c r="D12">
-        <v>-7.74240129394611e-6</v>
+        <v>-4.793178453831554e-6</v>
       </c>
       <c r="E12">
-        <v>0.001979948465080476</v>
+        <v>0.0019787264204442897</v>
       </c>
       <c r="F12">
-        <v>4.8527980770397484e-5</v>
+        <v>4.8510595296213286e-5</v>
       </c>
       <c r="G12">
-        <v>7.794598656718763</v>
+        <v>7.778353914018516</v>
       </c>
       <c r="H12">
-        <v>0.00015476899609759973</v>
+        <v>0.00015495851324758106</v>
       </c>
       <c r="I12">
-        <v>-7.742424820689902e-6</v>
+        <v>-4.793201509608003e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019799483803792347</v>
+        <v>0.0019787262945149694</v>
       </c>
       <c r="K12">
-        <v>4.8527974619356524e-5</v>
+        <v>4.851058652478678e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -840,34 +840,34 @@
         <v>-0.027000000000000003</v>
       </c>
       <c r="B13">
-        <v>7.756715031578305</v>
+        <v>7.738946801810154</v>
       </c>
       <c r="C13">
-        <v>0.00014569936863470835</v>
+        <v>0.00014590693534374802</v>
       </c>
       <c r="D13">
-        <v>-8.492951999782192e-6</v>
+        <v>-5.2441454084166766e-6</v>
       </c>
       <c r="E13">
-        <v>0.0019777345419869103</v>
+        <v>0.0019763679087049743</v>
       </c>
       <c r="F13">
-        <v>4.849678192817486e-5</v>
+        <v>4.84791651217584e-5</v>
       </c>
       <c r="G13">
-        <v>7.756714342940373</v>
+        <v>7.738945808235004</v>
       </c>
       <c r="H13">
-        <v>0.00014569938852881863</v>
+        <v>0.00014590695489825772</v>
       </c>
       <c r="I13">
-        <v>-8.492979478732914e-6</v>
+        <v>-5.244172033670587e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019777343406529387</v>
+        <v>0.0019763676305069046</v>
       </c>
       <c r="K13">
-        <v>4.84967683591511e-5</v>
+        <v>4.847914664587414e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,34 +875,34 @@
         <v>-0.025</v>
       </c>
       <c r="B14">
-        <v>7.718893174995782</v>
+        <v>7.699734965371474</v>
       </c>
       <c r="C14">
-        <v>0.00013662980318691502</v>
+        <v>0.0001368554190247995</v>
       </c>
       <c r="D14">
-        <v>-9.246882884750859e-6</v>
+        <v>-5.693700874329415e-6</v>
       </c>
       <c r="E14">
-        <v>0.001975457242650688</v>
+        <v>0.0019739417049495236</v>
       </c>
       <c r="F14">
-        <v>4.846851057998953e-5</v>
+        <v>4.84509270038027e-5</v>
       </c>
       <c r="G14">
-        <v>7.7188917194937146</v>
+        <v>7.699733021945832</v>
       </c>
       <c r="H14">
-        <v>0.0001366298173671885</v>
+        <v>0.00013685543285627677</v>
       </c>
       <c r="I14">
-        <v>-9.24691800520682e-6</v>
+        <v>-5.693734400718403e-6</v>
       </c>
       <c r="J14">
-        <v>0.0019754568507783492</v>
+        <v>0.0019739411915679845</v>
       </c>
       <c r="K14">
-        <v>4.8468484912630894e-5</v>
+        <v>4.8450893501009446e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,34 +910,34 @@
         <v>-0.023000000000000003</v>
       </c>
       <c r="B15">
-        <v>7.681367696285231</v>
+        <v>7.660974913809545</v>
       </c>
       <c r="C15">
-        <v>0.0001275603787218279</v>
+        <v>0.0001278040433012234</v>
       </c>
       <c r="D15">
-        <v>-1.0004352553272344e-5</v>
+        <v>-6.141708878113434e-6</v>
       </c>
       <c r="E15">
-        <v>0.001973117231224961</v>
+        <v>0.0019714493125536875</v>
       </c>
       <c r="F15">
-        <v>4.844318252192321e-5</v>
+        <v>4.8425859469749146e-5</v>
       </c>
       <c r="G15">
-        <v>7.6813650942818175</v>
+        <v>7.660971633228302</v>
       </c>
       <c r="H15">
-        <v>0.00012756037228162903</v>
+        <v>0.00012780403654420318</v>
       </c>
       <c r="I15">
-        <v>-1.0004405960349214e-5</v>
+        <v>-6.141759195878389e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019731165670949045</v>
+        <v>0.0019714484819902916</v>
       </c>
       <c r="K15">
-        <v>4.8443139617346564e-5</v>
+        <v>4.8425805658408536e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -945,34 +945,34 @@
         <v>-0.021000000000000005</v>
       </c>
       <c r="B16">
-        <v>7.644355641737206</v>
+        <v>7.62289521356255</v>
       </c>
       <c r="C16">
-        <v>0.00011849139728763362</v>
+        <v>0.00011875310939136336</v>
       </c>
       <c r="D16">
-        <v>-1.0765342092049467e-5</v>
+        <v>-6.587920153893443e-6</v>
       </c>
       <c r="E16">
-        <v>0.0019707163392408407</v>
+        <v>0.001968893499687846</v>
       </c>
       <c r="F16">
-        <v>4.842074645452642e-5</v>
+        <v>4.8403866904376766e-5</v>
       </c>
       <c r="G16">
-        <v>7.6443514478649375</v>
+        <v>7.622890182159794</v>
       </c>
       <c r="H16">
-        <v>0.00011849132960846163</v>
+        <v>0.00011875304153915695</v>
       </c>
       <c r="I16">
-        <v>-1.0765442376919633e-5</v>
+        <v>-6.588014120783625e-6</v>
       </c>
       <c r="J16">
-        <v>0.001970715324199495</v>
+        <v>0.0019688922836748873</v>
       </c>
       <c r="K16">
-        <v>4.842068165165761e-5</v>
+        <v>4.8403788626758315e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -980,34 +980,34 @@
         <v>-0.019000000000000003</v>
       </c>
       <c r="B17">
-        <v>7.608047472001818</v>
+        <v>7.58568787939513</v>
       </c>
       <c r="C17">
-        <v>0.00010942370229711613</v>
+        <v>0.00010970345839082353</v>
       </c>
       <c r="D17">
-        <v>-1.1529416241761112e-5</v>
+        <v>-7.031750973278242e-6</v>
       </c>
       <c r="E17">
-        <v>0.001968257517382442</v>
+        <v>0.001966278174814615</v>
       </c>
       <c r="F17">
-        <v>4.840109381427459e-5</v>
+        <v>4.8384794557020746e-5</v>
       </c>
       <c r="G17">
-        <v>7.608041096641703</v>
+        <v>7.585680567772324</v>
       </c>
       <c r="H17">
-        <v>0.00010942347212230634</v>
+        <v>0.0001097032284651774</v>
       </c>
       <c r="I17">
-        <v>-1.1529634204059868e-5</v>
+        <v>-7.031955233897966e-6</v>
       </c>
       <c r="J17">
-        <v>0.001968256077267663</v>
+        <v>0.001966276517487116</v>
       </c>
       <c r="K17">
-        <v>4.8401003732017834e-5</v>
+        <v>4.8384689488109994e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.017</v>
       </c>
       <c r="B18">
-        <v>7.572603396012524</v>
+        <v>7.549506372435835</v>
       </c>
       <c r="C18">
-        <v>0.00010035945905934511</v>
+        <v>0.00010065724965973467</v>
       </c>
       <c r="D18">
-        <v>-1.2295178723963658e-5</v>
+        <v>-7.471773314296095e-6</v>
       </c>
       <c r="E18">
-        <v>0.00196574490936304</v>
+        <v>0.001963608408649007</v>
       </c>
       <c r="F18">
-        <v>4.838407357262203e-5</v>
+        <v>4.836844775681632e-5</v>
       </c>
       <c r="G18">
-        <v>7.572593884168384</v>
+        <v>7.549495890365321</v>
       </c>
       <c r="H18">
-        <v>0.000100358836495322</v>
+        <v>0.00010065662839890728</v>
       </c>
       <c r="I18">
-        <v>-1.2295674810511975e-5</v>
+        <v>-7.472238568194379e-6</v>
       </c>
       <c r="J18">
-        <v>0.0019657429554432583</v>
+        <v>0.001963606240841756</v>
       </c>
       <c r="K18">
-        <v>4.83839564702781e-5</v>
+        <v>4.836831549819647e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1050,34 +1050,34 @@
         <v>-0.015000000000000003</v>
       </c>
       <c r="B19">
-        <v>7.538156705268887</v>
+        <v>7.51447140830842</v>
       </c>
       <c r="C19">
-        <v>9.1303774053193e-5</v>
+        <v>9.161957564750329e-5</v>
       </c>
       <c r="D19">
-        <v>-1.3059139705514369e-5</v>
+        <v>-7.90466057634862e-6</v>
       </c>
       <c r="E19">
-        <v>0.0019631842550122463</v>
+        <v>0.001960890829770377</v>
       </c>
       <c r="F19">
-        <v>4.836950973213077e-5</v>
+        <v>4.835461232834341e-5</v>
       </c>
       <c r="G19">
-        <v>7.53814233675416</v>
+        <v>7.514456077228484</v>
       </c>
       <c r="H19">
-        <v>9.130228561272381e-5</v>
+        <v>9.16180908653593e-5</v>
       </c>
       <c r="I19">
-        <v>-1.3060244647326003e-5</v>
+        <v>-7.905696162601617e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019631816365309365</v>
+        <v>0.0019608880130185086</v>
       </c>
       <c r="K19">
-        <v>4.8369365346543346e-5</v>
+        <v>4.835445394251163e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1085,34 +1085,34 @@
         <v>-0.013000000000000005</v>
       </c>
       <c r="B20">
-        <v>7.504824895037132</v>
+        <v>7.480684763267975</v>
       </c>
       <c r="C20">
-        <v>8.226769675976259e-5</v>
+        <v>8.2601455478048e-5</v>
       </c>
       <c r="D20">
-        <v>-1.381360482202728e-5</v>
+        <v>-8.323240673384062e-6</v>
       </c>
       <c r="E20">
-        <v>0.0019605838976674427</v>
+        <v>0.001958134687972662</v>
       </c>
       <c r="F20">
-        <v>4.8357219424493086e-5</v>
+        <v>4.834307398110135e-5</v>
       </c>
       <c r="G20">
-        <v>7.50480264159212</v>
+        <v>7.480661549527814</v>
       </c>
       <c r="H20">
-        <v>8.226446210820065e-5</v>
+        <v>8.259822925884396e-5</v>
       </c>
       <c r="I20">
-        <v>-1.3815934951271248e-5</v>
+        <v>-8.325420055201775e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019605803258125553</v>
+        <v>0.0019581309298361362</v>
       </c>
       <c r="K20">
-        <v>4.835704843008226e-5</v>
+        <v>4.83428912255371e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1120,34 +1120,34 @@
         <v>-0.011000000000000003</v>
       </c>
       <c r="B21">
-        <v>7.472728419629215</v>
+        <v>7.448250514818589</v>
       </c>
       <c r="C21">
-        <v>7.327313123394667e-5</v>
+        <v>7.362473302737887e-5</v>
       </c>
       <c r="D21">
-        <v>-1.454319853874688e-5</v>
+        <v>-8.713323492949727e-6</v>
       </c>
       <c r="E21">
-        <v>0.0019579566746650754</v>
+        <v>0.001955353880751439</v>
       </c>
       <c r="F21">
-        <v>4.834702986772693e-5</v>
+        <v>4.833363524609166e-5</v>
       </c>
       <c r="G21">
-        <v>7.472693418390051</v>
+        <v>7.4482144870775535</v>
       </c>
       <c r="H21">
-        <v>7.326668303471285e-5</v>
+        <v>7.361830206623745e-5</v>
       </c>
       <c r="I21">
-        <v>-1.454778441888011e-5</v>
+        <v>-8.717599905983855e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019579516322979084</v>
+        <v>0.0019553486371512094</v>
       </c>
       <c r="K21">
-        <v>4.834683323984264e-5</v>
+        <v>4.8333429830833496e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1155,34 +1155,34 @@
         <v>-0.009000000000000001</v>
       </c>
       <c r="B22">
-        <v>7.442015110464826</v>
+        <v>7.4173015524623445</v>
       </c>
       <c r="C22">
-        <v>6.435977757849386e-5</v>
+        <v>6.472899932675784e-5</v>
       </c>
       <c r="D22">
-        <v>-1.5219912698349828e-5</v>
+        <v>-9.049237737439047e-6</v>
       </c>
       <c r="E22">
-        <v>0.0019553228102480104</v>
+        <v>0.0019525700683817803</v>
       </c>
       <c r="F22">
-        <v>4.8338792501720895e-5</v>
+        <v>4.8326128792558505e-5</v>
       </c>
       <c r="G22">
-        <v>7.441960461725862</v>
+        <v>7.417245674285293</v>
       </c>
       <c r="H22">
-        <v>6.43479468779563e-5</v>
+        <v>6.471720062950429e-5</v>
       </c>
       <c r="I22">
-        <v>-1.5228283453647761e-5</v>
+        <v>-9.057016359914618e-6</v>
       </c>
       <c r="J22">
-        <v>0.001955315483408938</v>
+        <v>0.001952562470738556</v>
       </c>
       <c r="K22">
-        <v>4.833857108196128e-5</v>
+        <v>4.8325901942546815e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1190,34 +1190,34 @@
         <v>-0.007000000000000003</v>
       </c>
       <c r="B23">
-        <v>7.412885308608459</v>
+        <v>7.388026343868333</v>
       </c>
       <c r="C23">
-        <v>5.559324017861141e-5</v>
+        <v>5.5979678520855645e-5</v>
       </c>
       <c r="D23">
-        <v>-1.5797264071125835e-5</v>
+        <v>-9.288648374808258e-6</v>
       </c>
       <c r="E23">
-        <v>0.0019527135098925078</v>
+        <v>0.001949816554454086</v>
       </c>
       <c r="F23">
-        <v>4.8332392347084804e-5</v>
+        <v>4.832042568148443e-5</v>
       </c>
       <c r="G23">
-        <v>7.412802589900877</v>
+        <v>7.387941998865739</v>
       </c>
       <c r="H23">
-        <v>5.5573236395452345e-5</v>
+        <v>5.5959729173717464e-5</v>
       </c>
       <c r="I23">
-        <v>-1.5811395736803128e-5</v>
+        <v>-9.301731843314497e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019527027984726421</v>
+        <v>0.0019498054220991622</v>
       </c>
       <c r="K23">
-        <v>4.833214682252568e-5</v>
+        <v>4.8320178171706594e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,34 +1225,34 @@
         <v>-0.0050000000000000044</v>
       </c>
       <c r="B24">
-        <v>7.385609346408999</v>
+        <v>7.360687515482345</v>
       </c>
       <c r="C24">
-        <v>4.707196869974257e-5</v>
+        <v>4.7474949795932286e-5</v>
       </c>
       <c r="D24">
-        <v>-1.6205204344004196e-5</v>
+        <v>-9.36816522051155e-6</v>
       </c>
       <c r="E24">
-        <v>0.0019501742799545106</v>
+        <v>0.0019471418828900745</v>
       </c>
       <c r="F24">
-        <v>4.832775050058323e-5</v>
+        <v>4.831643686004634e-5</v>
       </c>
       <c r="G24">
-        <v>7.385490126467313</v>
+        <v>7.360566055576087</v>
       </c>
       <c r="H24">
-        <v>4.704078115396612e-5</v>
+        <v>4.744384739151286e-5</v>
       </c>
       <c r="I24">
-        <v>-1.622724006973705e-5</v>
+        <v>-9.388491769156527e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019501589478762367</v>
+        <v>0.0019471258849691974</v>
       </c>
       <c r="K24">
-        <v>4.8327481838964256e-5</v>
+        <v>4.83161695253169e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,34 +1260,34 @@
         <v>-0.0030000000000000027</v>
       </c>
       <c r="B25">
-        <v>7.360527136166681</v>
+        <v>7.335621828598698</v>
       </c>
       <c r="C25">
-        <v>3.8929323305645344e-5</v>
+        <v>3.93478069239658e-5</v>
       </c>
       <c r="D25">
-        <v>-1.6348449317978396e-5</v>
+        <v>-9.2021134744197e-6</v>
       </c>
       <c r="E25">
-        <v>0.0019477662951975449</v>
+        <v>0.0019446113408005503</v>
       </c>
       <c r="F25">
-        <v>4.8324818374962015e-5</v>
+        <v>4.831410671731333e-5</v>
       </c>
       <c r="G25">
-        <v>7.360365398969278</v>
+        <v>7.335457058295337</v>
       </c>
       <c r="H25">
-        <v>3.8884477434983396e-5</v>
+        <v>3.9303083700160585e-5</v>
       </c>
       <c r="I25">
-        <v>-1.6380163962556056e-5</v>
+        <v>-9.231268430620874e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019477452840765631</v>
+        <v>0.0019445893336764869</v>
       </c>
       <c r="K25">
-        <v>4.8324528551308556e-5</v>
+        <v>4.831382124956739e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1295,34 +1295,34 @@
         <v>-0.0010000000000000009</v>
       </c>
       <c r="B26">
-        <v>7.33802172288521</v>
+        <v>7.313213161778408</v>
       </c>
       <c r="C26">
-        <v>3.132680463097199e-5</v>
+        <v>3.1759306835106685e-5</v>
       </c>
       <c r="D26">
-        <v>-1.6111140035266032e-5</v>
+        <v>-8.686963460099998e-6</v>
       </c>
       <c r="E26">
-        <v>0.0019455638806037524</v>
+        <v>0.0019423042689862822</v>
       </c>
       <c r="F26">
-        <v>4.8323564092298836e-5</v>
+        <v>4.831339913479396e-5</v>
       </c>
       <c r="G26">
-        <v>7.337816571533493</v>
+        <v>7.313004117814331</v>
       </c>
       <c r="H26">
-        <v>3.126732280637704e-5</v>
+        <v>3.16999878509687e-5</v>
       </c>
       <c r="I26">
-        <v>-1.6153252299520414e-5</v>
+        <v>-8.72556263801447e-6</v>
       </c>
       <c r="J26">
-        <v>0.001945536730892104</v>
+        <v>0.0019422757495219602</v>
       </c>
       <c r="K26">
-        <v>4.832325678237494e-5</v>
+        <v>4.8313098837175264e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1330,34 +1330,34 @@
         <v>0.0009999999999999974</v>
       </c>
       <c r="B27">
-        <v>7.3184658422041124</v>
+        <v>7.293837405926311</v>
       </c>
       <c r="C27">
-        <v>2.4436308719328738e-5</v>
+        <v>2.4880873308263723e-5</v>
       </c>
       <c r="D27">
-        <v>-1.5369495722277658e-5</v>
+        <v>-7.712726032238476e-6</v>
       </c>
       <c r="E27">
-        <v>0.0019436468751840106</v>
+        <v>0.0019403058330229345</v>
       </c>
       <c r="F27">
-        <v>4.8323953797540885e-5</v>
+        <v>4.8314278677285965e-5</v>
       </c>
       <c r="G27">
-        <v>7.318223431852961</v>
+        <v>7.293590354166351</v>
       </c>
       <c r="H27">
-        <v>2.436353245060606e-5</v>
+        <v>2.4808296390755835e-5</v>
       </c>
       <c r="I27">
-        <v>-1.5421072406493307e-5</v>
+        <v>-7.759891734669414e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019436141062432642</v>
+        <v>0.0019402713479977282</v>
       </c>
       <c r="K27">
-        <v>4.8323634686225686e-5</v>
+        <v>4.831396882488207e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1365,34 +1365,34 @@
         <v>0.0029999999999999957</v>
       </c>
       <c r="B28">
-        <v>7.302151016283488</v>
+        <v>7.277789020039538</v>
       </c>
       <c r="C28">
-        <v>1.841318635968649e-5</v>
+        <v>1.8867430323902913e-5</v>
       </c>
       <c r="D28">
-        <v>-1.4011282277437478e-5</v>
+        <v>-6.180126735496908e-6</v>
       </c>
       <c r="E28">
-        <v>0.0019420884438893506</v>
+        <v>0.0019386938627705482</v>
       </c>
       <c r="F28">
-        <v>4.832593243932211e-5</v>
+        <v>4.831669128791922e-5</v>
       </c>
       <c r="G28">
-        <v>7.301884689514223</v>
+        <v>7.277517607877358</v>
       </c>
       <c r="H28">
-        <v>1.833104721402242e-5</v>
+        <v>1.8785516242042794e-5</v>
       </c>
       <c r="I28">
-        <v>-1.4069534504191038e-5</v>
+        <v>-6.233318791610407e-6</v>
       </c>
       <c r="J28">
-        <v>0.0019420517014053919</v>
+        <v>0.00193865516746703</v>
       </c>
       <c r="K28">
-        <v>4.832560892436411e-5</v>
+        <v>4.831637887717655e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1400,34 +1400,34 @@
         <v>0.0049999999999999975</v>
       </c>
       <c r="B29">
-        <v>7.289218024054887</v>
+        <v>7.265208753316485</v>
       </c>
       <c r="C29">
-        <v>1.3366476359003489e-5</v>
+        <v>1.3827717117345496e-5</v>
       </c>
       <c r="D29">
-        <v>-1.1957502316321067e-5</v>
+        <v>-4.019500011211614e-6</v>
       </c>
       <c r="E29">
-        <v>0.001940941201404914</v>
+        <v>0.0019375238793862767</v>
       </c>
       <c r="F29">
-        <v>4.832940887775105e-5</v>
+        <v>4.832054918917379e-5</v>
       </c>
       <c r="G29">
-        <v>7.288946211336521</v>
+        <v>7.264931858353622</v>
       </c>
       <c r="H29">
-        <v>1.3280955777087756e-5</v>
+        <v>1.3742430882242995e-5</v>
       </c>
       <c r="I29">
-        <v>-1.2018166968738297e-5</v>
+        <v>-4.074864904935617e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019409030410684168</v>
+        <v>0.0019374837036103734</v>
       </c>
       <c r="K29">
-        <v>4.83290891817216e-5</v>
+        <v>4.8320242087136e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1435,34 +1435,34 @@
         <v>0.006999999999999999</v>
       </c>
       <c r="B30">
-        <v>7.279610705517661</v>
+        <v>7.2560354301863805</v>
       </c>
       <c r="C30">
-        <v>9.33549005426056e-6</v>
+        <v>9.800937022175098e-6</v>
       </c>
       <c r="D30">
-        <v>-9.179546897409286e-6</v>
+        <v>-1.2056233771120099e-6</v>
       </c>
       <c r="E30">
-        <v>0.0019402260665783192</v>
+        <v>0.0019368171278388603</v>
       </c>
       <c r="F30">
-        <v>4.833424899345753e-5</v>
+        <v>4.8325723584362155e-5</v>
       </c>
       <c r="G30">
-        <v>7.279353083213824</v>
+        <v>7.255773208178942</v>
       </c>
       <c r="H30">
-        <v>9.253350406057966e-6</v>
+        <v>9.719022428817185e-6</v>
       </c>
       <c r="I30">
-        <v>-9.237797851572673e-6</v>
+        <v>-1.2588071231323847e-6</v>
       </c>
       <c r="J30">
-        <v>0.001940189400409473</v>
+        <v>0.0019367785786611157</v>
       </c>
       <c r="K30">
-        <v>4.833394092304354e-5</v>
+        <v>4.8325429313371266e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1470,34 +1470,34 @@
         <v>0.008999999999999998</v>
       </c>
       <c r="B31">
-        <v>7.273069440087206</v>
+        <v>7.249998911438339</v>
       </c>
       <c r="C31">
-        <v>6.280916108476877e-6</v>
+        <v>6.747886704808096e-6</v>
       </c>
       <c r="D31">
-        <v>-5.705727194419143e-6</v>
+        <v>2.236627309734534e-6</v>
       </c>
       <c r="E31">
-        <v>0.0019399279162631512</v>
+        <v>0.0019365560335514807</v>
       </c>
       <c r="F31">
-        <v>4.834027842616928e-5</v>
+        <v>4.833204679574935e-5</v>
       </c>
       <c r="G31">
-        <v>7.272842634620553</v>
+        <v>7.249768375146414</v>
       </c>
       <c r="H31">
-        <v>6.208138858715164e-6</v>
+        <v>6.675308788210735e-6</v>
       </c>
       <c r="I31">
-        <v>-5.757300251583972e-6</v>
+        <v>2.189479820828309e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019398953187594206</v>
+        <v>0.0019365218493626877</v>
       </c>
       <c r="K31">
-        <v>4.8339988149796024e-5</v>
+        <v>4.833177132206266e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1505,34 +1505,34 @@
         <v>0.010999999999999996</v>
       </c>
       <c r="B32">
-        <v>7.269167883843089</v>
+        <v>7.246658007566359</v>
       </c>
       <c r="C32">
-        <v>4.093715714694218e-6</v>
+        <v>4.55982692992327e-6</v>
       </c>
       <c r="D32">
-        <v>-1.6147436130135387e-6</v>
+        <v>6.237857252278405e-6</v>
       </c>
       <c r="E32">
-        <v>0.001939999701123728</v>
+        <v>0.001936688844383192</v>
       </c>
       <c r="F32">
-        <v>4.8347294310934215e-5</v>
+        <v>4.833932328414649e-5</v>
       </c>
       <c r="G32">
-        <v>7.268982230404</v>
+        <v>7.246469697630544</v>
       </c>
       <c r="H32">
-        <v>4.034232476823108e-6</v>
+        <v>4.500506505113656e-6</v>
       </c>
       <c r="I32">
-        <v>-1.6568478960344474e-6</v>
+        <v>6.199288272934408e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019399728470532655</v>
+        <v>0.0019366607944793174</v>
       </c>
       <c r="K32">
-        <v>4.834702552242226e-5</v>
+        <v>4.8339070178224044e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,34 +1540,34 @@
         <v>0.012999999999999998</v>
       </c>
       <c r="B33">
-        <v>7.26738194233653</v>
+        <v>7.245471811966654</v>
       </c>
       <c r="C33">
-        <v>2.618538083941572e-6</v>
+        <v>3.081833717054476e-6</v>
       </c>
       <c r="D33">
-        <v>2.9814550044538106e-6</v>
+        <v>1.0698943337946674e-5</v>
       </c>
       <c r="E33">
-        <v>0.0019403733976749503</v>
+        <v>0.0019371416175321167</v>
       </c>
       <c r="F33">
-        <v>4.8355083265714636e-5</v>
+        <v>4.8347346917294265e-5</v>
       </c>
       <c r="G33">
-        <v>7.2672403188898835</v>
+        <v>7.245328612559394</v>
       </c>
       <c r="H33">
-        <v>2.5736904330296317e-6</v>
+        <v>3.037108675900697e-6</v>
       </c>
       <c r="I33">
-        <v>2.949755132567162e-6</v>
+        <v>1.0669831765595221e-5</v>
       </c>
       <c r="J33">
-        <v>0.0019403528313712073</v>
+        <v>0.0019371202611089423</v>
       </c>
       <c r="K33">
-        <v>4.835483696653268e-5</v>
+        <v>4.834711712098598e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1575,34 +1575,34 @@
         <v>0.015</v>
       </c>
       <c r="B34">
-        <v>7.267169922140074</v>
+        <v>7.245882460844676</v>
       </c>
       <c r="C34">
-        <v>1.6834871726129125e-6</v>
+        <v>2.1424832872932215e-6</v>
       </c>
       <c r="D34">
-        <v>7.959341463214903e-6</v>
+        <v>1.550992895232584e-5</v>
       </c>
       <c r="E34">
-        <v>0.001940973774379991</v>
+        <v>0.0019378331277727957</v>
       </c>
       <c r="F34">
-        <v>4.8363441276562163e-5</v>
+        <v>4.835592024807133e-5</v>
       </c>
       <c r="G34">
-        <v>7.267068756039807</v>
+        <v>7.245780652643164</v>
       </c>
       <c r="H34">
-        <v>1.6522975598930495e-6</v>
+        <v>2.1113787686881472e-6</v>
       </c>
       <c r="I34">
-        <v>7.937329403300505e-6</v>
+        <v>1.5489658568572116e-5</v>
       </c>
       <c r="J34">
-        <v>0.0019409590418695423</v>
+        <v>0.0019378179623669388</v>
       </c>
       <c r="K34">
-        <v>4.836321618746376e-5</v>
+        <v>4.83557124640282e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,34 +1610,34 @@
         <v>0.017</v>
       </c>
       <c r="B35">
-        <v>7.2680415785052</v>
+        <v>7.247386158521531</v>
       </c>
       <c r="C35">
-        <v>1.1270623460558258e-6</v>
+        <v>1.5807187104887417e-6</v>
       </c>
       <c r="D35">
-        <v>1.3203260821590846e-5</v>
+        <v>2.0567230748202434e-5</v>
       </c>
       <c r="E35">
-        <v>0.0019417305926870867</v>
+        <v>0.0019386879487816942</v>
       </c>
       <c r="F35">
-        <v>4.8372190636515577e-5</v>
+        <v>4.836487104378432e-5</v>
       </c>
       <c r="G35">
-        <v>7.2679732695656645</v>
+        <v>7.247317919901241</v>
       </c>
       <c r="H35">
-        <v>1.1070563005147252e-6</v>
+        <v>1.5607670430819527e-6</v>
       </c>
       <c r="I35">
-        <v>1.318916276074387e-5</v>
+        <v>2.0554214415140902e-5</v>
       </c>
       <c r="J35">
-        <v>0.0019417206112006243</v>
+        <v>0.0019386778097903823</v>
       </c>
       <c r="K35">
-        <v>4.8371984029512986e-5</v>
+        <v>4.836468254354303e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1645,34 +1645,34 @@
         <v>0.019000000000000003</v>
       </c>
       <c r="B36">
-        <v>7.269601102976508</v>
+        <v>7.2495770738763925</v>
       </c>
       <c r="C36">
-        <v>8.159034405123495e-7</v>
+        <v>1.263546214663147e-6</v>
       </c>
       <c r="D36">
-        <v>1.861807757402033e-5</v>
+        <v>2.578507573471757e-5</v>
       </c>
       <c r="E36">
-        <v>0.0019425863796142145</v>
+        <v>0.0019396446661902654</v>
       </c>
       <c r="F36">
-        <v>4.838119021598289e-5</v>
+        <v>4.8374062380191075e-5</v>
       </c>
       <c r="G36">
-        <v>7.26955674109504</v>
+        <v>7.249533270870582</v>
       </c>
       <c r="H36">
-        <v>8.040703808234555e-7</v>
+        <v>1.2517450891858663e-6</v>
       </c>
       <c r="I36">
-        <v>1.8609750082068998e-5</v>
+        <v>2.577737274262071e-5</v>
       </c>
       <c r="J36">
-        <v>0.001942579856666589</v>
+        <v>0.0019396381747744872</v>
       </c>
       <c r="K36">
-        <v>4.838099884122292e-5</v>
+        <v>4.837388991081505e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1680,34 +1680,34 @@
         <v>0.020999999999999998</v>
       </c>
       <c r="B37">
-        <v>7.271560547811037</v>
+        <v>7.252160680672695</v>
       </c>
       <c r="C37">
-        <v>6.515607905391529e-7</v>
+        <v>1.092786613556265e-6</v>
       </c>
       <c r="D37">
-        <v>2.4133843916779077e-5</v>
+        <v>3.1099963985531124e-5</v>
       </c>
       <c r="E37">
-        <v>0.0019434991542710142</v>
+        <v>0.0019406586365831606</v>
       </c>
       <c r="F37">
-        <v>4.8390337792650706e-5</v>
+        <v>4.838339500980442e-5</v>
       </c>
       <c r="G37">
-        <v>7.271532007720807</v>
+        <v>7.252133005924081</v>
       </c>
       <c r="H37">
-        <v>6.451102386854766e-7</v>
+        <v>1.0863532189700128e-6</v>
       </c>
       <c r="I37">
-        <v>2.412930962919522e-5</v>
+        <v>3.109576928928556e-5</v>
       </c>
       <c r="J37">
-        <v>0.0019434949080466598</v>
+        <v>0.0019406545385997</v>
       </c>
       <c r="K37">
-        <v>4.839015861172442e-5</v>
+        <v>4.8383235514313605e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1715,34 +1715,34 @@
         <v>0.022999999999999993</v>
       </c>
       <c r="B38">
-        <v>7.273730028908141</v>
+        <v>7.254943272985708</v>
       </c>
       <c r="C38">
-        <v>5.684300109291216e-7</v>
+        <v>1.0030157624976026e-6</v>
       </c>
       <c r="D38">
-        <v>2.9704141890506376e-5</v>
+        <v>3.646945753914176e-5</v>
       </c>
       <c r="E38">
-        <v>0.0019444412600662863</v>
+        <v>0.0019417005976754462</v>
       </c>
       <c r="F38">
-        <v>4.83995658046967e-5</v>
+        <v>4.839280330574746e-5</v>
       </c>
       <c r="G38">
-        <v>7.273711052548046</v>
+        <v>7.254925341828659</v>
       </c>
       <c r="H38">
-        <v>5.651931192540227e-7</v>
+        <v>9.997872100212837e-7</v>
       </c>
       <c r="I38">
-        <v>2.9701869890578202e-5</v>
+        <v>3.646736402699838e-5</v>
       </c>
       <c r="J38">
-        <v>0.0019444383824708616</v>
+        <v>0.0019416979335410353</v>
       </c>
       <c r="K38">
-        <v>4.839939639079086e-5</v>
+        <v>4.839265431870873e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1750,34 +1750,34 @@
         <v>0.024999999999999994</v>
       </c>
       <c r="B39">
-        <v>7.27599561286742</v>
+        <v>7.257808988415138</v>
       </c>
       <c r="C39">
-        <v>5.268109989336759e-7</v>
+        <v>9.54642630225129e-7</v>
       </c>
       <c r="D39">
-        <v>3.5301003962849254e-5</v>
+        <v>4.186779581526884e-5</v>
       </c>
       <c r="E39">
-        <v>0.001945396165734461</v>
+        <v>0.0019427531597125962</v>
       </c>
       <c r="F39">
-        <v>4.8408833472390946e-5</v>
+        <v>4.840224764387173e-5</v>
       </c>
       <c r="G39">
-        <v>7.275981990021004</v>
+        <v>7.2577965129146795</v>
       </c>
       <c r="H39">
-        <v>5.253205382610048e-7</v>
+        <v>9.531557217951445e-7</v>
       </c>
       <c r="I39">
-        <v>3.5299961984481286e-5</v>
+        <v>4.186684886578963e-5</v>
       </c>
       <c r="J39">
-        <v>0.001945394048510141</v>
+        <v>0.0019427512890588794</v>
       </c>
       <c r="K39">
-        <v>4.840867209938464e-5</v>
+        <v>4.840210738254225e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1785,34 +1785,34 @@
         <v>0.026999999999999996</v>
       </c>
       <c r="B40">
-        <v>7.278294956000257</v>
+        <v>7.260694693663832</v>
       </c>
       <c r="C40">
-        <v>5.04799699659819e-7</v>
+        <v>9.258233407286481e-7</v>
       </c>
       <c r="D40">
-        <v>4.090907460938139e-5</v>
+        <v>4.7280714241704254e-5</v>
       </c>
       <c r="E40">
-        <v>0.0019463548778501406</v>
+        <v>0.001943806935103737</v>
       </c>
       <c r="F40">
-        <v>4.841811829211515e-5</v>
+        <v>4.841170615349172e-5</v>
       </c>
       <c r="G40">
-        <v>7.278284168049832</v>
+        <v>7.260685111891605</v>
       </c>
       <c r="H40">
-        <v>5.041754434508004e-7</v>
+        <v>9.252002681161877e-7</v>
       </c>
       <c r="I40">
-        <v>4.090864501911126e-5</v>
+        <v>4.728033943366374e-5</v>
       </c>
       <c r="J40">
-        <v>0.0019463531591125706</v>
+        <v>0.0019438054782028053</v>
       </c>
       <c r="K40">
-        <v>4.841796382854568e-5</v>
+        <v>4.8411573417333684e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1820,34 +1820,34 @@
         <v>0.028999999999999998</v>
       </c>
       <c r="B41">
-        <v>7.280596926076167</v>
+        <v>7.26356907475673</v>
       </c>
       <c r="C41">
-        <v>4.913466320049119e-7</v>
+        <v>9.055387700896936e-7</v>
       </c>
       <c r="D41">
-        <v>4.652065661898885e-5</v>
+        <v>5.2700981088630984e-5</v>
       </c>
       <c r="E41">
-        <v>0.0019473129427119015</v>
+        <v>0.0019448573330021132</v>
       </c>
       <c r="F41">
-        <v>4.842740889678534e-5</v>
+        <v>4.842116778516545e-5</v>
       </c>
       <c r="G41">
-        <v>7.2805876175972815</v>
+        <v>7.263561008516714</v>
       </c>
       <c r="H41">
-        <v>4.911152014559492e-7</v>
+        <v>9.053074549936226e-7</v>
       </c>
       <c r="I41">
-        <v>4.652050783815214e-5</v>
+        <v>5.270086838146416e-5</v>
       </c>
       <c r="J41">
-        <v>0.0019473114289910041</v>
+        <v>0.0019448560874364093</v>
       </c>
       <c r="K41">
-        <v>4.84272606297994e-5</v>
+        <v>4.8421041785940155e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1855,34 +1855,34 @@
         <v>0.031</v>
       </c>
       <c r="B42">
-        <v>7.2828873671200585</v>
+        <v>7.266418082326203</v>
       </c>
       <c r="C42">
-        <v>4.813453170964533e-7</v>
+        <v>8.886964689017243e-7</v>
       </c>
       <c r="D42">
-        <v>5.213222865326933e-5</v>
+        <v>5.8125225715434966e-5</v>
       </c>
       <c r="E42">
-        <v>0.001948268362981637</v>
+        <v>0.0019459023463192756</v>
       </c>
       <c r="F42">
-        <v>4.8436700024862596e-5</v>
+        <v>4.843062742333663e-5</v>
       </c>
       <c r="G42">
-        <v>7.282878875107232</v>
+        <v>7.266410856556769</v>
       </c>
       <c r="H42">
-        <v>4.812769271968272e-7</v>
+        <v>8.886277575495533e-7</v>
       </c>
       <c r="I42">
-        <v>5.2132199729767354e-5</v>
+        <v>5.812522382091367e-5</v>
       </c>
       <c r="J42">
-        <v>0.0019482669604749786</v>
+        <v>0.0019459012141758837</v>
       </c>
       <c r="K42">
-        <v>4.84365574974458e-5</v>
+        <v>4.8430507627311505e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1890,34 +1890,34 @@
         <v>0.033</v>
       </c>
       <c r="B43">
-        <v>7.285160475209465</v>
+        <v>7.269236139806615</v>
       </c>
       <c r="C43">
-        <v>4.7263044586480904e-7</v>
+        <v>8.731370770338888e-7</v>
       </c>
       <c r="D43">
-        <v>5.774232794150351e-5</v>
+        <v>6.355199338711396e-5</v>
       </c>
       <c r="E43">
-        <v>0.0019492203431992845</v>
+        <v>0.0019469412261651053</v>
       </c>
       <c r="F43">
-        <v>4.84459894430901e-5</v>
+        <v>4.844008289631717e-5</v>
       </c>
       <c r="G43">
-        <v>7.285152500698689</v>
+        <v>7.269229448496146</v>
       </c>
       <c r="H43">
-        <v>4.7262394856744477e-7</v>
+        <v>8.731300991937743e-7</v>
       </c>
       <c r="I43">
-        <v>5.774234774949622e-5</v>
+        <v>6.35520350938834e-5</v>
       </c>
       <c r="J43">
-        <v>0.0019492190102018416</v>
+        <v>0.0019469401639566452</v>
       </c>
       <c r="K43">
-        <v>4.844585233798257e-5</v>
+        <v>4.843996891144823e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1925,34 +1925,34 @@
         <v>0.034999999999999996</v>
       </c>
       <c r="B44">
-        <v>7.287414178320738</v>
+        <v>7.272021445629661</v>
       </c>
       <c r="C44">
-        <v>4.6435860552598965e-7</v>
+        <v>8.580194988822055e-7</v>
       </c>
       <c r="D44">
-        <v>6.335041322104684e-5</v>
+        <v>6.898069293615707e-5</v>
       </c>
       <c r="E44">
-        <v>0.0019501686217426428</v>
+        <v>0.0019479737791485937</v>
       </c>
       <c r="F44">
-        <v>4.845527628272033e-5</v>
+        <v>4.844953335960565e-5</v>
       </c>
       <c r="G44">
-        <v>7.287406593476505</v>
+        <v>7.2720151560755815</v>
       </c>
       <c r="H44">
-        <v>4.6437349096679957e-7</v>
+        <v>8.580338559059411e-7</v>
       </c>
       <c r="I44">
-        <v>6.335045288239272e-5</v>
+        <v>6.898075080237736e-5</v>
       </c>
       <c r="J44">
-        <v>0.0019501673408876341</v>
+        <v>0.0019479727687262795</v>
       </c>
       <c r="K44">
-        <v>4.845514435305331e-5</v>
+        <v>4.844942486794867e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1960,34 +1960,34 @@
         <v>0.03699999999999999</v>
       </c>
       <c r="B45">
-        <v>7.289647922446242</v>
+        <v>7.274773727387716</v>
       </c>
       <c r="C45">
-        <v>4.562277478934176e-7</v>
+        <v>8.43042516102949e-7</v>
       </c>
       <c r="D45">
-        <v>6.89563188072837e-5</v>
+        <v>7.441108820908687e-5</v>
       </c>
       <c r="E45">
-        <v>0.001951113152514854</v>
+        <v>0.0019490000339227238</v>
       </c>
       <c r="F45">
-        <v>4.846456023541694e-5</v>
+        <v>4.8458978514564904e-5</v>
       </c>
       <c r="G45">
-        <v>7.289640672030056</v>
+        <v>7.274767780445309</v>
       </c>
       <c r="H45">
-        <v>4.5624921807978044e-7</v>
+        <v>8.430634505722938e-7</v>
       </c>
       <c r="I45">
-        <v>6.895636734547226e-5</v>
+        <v>7.441115174379487e-5</v>
       </c>
       <c r="J45">
-        <v>0.0019511119166794172</v>
+        <v>0.001948999067767336</v>
       </c>
       <c r="K45">
-        <v>4.846443326871677e-5</v>
+        <v>4.845887523704386e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1995,34 +1995,34 @@
         <v>0.03899999999999999</v>
       </c>
       <c r="B46">
-        <v>7.291861715656757</v>
+        <v>7.277493274210191</v>
       </c>
       <c r="C46">
-        <v>4.481383457955754e-7</v>
+        <v>8.281068749640652e-7</v>
       </c>
       <c r="D46">
-        <v>7.456001845347707e-5</v>
+        <v>7.984307677421956e-5</v>
       </c>
       <c r="E46">
-        <v>0.0019520539682294264</v>
+        <v>0.0019500200985304813</v>
       </c>
       <c r="F46">
-        <v>4.847384120326558e-5</v>
+        <v>4.846841826834882e-5</v>
       </c>
       <c r="G46">
-        <v>7.291854772515516</v>
+        <v>7.277487639315373</v>
       </c>
       <c r="H46">
-        <v>4.481614609886478e-7</v>
+        <v>8.28129460629842e-7</v>
       </c>
       <c r="I46">
-        <v>7.456007177770312e-5</v>
+        <v>7.984314205224745e-5</v>
       </c>
       <c r="J46">
-        <v>0.0019520527742027402</v>
+        <v>0.0019500191731689524</v>
       </c>
       <c r="K46">
-        <v>4.847371900487354e-5</v>
+        <v>4.846831994837022e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,34 +2030,34 @@
         <v>0.040999999999999995</v>
       </c>
       <c r="B47">
-        <v>7.294055754271316</v>
+        <v>7.280180559160953</v>
       </c>
       <c r="C47">
-        <v>4.400602073723142e-7</v>
+        <v>8.131824665541284e-7</v>
       </c>
       <c r="D47">
-        <v>8.016153285575311e-5</v>
+        <v>8.5276602740223e-5</v>
       </c>
       <c r="E47">
-        <v>0.001952991127225203</v>
+        <v>0.0019510341051446486</v>
       </c>
       <c r="F47">
-        <v>4.848311916085708e-5</v>
+        <v>4.84778525998705e-5</v>
       </c>
       <c r="G47">
-        <v>7.294049101360168</v>
+        <v>7.280175216190417</v>
       </c>
       <c r="H47">
-        <v>4.4008345848472657e-7</v>
+        <v>8.132051983931672e-7</v>
       </c>
       <c r="I47">
-        <v>8.016158930586137e-5</v>
+        <v>8.527666817856928e-5</v>
       </c>
       <c r="J47">
-        <v>0.0019529899731657648</v>
+        <v>0.0019510332185162244</v>
       </c>
       <c r="K47">
-        <v>4.848300154701014e-5</v>
+        <v>4.847775899632365e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2065,34 +2065,34 @@
         <v>0.043</v>
       </c>
       <c r="B48">
-        <v>7.296230289996631</v>
+        <v>7.282836105333553</v>
       </c>
       <c r="C48">
-        <v>4.319848967863601e-7</v>
+        <v>7.982608782123173e-7</v>
       </c>
       <c r="D48">
-        <v>8.576089672981984e-5</v>
+        <v>9.071162553082659e-5</v>
       </c>
       <c r="E48">
-        <v>0.0019539246946717404</v>
+        <v>0.0019520421906520078</v>
       </c>
       <c r="F48">
-        <v>4.849239410589011e-5</v>
+        <v>4.8487281511757385e-5</v>
       </c>
       <c r="G48">
-        <v>7.296223913836059</v>
+        <v>7.282831038004286</v>
       </c>
       <c r="H48">
-        <v>4.3200786135945525e-7</v>
+        <v>7.982833348447893e-7</v>
       </c>
       <c r="I48">
-        <v>8.576095545352797e-5</v>
+        <v>9.071169034076309e-5</v>
       </c>
       <c r="J48">
-        <v>0.0019539235791884786</v>
+        <v>0.0019520413411605632</v>
       </c>
       <c r="K48">
-        <v>4.849228090101336e-5</v>
+        <v>4.8487192396113125e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2100,34 +2100,34 @@
         <v>0.045</v>
       </c>
       <c r="B49">
-        <v>7.298385586927817</v>
+        <v>7.28546044263769</v>
       </c>
       <c r="C49">
-        <v>4.239102421963918e-7</v>
+        <v>7.833399440642403e-7</v>
       </c>
       <c r="D49">
-        <v>9.135814814059986e-5</v>
+        <v>9.614810967835841e-5</v>
       </c>
       <c r="E49">
-        <v>0.0019548547365348446</v>
+        <v>0.0019530444904897815</v>
       </c>
       <c r="F49">
-        <v>4.850166604303721e-5</v>
+        <v>4.8496705014612246e-5</v>
       </c>
       <c r="G49">
-        <v>7.298379475439657</v>
+        <v>7.285455636317088</v>
       </c>
       <c r="H49">
-        <v>4.239328117142423e-7</v>
+        <v>7.833620171904738e-7</v>
       </c>
       <c r="I49">
-        <v>9.13582085572042e-5</v>
+        <v>9.614817334962418e-5</v>
       </c>
       <c r="J49">
-        <v>0.001954853658386898</v>
+        <v>0.0019530436766962017</v>
       </c>
       <c r="K49">
-        <v>4.8501557078669465e-5</v>
+        <v>4.84966201696181e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2135,34 +2135,34 @@
         <v>0.047</v>
       </c>
       <c r="B50">
-        <v>7.300521908884909</v>
+        <v>7.288054095143912</v>
       </c>
       <c r="C50">
-        <v>4.158357282163019e-7</v>
+        <v>7.6841915013971e-7</v>
       </c>
       <c r="D50">
-        <v>9.695332535612167e-5</v>
+        <v>0.00010158602176177147</v>
       </c>
       <c r="E50">
-        <v>0.0019557813178289413</v>
+        <v>0.001954041136918397</v>
       </c>
       <c r="F50">
-        <v>4.85109349791211e-5</v>
+        <v>4.8506123122257906e-5</v>
       </c>
       <c r="G50">
-        <v>7.300516050731473</v>
+        <v>7.288049536171494</v>
       </c>
       <c r="H50">
-        <v>4.158578770378662e-7</v>
+        <v>7.684408141072725e-7</v>
       </c>
       <c r="I50">
-        <v>9.695338699375986e-5</v>
+        <v>0.00010158608390356152</v>
       </c>
       <c r="J50">
-        <v>0.0019557802758366737</v>
+        <v>0.001954040357450641</v>
       </c>
       <c r="K50">
-        <v>4.8510830093411944e-5</v>
+        <v>4.850604234119909e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2170,34 +2170,34 @@
         <v>0.049</v>
       </c>
       <c r="B51">
-        <v>7.302639516052624</v>
+        <v>7.2906175777847775</v>
       </c>
       <c r="C51">
-        <v>4.077612420841921e-7</v>
+        <v>7.534983839866728e-7</v>
       </c>
       <c r="D51">
-        <v>0.000102546466012351</v>
+        <v>0.0001070253295506823</v>
       </c>
       <c r="E51">
-        <v>0.001956704502177561</v>
+        <v>0.001955032258642339</v>
       </c>
       <c r="F51">
-        <v>4.852020092178396e-5</v>
+        <v>4.8515535850375437e-5</v>
       </c>
       <c r="G51">
-        <v>7.3026339004413465</v>
+        <v>7.29061325326171</v>
       </c>
       <c r="H51">
-        <v>4.077829645851139e-7</v>
+        <v>7.535196331047792e-7</v>
       </c>
       <c r="I51">
-        <v>0.00010254652846113839</v>
+        <v>0.00010702538984401373</v>
       </c>
       <c r="J51">
-        <v>0.001956703495198553</v>
+        <v>0.001955031512172091</v>
       </c>
       <c r="K51">
-        <v>4.8520099959175536e-5</v>
+        <v>4.8515458936526246e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2205,34 +2205,34 @@
         <v>0.051</v>
       </c>
       <c r="B52">
-        <v>7.304738664218336</v>
+        <v>7.29315139566678</v>
       </c>
       <c r="C52">
-        <v>3.9968676104811126e-7</v>
+        <v>7.385776229156417e-7</v>
       </c>
       <c r="D52">
-        <v>0.00010813760692419384</v>
+        <v>0.00011246600177024242</v>
       </c>
       <c r="E52">
-        <v>0.0019576243517368187</v>
+        <v>0.0019560179808024596</v>
       </c>
       <c r="F52">
-        <v>4.8529463879139835e-5</v>
+        <v>4.852494321609909e-5</v>
       </c>
       <c r="G52">
-        <v>7.304733280837381</v>
+        <v>7.293147293377352</v>
       </c>
       <c r="H52">
-        <v>3.9970805603238055e-7</v>
+        <v>7.385984559097306e-7</v>
       </c>
       <c r="I52">
-        <v>0.0001081376698220184</v>
+        <v>0.00011246605995203513</v>
       </c>
       <c r="J52">
-        <v>0.0019576233786599076</v>
+        <v>0.001956017266040062</v>
       </c>
       <c r="K52">
-        <v>4.852936669010738e-5</v>
+        <v>4.852486998224235e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2240,34 +2240,34 @@
         <v>0.05299999999999999</v>
       </c>
       <c r="B53">
-        <v>7.306819604671377</v>
+        <v>7.295656044047891</v>
       </c>
       <c r="C53">
-        <v>3.916122808736434e-7</v>
+        <v>7.236568627038564e-7</v>
       </c>
       <c r="D53">
-        <v>0.00011372678406102261</v>
+        <v>0.00011790800802597516</v>
       </c>
       <c r="E53">
-        <v>0.0019585409272101376</v>
+        <v>0.001956998425059804</v>
       </c>
       <c r="F53">
-        <v>4.853872385967984e-5</v>
+        <v>4.853434523785975e-5</v>
       </c>
       <c r="G53">
-        <v>7.306814443659259</v>
+        <v>7.295652152415701</v>
       </c>
       <c r="H53">
-        <v>3.916331480435033e-7</v>
+        <v>7.236772791951297e-7</v>
       </c>
       <c r="I53">
-        <v>0.0001137268470878276</v>
+        <v>0.00011790806388158247</v>
       </c>
       <c r="J53">
-        <v>0.001958539986953969</v>
+        <v>0.0019569977407536037</v>
       </c>
       <c r="K53">
-        <v>4.853863030049394e-5</v>
+        <v>4.8534275505838154e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,34 +2275,34 @@
         <v>0.05499999999999999</v>
       </c>
       <c r="B54">
-        <v>7.308882584255179</v>
+        <v>7.298132008470568</v>
       </c>
       <c r="C54">
-        <v>3.8353780083380326e-7</v>
+        <v>7.08736102626351e-7</v>
       </c>
       <c r="D54">
-        <v>0.00011931403256007396</v>
+        <v>0.0001233513187668031</v>
       </c>
       <c r="E54">
-        <v>0.0019594542878831668</v>
+        <v>0.001957973709698028</v>
       </c>
       <c r="F54">
-        <v>4.854798087223727e-5</v>
+        <v>4.854374193528954e-5</v>
       </c>
       <c r="G54">
-        <v>7.3088776361789325</v>
+        <v>7.298128316523998</v>
       </c>
       <c r="H54">
-        <v>3.8355824005862166e-7</v>
+        <v>7.087561024026544e-7</v>
       </c>
       <c r="I54">
-        <v>0.00011931409543427824</v>
+        <v>0.0001233513721248387</v>
       </c>
       <c r="J54">
-        <v>0.00195945337939574</v>
+        <v>0.0019579730546345504</v>
       </c>
       <c r="K54">
-        <v>4.85478908047381e-5</v>
+        <v>4.854367553557877e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2310,34 +2310,34 @@
         <v>0.056999999999999995</v>
       </c>
       <c r="B55">
-        <v>7.310927845450536</v>
+        <v>7.300579764928158</v>
       </c>
       <c r="C55">
-        <v>3.7546332081334436e-7</v>
+        <v>6.938153425681516e-7</v>
       </c>
       <c r="D55">
-        <v>0.00012489938674738605</v>
+        <v>0.00012879590525694294</v>
       </c>
       <c r="E55">
-        <v>0.0019603644916620336</v>
+        <v>0.0019589439497271384</v>
       </c>
       <c r="F55">
-        <v>4.8557234925966284e-5</v>
+        <v>4.855313332914224e-5</v>
       </c>
       <c r="G55">
-        <v>7.310923101286403</v>
+        <v>7.300576262269004</v>
       </c>
       <c r="H55">
-        <v>3.754833319911239e-7</v>
+        <v>6.938349254459306e-7</v>
       </c>
       <c r="I55">
-        <v>0.0001248994492229207</v>
+        <v>0.0001287959559849085</v>
       </c>
       <c r="J55">
-        <v>0.001960363613920399</v>
+        <v>0.001958943322731265</v>
       </c>
       <c r="K55">
-        <v>4.855714821734692e-5</v>
+        <v>4.855307010044333e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2345,34 +2345,34 @@
         <v>0.059</v>
       </c>
       <c r="B56">
-        <v>7.312955626463504</v>
+        <v>7.3029997800377044</v>
       </c>
       <c r="C56">
-        <v>3.673888407955213e-7</v>
+        <v>6.788945825126028e-7</v>
       </c>
       <c r="D56">
-        <v>0.00013048288015965579</v>
+        <v>0.00013424173955020821</v>
       </c>
       <c r="E56">
-        <v>0.0019612715951112473</v>
+        <v>0.0019599092569848697</v>
       </c>
       <c r="F56">
-        <v>4.8566486030323805e-5</v>
+        <v>4.856251944121992e-5</v>
       </c>
       <c r="G56">
-        <v>7.3129510775787505</v>
+        <v>7.302996456811652</v>
       </c>
       <c r="H56">
-        <v>3.674084238286561e-7</v>
+        <v>6.789137483126387e-7</v>
       </c>
       <c r="I56">
-        <v>0.00013048294202327795</v>
+        <v>0.0001342417875505716</v>
       </c>
       <c r="J56">
-        <v>0.001961270747121205</v>
+        <v>0.001959908656919867</v>
       </c>
       <c r="K56">
-        <v>4.8566402552921954e-5</v>
+        <v>4.856245923006945e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,34 +2380,34 @@
         <v>0.061</v>
       </c>
       <c r="B57">
-        <v>7.314966161312558</v>
+        <v>7.305392511213633</v>
       </c>
       <c r="C57">
-        <v>3.593143607780305e-7</v>
+        <v>6.639738224573633e-7</v>
       </c>
       <c r="D57">
-        <v>0.0001360645455657108</v>
+        <v>0.00013968879446540406</v>
       </c>
       <c r="E57">
-        <v>0.001962175653490596</v>
+        <v>0.001960869740235029</v>
       </c>
       <c r="F57">
-        <v>4.8575734195052534e-5</v>
+        <v>4.8571900294303246e-5</v>
       </c>
       <c r="G57">
-        <v>7.31496179944819</v>
+        <v>7.305389358082204</v>
       </c>
       <c r="H57">
-        <v>3.5933351556959357e-7</v>
+        <v>6.639925710011582e-7</v>
       </c>
       <c r="I57">
-        <v>0.00013606460663451669</v>
+        <v>0.00013968883967203569</v>
       </c>
       <c r="J57">
-        <v>0.0019621748342863454</v>
+        <v>0.0019608691660024137</v>
       </c>
       <c r="K57">
-        <v>4.857565382615026e-5</v>
+        <v>4.85718429547007e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2415,34 +2415,34 @@
         <v>0.063</v>
       </c>
       <c r="B58">
-        <v>7.316959679914165</v>
+        <v>7.307758406840944</v>
       </c>
       <c r="C58">
-        <v>3.5123988076051753e-7</v>
+        <v>6.490530624021238e-7</v>
       </c>
       <c r="D58">
-        <v>0.0001416444149873728</v>
+        <v>0.0001451370435625554</v>
       </c>
       <c r="E58">
-        <v>0.0019630767207909176</v>
+        <v>0.001961825505262759</v>
       </c>
       <c r="F58">
-        <v>4.85849794301648e-5</v>
+        <v>4.8581275912085146e-5</v>
       </c>
       <c r="G58">
-        <v>7.316955497168399</v>
+        <v>7.307755414954863</v>
       </c>
       <c r="H58">
-        <v>3.512586072137392e-7</v>
+        <v>6.490713935112925e-7</v>
       </c>
       <c r="I58">
-        <v>0.00014164447510648623</v>
+        <v>0.000145137085937483</v>
       </c>
       <c r="J58">
-        <v>0.0019630759294346754</v>
+        <v>0.0019618249558020213</v>
       </c>
       <c r="K58">
-        <v>4.858490205179601e-5</v>
+        <v>4.858122130513699e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,34 +2450,34 @@
         <v>0.065</v>
       </c>
       <c r="B59">
-        <v>7.318936408166548</v>
+        <v>7.310097906447603</v>
       </c>
       <c r="C59">
-        <v>3.4316540074302674e-7</v>
+        <v>6.341323023468842e-7</v>
       </c>
       <c r="D59">
-        <v>0.00014722251971969395</v>
+        <v>0.00015058646111990737</v>
       </c>
       <c r="E59">
-        <v>0.0019639748497687765</v>
+        <v>0.0019627766549667742</v>
       </c>
       <c r="F59">
-        <v>4.8594221745927016e-5</v>
+        <v>4.859064631910775e-5</v>
       </c>
       <c r="G59">
-        <v>7.318932396979046</v>
+        <v>7.310095067421454</v>
       </c>
       <c r="H59">
-        <v>3.4318369876107096e-7</v>
+        <v>6.341502158430197e-7</v>
       </c>
       <c r="I59">
-        <v>0.0001472225787601168</v>
+        <v>0.00015058650065036068</v>
       </c>
       <c r="J59">
-        <v>0.001963974085350352</v>
+        <v>0.001962776129254974</v>
       </c>
       <c r="K59">
-        <v>4.859414724469227e-5</v>
+        <v>4.859059431268738e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2485,34 +2485,34 @@
         <v>0.067</v>
       </c>
       <c r="B60">
-        <v>7.320896568031717</v>
+        <v>7.312411440875745</v>
       </c>
       <c r="C60">
-        <v>3.350909207255581e-7</v>
+        <v>6.192115422916889e-7</v>
       </c>
       <c r="D60">
-        <v>0.00015279889035057934</v>
+        <v>0.0001560370221116685</v>
       </c>
       <c r="E60">
-        <v>0.001964870091980066</v>
+        <v>0.001963723289448655</v>
       </c>
       <c r="F60">
-        <v>4.860346115284482e-5</v>
+        <v>4.860001154070224e-5</v>
       </c>
       <c r="G60">
-        <v>7.32089272116851</v>
+        <v>7.312408746763915</v>
       </c>
       <c r="H60">
-        <v>3.3510879021158655e-7</v>
+        <v>6.192290379963376e-7</v>
       </c>
       <c r="I60">
-        <v>0.00015279894820719294</v>
+        <v>0.00015603705880739083</v>
       </c>
       <c r="J60">
-        <v>0.0019648693536164137</v>
+        <v>0.0019637227864999075</v>
       </c>
       <c r="K60">
-        <v>4.8603389419733305e-5</v>
+        <v>4.8599962009125396e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,34 +2520,34 @@
         <v>0.06899999999999999</v>
       </c>
       <c r="B61">
-        <v>7.322840377615738</v>
+        <v>7.314699432451568</v>
       </c>
       <c r="C61">
-        <v>3.2701644070804514e-7</v>
+        <v>6.042907822364494e-7</v>
       </c>
       <c r="D61">
-        <v>0.0001583735567798154</v>
+        <v>0.0001614887021864761</v>
       </c>
       <c r="E61">
-        <v>0.001965762497812585</v>
+        <v>0.00196466550609927</v>
       </c>
       <c r="F61">
-        <v>4.861269766164882e-5</v>
+        <v>4.860937160293168e-5</v>
       </c>
       <c r="G61">
-        <v>7.322836688154838</v>
+        <v>7.314696875725384</v>
       </c>
       <c r="H61">
-        <v>3.270338815652858e-7</v>
+        <v>6.043078599712458e-7</v>
       </c>
       <c r="I61">
-        <v>0.000158373613369522</v>
+        <v>0.0001614887360772797</v>
       </c>
       <c r="J61">
-        <v>0.0019657617846473244</v>
+        <v>0.0019646650249641453</v>
       </c>
       <c r="K61">
-        <v>4.861262859186724e-5</v>
+        <v>4.8609324426646567e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>0.071</v>
       </c>
       <c r="B62">
-        <v>7.3247680512473075</v>
+        <v>7.316962295153683</v>
       </c>
       <c r="C62">
-        <v>3.1894196069055434e-7</v>
+        <v>5.893700221812099e-7</v>
       </c>
       <c r="D62">
-        <v>0.00016394654823752308</v>
+        <v>0.00016694147764656278</v>
       </c>
       <c r="E62">
-        <v>0.001966652116517609</v>
+        <v>0.0019656033996824206</v>
       </c>
       <c r="F62">
-        <v>4.862193128328088e-5</v>
+        <v>4.8618726532536634e-5</v>
       </c>
       <c r="G62">
-        <v>7.3247645125649505</v>
+        <v>7.316959868679696</v>
       </c>
       <c r="H62">
-        <v>3.189589728221687e-7</v>
+        <v>5.893866817677445e-7</v>
       </c>
       <c r="I62">
-        <v>0.00016394660349751825</v>
+        <v>0.00016694150878010703</v>
       </c>
       <c r="J62">
-        <v>0.0019666514277205294</v>
+        <v>0.001965602939447261</v>
       </c>
       <c r="K62">
-        <v>4.862186477608894e-5</v>
+        <v>4.8618681597828255e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2590,34 +2590,34 @@
         <v>0.073</v>
       </c>
       <c r="B63">
-        <v>7.3266797995546336</v>
+        <v>7.3192004347797495</v>
       </c>
       <c r="C63">
-        <v>3.1086748067306354e-7</v>
+        <v>5.744492621259814e-7</v>
       </c>
       <c r="D63">
-        <v>0.00016951789330205293</v>
+        <v>0.00017239532542760115</v>
       </c>
       <c r="E63">
-        <v>0.0019675389962405033</v>
+        <v>0.0019665370624157795</v>
       </c>
       <c r="F63">
-        <v>4.863116202888109e-5</v>
+        <v>4.8628076356883364e-5</v>
       </c>
       <c r="G63">
-        <v>7.3266764053121545</v>
+        <v>7.319198131799122</v>
       </c>
       <c r="H63">
-        <v>3.108840639822351e-7</v>
+        <v>5.744655033858336e-7</v>
       </c>
       <c r="I63">
-        <v>0.00016951794718822049</v>
+        <v>0.00017239535386737645</v>
       </c>
       <c r="J63">
-        <v>0.001967538331007044</v>
+        <v>0.0019665366222019576</v>
       </c>
       <c r="K63">
-        <v>4.863109798743336e-5</v>
+        <v>4.862803355559158e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2625,34 +2625,34 @@
         <v>0.075</v>
       </c>
       <c r="B64">
-        <v>7.328575829540682</v>
+        <v>7.321414249111269</v>
       </c>
       <c r="C64">
-        <v>3.027930006555949e-7</v>
+        <v>5.595285020707751e-7</v>
       </c>
       <c r="D64">
-        <v>0.00017508761991734281</v>
+        <v>0.00017785022307920917</v>
       </c>
       <c r="E64">
-        <v>0.001968423184050392</v>
+        <v>0.001967466584049205</v>
       </c>
       <c r="F64">
-        <v>4.864038990977513e-5</v>
+        <v>4.8637421103914775e-5</v>
       </c>
       <c r="G64">
-        <v>7.328572573671964</v>
+        <v>7.3214120632201976</v>
       </c>
       <c r="H64">
-        <v>3.0280915504548504e-7</v>
+        <v>5.59544324825513e-7</v>
       </c>
       <c r="I64">
-        <v>0.0001750876724027629</v>
+        <v>0.00017785024890270703</v>
       </c>
       <c r="J64">
-        <v>0.001968422541601116</v>
+        <v>0.0019674661630123234</v>
       </c>
       <c r="K64">
-        <v>4.8640328240969075e-5</v>
+        <v>4.863738033316531e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,34 +2660,34 @@
         <v>0.077</v>
       </c>
       <c r="B65">
-        <v>7.330456344656788</v>
+        <v>7.323604128076381</v>
       </c>
       <c r="C65">
-        <v>2.947185206381373e-7</v>
+        <v>5.446077420155797e-7</v>
       </c>
       <c r="D65">
-        <v>0.00018065575540975309</v>
+        <v>0.00018330614874609256</v>
       </c>
       <c r="E65">
-        <v>0.0019693047259689363</v>
+        <v>0.001968392051940513</v>
       </c>
       <c r="F65">
-        <v>4.8649614937462335e-5</v>
+        <v>4.864676080210364e-5</v>
       </c>
       <c r="G65">
-        <v>7.3304532213562785</v>
+        <v>7.323602053207524</v>
       </c>
       <c r="H65">
-        <v>2.947342460119186e-7</v>
+        <v>5.446231460867828e-7</v>
       </c>
       <c r="I65">
-        <v>0.00018065580648331673</v>
+        <v>0.00018330617204314782</v>
       </c>
       <c r="J65">
-        <v>0.0019693041055489835</v>
+        <v>0.0019683916492695677</v>
       </c>
       <c r="K65">
-        <v>4.864955555179221e-5</v>
+        <v>4.864672196405172e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2695,34 +2695,34 @@
         <v>0.079</v>
       </c>
       <c r="B66">
-        <v>7.332321544874691</v>
+        <v>7.325770453910566</v>
       </c>
       <c r="C66">
-        <v>2.8664404062063546e-7</v>
+        <v>5.296869819603402e-7</v>
       </c>
       <c r="D66">
-        <v>0.0001862223265043968</v>
+        <v>0.00018876308114980757</v>
       </c>
       <c r="E66">
-        <v>0.001970183666998228</v>
+        <v>0.001969313551128776</v>
       </c>
       <c r="F66">
-        <v>4.8658837123604066e-5</v>
+        <v>4.865609548040828e-5</v>
       </c>
       <c r="G66">
-        <v>7.332318548585955</v>
+        <v>7.325768484315413</v>
       </c>
       <c r="H66">
-        <v>2.8665933688153575e-7</v>
+        <v>5.29701967169643e-7</v>
       </c>
       <c r="I66">
-        <v>0.00018622237616951922</v>
+        <v>0.00018876310202109691</v>
       </c>
       <c r="J66">
-        <v>0.001970183067876766</v>
+        <v>0.001969313166045284</v>
       </c>
       <c r="K66">
-        <v>4.865877993502058e-5</v>
+        <v>4.865605848199428e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2730,34 +2730,34 @@
         <v>0.081</v>
       </c>
       <c r="B67">
-        <v>7.334171626756998</v>
+        <v>7.327913601315141</v>
       </c>
       <c r="C67">
-        <v>2.7856956060315573e-7</v>
+        <v>5.147662219051228e-7</v>
       </c>
       <c r="D67">
-        <v>0.00019178735934098287</v>
+        <v>0.00019422099957112275</v>
       </c>
       <c r="E67">
-        <v>0.001971060051147848</v>
+        <v>0.0019702311644052345</v>
       </c>
       <c r="F67">
-        <v>4.8668056480012753e-5</v>
+        <v>4.8665425168230425e-5</v>
       </c>
       <c r="G67">
-        <v>7.3341687521617835</v>
+        <v>7.3279117315472915</v>
       </c>
       <c r="H67">
-        <v>2.785844276543365e-7</v>
+        <v>5.147807880740935e-7</v>
       </c>
       <c r="I67">
-        <v>0.00019178740761440838</v>
+        <v>0.0001942210181268062</v>
       </c>
       <c r="J67">
-        <v>0.0019710594726175157</v>
+        <v>0.001970230796162336</v>
       </c>
       <c r="K67">
-        <v>4.8668001405788127e-5</v>
+        <v>4.8665389920947014e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2765,34 +2765,34 @@
         <v>0.083</v>
       </c>
       <c r="B68">
-        <v>7.336006783526133</v>
+        <v>7.330033937613481</v>
       </c>
       <c r="C68">
-        <v>2.7049508058566493e-7</v>
+        <v>4.998454618498942e-7</v>
       </c>
       <c r="D68">
-        <v>0.00019735087948918455</v>
+        <v>0.00019967988383296073</v>
       </c>
       <c r="E68">
-        <v>0.0019719339214611027</v>
+        <v>0.0019711449723818857</v>
       </c>
       <c r="F68">
-        <v>4.867727301864132e-5</v>
+        <v>4.867474989537532e-5</v>
       </c>
       <c r="G68">
-        <v>7.336004025533916</v>
+        <v>7.330032162512778</v>
       </c>
       <c r="H68">
-        <v>2.7050951833032094e-7</v>
+        <v>4.998596088001341e-7</v>
       </c>
       <c r="I68">
-        <v>0.00019735092639987817</v>
+        <v>0.00019967990019145414</v>
       </c>
       <c r="J68">
-        <v>0.001971933362837447</v>
+        <v>0.001971144620263432</v>
       </c>
       <c r="K68">
-        <v>4.8677219979239646e-5</v>
+        <v>4.8674716315045584e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2800,34 +2800,34 @@
         <v>0.085</v>
       </c>
       <c r="B69">
-        <v>7.337827205131768</v>
+        <v>7.332131822904873</v>
       </c>
       <c r="C69">
-        <v>2.6242060056819626e-7</v>
+        <v>4.849247017946878e-7</v>
       </c>
       <c r="D69">
-        <v>0.00020291291196355225</v>
+        <v>0.00020513971428390222</v>
       </c>
       <c r="E69">
-        <v>0.0019728053200404735</v>
+        <v>0.0019720550535578325</v>
       </c>
       <c r="F69">
-        <v>4.868648675157304e-5</v>
+        <v>4.868406969201376e-5</v>
       </c>
       <c r="G69">
-        <v>7.337824558869779</v>
+        <v>7.332130137582352</v>
       </c>
       <c r="H69">
-        <v>2.624346089094889e-7</v>
+        <v>4.849384293477652e-7</v>
       </c>
       <c r="I69">
-        <v>0.0002029129575516702</v>
+        <v>0.00020513972857076916</v>
       </c>
       <c r="J69">
-        <v>0.0019728047806613857</v>
+        <v>0.001972054716877457</v>
       </c>
       <c r="K69">
-        <v>4.868643567052574e-5</v>
+        <v>4.868403769857993e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2835,34 +2835,34 @@
         <v>0.08700000000000001</v>
       </c>
       <c r="B70">
-        <v>7.3396330783167985</v>
+        <v>7.3342076102159535</v>
       </c>
       <c r="C70">
-        <v>2.5434612055070546e-7</v>
+        <v>4.700039417394594e-7</v>
       </c>
       <c r="D70">
-        <v>0.00020847348123798252</v>
+        <v>0.00021060047178223383</v>
       </c>
       <c r="E70">
-        <v>0.0019736742880723003</v>
+        <v>0.0019729614843834557</v>
       </c>
       <c r="F70">
-        <v>4.869569769101189e-5</v>
+        <v>4.869338458864625e-5</v>
       </c>
       <c r="G70">
-        <v>7.339630539120487</v>
+        <v>7.334206010039582</v>
       </c>
       <c r="H70">
-        <v>2.5435969939184044e-7</v>
+        <v>4.700172497169867e-7</v>
       </c>
       <c r="I70">
-        <v>0.00020847352555391783</v>
+        <v>0.0002106004841291857</v>
       </c>
       <c r="J70">
-        <v>0.0019736737672974534</v>
+        <v>0.0019729611624836447</v>
       </c>
       <c r="K70">
-        <v>4.869564849479796e-5</v>
+        <v>4.8693354105968434e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2870,34 +2870,34 @@
         <v>0.08900000000000001</v>
       </c>
       <c r="B71">
-        <v>7.341424586681877</v>
+        <v>7.336261645649691</v>
       </c>
       <c r="C71">
-        <v>2.4627164053323685e-7</v>
+        <v>4.5508318168425303e-7</v>
       </c>
       <c r="D71">
-        <v>0.0002140326112597585</v>
+        <v>0.00021606213768052116</v>
       </c>
       <c r="E71">
-        <v>0.001974540865850729</v>
+        <v>0.0019738643393224773</v>
       </c>
       <c r="F71">
-        <v>4.870490584927323e-5</v>
+        <v>4.870269461606887e-5</v>
       </c>
       <c r="G71">
-        <v>7.341422150085798</v>
+        <v>7.336260126230828</v>
       </c>
       <c r="H71">
-        <v>2.4628478977737557e-7</v>
+        <v>4.5509606990779853e-7</v>
       </c>
       <c r="I71">
-        <v>0.00021403265436325592</v>
+        <v>0.00021606214822451756</v>
       </c>
       <c r="J71">
-        <v>0.0019745403630610147</v>
+        <v>0.001973864031573638</v>
       </c>
       <c r="K71">
-        <v>4.870485846720431e-5</v>
+        <v>4.8702665571733465e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2905,34 +2905,34 @@
         <v>0.091</v>
       </c>
       <c r="B72">
-        <v>7.343201910748529</v>
+        <v>7.338294268531837</v>
       </c>
       <c r="C72">
-        <v>2.381971605157128e-7</v>
+        <v>4.401624216289804e-7</v>
       </c>
       <c r="D72">
-        <v>0.0002195903254631764</v>
+        <v>0.00022152469381069072</v>
       </c>
       <c r="E72">
-        <v>0.001975405092800942</v>
+        <v>0.001974763690912001</v>
       </c>
       <c r="F72">
-        <v>4.8714111238775e-5</v>
+        <v>4.871199980534106e-5</v>
       </c>
       <c r="G72">
-        <v>7.343199572477644</v>
+        <v>7.338292825712414</v>
       </c>
       <c r="H72">
-        <v>2.3820988006609433e-7</v>
+        <v>4.401748899202007e-7</v>
       </c>
       <c r="I72">
-        <v>0.00021959036742251158</v>
+        <v>0.00022152470269312958</v>
       </c>
       <c r="J72">
-        <v>0.0019754046073979102</v>
+        <v>0.0019747633967115296</v>
       </c>
       <c r="K72">
-        <v>4.871406560288484e-5</v>
+        <v>4.8711972130478365e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2940,34 +2940,34 @@
         <v>0.09299999999999999</v>
       </c>
       <c r="B73">
-        <v>7.3449652280208975</v>
+        <v>7.340305811554859</v>
       </c>
       <c r="C73">
-        <v>2.3012268049825523e-7</v>
+        <v>4.2524166157379606e-7</v>
       </c>
       <c r="D73">
-        <v>0.00022514664678276966</v>
+        <v>0.00022698812246960392</v>
       </c>
       <c r="E73">
-        <v>0.0019762670075016996</v>
+        <v>0.0019756596098205676</v>
       </c>
       <c r="F73">
-        <v>4.8723313872029205e-5</v>
+        <v>4.872130018775504e-5</v>
       </c>
       <c r="G73">
-        <v>7.344962983982259</v>
+        <v>7.340304441395221</v>
       </c>
       <c r="H73">
-        <v>2.3013497025799664e-7</v>
+        <v>4.2525370975419356e-7</v>
       </c>
       <c r="I73">
-        <v>0.00022514668767398865</v>
+        <v>0.00022698812983559439</v>
       </c>
       <c r="J73">
-        <v>0.0019762665389070028</v>
+        <v>0.0019756593285919282</v>
       </c>
       <c r="K73">
-        <v>4.8723269916967454e-5</v>
+        <v>4.872127381686563e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2975,34 +2975,34 @@
         <v>0.09499999999999999</v>
       </c>
       <c r="B74">
-        <v>7.346714713046126</v>
+        <v>7.342296600919305</v>
       </c>
       <c r="C74">
-        <v>2.220482004807755e-7</v>
+        <v>4.1032090151857863e-7</v>
       </c>
       <c r="D74">
-        <v>0.00023070159766614532</v>
+        <v>0.00023245240640510671</v>
       </c>
       <c r="E74">
-        <v>0.0019771266477072113</v>
+        <v>0.001976552164904314</v>
       </c>
       <c r="F74">
-        <v>4.873251376163383e-5</v>
+        <v>4.8730595794806986e-5</v>
       </c>
       <c r="G74">
-        <v>7.346712559320931</v>
+        <v>7.342295299686685</v>
       </c>
       <c r="H74">
-        <v>2.2206006035308258e-7</v>
+        <v>4.1033252940977676e-7</v>
       </c>
       <c r="I74">
-        <v>0.00023070163757236</v>
+        <v>0.00023245241240281637</v>
       </c>
       <c r="J74">
-        <v>0.0019771261953620543</v>
+        <v>0.0019765518960961257</v>
       </c>
       <c r="K74">
-        <v>4.873247142456407e-5</v>
+        <v>4.873057066559639e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3010,34 +3010,34 @@
         <v>0.09699999999999999</v>
       </c>
       <c r="B75">
-        <v>7.348450537473418</v>
+        <v>7.344266956472587</v>
       </c>
       <c r="C75">
-        <v>2.1397372046327363e-7</v>
+        <v>3.9540014146333913e-7</v>
       </c>
       <c r="D75">
-        <v>0.00023625520008644334</v>
+        <v>0.00023791752880253692</v>
       </c>
       <c r="E75">
-        <v>0.001977984050368362</v>
+        <v>0.0019774414232612875</v>
       </c>
       <c r="F75">
-        <v>4.8741710920265026e-5</v>
+        <v>4.873988665816952e-5</v>
       </c>
       <c r="G75">
-        <v>7.348448470309421</v>
+        <v>7.344265720630185</v>
       </c>
       <c r="H75">
-        <v>2.1398515035135216e-7</v>
+        <v>3.9541134888695037e-7</v>
       </c>
       <c r="I75">
-        <v>0.00023625523909717928</v>
+        <v>0.00023791753358260888</v>
       </c>
       <c r="J75">
-        <v>0.0019779836137329546</v>
+        <v>0.0019774411663464244</v>
       </c>
       <c r="K75">
-        <v>4.874167014076682e-5</v>
+        <v>4.873986271139109e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3045,34 +3045,34 @@
         <v>0.09899999999999999</v>
       </c>
       <c r="B76">
-        <v>7.350172870111813</v>
+        <v>7.346217191845181</v>
       </c>
       <c r="C76">
-        <v>2.058992404457939e-7</v>
+        <v>3.804793814081217e-7</v>
       </c>
       <c r="D76">
-        <v>0.00024180747555443304</v>
+        <v>0.00024338347327167867</v>
       </c>
       <c r="E76">
-        <v>0.0019788392516533098</v>
+        <v>0.0019783274502839783</v>
       </c>
       <c r="F76">
-        <v>4.8750905360669775e-5</v>
+        <v>4.8749172809666e-5</v>
       </c>
       <c r="G76">
-        <v>7.350170885916067</v>
+        <v>7.346216018041816</v>
       </c>
       <c r="H76">
-        <v>2.0591024025280531e-7</v>
+        <v>3.804901681857143e-7</v>
       </c>
       <c r="I76">
-        <v>0.00024180751376502537</v>
+        <v>0.00024338347698670877</v>
       </c>
       <c r="J76">
-        <v>0.0019788388302063326</v>
+        <v>0.001978327204758684</v>
       </c>
       <c r="K76">
-        <v>4.8750866080644436e-5</v>
+        <v>4.8749149988971205e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3080,34 +3080,34 @@
         <v>0.10099999999999999</v>
       </c>
       <c r="B77">
-        <v>7.351881876986665</v>
+        <v>7.348147614584239</v>
       </c>
       <c r="C77">
-        <v>1.9782476042832525e-7</v>
+        <v>3.6555862135291535e-7</v>
       </c>
       <c r="D77">
-        <v>0.0002473584451302562</v>
+        <v>0.00024885022383414344</v>
       </c>
       <c r="E77">
-        <v>0.0019796922869674814</v>
+        <v>0.001979210309710129</v>
       </c>
       <c r="F77">
-        <v>4.876009709565872e-5</v>
+        <v>4.875845428124592e-5</v>
       </c>
       <c r="G77">
-        <v>7.351879972318602</v>
+        <v>7.348146499644544</v>
       </c>
       <c r="H77">
-        <v>1.9783533005744205e-7</v>
+        <v>3.655689873060687e-7</v>
       </c>
       <c r="I77">
-        <v>0.00024735848264129096</v>
+        <v>0.00024885022663821536</v>
       </c>
       <c r="J77">
-        <v>0.0019796918802055525</v>
+        <v>0.0019792100750931473</v>
       </c>
       <c r="K77">
-        <v>4.876005925923895e-5</v>
+        <v>4.875843253304208e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3115,34 +3115,34 @@
         <v>0.103</v>
       </c>
       <c r="B78">
-        <v>7.353577721394916</v>
+        <v>7.350058526284609</v>
       </c>
       <c r="C78">
-        <v>1.8975028041086768e-7</v>
+        <v>3.5063786129772e-7</v>
       </c>
       <c r="D78">
-        <v>0.0002529081294348289</v>
+        <v>0.0002543177649111666</v>
       </c>
       <c r="E78">
-        <v>0.0019805431909729805</v>
+        <v>0.001980090063671882</v>
       </c>
       <c r="F78">
-        <v>4.8769286138099475e-5</v>
+        <v>4.8767731104961906e-5</v>
       </c>
       <c r="G78">
-        <v>7.353575892959716</v>
+        <v>7.350057467199741</v>
       </c>
       <c r="H78">
-        <v>1.8976041976526246e-7</v>
+        <v>3.506478062480133e-7</v>
       </c>
       <c r="I78">
-        <v>0.00025290816635162663</v>
+        <v>0.0002543177669594374</v>
       </c>
       <c r="J78">
-        <v>0.001980542798410134</v>
+        <v>0.0019800898395036072</v>
       </c>
       <c r="K78">
-        <v>4.876924969156238e-5</v>
+        <v>4.876771037827678e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,34 +3150,34 @@
         <v>0.105</v>
       </c>
       <c r="B79">
-        <v>7.3552605639591295</v>
+        <v>7.351950222717282</v>
       </c>
       <c r="C79">
-        <v>1.8167580039337688e-7</v>
+        <v>3.357171012424915e-7</v>
       </c>
       <c r="D79">
-        <v>0.0002584565486609138</v>
+        <v>0.00025978608131180486</v>
       </c>
       <c r="E79">
-        <v>0.001981391997607427</v>
+        <v>0.0019809667727433136</v>
       </c>
       <c r="F79">
-        <v>4.877847250091008e-5</v>
+        <v>4.877700331294782e-5</v>
       </c>
       <c r="G79">
-        <v>7.355258808601396</v>
+        <v>7.351949216636122</v>
       </c>
       <c r="H79">
-        <v>1.816855093762665e-7</v>
+        <v>3.357266250115483e-7</v>
       </c>
       <c r="I79">
-        <v>0.00025845658509305165</v>
+        <v>0.0002597860827601375</v>
       </c>
       <c r="J79">
-        <v>0.0019813916187746013</v>
+        <v>0.0019809665585849598</v>
       </c>
       <c r="K79">
-        <v>4.8778437392593816e-5</v>
+        <v>4.87769835593008e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,34 +3185,34 @@
         <v>0.107</v>
       </c>
       <c r="B80">
-        <v>7.356930562680344</v>
+        <v>7.353822993955268</v>
       </c>
       <c r="C80">
-        <v>1.736013203759193e-7</v>
+        <v>3.2079634118728515e-7</v>
       </c>
       <c r="D80">
-        <v>0.00026400372258387193</v>
+        <v>0.00026525515822152024</v>
       </c>
       <c r="E80">
-        <v>0.001982238740102253</v>
+        <v>0.001981840495986419</v>
       </c>
       <c r="F80">
-        <v>4.878765619705286e-5</v>
+        <v>4.8786270937398226e-5</v>
       </c>
       <c r="G80">
-        <v>7.356928877378055</v>
+        <v>7.353822038176085</v>
       </c>
       <c r="H80">
-        <v>1.736105988904542e-7</v>
+        <v>3.208054435966736e-7</v>
       </c>
       <c r="I80">
-        <v>0.00026400375864474274</v>
+        <v>0.0002652551592261574</v>
       </c>
       <c r="J80">
-        <v>0.0019822383745467832</v>
+        <v>0.00198184029141921</v>
       </c>
       <c r="K80">
-        <v>4.878762237727635e-5</v>
+        <v>4.8786252110677864e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3220,34 +3220,34 @@
         <v>0.109</v>
       </c>
       <c r="B81">
-        <v>7.358587872989763</v>
+        <v>7.355677124496923</v>
       </c>
       <c r="C81">
-        <v>1.6552684035839528e-7</v>
+        <v>3.058755811320235e-7</v>
       </c>
       <c r="D81">
-        <v>0.0002695496705721051</v>
+        <v>0.0002707249811911369</v>
       </c>
       <c r="E81">
-        <v>0.0019830834510004593</v>
+        <v>0.001982711290995592</v>
       </c>
       <c r="F81">
-        <v>4.879683723952849e-5</v>
+        <v>4.8795534010548884e-5</v>
       </c>
       <c r="G81">
-        <v>7.358586254848495</v>
+        <v>7.355676216459474</v>
       </c>
       <c r="H81">
-        <v>1.6553568830782552e-7</v>
+        <v>3.058842620033892e-7</v>
       </c>
       <c r="I81">
-        <v>0.0002695497063785097</v>
+        <v>0.0002707249819084142</v>
       </c>
       <c r="J81">
-        <v>0.0019830830982855885</v>
+        <v>0.0019827110956199706</v>
       </c>
       <c r="K81">
-        <v>4.8796804660514474e-5</v>
+        <v>4.879551606689645e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3255,34 +3255,34 @@
         <v>0.111</v>
       </c>
       <c r="B82">
-        <v>7.360232647799315</v>
+        <v>7.357512893386736</v>
       </c>
       <c r="C82">
-        <v>1.5745236034093217e-7</v>
+        <v>2.909548210768282e-7</v>
       </c>
       <c r="D82">
-        <v>0.0002750944115971978</v>
+        <v>0.00027619553612616063</v>
       </c>
       <c r="E82">
-        <v>0.001983926162173873</v>
+        <v>0.001983579213940653</v>
       </c>
       <c r="F82">
-        <v>4.880601564137043e-5</v>
+        <v>4.880479256465848e-5</v>
       </c>
       <c r="G82">
-        <v>7.360231094046718</v>
+        <v>7.357512030664791</v>
       </c>
       <c r="H82">
-        <v>1.5746077762838052e-7</v>
+        <v>2.9096308023169507e-7</v>
       </c>
       <c r="I82">
-        <v>0.00027509444726896967</v>
+        <v>0.00027619553671225333</v>
       </c>
       <c r="J82">
-        <v>0.0019839258218782604</v>
+        <v>0.001983579027375516</v>
       </c>
       <c r="K82">
-        <v>4.880598425717138e-5</v>
+        <v>4.880477546235711e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3290,34 +3290,34 @@
         <v>0.113</v>
       </c>
       <c r="B83">
-        <v>7.361865037551094</v>
+        <v>7.359330574333613</v>
       </c>
       <c r="C83">
-        <v>1.4937788032343582e-7</v>
+        <v>2.760340610215942e-7</v>
       </c>
       <c r="D83">
-        <v>0.00028063796424377036</v>
+        <v>0.00028166680927644525</v>
       </c>
       <c r="E83">
-        <v>0.0019847669048398834</v>
+        <v>0.001984444319608479</v>
       </c>
       <c r="F83">
-        <v>4.8815191415639435e-5</v>
+        <v>4.88140466319913e-5</v>
       </c>
       <c r="G83">
-        <v>7.361863545531613</v>
+        <v>7.359329754627875</v>
       </c>
       <c r="H83">
-        <v>1.493858668521192e-7</v>
+        <v>2.7604189828159116e-7</v>
       </c>
       <c r="I83">
-        <v>0.0002806379999034282</v>
+        <v>0.00028166680988714663</v>
       </c>
       <c r="J83">
-        <v>0.0019847665765571395</v>
+        <v>0.001984444141490432</v>
       </c>
       <c r="K83">
-        <v>4.881516118206655e-5</v>
+        <v>4.88140303313608e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3325,34 +3325,34 @@
         <v>0.115</v>
       </c>
       <c r="B84">
-        <v>7.363485190265712</v>
+        <v>7.36113043582668</v>
       </c>
       <c r="C84">
-        <v>1.4130340030597824e-7</v>
+        <v>2.6111330096639884e-7</v>
       </c>
       <c r="D84">
-        <v>0.0002861803467190486</v>
+        <v>0.00028713878722619606</v>
       </c>
       <c r="E84">
-        <v>0.0019856057095777274</v>
+        <v>0.0019853066614432765</v>
       </c>
       <c r="F84">
-        <v>4.8824364575418525e-5</v>
+        <v>4.882329624480103e-5</v>
       </c>
       <c r="G84">
-        <v>7.363483757435552</v>
+        <v>7.3611296569580675</v>
       </c>
       <c r="H84">
-        <v>1.4131095597904153e-7</v>
+        <v>2.611207161530776e-7</v>
       </c>
       <c r="I84">
-        <v>0.0002861803824914776</v>
+        <v>0.0002871387880167243</v>
       </c>
       <c r="J84">
-        <v>0.0019856053929159408</v>
+        <v>0.0019853064914259104</v>
       </c>
       <c r="K84">
-        <v>4.8824335449973394e-5</v>
+        <v>4.882328070809763e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,34 +3360,34 @@
         <v>0.117</v>
       </c>
       <c r="B85">
-        <v>7.365093251589616</v>
+        <v>7.362912741248618</v>
       </c>
       <c r="C85">
-        <v>1.332289202884819e-7</v>
+        <v>2.4619254091116484e-7</v>
       </c>
       <c r="D85">
-        <v>0.0002917215768621628</v>
+        <v>0.0002926114568842984</v>
       </c>
       <c r="E85">
-        <v>0.001986442606344279</v>
+        <v>0.0019861662915855454</v>
       </c>
       <c r="F85">
-        <v>4.883353513380804e-5</v>
+        <v>4.88325414353154e-5</v>
       </c>
       <c r="G85">
-        <v>7.365091875511903</v>
+        <v>7.362912001151922</v>
       </c>
       <c r="H85">
-        <v>1.3323604500914753e-7</v>
+        <v>2.461995338461542e-7</v>
       </c>
       <c r="I85">
-        <v>0.00029172161287432024</v>
+        <v>0.00029261145800912853</v>
       </c>
       <c r="J85">
-        <v>0.0019864423009255685</v>
+        <v>0.001986166129338741</v>
       </c>
       <c r="K85">
-        <v>4.8833507075617035e-5</v>
+        <v>4.883252662663663e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3395,34 +3395,34 @@
         <v>0.11900000000000001</v>
       </c>
       <c r="B86">
-        <v>7.36668936484132</v>
+        <v>7.364677748986582</v>
       </c>
       <c r="C86">
-        <v>1.2515444027098558e-7</v>
+        <v>2.3127178085593087e-7</v>
       </c>
       <c r="D86">
-        <v>0.00029726167215318267</v>
+        <v>0.0002980848054749601</v>
       </c>
       <c r="E86">
-        <v>0.0019872776244894085</v>
+        <v>0.0019870232609097834</v>
       </c>
       <c r="F86">
-        <v>4.8842703103920955e-5</v>
+        <v>4.884178223572182e-5</v>
       </c>
       <c r="G86">
-        <v>7.366688043181505</v>
+        <v>7.364677045704442</v>
       </c>
       <c r="H86">
-        <v>1.2516113394243718e-7</v>
+        <v>2.3127835136082112e-7</v>
       </c>
       <c r="I86">
-        <v>0.00029726170853382715</v>
+        <v>0.00029808480708767935</v>
       </c>
       <c r="J86">
-        <v>0.0019872773299494805</v>
+        <v>0.001987023106119033</v>
       </c>
       <c r="K86">
-        <v>4.8842676073672256e-5</v>
+        <v>4.8841768120915935e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3430,34 +3430,34 @@
         <v>0.121</v>
       </c>
       <c r="B87">
-        <v>7.368273671056667</v>
+        <v>7.366425712540711</v>
       </c>
       <c r="C87">
-        <v>1.1707996025351139e-7</v>
+        <v>2.1635102080071345e-7</v>
       </c>
       <c r="D87">
-        <v>0.0003028006497218959</v>
+        <v>0.0003035588205286564</v>
       </c>
       <c r="E87">
-        <v>0.0019881107927708927</v>
+        <v>0.001987877619060971</v>
       </c>
       <c r="F87">
-        <v>4.885186849887843e-5</v>
+        <v>4.8851018678153754e-5</v>
       </c>
       <c r="G87">
-        <v>7.368272401578119</v>
+        <v>7.36642504421793</v>
       </c>
       <c r="H87">
-        <v>1.1708622277891054e-7</v>
+        <v>2.163571686970784e-7</v>
       </c>
       <c r="I87">
-        <v>0.00030280068660133903</v>
+        <v>0.00030355882278183983</v>
       </c>
       <c r="J87">
-        <v>0.0019881105087586094</v>
+        <v>0.001987877471426723</v>
       </c>
       <c r="K87">
-        <v>4.885184245876147e-5</v>
+        <v>4.885100522473374e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3465,34 +3465,34 @@
         <v>0.12299999999999998</v>
       </c>
       <c r="B88">
-        <v>7.36984630903308</v>
+        <v>7.368156880630302</v>
       </c>
       <c r="C88">
-        <v>1.0900548023601505e-7</v>
+        <v>2.0143026074547946e-7</v>
       </c>
       <c r="D88">
-        <v>0.0003083385263563407</v>
+        <v>0.0003090334898733679</v>
       </c>
       <c r="E88">
-        <v>0.0019889421393689106</v>
+        <v>0.001988729414489874</v>
       </c>
       <c r="F88">
-        <v>4.886103133180564e-5</v>
+        <v>4.8860250794678126e-5</v>
       </c>
       <c r="G88">
-        <v>7.369845089592868</v>
+        <v>7.368156245508437</v>
       </c>
       <c r="H88">
-        <v>1.0901131151856757e-7</v>
+        <v>2.0143598585492597e-7</v>
       </c>
       <c r="I88">
-        <v>0.0003083385638662177</v>
+        <v>0.0003090334929184729</v>
       </c>
       <c r="J88">
-        <v>0.0019889418655458665</v>
+        <v>0.0019887292737269025</v>
       </c>
       <c r="K88">
-        <v>4.886100624545292e-5</v>
+        <v>4.886023797173989e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>0.125</v>
       </c>
       <c r="B89">
-        <v>7.371407415372829</v>
+        <v>7.369871497297616</v>
       </c>
       <c r="C89">
-        <v>1.0093100021855194e-7</v>
+        <v>1.865095006902786e-7</v>
       </c>
       <c r="D89">
-        <v>0.00031387531851109686</v>
+        <v>0.0003145088016261004</v>
       </c>
       <c r="E89">
-        <v>0.0019897716919001214</v>
+        <v>0.0019895786944872087</v>
       </c>
       <c r="F89">
-        <v>4.8870191615827614e-5</v>
+        <v>4.88694786172833e-5</v>
       </c>
       <c r="G89">
-        <v>7.371406243917708</v>
+        <v>7.369870893709886</v>
       </c>
       <c r="H89">
-        <v>1.0093640016140833e-7</v>
+        <v>1.8651480283436387e-7</v>
       </c>
       <c r="I89">
-        <v>0.00031387535678415737</v>
+        <v>0.00031450880561337806</v>
       </c>
       <c r="J89">
-        <v>0.0019897714279402345</v>
+        <v>0.001989578560324007</v>
       </c>
       <c r="K89">
-        <v>4.887016744825886e-5</v>
+        <v>4.886946639542791e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3535,34 +3535,34 @@
         <v>0.127</v>
       </c>
       <c r="B90">
-        <v>7.372957124525394</v>
+        <v>7.371569802009439</v>
       </c>
       <c r="C90">
-        <v>9.285652020110544e-8</v>
+        <v>1.7158874063508879e-7</v>
       </c>
       <c r="D90">
-        <v>0.0003194110423153461</v>
+        <v>0.0003199847441846779</v>
       </c>
       <c r="E90">
-        <v>0.0019905994774313497</v>
+        <v>0.0019904255052167153</v>
       </c>
       <c r="F90">
-        <v>4.887934936406546e-5</v>
+        <v>4.8878702177867916e-5</v>
       </c>
       <c r="G90">
-        <v>7.372955999087946</v>
+        <v>7.37156922837588</v>
       </c>
       <c r="H90">
-        <v>9.28614887074328e-8</v>
+        <v>1.7159361963539201e-7</v>
       </c>
       <c r="I90">
-        <v>0.00031941108148526165</v>
+        <v>0.0003199847492630994</v>
       </c>
       <c r="J90">
-        <v>0.0019905992230204645</v>
+        <v>0.0019904253773949067</v>
       </c>
       <c r="K90">
-        <v>4.8879326081633995e-5</v>
+        <v>4.8878690529127716e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3570,34 +3570,34 @@
         <v>0.129</v>
       </c>
       <c r="B91">
-        <v>7.374495568828852</v>
+        <v>7.373252029756353</v>
       </c>
       <c r="C91">
-        <v>8.478204018364233e-8</v>
+        <v>1.566679805798879e-7</v>
       </c>
       <c r="D91">
-        <v>0.0003249457135807055</v>
+        <v>0.0003254613062197989</v>
       </c>
       <c r="E91">
-        <v>0.001991425522492889</v>
+        <v>0.001991269891747162</v>
       </c>
       <c r="F91">
-        <v>4.8888504589632674e-5</v>
+        <v>4.88879215082304e-5</v>
       </c>
       <c r="G91">
-        <v>7.374494487523813</v>
+        <v>7.373251484579244</v>
       </c>
       <c r="H91">
-        <v>8.478657715664097e-8</v>
+        <v>1.566724362580104e-7</v>
       </c>
       <c r="I91">
-        <v>0.00032494575378189404</v>
+        <v>0.00032546131253699485</v>
       </c>
       <c r="J91">
-        <v>0.0019914252773283827</v>
+        <v>0.0019912697700209345</v>
       </c>
       <c r="K91">
-        <v>4.888848215997379e-5</v>
+        <v>4.888791040599874e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3605,34 +3605,34 @@
         <v>0.131</v>
       </c>
       <c r="B92">
-        <v>7.376022878550399</v>
+        <v>7.374918411149808</v>
       </c>
       <c r="C92">
-        <v>7.670756016610169e-8</v>
+        <v>1.4174722052461526e-7</v>
       </c>
       <c r="D92">
-        <v>0.0003304793478088458</v>
+        <v>0.00033093847666734635</v>
       </c>
       <c r="E92">
-        <v>0.0019922498530914245</v>
+        <v>0.001992111898083328</v>
       </c>
       <c r="F92">
-        <v>4.889765730563165e-5</v>
+        <v>4.889713664005915e-5</v>
       </c>
       <c r="G92">
-        <v>7.37602183957114</v>
+        <v>7.374917893009334</v>
       </c>
       <c r="H92">
-        <v>7.671166550903288e-8</v>
+        <v>1.4175125270221903e-7</v>
       </c>
       <c r="I92">
-        <v>0.00033047938917630956</v>
+        <v>0.0003309384843695591</v>
       </c>
       <c r="J92">
-        <v>0.001992249616881834</v>
+        <v>0.0019921117822188903</v>
       </c>
       <c r="K92">
-        <v>4.889763569761309e-5</v>
+        <v>4.889712605902364e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3640,34 +3640,34 @@
         <v>0.133</v>
       </c>
       <c r="B93">
-        <v>7.37753918192597</v>
+        <v>7.376569172517013</v>
       </c>
       <c r="C93">
-        <v>6.863308014864965e-8</v>
+        <v>1.2682646046942545e-7</v>
       </c>
       <c r="D93">
-        <v>0.00033601196019889445</v>
+        <v>0.000336416244720944</v>
       </c>
       <c r="E93">
-        <v>0.001993072494722606</v>
+        <v>0.001992951567195999</v>
       </c>
       <c r="F93">
-        <v>4.8906807525150375e-5</v>
+        <v>4.890634760492333e-5</v>
       </c>
       <c r="G93">
-        <v>7.377538183541133</v>
+        <v>7.376568680067163</v>
       </c>
       <c r="H93">
-        <v>6.863675376460847e-8</v>
+        <v>1.2683006896801793e-7</v>
       </c>
       <c r="I93">
-        <v>0.00033601200286807406</v>
+        <v>0.0003364162539529896</v>
       </c>
       <c r="J93">
-        <v>0.001993072267187257</v>
+        <v>0.0019929514569710567</v>
       </c>
       <c r="K93">
-        <v>4.8906786708824776e-5</v>
+        <v>4.890633752100235e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3675,34 +3675,34 @@
         <v>0.135</v>
       </c>
       <c r="B94">
-        <v>7.379044605198995</v>
+        <v>7.378204535993691</v>
       </c>
       <c r="C94">
-        <v>6.055860013115608e-8</v>
+        <v>1.1190570041419145e-7</v>
       </c>
       <c r="D94">
-        <v>0.0003415435656546376</v>
+        <v>0.0003418945998247485</v>
       </c>
       <c r="E94">
-        <v>0.0019938934723832623</v>
+        <v>0.0019937889410510026</v>
       </c>
       <c r="F94">
-        <v>4.8915955261259216e-5</v>
+        <v>4.891555443426433e-5</v>
       </c>
       <c r="G94">
-        <v>7.379043645749278</v>
+        <v>7.378204067958367</v>
       </c>
       <c r="H94">
-        <v>6.056184192336782e-8</v>
+        <v>1.119088850554071e-7</v>
       </c>
       <c r="I94">
-        <v>0.00034154360976127704</v>
+        <v>0.000341894610729989</v>
       </c>
       <c r="J94">
-        <v>0.0019938932532519104</v>
+        <v>0.001993788836254255</v>
       </c>
       <c r="K94">
-        <v>4.891593520781838e-5</v>
+        <v>4.891554482454672e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3710,34 +3710,34 @@
         <v>0.137</v>
       </c>
       <c r="B95">
-        <v>7.380539272658325</v>
+        <v>7.3798247196147235</v>
       </c>
       <c r="C95">
-        <v>5.2484120113698504e-8</v>
+        <v>9.69849403589961e-8</v>
       </c>
       <c r="D95">
-        <v>0.00034707417879152104</v>
+        <v>0.0003473735316664716</v>
       </c>
       <c r="E95">
-        <v>0.001994712810583281</v>
+        <v>0.0019946240606373246</v>
       </c>
       <c r="F95">
-        <v>4.892510052700795e-5</v>
+        <v>4.8924757159387726e-5</v>
       </c>
       <c r="G95">
-        <v>7.380538350553408</v>
+        <v>7.379824274784064</v>
       </c>
       <c r="H95">
-        <v>5.24869299853109e-8</v>
+        <v>9.698770096438653e-8</v>
       </c>
       <c r="I95">
-        <v>0.0003470742244715459</v>
+        <v>0.00034737354438679573</v>
       </c>
       <c r="J95">
-        <v>0.0019947125995957676</v>
+        <v>0.001994623961067982</v>
       </c>
       <c r="K95">
-        <v>4.892508120873896e-5</v>
+        <v>4.892474800207546e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3745,34 +3745,34 @@
         <v>0.139</v>
       </c>
       <c r="B96">
-        <v>7.382023306675319</v>
+        <v>7.381429937402748</v>
       </c>
       <c r="C96">
-        <v>4.440964009620494e-8</v>
+        <v>8.206418030376488e-8</v>
       </c>
       <c r="D96">
-        <v>0.00035260381394345983</v>
+        <v>0.00035285303017062243</v>
       </c>
       <c r="E96">
-        <v>0.0019955305333571594</v>
+        <v>0.001995456965994336</v>
       </c>
       <c r="F96">
-        <v>4.8934243335422974e-5</v>
+        <v>4.893395581145584e-5</v>
       </c>
       <c r="G96">
-        <v>7.382022420390924</v>
+        <v>7.381429514629644</v>
       </c>
       <c r="H96">
-        <v>4.441201795043772e-8</v>
+        <v>8.206651669495618e-8</v>
       </c>
       <c r="I96">
-        <v>0.0003526038613328663</v>
+        <v>0.0003528530448464334</v>
       </c>
       <c r="J96">
-        <v>0.0019955303302630744</v>
+        <v>0.001995456871461653</v>
       </c>
       <c r="K96">
-        <v>4.89342247256659e-5</v>
+        <v>4.893394708580952e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3780,34 +3780,34 @@
         <v>0.14100000000000001</v>
       </c>
       <c r="B97">
-        <v>7.3834968277401405</v>
+        <v>7.383020399454725</v>
       </c>
       <c r="C97">
-        <v>3.6335160078709986e-8</v>
+        <v>6.714342024853088e-8</v>
       </c>
       <c r="D97">
-        <v>0.00035813248516946124</v>
+        <v>0.0003583330854919629</v>
       </c>
       <c r="E97">
-        <v>0.0019963466642752403</v>
+        <v>0.001996287696238151</v>
       </c>
       <c r="F97">
-        <v>4.894338369950447e-5</v>
+        <v>4.894315042148079e-5</v>
       </c>
       <c r="G97">
-        <v>7.383495975815214</v>
+        <v>7.383019997651523</v>
       </c>
       <c r="H97">
-        <v>3.63371058187483e-8</v>
+        <v>6.714533224711605e-8</v>
       </c>
       <c r="I97">
-        <v>0.00035813253440421553</v>
+        <v>0.00035833310226217373</v>
       </c>
       <c r="J97">
-        <v>0.0019963464688335917</v>
+        <v>0.0019962876065609827</v>
       </c>
       <c r="K97">
-        <v>4.8943365772611935e-5</v>
+        <v>4.894314210776785e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3815,34 +3815,34 @@
         <v>0.14300000000000002</v>
       </c>
       <c r="B98">
-        <v>7.384959954497252</v>
+        <v>7.384596312026537</v>
       </c>
       <c r="C98">
-        <v>2.8260680061215033e-8</v>
+        <v>5.2222660193298273e-8</v>
       </c>
       <c r="D98">
-        <v>0.00036366020626006764</v>
+        <v>0.0003638136880091713</v>
       </c>
       <c r="E98">
-        <v>0.001997161226454633</v>
+        <v>0.0019971162895871643</v>
       </c>
       <c r="F98">
-        <v>4.8952521632223894e-5</v>
+        <v>4.8952341020318004e-5</v>
       </c>
       <c r="G98">
-        <v>7.384959135531285</v>
+        <v>7.384595930161911</v>
       </c>
       <c r="H98">
-        <v>2.8262193590242638e-8</v>
+        <v>5.222414762086611e-8</v>
       </c>
       <c r="I98">
-        <v>0.00036366025747601384</v>
+        <v>0.00036381370701120435</v>
       </c>
       <c r="J98">
-        <v>0.0019971610384335336</v>
+        <v>0.0019971162045935376</v>
       </c>
       <c r="K98">
-        <v>4.895250436352207e-5</v>
+        <v>4.895233309976352e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3850,34 +3850,34 @@
         <v>0.14500000000000002</v>
       </c>
       <c r="B99">
-        <v>7.3864128037801615</v>
+        <v>7.386157877615627</v>
       </c>
       <c r="C99">
-        <v>2.0186200043759532e-8</v>
+        <v>3.7301900138105e-8</v>
       </c>
       <c r="D99">
-        <v>0.00036918699074362215</v>
+        <v>0.00036929482831870095</v>
       </c>
       <c r="E99">
-        <v>0.001997974242569844</v>
+        <v>0.00199794278338678</v>
       </c>
       <c r="F99">
-        <v>4.8961657146521546e-5</v>
+        <v>4.89615276386603e-5</v>
       </c>
       <c r="G99">
-        <v>7.386412016430611</v>
+        <v>7.3861575147116305</v>
       </c>
       <c r="H99">
-        <v>2.018728126492074e-8</v>
+        <v>3.7302962816206375e-8</v>
       </c>
       <c r="I99">
-        <v>0.00036918704407640105</v>
+        <v>0.0003692948496884951</v>
       </c>
       <c r="J99">
-        <v>0.0019979740617461993</v>
+        <v>0.0019979427029134834</v>
       </c>
       <c r="K99">
-        <v>4.896164051227276e-5</v>
+        <v>4.896152009340015e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3885,34 +3885,34 @@
         <v>0.14700000000000002</v>
       </c>
       <c r="B100">
-        <v>7.387855490645397</v>
+        <v>7.387705295041762</v>
       </c>
       <c r="C100">
-        <v>1.2111720026265272e-8</v>
+        <v>2.238114008287239e-8</v>
       </c>
       <c r="D100">
-        <v>0.0003747128518923667</v>
+        <v>0.0003747764972288353</v>
       </c>
       <c r="E100">
-        <v>0.0019987857348631104</v>
+        <v>0.001998767214133364</v>
       </c>
       <c r="F100">
-        <v>4.897079025530425e-5</v>
+        <v>4.897071030703227e-5</v>
       </c>
       <c r="G100">
-        <v>7.387854733625229</v>
+        <v>7.387704950171019</v>
       </c>
       <c r="H100">
-        <v>1.211236884278261e-8</v>
+        <v>2.238177783313684e-8</v>
       </c>
       <c r="I100">
-        <v>0.00037471290747734053</v>
+        <v>0.00037477652110085545</v>
       </c>
       <c r="J100">
-        <v>0.0019987855610223227</v>
+        <v>0.001998767138025555</v>
       </c>
       <c r="K100">
-        <v>4.8970774232671004e-5</v>
+        <v>4.897070312006872e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3920,34 +3920,34 @@
         <v>0.14900000000000002</v>
       </c>
       <c r="B101">
-        <v>7.38928812840577</v>
+        <v>7.38923875952591</v>
       </c>
       <c r="C101">
-        <v>4.037240008808562e-9</v>
+        <v>7.460380027677398e-9</v>
       </c>
       <c r="D101">
-        <v>0.00038023780272837364</v>
+        <v>0.0003802586857539256</v>
       </c>
       <c r="E101">
-        <v>0.001999595725154459</v>
+        <v>0.0019995896174974537</v>
       </c>
       <c r="F101">
-        <v>4.897992097144311e-5</v>
+        <v>4.8979889055785175e-5</v>
       </c>
       <c r="G101">
-        <v>7.389287400481106</v>
+        <v>7.389238431808969</v>
       </c>
       <c r="H101">
-        <v>4.037456323828266e-9</v>
+        <v>7.460592671657507e-9</v>
       </c>
       <c r="I101">
-        <v>0.00038023786070055994</v>
+        <v>0.000380258712261177</v>
       </c>
       <c r="J101">
-        <v>0.001999595558090135</v>
+        <v>0.001999589545608282</v>
       </c>
       <c r="K101">
-        <v>4.897990553845355e-5</v>
+        <v>4.897988221094454e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
@@ -470,19 +470,19 @@
         <v>4.895850065801972e-5</v>
       </c>
       <c r="G2">
-        <v>8.135096420964151</v>
+        <v>8.135096420964153</v>
       </c>
       <c r="H2">
-        <v>0.00024547421498519916</v>
+        <v>0.00024547421498519927</v>
       </c>
       <c r="I2">
-        <v>-2.2974716097846562e-7</v>
+        <v>-2.2974716097802217e-7</v>
       </c>
       <c r="J2">
-        <v>0.0019990932990173564</v>
+        <v>0.001999093299017841</v>
       </c>
       <c r="K2">
-        <v>4.895850067704268e-5</v>
+        <v>4.895850067704679e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -505,19 +505,19 @@
         <v>4.890697463079368e-5</v>
       </c>
       <c r="G3">
-        <v>8.104388964814978</v>
+        <v>8.104388964815001</v>
       </c>
       <c r="H3">
-        <v>0.0002364226449035619</v>
+        <v>0.00023642264490356232</v>
       </c>
       <c r="I3">
-        <v>-6.889703013751901e-7</v>
+        <v>-6.889703013738608e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019972577800446705</v>
+        <v>0.001997257780046121</v>
       </c>
       <c r="K3">
-        <v>4.89069746845494e-5</v>
+        <v>4.8906974684561654e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -540,19 +540,19 @@
         <v>4.885618896323914e-5</v>
       </c>
       <c r="G4">
-        <v>8.072458822583384</v>
+        <v>8.072458822583458</v>
       </c>
       <c r="H4">
-        <v>0.00022737107471369847</v>
+        <v>0.00022737107471369918</v>
       </c>
       <c r="I4">
-        <v>-1.1477818514549168e-6</v>
+        <v>-1.147781851452705e-6</v>
       </c>
       <c r="J4">
-        <v>0.0019953895797532976</v>
+        <v>0.00199538957975571</v>
       </c>
       <c r="K4">
-        <v>4.8856189048040285e-5</v>
+        <v>4.8856189048060505e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -575,19 +575,19 @@
         <v>4.880639635911501e-5</v>
       </c>
       <c r="G5">
-        <v>8.039295480982673</v>
+        <v>8.03929548098283</v>
       </c>
       <c r="H5">
-        <v>0.00021831950441562125</v>
+        <v>0.00021831950441562222</v>
       </c>
       <c r="I5">
-        <v>-1.606113290555409e-6</v>
+        <v>-1.6061132905523196e-6</v>
       </c>
       <c r="J5">
-        <v>0.0019934845090997786</v>
+        <v>0.0019934845091031427</v>
       </c>
       <c r="K5">
-        <v>4.8806396470992314e-5</v>
+        <v>4.88063964710203e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -610,19 +610,19 @@
         <v>4.875787685249672e-5</v>
       </c>
       <c r="G6">
-        <v>8.004912800166885</v>
+        <v>8.00491280016716</v>
       </c>
       <c r="H6">
-        <v>0.0002092679340094166</v>
+        <v>0.00020926793400941778</v>
       </c>
       <c r="I6">
-        <v>-2.0638857717593985e-6</v>
+        <v>-2.0638857717554386e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019915380143963163</v>
+        <v>0.0019915380144006206</v>
       </c>
       <c r="K6">
-        <v>4.875787698680783e-5</v>
+        <v>4.8757876986843315e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -645,19 +645,19 @@
         <v>4.8710933026423354e-5</v>
       </c>
       <c r="G7">
-        <v>7.969355873246741</v>
+        <v>7.969355873247168</v>
       </c>
       <c r="H7">
-        <v>0.0002002163634956429</v>
+        <v>0.00020021636349564417</v>
       </c>
       <c r="I7">
-        <v>-2.521009911772393e-6</v>
+        <v>-2.5210099117675725e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019895452758098464</v>
+        <v>0.001989545275815077</v>
       </c>
       <c r="K7">
-        <v>4.8710933172978756e-5</v>
+        <v>4.871093317302147e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -680,19 +680,19 @@
         <v>4.866588139187271e-5</v>
       </c>
       <c r="G8">
-        <v>7.932707527487246</v>
+        <v>7.932707527487863</v>
       </c>
       <c r="H8">
-        <v>0.0001911647928776271</v>
+        <v>0.00019116479287762845</v>
       </c>
       <c r="I8">
-        <v>-2.977386353041504e-6</v>
+        <v>-2.9773863530358363e-6</v>
       </c>
       <c r="J8">
-        <v>0.001987501369415623</v>
+        <v>0.0019875013694217593</v>
       </c>
       <c r="K8">
-        <v>4.866588150388387e-5</v>
+        <v>4.866588150393345e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -715,19 +715,19 @@
         <v>4.862303950514404e-5</v>
       </c>
       <c r="G9">
-        <v>7.8950932318310265</v>
+        <v>7.8950932318318685</v>
       </c>
       <c r="H9">
-        <v>0.00018211322217364246</v>
+        <v>0.00018211322217364387</v>
       </c>
       <c r="I9">
-        <v>-3.432907372652858e-6</v>
+        <v>-3.432907372646358e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019854014977818174</v>
+        <v>0.0019854014977888352</v>
       </c>
       <c r="K9">
-        <v>4.8623039381504214e-5</v>
+        <v>4.8623039381560274e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -750,19 +750,19 @@
         <v>4.858270916422377e-5</v>
       </c>
       <c r="G10">
-        <v>7.8566828918036435</v>
+        <v>7.856682891804744</v>
       </c>
       <c r="H10">
-        <v>0.0001730616514761794</v>
+        <v>0.00017306165147618085</v>
       </c>
       <c r="I10">
-        <v>-3.8874597062765476e-6</v>
+        <v>-3.887459706269235e-6</v>
       </c>
       <c r="J10">
-        <v>0.001983241280422198</v>
+        <v>0.001983241280430069</v>
       </c>
       <c r="K10">
-        <v>4.858270816142409e-5</v>
+        <v>4.8582708161486215e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -785,19 +785,19 @@
         <v>4.854515705513176e-5</v>
       </c>
       <c r="G11">
-        <v>7.8176880853782995</v>
+        <v>7.8176880853796895</v>
       </c>
       <c r="H11">
-        <v>0.00016401008121656082</v>
+        <v>0.00016401008121656233</v>
       </c>
       <c r="I11">
-        <v>-4.3409284753044925e-6</v>
+        <v>-4.340928475296392e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019810170766271966</v>
+        <v>0.0019810170766358885</v>
       </c>
       <c r="K11">
-        <v>4.854515362267667e-5</v>
+        <v>4.8545153622744405e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -820,19 +820,19 @@
         <v>4.8510595296213286e-5</v>
       </c>
       <c r="G12">
-        <v>7.778353914018516</v>
+        <v>7.778353914020216</v>
       </c>
       <c r="H12">
-        <v>0.00015495851324758106</v>
+        <v>0.00015495851324758266</v>
       </c>
       <c r="I12">
-        <v>-4.793201509608003e-6</v>
+        <v>-4.793201509599137e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019787262945149694</v>
+        <v>0.0019787262945244423</v>
       </c>
       <c r="K12">
-        <v>4.851058652478678e-5</v>
+        <v>4.8510586524859694e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -855,19 +855,19 @@
         <v>4.84791651217584e-5</v>
       </c>
       <c r="G13">
-        <v>7.738945808235004</v>
+        <v>7.738945808237029</v>
       </c>
       <c r="H13">
-        <v>0.00014590695489825772</v>
+        <v>0.0001459069548982594</v>
       </c>
       <c r="I13">
-        <v>-5.244172033670587e-6</v>
+        <v>-5.244172033660983e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019763676305069046</v>
+        <v>0.0019763676305171183</v>
       </c>
       <c r="K13">
-        <v>4.847914664587414e-5</v>
+        <v>4.84791466459518e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -890,19 +890,19 @@
         <v>4.84509270038027e-5</v>
       </c>
       <c r="G14">
-        <v>7.699733021945832</v>
+        <v>7.699733021948187</v>
       </c>
       <c r="H14">
-        <v>0.00013685543285627677</v>
+        <v>0.00013685543285627853</v>
       </c>
       <c r="I14">
-        <v>-5.693734400718403e-6</v>
+        <v>-5.693734400708094e-6</v>
       </c>
       <c r="J14">
-        <v>0.0019739411915679845</v>
+        <v>0.0019739411915788907</v>
       </c>
       <c r="K14">
-        <v>4.8450893501009446e-5</v>
+        <v>4.845089350109146e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -925,19 +925,19 @@
         <v>4.8425859469749146e-5</v>
       </c>
       <c r="G15">
-        <v>7.660971633228302</v>
+        <v>7.660971633230984</v>
       </c>
       <c r="H15">
-        <v>0.00012780403654420318</v>
+        <v>0.000127804036544205</v>
       </c>
       <c r="I15">
-        <v>-6.141759195878389e-6</v>
+        <v>-6.141759195867403e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019714484819902916</v>
+        <v>0.001971448482001841</v>
       </c>
       <c r="K15">
-        <v>4.8425805658408536e-5</v>
+        <v>4.8425805658494526e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -960,19 +960,19 @@
         <v>4.8403866904376766e-5</v>
       </c>
       <c r="G16">
-        <v>7.622890182159794</v>
+        <v>7.622890182162795</v>
       </c>
       <c r="H16">
-        <v>0.00011875304153915695</v>
+        <v>0.0001187530415391588</v>
       </c>
       <c r="I16">
-        <v>-6.588014120783625e-6</v>
+        <v>-6.5880141207719924e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019688922836748873</v>
+        <v>0.0019688922836870264</v>
       </c>
       <c r="K16">
-        <v>4.8403788626758315e-5</v>
+        <v>4.8403788626847986e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -995,19 +995,19 @@
         <v>4.8384794557020746e-5</v>
       </c>
       <c r="G17">
-        <v>7.585680567772324</v>
+        <v>7.585680567775628</v>
       </c>
       <c r="H17">
-        <v>0.0001097032284651774</v>
+        <v>0.00010970322846517925</v>
       </c>
       <c r="I17">
-        <v>-7.031955233897966e-6</v>
+        <v>-7.031955233885717e-6</v>
       </c>
       <c r="J17">
-        <v>0.001966276517487116</v>
+        <v>0.00196627651749979</v>
       </c>
       <c r="K17">
-        <v>4.8384689488109994e-5</v>
+        <v>4.838468948820306e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1030,19 +1030,19 @@
         <v>4.836844775681632e-5</v>
       </c>
       <c r="G18">
-        <v>7.549495890365321</v>
+        <v>7.549495890368909</v>
       </c>
       <c r="H18">
-        <v>0.00010065662839890728</v>
+        <v>0.0001006566283989091</v>
       </c>
       <c r="I18">
-        <v>-7.472238568194379e-6</v>
+        <v>-7.47223856818154e-6</v>
       </c>
       <c r="J18">
-        <v>0.001963606240841756</v>
+        <v>0.0019636062408549086</v>
       </c>
       <c r="K18">
-        <v>4.836831549819647e-5</v>
+        <v>4.836831549829271e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1065,19 +1065,19 @@
         <v>4.835461232834341e-5</v>
       </c>
       <c r="G19">
-        <v>7.514456077228484</v>
+        <v>7.5144560772323326</v>
       </c>
       <c r="H19">
-        <v>9.16180908653593e-5</v>
+        <v>9.161809086536107e-5</v>
       </c>
       <c r="I19">
-        <v>-7.905696162601617e-6</v>
+        <v>-7.905696162588212e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019608880130185086</v>
+        <v>0.0019608880130320837</v>
       </c>
       <c r="K19">
-        <v>4.835445394251163e-5</v>
+        <v>4.835445394261085e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1100,19 +1100,19 @@
         <v>4.834307398110135e-5</v>
       </c>
       <c r="G20">
-        <v>7.480661549527814</v>
+        <v>7.4806615495318995</v>
       </c>
       <c r="H20">
-        <v>8.259822925884396e-5</v>
+        <v>8.25982292588457e-5</v>
       </c>
       <c r="I20">
-        <v>-8.325420055201775e-6</v>
+        <v>-8.32542005518783e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019581309298361362</v>
+        <v>0.0019581309298500778</v>
       </c>
       <c r="K20">
-        <v>4.83428912255371e-5</v>
+        <v>4.834289122563915e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1135,19 +1135,19 @@
         <v>4.833363524609166e-5</v>
       </c>
       <c r="G21">
-        <v>7.4482144870775535</v>
+        <v>7.448214487081852</v>
       </c>
       <c r="H21">
-        <v>7.361830206623745e-5</v>
+        <v>7.361830206623915e-5</v>
       </c>
       <c r="I21">
-        <v>-8.717599905983855e-6</v>
+        <v>-8.717599905969383e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019553486371512094</v>
+        <v>0.0019553486371654623</v>
       </c>
       <c r="K21">
-        <v>4.8333429830833496e-5</v>
+        <v>4.8333429830938264e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1170,19 +1170,19 @@
         <v>4.8326128792558505e-5</v>
       </c>
       <c r="G22">
-        <v>7.417245674285293</v>
+        <v>7.417245674289782</v>
       </c>
       <c r="H22">
-        <v>6.471720062950429e-5</v>
+        <v>6.471720062950597e-5</v>
       </c>
       <c r="I22">
-        <v>-9.057016359914618e-6</v>
+        <v>-9.057016359899626e-6</v>
       </c>
       <c r="J22">
-        <v>0.001952562470738556</v>
+        <v>0.0019525624707530703</v>
       </c>
       <c r="K22">
-        <v>4.8325901942546815e-5</v>
+        <v>4.8325901942654226e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1205,19 +1205,19 @@
         <v>4.832042568148443e-5</v>
       </c>
       <c r="G23">
-        <v>7.387941998865739</v>
+        <v>7.387941998870394</v>
       </c>
       <c r="H23">
-        <v>5.5959729173717464e-5</v>
+        <v>5.595972917371913e-5</v>
       </c>
       <c r="I23">
-        <v>-9.301731843314497e-6</v>
+        <v>-9.301731843298978e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019498054220991622</v>
+        <v>0.00194980542211389</v>
       </c>
       <c r="K23">
-        <v>4.8320178171706594e-5</v>
+        <v>4.8320178171816586e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1240,19 +1240,19 @@
         <v>4.831643686004634e-5</v>
       </c>
       <c r="G24">
-        <v>7.360566055576087</v>
+        <v>7.360566055580888</v>
       </c>
       <c r="H24">
-        <v>4.744384739151286e-5</v>
+        <v>4.74438473915145e-5</v>
       </c>
       <c r="I24">
-        <v>-9.388491769156527e-6</v>
+        <v>-9.388491769140447e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019471258849691974</v>
+        <v>0.0019471258849840995</v>
       </c>
       <c r="K24">
-        <v>4.83161695253169e-5</v>
+        <v>4.831616952542943e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1275,19 +1275,19 @@
         <v>4.831410671731333e-5</v>
       </c>
       <c r="G25">
-        <v>7.335457058295337</v>
+        <v>7.335457058300263</v>
       </c>
       <c r="H25">
-        <v>3.9303083700160585e-5</v>
+        <v>3.9303083700162205e-5</v>
       </c>
       <c r="I25">
-        <v>-9.231268430620874e-6</v>
+        <v>-9.23126843060417e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019445893336764869</v>
+        <v>0.0019445893336915334</v>
       </c>
       <c r="K25">
-        <v>4.831382124956739e-5</v>
+        <v>4.831382124968244e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1310,19 +1310,19 @@
         <v>4.831339913479396e-5</v>
       </c>
       <c r="G26">
-        <v>7.313004117814331</v>
+        <v>7.313004117819366</v>
       </c>
       <c r="H26">
-        <v>3.16999878509687e-5</v>
+        <v>3.16999878509703e-5</v>
       </c>
       <c r="I26">
-        <v>-8.72556263801447e-6</v>
+        <v>-8.725562637997023e-6</v>
       </c>
       <c r="J26">
-        <v>0.0019422757495219602</v>
+        <v>0.0019422757495371342</v>
       </c>
       <c r="K26">
-        <v>4.8313098837175264e-5</v>
+        <v>4.8313098837292845e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1345,19 +1345,19 @@
         <v>4.8314278677285965e-5</v>
       </c>
       <c r="G27">
-        <v>7.293590354166351</v>
+        <v>7.2935903541714815</v>
       </c>
       <c r="H27">
-        <v>2.4808296390755835e-5</v>
+        <v>2.4808296390757413e-5</v>
       </c>
       <c r="I27">
-        <v>-7.759891734669414e-6</v>
+        <v>-7.75989173465107e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019402713479977282</v>
+        <v>0.0019402713480130263</v>
       </c>
       <c r="K27">
-        <v>4.831396882488207e-5</v>
+        <v>4.83139688250022e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1380,19 +1380,19 @@
         <v>4.831669128791922e-5</v>
       </c>
       <c r="G28">
-        <v>7.277517607877358</v>
+        <v>7.2775176078825705</v>
       </c>
       <c r="H28">
-        <v>1.8785516242042794e-5</v>
+        <v>1.8785516242044356e-5</v>
       </c>
       <c r="I28">
-        <v>-6.233318791610407e-6</v>
+        <v>-6.233318791590955e-6</v>
       </c>
       <c r="J28">
-        <v>0.00193865516746703</v>
+        <v>0.001938655167482463</v>
       </c>
       <c r="K28">
-        <v>4.831637887717655e-5</v>
+        <v>4.8316378877299274e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1415,19 +1415,19 @@
         <v>4.832054918917379e-5</v>
       </c>
       <c r="G29">
-        <v>7.264931858353622</v>
+        <v>7.264931858358907</v>
       </c>
       <c r="H29">
-        <v>1.3742430882242995e-5</v>
+        <v>1.3742430882244545e-5</v>
       </c>
       <c r="I29">
-        <v>-4.074864904935617e-6</v>
+        <v>-4.074864904914816e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019374837036103734</v>
+        <v>0.001937483703625965</v>
       </c>
       <c r="K29">
-        <v>4.8320242087136e-5</v>
+        <v>4.8320242087261375e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1450,19 +1450,19 @@
         <v>4.8325723584362155e-5</v>
       </c>
       <c r="G30">
-        <v>7.255773208178942</v>
+        <v>7.255773208184294</v>
       </c>
       <c r="H30">
-        <v>9.719022428817185e-6</v>
+        <v>9.71902242881872e-6</v>
       </c>
       <c r="I30">
-        <v>-1.2588071231323847e-6</v>
+        <v>-1.2588071231099807e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019367785786611157</v>
+        <v>0.0019367785786768973</v>
       </c>
       <c r="K30">
-        <v>4.8325429313371266e-5</v>
+        <v>4.8325429313499304e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1485,19 +1485,19 @@
         <v>4.833204679574935e-5</v>
       </c>
       <c r="G31">
-        <v>7.249768375146414</v>
+        <v>7.249768375151826</v>
       </c>
       <c r="H31">
-        <v>6.675308788210735e-6</v>
+        <v>6.675308788212257e-6</v>
       </c>
       <c r="I31">
-        <v>2.189479820828309e-6</v>
+        <v>2.189479820852561e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019365218493626877</v>
+        <v>0.0019365218493786961</v>
       </c>
       <c r="K31">
-        <v>4.833177132206266e-5</v>
+        <v>4.8331771322193414e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1520,19 +1520,19 @@
         <v>4.833932328414649e-5</v>
       </c>
       <c r="G32">
-        <v>7.246469697630544</v>
+        <v>7.24646969763601</v>
       </c>
       <c r="H32">
-        <v>4.500506505113656e-6</v>
+        <v>4.500506505115165e-6</v>
       </c>
       <c r="I32">
-        <v>6.199288272934408e-6</v>
+        <v>6.199288272960722e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019366607944793174</v>
+        <v>0.001936660794495586</v>
       </c>
       <c r="K32">
-        <v>4.8339070178224044e-5</v>
+        <v>4.833907017835751e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1555,19 +1555,19 @@
         <v>4.8347346917294265e-5</v>
       </c>
       <c r="G33">
-        <v>7.245328612559394</v>
+        <v>7.245328612564911</v>
       </c>
       <c r="H33">
-        <v>3.037108675900697e-6</v>
+        <v>3.0371086759021925e-6</v>
       </c>
       <c r="I33">
-        <v>1.0669831765595221e-5</v>
+        <v>1.0669831765623768e-5</v>
       </c>
       <c r="J33">
-        <v>0.0019371202611089423</v>
+        <v>0.0019371202611254998</v>
       </c>
       <c r="K33">
-        <v>4.834711712098598e-5</v>
+        <v>4.8347117121122144e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1590,19 +1590,19 @@
         <v>4.835592024807133e-5</v>
       </c>
       <c r="G34">
-        <v>7.245780652643164</v>
+        <v>7.245780652648727</v>
       </c>
       <c r="H34">
-        <v>2.1113787686881472e-6</v>
+        <v>2.111378768689629e-6</v>
       </c>
       <c r="I34">
-        <v>1.5489658568572116e-5</v>
+        <v>1.548965856860302e-5</v>
       </c>
       <c r="J34">
-        <v>0.0019378179623669388</v>
+        <v>0.0019378179623838047</v>
       </c>
       <c r="K34">
-        <v>4.83557124640282e-5</v>
+        <v>4.8355712464166996e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1625,19 +1625,19 @@
         <v>4.836487104378432e-5</v>
       </c>
       <c r="G35">
-        <v>7.247317919901241</v>
+        <v>7.247317919906844</v>
       </c>
       <c r="H35">
-        <v>1.5607670430819527e-6</v>
+        <v>1.5607670430834206e-6</v>
       </c>
       <c r="I35">
-        <v>2.0554214415140902e-5</v>
+        <v>2.055421441517424e-5</v>
       </c>
       <c r="J35">
-        <v>0.0019386778097903823</v>
+        <v>0.0019386778098075656</v>
       </c>
       <c r="K35">
-        <v>4.836468254354303e-5</v>
+        <v>4.8364682543684406e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1660,19 +1660,19 @@
         <v>4.8374062380191075e-5</v>
       </c>
       <c r="G36">
-        <v>7.249533270870582</v>
+        <v>7.24953327087622</v>
       </c>
       <c r="H36">
-        <v>1.2517450891858663e-6</v>
+        <v>1.25174508918732e-6</v>
       </c>
       <c r="I36">
-        <v>2.577737274262071e-5</v>
+        <v>2.5777372742656525e-5</v>
       </c>
       <c r="J36">
-        <v>0.0019396381747744872</v>
+        <v>0.0019396381747919897</v>
       </c>
       <c r="K36">
-        <v>4.837388991081505e-5</v>
+        <v>4.8373889910958894e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1695,19 +1695,19 @@
         <v>4.838339500980442e-5</v>
       </c>
       <c r="G37">
-        <v>7.252133005924081</v>
+        <v>7.252133005929748</v>
       </c>
       <c r="H37">
-        <v>1.0863532189700128e-6</v>
+        <v>1.0863532189714524e-6</v>
       </c>
       <c r="I37">
-        <v>3.109576928928556e-5</v>
+        <v>3.109576928932387e-5</v>
       </c>
       <c r="J37">
-        <v>0.0019406545385997</v>
+        <v>0.0019406545386175152</v>
       </c>
       <c r="K37">
-        <v>4.8383235514313605e-5</v>
+        <v>4.83832355144598e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1730,19 +1730,19 @@
         <v>4.839280330574746e-5</v>
       </c>
       <c r="G38">
-        <v>7.254925341828659</v>
+        <v>7.2549253418343485</v>
       </c>
       <c r="H38">
-        <v>9.997872100212837e-7</v>
+        <v>9.997872100227084e-7</v>
       </c>
       <c r="I38">
-        <v>3.646736402699838e-5</v>
+        <v>3.6467364027039166e-5</v>
       </c>
       <c r="J38">
-        <v>0.0019416979335410353</v>
+        <v>0.001941697933559152</v>
       </c>
       <c r="K38">
-        <v>4.839265431870873e-5</v>
+        <v>4.839265431885717e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1765,19 +1765,19 @@
         <v>4.840224764387173e-5</v>
       </c>
       <c r="G39">
-        <v>7.2577965129146795</v>
+        <v>7.257796512920388</v>
       </c>
       <c r="H39">
-        <v>9.531557217951445e-7</v>
+        <v>9.531557217965543e-7</v>
       </c>
       <c r="I39">
-        <v>4.186684886578963e-5</v>
+        <v>4.186684886583288e-5</v>
       </c>
       <c r="J39">
-        <v>0.0019427512890588794</v>
+        <v>0.0019427512890772838</v>
       </c>
       <c r="K39">
-        <v>4.840210738254225e-5</v>
+        <v>4.840210738269281e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1800,19 +1800,19 @@
         <v>4.841170615349172e-5</v>
       </c>
       <c r="G40">
-        <v>7.260685111891605</v>
+        <v>7.260685111897325</v>
       </c>
       <c r="H40">
-        <v>9.252002681161877e-7</v>
+        <v>9.252002681175822e-7</v>
       </c>
       <c r="I40">
-        <v>4.728033943366374e-5</v>
+        <v>4.728033943370941e-5</v>
       </c>
       <c r="J40">
-        <v>0.0019438054782028053</v>
+        <v>0.0019438054782214811</v>
       </c>
       <c r="K40">
-        <v>4.8411573417333684e-5</v>
+        <v>4.841157341748622e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1835,19 +1835,19 @@
         <v>4.842116778516545e-5</v>
       </c>
       <c r="G41">
-        <v>7.263561008516714</v>
+        <v>7.263561008522442</v>
       </c>
       <c r="H41">
-        <v>9.053074549936226e-7</v>
+        <v>9.053074549950021e-7</v>
       </c>
       <c r="I41">
-        <v>5.270086838146416e-5</v>
+        <v>5.270086838151219e-5</v>
       </c>
       <c r="J41">
-        <v>0.0019448560874364093</v>
+        <v>0.0019448560874553396</v>
       </c>
       <c r="K41">
-        <v>4.8421041785940155e-5</v>
+        <v>4.8421041786094525e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1870,19 +1870,19 @@
         <v>4.843062742333663e-5</v>
       </c>
       <c r="G42">
-        <v>7.266410856556769</v>
+        <v>7.266410856562497</v>
       </c>
       <c r="H42">
-        <v>8.886277575495533e-7</v>
+        <v>8.886277575509178e-7</v>
       </c>
       <c r="I42">
-        <v>5.812522382091367e-5</v>
+        <v>5.8125223820964e-5</v>
       </c>
       <c r="J42">
-        <v>0.0019459012141758837</v>
+        <v>0.0019459012141950496</v>
       </c>
       <c r="K42">
-        <v>4.8430507627311505e-5</v>
+        <v>4.8430507627467556e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1905,19 +1905,19 @@
         <v>4.844008289631717e-5</v>
       </c>
       <c r="G43">
-        <v>7.269229448496146</v>
+        <v>7.26922944850187</v>
       </c>
       <c r="H43">
-        <v>8.731300991937743e-7</v>
+        <v>8.731300991951232e-7</v>
       </c>
       <c r="I43">
-        <v>6.35520350938834e-5</v>
+        <v>6.3552035093936e-5</v>
       </c>
       <c r="J43">
-        <v>0.0019469401639566452</v>
+        <v>0.001946940163976028</v>
       </c>
       <c r="K43">
-        <v>4.843996891144823e-5</v>
+        <v>4.8439968911605816e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1940,19 +1940,19 @@
         <v>4.844953335960565e-5</v>
       </c>
       <c r="G44">
-        <v>7.2720151560755815</v>
+        <v>7.272015156081296</v>
       </c>
       <c r="H44">
-        <v>8.580338559059411e-7</v>
+        <v>8.58033855907274e-7</v>
       </c>
       <c r="I44">
-        <v>6.898075080237736e-5</v>
+        <v>6.898075080243215e-5</v>
       </c>
       <c r="J44">
-        <v>0.0019479727687262795</v>
+        <v>0.001947972768745861</v>
       </c>
       <c r="K44">
-        <v>4.844942486794867e-5</v>
+        <v>4.844942486810764e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1975,19 +1975,19 @@
         <v>4.8458978514564904e-5</v>
       </c>
       <c r="G45">
-        <v>7.274767780445309</v>
+        <v>7.2747677804510085</v>
       </c>
       <c r="H45">
-        <v>8.430634505722938e-7</v>
+        <v>8.430634505736105e-7</v>
       </c>
       <c r="I45">
-        <v>7.441115174379487e-5</v>
+        <v>7.441115174385181e-5</v>
       </c>
       <c r="J45">
-        <v>0.001948999067767336</v>
+        <v>0.0019489990677870966</v>
       </c>
       <c r="K45">
-        <v>4.845887523704386e-5</v>
+        <v>4.845887523720402e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2010,19 +2010,19 @@
         <v>4.846841826834882e-5</v>
       </c>
       <c r="G46">
-        <v>7.277487639315373</v>
+        <v>7.277487639321052</v>
       </c>
       <c r="H46">
-        <v>8.28129460629842e-7</v>
+        <v>8.28129460631142e-7</v>
       </c>
       <c r="I46">
-        <v>7.984314205224745e-5</v>
+        <v>7.984314205230644e-5</v>
       </c>
       <c r="J46">
-        <v>0.0019500191731689524</v>
+        <v>0.0019500191731888715</v>
       </c>
       <c r="K46">
-        <v>4.846831994837022e-5</v>
+        <v>4.8468319948531425e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2045,19 +2045,19 @@
         <v>4.84778525998705e-5</v>
       </c>
       <c r="G47">
-        <v>7.280175216190417</v>
+        <v>7.280175216196071</v>
       </c>
       <c r="H47">
-        <v>8.132051983931672e-7</v>
+        <v>8.132051983944505e-7</v>
       </c>
       <c r="I47">
-        <v>8.527666817856928e-5</v>
+        <v>8.527666817863027e-5</v>
       </c>
       <c r="J47">
-        <v>0.0019510332185162244</v>
+        <v>0.0019510332185362826</v>
       </c>
       <c r="K47">
-        <v>4.847775899632365e-5</v>
+        <v>4.847775899648572e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2080,19 +2080,19 @@
         <v>4.8487281511757385e-5</v>
       </c>
       <c r="G48">
-        <v>7.282831038004286</v>
+        <v>7.282831038009909</v>
       </c>
       <c r="H48">
-        <v>7.982833348447893e-7</v>
+        <v>7.98283334846056e-7</v>
       </c>
       <c r="I48">
-        <v>9.071169034076309e-5</v>
+        <v>9.071169034082596e-5</v>
       </c>
       <c r="J48">
-        <v>0.0019520413411605632</v>
+        <v>0.0019520413411807402</v>
       </c>
       <c r="K48">
-        <v>4.8487192396113125e-5</v>
+        <v>4.848719239627592e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2115,19 +2115,19 @@
         <v>4.8496705014612246e-5</v>
       </c>
       <c r="G49">
-        <v>7.285455636317088</v>
+        <v>7.285455636322676</v>
       </c>
       <c r="H49">
-        <v>7.833620171904738e-7</v>
+        <v>7.833620171917237e-7</v>
       </c>
       <c r="I49">
-        <v>9.614817334962418e-5</v>
+        <v>9.614817334968891e-5</v>
       </c>
       <c r="J49">
-        <v>0.0019530436766962017</v>
+        <v>0.0019530436767164774</v>
       </c>
       <c r="K49">
-        <v>4.84966201696181e-5</v>
+        <v>4.8496620169781446e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2150,19 +2150,19 @@
         <v>4.8506123122257906e-5</v>
       </c>
       <c r="G50">
-        <v>7.288049536171494</v>
+        <v>7.288049536177042</v>
       </c>
       <c r="H50">
-        <v>7.684408141072725e-7</v>
+        <v>7.684408141085056e-7</v>
       </c>
       <c r="I50">
-        <v>0.00010158608390356152</v>
+        <v>0.000101586083903628</v>
       </c>
       <c r="J50">
-        <v>0.001954040357450641</v>
+        <v>0.0019540403574709944</v>
       </c>
       <c r="K50">
-        <v>4.850604234119909e-5</v>
+        <v>4.8506042341362824e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2185,19 +2185,19 @@
         <v>4.8515535850375437e-5</v>
       </c>
       <c r="G51">
-        <v>7.29061325326171</v>
+        <v>7.290613253267215</v>
       </c>
       <c r="H51">
-        <v>7.535196331047792e-7</v>
+        <v>7.535196331059949e-7</v>
       </c>
       <c r="I51">
-        <v>0.00010702538984401373</v>
+        <v>0.00010702538984408187</v>
       </c>
       <c r="J51">
-        <v>0.001955031512172091</v>
+        <v>0.001955031512192502</v>
       </c>
       <c r="K51">
-        <v>4.8515458936526246e-5</v>
+        <v>4.851545893669021e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2220,19 +2220,19 @@
         <v>4.852494321609909e-5</v>
       </c>
       <c r="G52">
-        <v>7.293147293377352</v>
+        <v>7.293147293382806</v>
       </c>
       <c r="H52">
-        <v>7.385984559097306e-7</v>
+        <v>7.385984559109287e-7</v>
       </c>
       <c r="I52">
-        <v>0.00011246605995203513</v>
+        <v>0.0001124660599521049</v>
       </c>
       <c r="J52">
-        <v>0.001956017266040062</v>
+        <v>0.0019560172660605087</v>
       </c>
       <c r="K52">
-        <v>4.852486998224235e-5</v>
+        <v>4.85248699824064e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2255,19 +2255,19 @@
         <v>4.853434523785975e-5</v>
       </c>
       <c r="G53">
-        <v>7.295652152415701</v>
+        <v>7.295652152421102</v>
       </c>
       <c r="H53">
-        <v>7.236772791951297e-7</v>
+        <v>7.236772791963098e-7</v>
       </c>
       <c r="I53">
-        <v>0.00011790806388158247</v>
+        <v>0.00011790806388165373</v>
       </c>
       <c r="J53">
-        <v>0.0019569977407536037</v>
+        <v>0.001956997740774065</v>
       </c>
       <c r="K53">
-        <v>4.8534275505838154e-5</v>
+        <v>4.8534275506002106e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2290,19 +2290,19 @@
         <v>4.854374193528954e-5</v>
       </c>
       <c r="G54">
-        <v>7.298128316523998</v>
+        <v>7.298128316529342</v>
       </c>
       <c r="H54">
-        <v>7.087561024026544e-7</v>
+        <v>7.087561024038163e-7</v>
       </c>
       <c r="I54">
-        <v>0.0001233513721248387</v>
+        <v>0.00012335137212491132</v>
       </c>
       <c r="J54">
-        <v>0.0019579730546345504</v>
+        <v>0.001957973054655006</v>
       </c>
       <c r="K54">
-        <v>4.854367553557877e-5</v>
+        <v>4.854367553574249e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2325,19 +2325,19 @@
         <v>4.855313332914224e-5</v>
       </c>
       <c r="G55">
-        <v>7.300576262269004</v>
+        <v>7.300576262274285</v>
       </c>
       <c r="H55">
-        <v>6.938349254459306e-7</v>
+        <v>6.93834925447074e-7</v>
       </c>
       <c r="I55">
-        <v>0.0001287959559849085</v>
+        <v>0.00012879595598498244</v>
       </c>
       <c r="J55">
-        <v>0.001958943322731265</v>
+        <v>0.0019589433227516933</v>
       </c>
       <c r="K55">
-        <v>4.855307010044333e-5</v>
+        <v>4.855307010060665e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2360,19 +2360,19 @@
         <v>4.856251944121992e-5</v>
       </c>
       <c r="G56">
-        <v>7.302996456811652</v>
+        <v>7.302996456816868</v>
       </c>
       <c r="H56">
-        <v>6.789137483126387e-7</v>
+        <v>6.789137483137631e-7</v>
       </c>
       <c r="I56">
-        <v>0.0001342417875505716</v>
+        <v>0.0001342417875506467</v>
       </c>
       <c r="J56">
-        <v>0.001959908656919867</v>
+        <v>0.0019599086569402476</v>
       </c>
       <c r="K56">
-        <v>4.856245923006945e-5</v>
+        <v>4.856245923023221e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2395,19 +2395,19 @@
         <v>4.8571900294303246e-5</v>
       </c>
       <c r="G57">
-        <v>7.305389358082204</v>
+        <v>7.30538935808735</v>
       </c>
       <c r="H57">
-        <v>6.639925710011582e-7</v>
+        <v>6.639925710022632e-7</v>
       </c>
       <c r="I57">
-        <v>0.00013968883967203569</v>
+        <v>0.00013968883967211185</v>
       </c>
       <c r="J57">
-        <v>0.0019608691660024137</v>
+        <v>0.001960869166022725</v>
       </c>
       <c r="K57">
-        <v>4.85718429547007e-5</v>
+        <v>4.857184295486274e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2430,19 +2430,19 @@
         <v>4.8581275912085146e-5</v>
       </c>
       <c r="G58">
-        <v>7.307755414954863</v>
+        <v>7.307755414959935</v>
       </c>
       <c r="H58">
-        <v>6.490713935112925e-7</v>
+        <v>6.490713935123779e-7</v>
       </c>
       <c r="I58">
-        <v>0.000145137085937483</v>
+        <v>0.0001451370859375601</v>
       </c>
       <c r="J58">
-        <v>0.0019618249558020213</v>
+        <v>0.001961824955822243</v>
       </c>
       <c r="K58">
-        <v>4.858122130513699e-5</v>
+        <v>4.858122130529815e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2465,19 +2465,19 @@
         <v>4.859064631910775e-5</v>
       </c>
       <c r="G59">
-        <v>7.310095067421454</v>
+        <v>7.310095067426449</v>
       </c>
       <c r="H59">
-        <v>6.341502158430197e-7</v>
+        <v>6.341502158440852e-7</v>
       </c>
       <c r="I59">
-        <v>0.00015058650065036068</v>
+        <v>0.0001505865006504386</v>
       </c>
       <c r="J59">
-        <v>0.001962776129254974</v>
+        <v>0.001962776129275084</v>
       </c>
       <c r="K59">
-        <v>4.859059431268738e-5</v>
+        <v>4.859059431284752e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2500,19 +2500,19 @@
         <v>4.860001154070224e-5</v>
       </c>
       <c r="G60">
-        <v>7.312408746763915</v>
+        <v>7.3124087467688295</v>
       </c>
       <c r="H60">
-        <v>6.192290379963376e-7</v>
+        <v>6.192290379973827e-7</v>
       </c>
       <c r="I60">
-        <v>0.00015603705880739083</v>
+        <v>0.0001560370588074694</v>
       </c>
       <c r="J60">
-        <v>0.0019637227864999075</v>
+        <v>0.001963722786519886</v>
       </c>
       <c r="K60">
-        <v>4.8599962009125396e-5</v>
+        <v>4.8599962009284353e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2535,19 +2535,19 @@
         <v>4.860937160293168e-5</v>
       </c>
       <c r="G61">
-        <v>7.314696875725384</v>
+        <v>7.314696875730214</v>
       </c>
       <c r="H61">
-        <v>6.043078599712458e-7</v>
+        <v>6.043078599722705e-7</v>
       </c>
       <c r="I61">
-        <v>0.0001614887360772797</v>
+        <v>0.00016148873607735878</v>
       </c>
       <c r="J61">
-        <v>0.0019646650249641453</v>
+        <v>0.0019646650249839715</v>
       </c>
       <c r="K61">
-        <v>4.8609324426646567e-5</v>
+        <v>4.8609324426804176e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2570,19 +2570,19 @@
         <v>4.8618726532536634e-5</v>
       </c>
       <c r="G62">
-        <v>7.316959868679696</v>
+        <v>7.316959868684438</v>
       </c>
       <c r="H62">
-        <v>5.893866817677445e-7</v>
+        <v>5.893866817687484e-7</v>
       </c>
       <c r="I62">
-        <v>0.00016694150878010703</v>
+        <v>0.0001669415087801866</v>
       </c>
       <c r="J62">
-        <v>0.001965602939447261</v>
+        <v>0.0019656029394669147</v>
       </c>
       <c r="K62">
-        <v>4.8618681597828255e-5</v>
+        <v>4.861868159798436e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2605,19 +2605,19 @@
         <v>4.8628076356883364e-5</v>
       </c>
       <c r="G63">
-        <v>7.319198131799122</v>
+        <v>7.319198131803772</v>
       </c>
       <c r="H63">
-        <v>5.744655033858336e-7</v>
+        <v>5.744655033868163e-7</v>
       </c>
       <c r="I63">
-        <v>0.00017239535386737645</v>
+        <v>0.0001723953538674563</v>
       </c>
       <c r="J63">
-        <v>0.0019665366222019576</v>
+        <v>0.0019665366222214173</v>
       </c>
       <c r="K63">
-        <v>4.862803355559158e-5</v>
+        <v>4.862803355574602e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2640,19 +2640,19 @@
         <v>4.8637421103914775e-5</v>
       </c>
       <c r="G64">
-        <v>7.3214120632201976</v>
+        <v>7.321412063224755</v>
       </c>
       <c r="H64">
-        <v>5.59544324825513e-7</v>
+        <v>5.595443248264742e-7</v>
       </c>
       <c r="I64">
-        <v>0.00017785024890270703</v>
+        <v>0.000177850248902787</v>
       </c>
       <c r="J64">
-        <v>0.0019674661630123234</v>
+        <v>0.0019674661630315698</v>
       </c>
       <c r="K64">
-        <v>4.863738033316531e-5</v>
+        <v>4.8637380333317936e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2675,19 +2675,19 @@
         <v>4.864676080210364e-5</v>
       </c>
       <c r="G65">
-        <v>7.323602053207524</v>
+        <v>7.323602053211983</v>
       </c>
       <c r="H65">
-        <v>5.446231460867828e-7</v>
+        <v>5.446231460877223e-7</v>
       </c>
       <c r="I65">
-        <v>0.00018330617204314782</v>
+        <v>0.00018330617204322783</v>
       </c>
       <c r="J65">
-        <v>0.0019683916492695677</v>
+        <v>0.0019683916492885803</v>
       </c>
       <c r="K65">
-        <v>4.864672196405172e-5</v>
+        <v>4.864672196420239e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2710,19 +2710,19 @@
         <v>4.865609548040828e-5</v>
       </c>
       <c r="G66">
-        <v>7.325768484315413</v>
+        <v>7.325768484319773</v>
       </c>
       <c r="H66">
-        <v>5.29701967169643e-7</v>
+        <v>5.297019671705603e-7</v>
       </c>
       <c r="I66">
-        <v>0.00018876310202109691</v>
+        <v>0.00018876310202117677</v>
       </c>
       <c r="J66">
-        <v>0.001969313166045284</v>
+        <v>0.0019693131660640426</v>
       </c>
       <c r="K66">
-        <v>4.865605848199428e-5</v>
+        <v>4.8656058482142824e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2745,19 +2745,19 @@
         <v>4.8665425168230425e-5</v>
       </c>
       <c r="G67">
-        <v>7.3279117315472915</v>
+        <v>7.327911731551549</v>
       </c>
       <c r="H67">
-        <v>5.147807880740935e-7</v>
+        <v>5.147807880749884e-7</v>
       </c>
       <c r="I67">
-        <v>0.0001942210181268062</v>
+        <v>0.00019422101812688574</v>
       </c>
       <c r="J67">
-        <v>0.001970230796162336</v>
+        <v>0.0019702307961808213</v>
       </c>
       <c r="K67">
-        <v>4.8665389920947014e-5</v>
+        <v>4.8665389921093286e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2780,19 +2780,19 @@
         <v>4.867474989537532e-5</v>
       </c>
       <c r="G68">
-        <v>7.330032162512778</v>
+        <v>7.33003216251693</v>
       </c>
       <c r="H68">
-        <v>4.998596088001341e-7</v>
+        <v>4.998596088010065e-7</v>
       </c>
       <c r="I68">
-        <v>0.00019967990019145414</v>
+        <v>0.00019967990019153332</v>
       </c>
       <c r="J68">
-        <v>0.001971144620263432</v>
+        <v>0.0019711446202816236</v>
       </c>
       <c r="K68">
-        <v>4.8674716315045584e-5</v>
+        <v>4.8674716315189424e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2815,19 +2815,19 @@
         <v>4.868406969201376e-5</v>
       </c>
       <c r="G69">
-        <v>7.332130137582352</v>
+        <v>7.332130137586397</v>
       </c>
       <c r="H69">
-        <v>4.849384293477652e-7</v>
+        <v>4.849384293486149e-7</v>
       </c>
       <c r="I69">
-        <v>0.00020513972857076916</v>
+        <v>0.0002051397285708477</v>
       </c>
       <c r="J69">
-        <v>0.001972054716877457</v>
+        <v>0.0019720547168953365</v>
       </c>
       <c r="K69">
-        <v>4.868403769857993e-5</v>
+        <v>4.868403769872121e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2850,19 +2850,19 @@
         <v>4.869338458864625e-5</v>
       </c>
       <c r="G70">
-        <v>7.334206010039582</v>
+        <v>7.334206010043516</v>
       </c>
       <c r="H70">
-        <v>4.700172497169867e-7</v>
+        <v>4.700172497178133e-7</v>
       </c>
       <c r="I70">
-        <v>0.0002106004841291857</v>
+        <v>0.00021060048412926367</v>
       </c>
       <c r="J70">
-        <v>0.0019729611624836447</v>
+        <v>0.001972961162501192</v>
       </c>
       <c r="K70">
-        <v>4.8693354105968434e-5</v>
+        <v>4.869335410610702e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2885,19 +2885,19 @@
         <v>4.870269461606887e-5</v>
       </c>
       <c r="G71">
-        <v>7.336260126230828</v>
+        <v>7.33626012623465</v>
       </c>
       <c r="H71">
-        <v>4.5509606990779853e-7</v>
+        <v>4.5509606990860195e-7</v>
       </c>
       <c r="I71">
-        <v>0.00021606214822451756</v>
+        <v>0.00021606214822459473</v>
       </c>
       <c r="J71">
-        <v>0.001973864031573638</v>
+        <v>0.0019738640315908346</v>
       </c>
       <c r="K71">
-        <v>4.8702665571733465e-5</v>
+        <v>4.870266557186923e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2920,19 +2920,19 @@
         <v>4.871199980534106e-5</v>
       </c>
       <c r="G72">
-        <v>7.338292825712414</v>
+        <v>7.338292825716122</v>
       </c>
       <c r="H72">
-        <v>4.401748899202007e-7</v>
+        <v>4.401748899209807e-7</v>
       </c>
       <c r="I72">
-        <v>0.00022152470269312958</v>
+        <v>0.00022152470269320583</v>
       </c>
       <c r="J72">
-        <v>0.0019747633967115296</v>
+        <v>0.0019747633967283577</v>
       </c>
       <c r="K72">
-        <v>4.8711972130478365e-5</v>
+        <v>4.871197213061115e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2955,19 +2955,19 @@
         <v>4.872130018775504e-5</v>
       </c>
       <c r="G73">
-        <v>7.340304441395221</v>
+        <v>7.340304441398813</v>
       </c>
       <c r="H73">
-        <v>4.2525370975419356e-7</v>
+        <v>4.252537097549497e-7</v>
       </c>
       <c r="I73">
-        <v>0.00022698812983559439</v>
+        <v>0.00022698812983566952</v>
       </c>
       <c r="J73">
-        <v>0.0019756593285919282</v>
+        <v>0.0019756593286083695</v>
       </c>
       <c r="K73">
-        <v>4.872127381686563e-5</v>
+        <v>4.872127381699529e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2990,19 +2990,19 @@
         <v>4.8730595794806986e-5</v>
       </c>
       <c r="G74">
-        <v>7.342295299686685</v>
+        <v>7.34229529969016</v>
       </c>
       <c r="H74">
-        <v>4.1033252940977676e-7</v>
+        <v>4.1033252941050876e-7</v>
       </c>
       <c r="I74">
-        <v>0.00023245241240281637</v>
+        <v>0.00023245241240289036</v>
       </c>
       <c r="J74">
-        <v>0.0019765518960961257</v>
+        <v>0.0019765518961121636</v>
       </c>
       <c r="K74">
-        <v>4.873057066559639e-5</v>
+        <v>4.873057066572281e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3025,19 +3025,19 @@
         <v>4.873988665816952e-5</v>
       </c>
       <c r="G75">
-        <v>7.344265720630185</v>
+        <v>7.3442657206335396</v>
       </c>
       <c r="H75">
-        <v>3.9541134888695037e-7</v>
+        <v>3.9541134888765785e-7</v>
       </c>
       <c r="I75">
-        <v>0.00023791753358260888</v>
+        <v>0.00023791753358268152</v>
       </c>
       <c r="J75">
-        <v>0.0019774411663464244</v>
+        <v>0.0019774411663620413</v>
       </c>
       <c r="K75">
-        <v>4.873986271139109e-5</v>
+        <v>4.8739862711514134e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3060,19 +3060,19 @@
         <v>4.8749172809666e-5</v>
       </c>
       <c r="G76">
-        <v>7.346216018041816</v>
+        <v>7.34621601804505</v>
       </c>
       <c r="H76">
-        <v>3.804901681857143e-7</v>
+        <v>3.8049016818639703e-7</v>
       </c>
       <c r="I76">
-        <v>0.00024338347698670877</v>
+        <v>0.00024338347698678</v>
       </c>
       <c r="J76">
-        <v>0.001978327204758684</v>
+        <v>0.001978327204773863</v>
       </c>
       <c r="K76">
-        <v>4.8749149988971205e-5</v>
+        <v>4.874914998909074e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3095,19 +3095,19 @@
         <v>4.875845428124592e-5</v>
       </c>
       <c r="G77">
-        <v>7.348146499644544</v>
+        <v>7.348146499647655</v>
       </c>
       <c r="H77">
-        <v>3.655689873060687e-7</v>
+        <v>3.655689873067263e-7</v>
       </c>
       <c r="I77">
-        <v>0.00024885022663821536</v>
+        <v>0.00024885022663828497</v>
       </c>
       <c r="J77">
-        <v>0.0019792100750931473</v>
+        <v>0.0019792100751078725</v>
       </c>
       <c r="K77">
-        <v>4.875843253304208e-5</v>
+        <v>4.875843253315799e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3130,19 +3130,19 @@
         <v>4.8767731104961906e-5</v>
       </c>
       <c r="G78">
-        <v>7.350057467199741</v>
+        <v>7.350057467202728</v>
       </c>
       <c r="H78">
-        <v>3.506478062480133e-7</v>
+        <v>3.506478062486457e-7</v>
       </c>
       <c r="I78">
-        <v>0.0002543177669594374</v>
+        <v>0.0002543177669595054</v>
       </c>
       <c r="J78">
-        <v>0.0019800898395036072</v>
+        <v>0.0019800898395178628</v>
       </c>
       <c r="K78">
-        <v>4.876771037827678e-5</v>
+        <v>4.876771037838892e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3165,19 +3165,19 @@
         <v>4.877700331294782e-5</v>
       </c>
       <c r="G79">
-        <v>7.351949216636122</v>
+        <v>7.351949216638984</v>
       </c>
       <c r="H79">
-        <v>3.357266250115483e-7</v>
+        <v>3.357266250121552e-7</v>
       </c>
       <c r="I79">
-        <v>0.0002597860827601375</v>
+        <v>0.0002597860827602037</v>
       </c>
       <c r="J79">
-        <v>0.0019809665585849598</v>
+        <v>0.00198096655859873</v>
       </c>
       <c r="K79">
-        <v>4.87769835593008e-5</v>
+        <v>4.877698355940907e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3200,19 +3200,19 @@
         <v>4.8786270937398226e-5</v>
       </c>
       <c r="G80">
-        <v>7.353822038176085</v>
+        <v>7.353822038178821</v>
       </c>
       <c r="H80">
-        <v>3.208054435966736e-7</v>
+        <v>3.208054435972548e-7</v>
       </c>
       <c r="I80">
-        <v>0.0002652551592261574</v>
+        <v>0.00026525515922622167</v>
       </c>
       <c r="J80">
-        <v>0.00198184029141921</v>
+        <v>0.0019818402914324796</v>
       </c>
       <c r="K80">
-        <v>4.8786252110677864e-5</v>
+        <v>4.878625211078215e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3235,19 +3235,19 @@
         <v>4.8795534010548884e-5</v>
       </c>
       <c r="G81">
-        <v>7.355676216459474</v>
+        <v>7.355676216462084</v>
       </c>
       <c r="H81">
-        <v>3.058842620033892e-7</v>
+        <v>3.058842620039445e-7</v>
       </c>
       <c r="I81">
-        <v>0.0002707249819084142</v>
+        <v>0.0002707249819084765</v>
       </c>
       <c r="J81">
-        <v>0.0019827110956199706</v>
+        <v>0.0019827110956327264</v>
       </c>
       <c r="K81">
-        <v>4.879551606689645e-5</v>
+        <v>4.879551606699663e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3270,19 +3270,19 @@
         <v>4.880479256465848e-5</v>
       </c>
       <c r="G82">
-        <v>7.357512030664791</v>
+        <v>7.357512030667274</v>
       </c>
       <c r="H82">
-        <v>2.9096308023169507e-7</v>
+        <v>2.909630802322243e-7</v>
       </c>
       <c r="I82">
-        <v>0.00027619553671225333</v>
+        <v>0.00027619553671231345</v>
       </c>
       <c r="J82">
-        <v>0.001983579027375516</v>
+        <v>0.0019835790273877445</v>
       </c>
       <c r="K82">
-        <v>4.880477546235711e-5</v>
+        <v>4.8804775462453097e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3305,19 +3305,19 @@
         <v>4.88140466319913e-5</v>
       </c>
       <c r="G83">
-        <v>7.359329754627875</v>
+        <v>7.359329754630228</v>
       </c>
       <c r="H83">
-        <v>2.7604189828159116e-7</v>
+        <v>2.760418982820943e-7</v>
       </c>
       <c r="I83">
-        <v>0.00028166680988714663</v>
+        <v>0.0002816668098872046</v>
       </c>
       <c r="J83">
-        <v>0.001984444141490432</v>
+        <v>0.001984444141502119</v>
       </c>
       <c r="K83">
-        <v>4.88140303313608e-5</v>
+        <v>4.881403033145249e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3340,19 +3340,19 @@
         <v>4.882329624480103e-5</v>
       </c>
       <c r="G84">
-        <v>7.3611296569580675</v>
+        <v>7.361129656960293</v>
       </c>
       <c r="H84">
-        <v>2.611207161530776e-7</v>
+        <v>2.611207161535544e-7</v>
       </c>
       <c r="I84">
-        <v>0.0002871387880167243</v>
+        <v>0.0002871387880167798</v>
       </c>
       <c r="J84">
-        <v>0.0019853064914259104</v>
+        <v>0.0019853064914370443</v>
       </c>
       <c r="K84">
-        <v>4.882328070809763e-5</v>
+        <v>4.882328070818494e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3375,19 +3375,19 @@
         <v>4.88325414353154e-5</v>
       </c>
       <c r="G85">
-        <v>7.362912001151922</v>
+        <v>7.362912001154018</v>
       </c>
       <c r="H85">
-        <v>2.461995338461542e-7</v>
+        <v>2.461995338466047e-7</v>
       </c>
       <c r="I85">
-        <v>0.00029261145800912853</v>
+        <v>0.00029261145800918165</v>
       </c>
       <c r="J85">
-        <v>0.001986166129338741</v>
+        <v>0.0019861661293493088</v>
       </c>
       <c r="K85">
-        <v>4.883252662663663e-5</v>
+        <v>4.8832526626719456e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3410,19 +3410,19 @@
         <v>4.884178223572182e-5</v>
       </c>
       <c r="G86">
-        <v>7.364677045704442</v>
+        <v>7.364677045706409</v>
       </c>
       <c r="H86">
-        <v>2.3127835136082112e-7</v>
+        <v>2.3127835136124512e-7</v>
       </c>
       <c r="I86">
-        <v>0.00029808480708767935</v>
+        <v>0.0002980848070877298</v>
       </c>
       <c r="J86">
-        <v>0.001987023106119033</v>
+        <v>0.0019870231061290223</v>
       </c>
       <c r="K86">
-        <v>4.8841768120915935e-5</v>
+        <v>4.884176812099418e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3445,19 +3445,19 @@
         <v>4.8851018678153754e-5</v>
       </c>
       <c r="G87">
-        <v>7.36642504421793</v>
+        <v>7.366425044219767</v>
       </c>
       <c r="H87">
-        <v>2.163571686970784e-7</v>
+        <v>2.1635716869747569e-7</v>
       </c>
       <c r="I87">
-        <v>0.00030355882278183983</v>
+        <v>0.0003035588227818876</v>
       </c>
       <c r="J87">
-        <v>0.001987877471426723</v>
+        <v>0.0019878774714361235</v>
       </c>
       <c r="K87">
-        <v>4.885100522473374e-5</v>
+        <v>4.8851005224807346e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3480,19 +3480,19 @@
         <v>4.8860250794678126e-5</v>
       </c>
       <c r="G88">
-        <v>7.368156245508437</v>
+        <v>7.368156245510144</v>
       </c>
       <c r="H88">
-        <v>2.0143598585492597e-7</v>
+        <v>2.0143598585529647e-7</v>
       </c>
       <c r="I88">
-        <v>0.0003090334929184729</v>
+        <v>0.00030903349291851786</v>
       </c>
       <c r="J88">
-        <v>0.0019887292737269025</v>
+        <v>0.001988729273735704</v>
       </c>
       <c r="K88">
-        <v>4.886023797173989e-5</v>
+        <v>4.8860237971808766e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3515,19 +3515,19 @@
         <v>4.88694786172833e-5</v>
       </c>
       <c r="G89">
-        <v>7.369870893709886</v>
+        <v>7.369870893711464</v>
       </c>
       <c r="H89">
-        <v>1.8651480283436387e-7</v>
+        <v>1.865148028347074e-7</v>
       </c>
       <c r="I89">
-        <v>0.00031450880561337806</v>
+        <v>0.0003145088056134201</v>
       </c>
       <c r="J89">
-        <v>0.001989578560324007</v>
+        <v>0.0019895785603321996</v>
       </c>
       <c r="K89">
-        <v>4.886946639542791e-5</v>
+        <v>4.8869466395492e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3550,19 +3550,19 @@
         <v>4.8878702177867916e-5</v>
       </c>
       <c r="G90">
-        <v>7.37156922837588</v>
+        <v>7.371569228377328</v>
       </c>
       <c r="H90">
-        <v>1.7159361963539201e-7</v>
+        <v>1.715936196357085e-7</v>
       </c>
       <c r="I90">
-        <v>0.0003199847492630994</v>
+        <v>0.00031998474926313845</v>
       </c>
       <c r="J90">
-        <v>0.0019904253773949067</v>
+        <v>0.001990425377402481</v>
       </c>
       <c r="K90">
-        <v>4.8878690529127716e-5</v>
+        <v>4.887869052918693e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3585,19 +3585,19 @@
         <v>4.88879215082304e-5</v>
       </c>
       <c r="G91">
-        <v>7.373251484579244</v>
+        <v>7.373251484580562</v>
       </c>
       <c r="H91">
-        <v>1.566724362580104e-7</v>
+        <v>1.566724362582998e-7</v>
       </c>
       <c r="I91">
-        <v>0.00032546131253699485</v>
+        <v>0.00032546131253703096</v>
       </c>
       <c r="J91">
-        <v>0.0019912697700209345</v>
+        <v>0.001991269770027881</v>
       </c>
       <c r="K91">
-        <v>4.888791040599874e-5</v>
+        <v>4.8887910406053044e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3620,19 +3620,19 @@
         <v>4.889713664005915e-5</v>
       </c>
       <c r="G92">
-        <v>7.374917893009334</v>
+        <v>7.374917893010523</v>
       </c>
       <c r="H92">
-        <v>1.4175125270221903e-7</v>
+        <v>1.4175125270248124e-7</v>
       </c>
       <c r="I92">
-        <v>0.0003309384843695591</v>
+        <v>0.00033093848436959204</v>
       </c>
       <c r="J92">
-        <v>0.0019921117822188903</v>
+        <v>0.0019921117822252012</v>
       </c>
       <c r="K92">
-        <v>4.889712605902364e-5</v>
+        <v>4.889712605907294e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3655,19 +3655,19 @@
         <v>4.890634760492333e-5</v>
       </c>
       <c r="G93">
-        <v>7.376568680067163</v>
+        <v>7.376568680068224</v>
       </c>
       <c r="H93">
-        <v>1.2683006896801793e-7</v>
+        <v>1.268300689682528e-7</v>
       </c>
       <c r="I93">
-        <v>0.0003364162539529896</v>
+        <v>0.0003364162539530193</v>
       </c>
       <c r="J93">
-        <v>0.0019929514569710567</v>
+        <v>0.001992951456976724</v>
       </c>
       <c r="K93">
-        <v>4.890633752100235e-5</v>
+        <v>4.8906337521046596e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3690,19 +3690,19 @@
         <v>4.891555443426433e-5</v>
       </c>
       <c r="G94">
-        <v>7.378204067958367</v>
+        <v>7.378204067959299</v>
       </c>
       <c r="H94">
-        <v>1.119088850554071e-7</v>
+        <v>1.1190888505561452e-7</v>
       </c>
       <c r="I94">
-        <v>0.000341894610729989</v>
+        <v>0.0003418946107300154</v>
       </c>
       <c r="J94">
-        <v>0.001993788836254255</v>
+        <v>0.001993788836259273</v>
       </c>
       <c r="K94">
-        <v>4.891554482454672e-5</v>
+        <v>4.891554482458588e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3725,19 +3725,19 @@
         <v>4.8924757159387726e-5</v>
       </c>
       <c r="G95">
-        <v>7.379824274784064</v>
+        <v>7.379824274784869</v>
       </c>
       <c r="H95">
-        <v>9.698770096438653e-8</v>
+        <v>9.698770096456642e-8</v>
       </c>
       <c r="I95">
-        <v>0.00034737354438679573</v>
+        <v>0.0003473735443868187</v>
       </c>
       <c r="J95">
-        <v>0.001994623961067982</v>
+        <v>0.0019946239610723437</v>
       </c>
       <c r="K95">
-        <v>4.892474800207546e-5</v>
+        <v>4.892474800210947e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3760,19 +3760,19 @@
         <v>4.893395581145584e-5</v>
       </c>
       <c r="G96">
-        <v>7.381429514629644</v>
+        <v>7.381429514630321</v>
       </c>
       <c r="H96">
-        <v>8.206651669495618e-8</v>
+        <v>8.206651669510848e-8</v>
       </c>
       <c r="I96">
-        <v>0.0003528530448464334</v>
+        <v>0.0003528530448464529</v>
       </c>
       <c r="J96">
-        <v>0.001995456871461653</v>
+        <v>0.001995456871465353</v>
       </c>
       <c r="K96">
-        <v>4.893394708580952e-5</v>
+        <v>4.893394708583836e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3795,19 +3795,19 @@
         <v>4.894315042148079e-5</v>
       </c>
       <c r="G97">
-        <v>7.383019997651523</v>
+        <v>7.383019997652075</v>
       </c>
       <c r="H97">
-        <v>6.714533224711605e-8</v>
+        <v>6.714533224724071e-8</v>
       </c>
       <c r="I97">
-        <v>0.00035833310226217373</v>
+        <v>0.0003583331022621897</v>
       </c>
       <c r="J97">
-        <v>0.0019962876065609827</v>
+        <v>0.001996287606564017</v>
       </c>
       <c r="K97">
-        <v>4.894314210776785e-5</v>
+        <v>4.894314210779149e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3830,19 +3830,19 @@
         <v>4.8952341020318004e-5</v>
       </c>
       <c r="G98">
-        <v>7.384595930161911</v>
+        <v>7.384595930162338</v>
       </c>
       <c r="H98">
-        <v>5.222414762086611e-8</v>
+        <v>5.222414762096311e-8</v>
       </c>
       <c r="I98">
-        <v>0.00036381370701120435</v>
+        <v>0.000363813707011217</v>
       </c>
       <c r="J98">
-        <v>0.0019971162045935376</v>
+        <v>0.001997116204595902</v>
       </c>
       <c r="K98">
-        <v>4.895233309976352e-5</v>
+        <v>4.895233309978194e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3865,19 +3865,19 @@
         <v>4.89615276386603e-5</v>
       </c>
       <c r="G99">
-        <v>7.3861575147116305</v>
+        <v>7.386157514711934</v>
       </c>
       <c r="H99">
-        <v>3.7302962816206375e-8</v>
+        <v>3.7302962816275686e-8</v>
       </c>
       <c r="I99">
-        <v>0.0003692948496884951</v>
+        <v>0.00036929484968850417</v>
       </c>
       <c r="J99">
-        <v>0.0019979427029134834</v>
+        <v>0.0019979427029151752</v>
       </c>
       <c r="K99">
-        <v>4.896152009340015e-5</v>
+        <v>4.8961520093413324e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3900,19 +3900,19 @@
         <v>4.897071030703227e-5</v>
       </c>
       <c r="G100">
-        <v>7.387704950171019</v>
+        <v>7.387704950171201</v>
       </c>
       <c r="H100">
-        <v>2.238177783313684e-8</v>
+        <v>2.238177783317844e-8</v>
       </c>
       <c r="I100">
-        <v>0.00037477652110085545</v>
+        <v>0.0003747765211008609</v>
       </c>
       <c r="J100">
-        <v>0.001998767138025555</v>
+        <v>0.001998767138026572</v>
       </c>
       <c r="K100">
-        <v>4.897070312006872e-5</v>
+        <v>4.897070312007662e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3935,19 +3935,19 @@
         <v>4.8979889055785175e-5</v>
       </c>
       <c r="G101">
-        <v>7.389238431808969</v>
+        <v>7.389238431809028</v>
       </c>
       <c r="H101">
-        <v>7.460592671657507e-9</v>
+        <v>7.460592671671374e-9</v>
       </c>
       <c r="I101">
-        <v>0.000380258712261177</v>
+        <v>0.00038025871226117877</v>
       </c>
       <c r="J101">
-        <v>0.001999589545608282</v>
+        <v>0.001999589545608621</v>
       </c>
       <c r="K101">
-        <v>4.897988221094454e-5</v>
+        <v>4.897988221094718e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
@@ -461,7 +461,7 @@
         <v>0.00024547421372916374</v>
       </c>
       <c r="D2">
-        <v>-2.297460982976394e-7</v>
+        <v>-2.2974609829764127e-7</v>
       </c>
       <c r="E2">
         <v>0.001999093298062759</v>
@@ -470,19 +470,19 @@
         <v>4.895850065801972e-5</v>
       </c>
       <c r="G2">
-        <v>8.135096420964153</v>
+        <v>8.135096420964159</v>
       </c>
       <c r="H2">
-        <v>0.00024547421498519927</v>
+        <v>0.00024547421498519916</v>
       </c>
       <c r="I2">
-        <v>-2.2974716097802217e-7</v>
+        <v>-2.2974716097803858e-7</v>
       </c>
       <c r="J2">
-        <v>0.001999093299017841</v>
+        <v>0.001999093299017785</v>
       </c>
       <c r="K2">
-        <v>4.895850067704679e-5</v>
+        <v>4.895850067704641e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -490,13 +490,13 @@
         <v>-0.047</v>
       </c>
       <c r="B3">
-        <v>8.104388942708276</v>
+        <v>8.104388942708278</v>
       </c>
       <c r="C3">
         <v>0.00023642264118749144</v>
       </c>
       <c r="D3">
-        <v>-6.889671100388346e-7</v>
+        <v>-6.88967110038858e-7</v>
       </c>
       <c r="E3">
         <v>0.001997257777178231</v>
@@ -505,19 +505,19 @@
         <v>4.890697463079368e-5</v>
       </c>
       <c r="G3">
-        <v>8.104388964815001</v>
+        <v>8.104388964815014</v>
       </c>
       <c r="H3">
-        <v>0.00023642264490356232</v>
+        <v>0.0002364226449035619</v>
       </c>
       <c r="I3">
-        <v>-6.889703013738608e-7</v>
+        <v>-6.889703013739102e-7</v>
       </c>
       <c r="J3">
-        <v>0.001997257780046121</v>
+        <v>0.0019972577800459533</v>
       </c>
       <c r="K3">
-        <v>4.8906974684561654e-5</v>
+        <v>4.890697468456049e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -525,34 +525,34 @@
         <v>-0.045</v>
       </c>
       <c r="B4">
-        <v>8.072458785385557</v>
+        <v>8.072458785385555</v>
       </c>
       <c r="C4">
         <v>0.00022737106864582178</v>
       </c>
       <c r="D4">
-        <v>-1.147776525835528e-6</v>
+        <v>-1.1477765258355492e-6</v>
       </c>
       <c r="E4">
-        <v>0.001995389575056424</v>
+        <v>0.0019953895750564224</v>
       </c>
       <c r="F4">
-        <v>4.885618896323914e-5</v>
+        <v>4.885618896323903e-5</v>
       </c>
       <c r="G4">
-        <v>8.072458822583458</v>
+        <v>8.072458822583476</v>
       </c>
       <c r="H4">
-        <v>0.00022737107471369918</v>
+        <v>0.00022737107471369845</v>
       </c>
       <c r="I4">
-        <v>-1.147781851452705e-6</v>
+        <v>-1.1477818514527874e-6</v>
       </c>
       <c r="J4">
-        <v>0.00199538957975571</v>
+        <v>0.0019953895797554296</v>
       </c>
       <c r="K4">
-        <v>4.8856189048060505e-5</v>
+        <v>4.8856189048058554e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -560,34 +560,34 @@
         <v>-0.043000000000000003</v>
       </c>
       <c r="B5">
-        <v>8.039295428512167</v>
+        <v>8.039295428511515</v>
       </c>
       <c r="C5">
         <v>0.00021831949610417155</v>
       </c>
       <c r="D5">
-        <v>-1.6061058253089532e-6</v>
+        <v>-1.6061058253089356e-6</v>
       </c>
       <c r="E5">
-        <v>0.001993484502652199</v>
+        <v>0.001993484502651988</v>
       </c>
       <c r="F5">
-        <v>4.880639635911501e-5</v>
+        <v>4.880639635910193e-5</v>
       </c>
       <c r="G5">
-        <v>8.03929548098283</v>
+        <v>8.039295480982851</v>
       </c>
       <c r="H5">
-        <v>0.00021831950441562222</v>
+        <v>0.00021831950441562122</v>
       </c>
       <c r="I5">
-        <v>-1.6061132905523196e-6</v>
+        <v>-1.6061132905524348e-6</v>
       </c>
       <c r="J5">
-        <v>0.0019934845091031427</v>
+        <v>0.0019934845091027506</v>
       </c>
       <c r="K5">
-        <v>4.88063964710203e-5</v>
+        <v>4.8806396471017576e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -595,34 +595,34 @@
         <v>-0.041</v>
       </c>
       <c r="B6">
-        <v>8.004912732423584</v>
+        <v>8.004912732400392</v>
       </c>
       <c r="C6">
         <v>0.00020926792356265546</v>
       </c>
       <c r="D6">
-        <v>-2.0638761618560073e-6</v>
+        <v>-2.063876161855621e-6</v>
       </c>
       <c r="E6">
-        <v>0.001991538006282835</v>
+        <v>0.0019915380062756087</v>
       </c>
       <c r="F6">
-        <v>4.875787685249672e-5</v>
+        <v>4.875787685204749e-5</v>
       </c>
       <c r="G6">
-        <v>8.00491280016716</v>
+        <v>8.00491280016718</v>
       </c>
       <c r="H6">
-        <v>0.00020926793400941778</v>
+        <v>0.0002092679340094166</v>
       </c>
       <c r="I6">
-        <v>-2.0638857717554386e-6</v>
+        <v>-2.0638857717555873e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019915380144006206</v>
+        <v>0.001991538014400118</v>
       </c>
       <c r="K6">
-        <v>4.8757876986843315e-5</v>
+        <v>4.8757876986839825e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -630,34 +630,34 @@
         <v>-0.03900000000000001</v>
       </c>
       <c r="B7">
-        <v>7.969355790734516</v>
+        <v>7.969355790380775</v>
       </c>
       <c r="C7">
         <v>0.0002002163510219987</v>
       </c>
       <c r="D7">
-        <v>-2.520998152460302e-6</v>
+        <v>-2.5209981524535075e-6</v>
       </c>
       <c r="E7">
-        <v>0.0019895452661997603</v>
+        <v>0.001989545266093469</v>
       </c>
       <c r="F7">
-        <v>4.8710933026423354e-5</v>
+        <v>4.8710933019802436e-5</v>
       </c>
       <c r="G7">
-        <v>7.969355873247168</v>
+        <v>7.969355873247185</v>
       </c>
       <c r="H7">
-        <v>0.00020021636349564417</v>
+        <v>0.00020021636349564284</v>
       </c>
       <c r="I7">
-        <v>-2.5210099117675725e-6</v>
+        <v>-2.5210099117677546e-6</v>
       </c>
       <c r="J7">
-        <v>0.001989545275815077</v>
+        <v>0.001989545275814464</v>
       </c>
       <c r="K7">
-        <v>4.871093317302147e-5</v>
+        <v>4.87109331730172e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -665,34 +665,34 @@
         <v>-0.037000000000000005</v>
       </c>
       <c r="B8">
-        <v>7.93270743302684</v>
+        <v>7.932707429996983</v>
       </c>
       <c r="C8">
         <v>0.00019116477848642389</v>
       </c>
       <c r="D8">
-        <v>-2.977372439453194e-6</v>
+        <v>-2.9773724393911896e-6</v>
       </c>
       <c r="E8">
-        <v>0.0019875013590621477</v>
+        <v>0.001987501358181502</v>
       </c>
       <c r="F8">
-        <v>4.866588139187271e-5</v>
+        <v>4.866588133692535e-5</v>
       </c>
       <c r="G8">
-        <v>7.932707527487863</v>
+        <v>7.932707527487873</v>
       </c>
       <c r="H8">
-        <v>0.00019116479287762845</v>
+        <v>0.00019116479287762696</v>
       </c>
       <c r="I8">
-        <v>-2.9773863530358363e-6</v>
+        <v>-2.9773863530360514e-6</v>
       </c>
       <c r="J8">
-        <v>0.0019875013694217593</v>
+        <v>0.001987501369421037</v>
       </c>
       <c r="K8">
-        <v>4.866588150393345e-5</v>
+        <v>4.866588150392841e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,34 +700,34 @@
         <v>-0.035</v>
       </c>
       <c r="B9">
-        <v>7.895093137531807</v>
+        <v>7.895093120536597</v>
       </c>
       <c r="C9">
         <v>0.0001821132059786206</v>
       </c>
       <c r="D9">
-        <v>-3.4328912976434353e-6</v>
+        <v>-3.4328912973124906e-6</v>
       </c>
       <c r="E9">
-        <v>0.0019854014899063936</v>
+        <v>0.001985401485111393</v>
       </c>
       <c r="F9">
-        <v>4.862303950514404e-5</v>
+        <v>4.862303920550112e-5</v>
       </c>
       <c r="G9">
-        <v>7.8950932318318685</v>
+        <v>7.895093231831868</v>
       </c>
       <c r="H9">
-        <v>0.00018211322217364387</v>
+        <v>0.00018211322217364225</v>
       </c>
       <c r="I9">
-        <v>-3.432907372646358e-6</v>
+        <v>-3.432907372646606e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019854014977888352</v>
+        <v>0.0019854014977880043</v>
       </c>
       <c r="K9">
-        <v>4.8623039381560274e-5</v>
+        <v>4.862303938155446e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,34 +735,34 @@
         <v>-0.033</v>
       </c>
       <c r="B10">
-        <v>7.856682836715198</v>
+        <v>7.856682767968635</v>
       </c>
       <c r="C10">
         <v>0.00017306163361104093</v>
       </c>
       <c r="D10">
-        <v>-3.887441450222554e-6</v>
+        <v>-3.887441449188127e-6</v>
       </c>
       <c r="E10">
-        <v>0.001983241285307664</v>
+        <v>0.001983241266407608</v>
       </c>
       <c r="F10">
-        <v>4.858270916422377e-5</v>
+        <v>4.8582707981164e-5</v>
       </c>
       <c r="G10">
-        <v>7.856682891804744</v>
+        <v>7.85668289180472</v>
       </c>
       <c r="H10">
-        <v>0.00017306165147618085</v>
+        <v>0.00017306165147617912</v>
       </c>
       <c r="I10">
-        <v>-3.887459706269235e-6</v>
+        <v>-3.887459706269515e-6</v>
       </c>
       <c r="J10">
-        <v>0.001983241280430069</v>
+        <v>0.0019832412804291306</v>
       </c>
       <c r="K10">
-        <v>4.8582708161486215e-5</v>
+        <v>4.858270816147962e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,34 +770,34 @@
         <v>-0.031</v>
       </c>
       <c r="B11">
-        <v>7.817688165071236</v>
+        <v>7.817687950983991</v>
       </c>
       <c r="C11">
         <v>0.00016401006189765486</v>
       </c>
       <c r="D11">
-        <v>-4.340907963431978e-6</v>
+        <v>-4.34090796224581e-6</v>
       </c>
       <c r="E11">
-        <v>0.001981017118973278</v>
+        <v>0.0019810170613944584</v>
       </c>
       <c r="F11">
-        <v>4.854515705513176e-5</v>
+        <v>4.8545153443123554e-5</v>
       </c>
       <c r="G11">
-        <v>7.8176880853796895</v>
+        <v>7.817688085379634</v>
       </c>
       <c r="H11">
-        <v>0.00016401008121656233</v>
+        <v>0.00016401008121656046</v>
       </c>
       <c r="I11">
-        <v>-4.340928475296392e-6</v>
+        <v>-4.340928475296701e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019810170766358885</v>
+        <v>0.0019810170766348424</v>
       </c>
       <c r="K11">
-        <v>4.8545153622744405e-5</v>
+        <v>4.8545153622737046e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,34 +805,34 @@
         <v>-0.029000000000000005</v>
       </c>
       <c r="B12">
-        <v>7.778354310963234</v>
+        <v>7.778353772737127</v>
       </c>
       <c r="C12">
         <v>0.00015495849300433697</v>
       </c>
       <c r="D12">
-        <v>-4.793178453831554e-6</v>
+        <v>-4.793178459866295e-6</v>
       </c>
       <c r="E12">
-        <v>0.0019787264204442897</v>
+        <v>0.0019787262783050345</v>
       </c>
       <c r="F12">
-        <v>4.8510595296213286e-5</v>
+        <v>4.8510586351865914e-5</v>
       </c>
       <c r="G12">
-        <v>7.778353914020216</v>
+        <v>7.778353914020131</v>
       </c>
       <c r="H12">
-        <v>0.00015495851324758266</v>
+        <v>0.00015495851324758063</v>
       </c>
       <c r="I12">
-        <v>-4.793201509599137e-6</v>
+        <v>-4.793201509599474e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019787262945244423</v>
+        <v>0.0019787262945232913</v>
       </c>
       <c r="K12">
-        <v>4.8510586524859694e-5</v>
+        <v>4.851058652485157e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -840,34 +840,34 @@
         <v>-0.027000000000000003</v>
       </c>
       <c r="B13">
-        <v>7.738946801810154</v>
+        <v>7.738945668722421</v>
       </c>
       <c r="C13">
         <v>0.00014590693534374802</v>
       </c>
       <c r="D13">
-        <v>-5.2441454084166766e-6</v>
+        <v>-5.2441454513988205e-6</v>
       </c>
       <c r="E13">
-        <v>0.0019763679087049743</v>
+        <v>0.0019763676139495897</v>
       </c>
       <c r="F13">
-        <v>4.84791651217584e-5</v>
+        <v>4.8479146489190035e-5</v>
       </c>
       <c r="G13">
-        <v>7.738945808237029</v>
+        <v>7.738945808236911</v>
       </c>
       <c r="H13">
-        <v>0.0001459069548982594</v>
+        <v>0.0001459069548982573</v>
       </c>
       <c r="I13">
-        <v>-5.244172033660983e-6</v>
+        <v>-5.2441720336613474e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019763676305171183</v>
+        <v>0.001976367630515862</v>
       </c>
       <c r="K13">
-        <v>4.84791466459518e-5</v>
+        <v>4.84791466459429e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,34 +875,34 @@
         <v>-0.025</v>
       </c>
       <c r="B14">
-        <v>7.699734965371474</v>
+        <v>7.699732907824909</v>
       </c>
       <c r="C14">
         <v>0.0001368554190247995</v>
       </c>
       <c r="D14">
-        <v>-5.693700874329415e-6</v>
+        <v>-5.693701034573965e-6</v>
       </c>
       <c r="E14">
-        <v>0.0019739417049495236</v>
+        <v>0.0019739411765365123</v>
       </c>
       <c r="F14">
-        <v>4.84509270038027e-5</v>
+        <v>4.845089338148977e-5</v>
       </c>
       <c r="G14">
-        <v>7.699733021948187</v>
+        <v>7.699733021948031</v>
       </c>
       <c r="H14">
-        <v>0.00013685543285627853</v>
+        <v>0.00013685543285627628</v>
       </c>
       <c r="I14">
-        <v>-5.693734400708094e-6</v>
+        <v>-5.6937344007084826e-6</v>
       </c>
       <c r="J14">
-        <v>0.0019739411915788907</v>
+        <v>0.0019739411915775306</v>
       </c>
       <c r="K14">
-        <v>4.845089350109146e-5</v>
+        <v>4.8450893501081796e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,34 +910,34 @@
         <v>-0.023000000000000003</v>
       </c>
       <c r="B15">
-        <v>7.660974913809545</v>
+        <v>7.660971610030515</v>
       </c>
       <c r="C15">
         <v>0.0001278040433012234</v>
       </c>
       <c r="D15">
-        <v>-6.141708878113434e-6</v>
+        <v>-6.1417093232670865e-6</v>
       </c>
       <c r="E15">
-        <v>0.0019714493125536875</v>
+        <v>0.0019714484740208362</v>
       </c>
       <c r="F15">
-        <v>4.8425859469749146e-5</v>
+        <v>4.842580562696035e-5</v>
       </c>
       <c r="G15">
-        <v>7.660971633230984</v>
+        <v>7.660971633230791</v>
       </c>
       <c r="H15">
-        <v>0.000127804036544205</v>
+        <v>0.00012780403654420267</v>
       </c>
       <c r="I15">
-        <v>-6.141759195867403e-6</v>
+        <v>-6.141759195867816e-6</v>
       </c>
       <c r="J15">
-        <v>0.001971448482001841</v>
+        <v>0.001971448482000378</v>
       </c>
       <c r="K15">
-        <v>4.8425805658494526e-5</v>
+        <v>4.8425805658484125e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -945,34 +945,34 @@
         <v>-0.021000000000000005</v>
       </c>
       <c r="B16">
-        <v>7.62289521356255</v>
+        <v>7.6228904219242395</v>
       </c>
       <c r="C16">
         <v>0.00011875310939136336</v>
       </c>
       <c r="D16">
-        <v>-6.587920153893443e-6</v>
+        <v>-6.587921171736007e-6</v>
       </c>
       <c r="E16">
-        <v>0.001968893499687846</v>
+        <v>0.001968892298131471</v>
       </c>
       <c r="F16">
-        <v>4.8403866904376766e-5</v>
+        <v>4.84037888043337e-5</v>
       </c>
       <c r="G16">
-        <v>7.622890182162795</v>
+        <v>7.622890182162562</v>
       </c>
       <c r="H16">
-        <v>0.0001187530415391588</v>
+        <v>0.00011875304153915641</v>
       </c>
       <c r="I16">
-        <v>-6.5880141207719924e-6</v>
+        <v>-6.5880141207724244e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019688922836870264</v>
+        <v>0.001968892283685462</v>
       </c>
       <c r="K16">
-        <v>4.8403788626847986e-5</v>
+        <v>4.840378862683683e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -980,34 +980,34 @@
         <v>-0.019000000000000003</v>
       </c>
       <c r="B17">
-        <v>7.58568787939513</v>
+        <v>7.585681485973096</v>
       </c>
       <c r="C17">
         <v>0.00010970345839082353</v>
       </c>
       <c r="D17">
-        <v>-7.031750973278242e-6</v>
+        <v>-7.031752985692715e-6</v>
       </c>
       <c r="E17">
-        <v>0.001966278174814615</v>
+        <v>0.001966276593588948</v>
       </c>
       <c r="F17">
-        <v>4.8384794557020746e-5</v>
+        <v>4.8384690141138834e-5</v>
       </c>
       <c r="G17">
-        <v>7.585680567775628</v>
+        <v>7.585680567775357</v>
       </c>
       <c r="H17">
-        <v>0.00010970322846517925</v>
+        <v>0.00010970322846517686</v>
       </c>
       <c r="I17">
-        <v>-7.031955233885717e-6</v>
+        <v>-7.031955233886167e-6</v>
       </c>
       <c r="J17">
-        <v>0.00196627651749979</v>
+        <v>0.0019662765174981263</v>
       </c>
       <c r="K17">
-        <v>4.838468948820306e-5</v>
+        <v>4.838468948819117e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.017</v>
       </c>
       <c r="B18">
-        <v>7.549506372435835</v>
+        <v>7.549498399787184</v>
       </c>
       <c r="C18">
         <v>0.00010065724965973467</v>
       </c>
       <c r="D18">
-        <v>-7.471773314296095e-6</v>
+        <v>-7.471776863639057e-6</v>
       </c>
       <c r="E18">
-        <v>0.001963608408649007</v>
+        <v>0.001963606469878319</v>
       </c>
       <c r="F18">
-        <v>4.836844775681632e-5</v>
+        <v>4.8368317161177016e-5</v>
       </c>
       <c r="G18">
-        <v>7.549495890368909</v>
+        <v>7.549495890368599</v>
       </c>
       <c r="H18">
-        <v>0.0001006566283989091</v>
+        <v>0.00010065662839890673</v>
       </c>
       <c r="I18">
-        <v>-7.47223856818154e-6</v>
+        <v>-7.472238568182005e-6</v>
       </c>
       <c r="J18">
-        <v>0.0019636062408549086</v>
+        <v>0.001963606240853146</v>
       </c>
       <c r="K18">
-        <v>4.836831549829271e-5</v>
+        <v>4.836831549828011e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1050,34 +1050,34 @@
         <v>-0.015000000000000003</v>
       </c>
       <c r="B19">
-        <v>7.51447140830842</v>
+        <v>7.514461991406235</v>
       </c>
       <c r="C19">
         <v>9.161957564750329e-5</v>
       </c>
       <c r="D19">
-        <v>-7.90466057634862e-6</v>
+        <v>-7.904666285620873e-6</v>
       </c>
       <c r="E19">
-        <v>0.001960890829770377</v>
+        <v>0.001960888587719133</v>
       </c>
       <c r="F19">
-        <v>4.835461232834341e-5</v>
+        <v>4.83544575841723e-5</v>
       </c>
       <c r="G19">
-        <v>7.5144560772323326</v>
+        <v>7.514456077231984</v>
       </c>
       <c r="H19">
-        <v>9.161809086536107e-5</v>
+        <v>9.161809086535874e-5</v>
       </c>
       <c r="I19">
-        <v>-7.905696162588212e-6</v>
+        <v>-7.90569616258869e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019608880130320837</v>
+        <v>0.001960888013030225</v>
       </c>
       <c r="K19">
-        <v>4.835445394261085e-5</v>
+        <v>4.835445394259755e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1085,34 +1085,34 @@
         <v>-0.013000000000000005</v>
       </c>
       <c r="B20">
-        <v>7.480684763267975</v>
+        <v>7.480674109206161</v>
       </c>
       <c r="C20">
         <v>8.2601455478048e-5</v>
       </c>
       <c r="D20">
-        <v>-8.323240673384062e-6</v>
+        <v>-8.323249188174777e-6</v>
       </c>
       <c r="E20">
-        <v>0.001958134687972662</v>
+        <v>0.0019581322173287366</v>
       </c>
       <c r="F20">
-        <v>4.834307398110135e-5</v>
+        <v>4.834289842102452e-5</v>
       </c>
       <c r="G20">
-        <v>7.4806615495318995</v>
+        <v>7.480661549531513</v>
       </c>
       <c r="H20">
-        <v>8.25982292588457e-5</v>
+        <v>8.259822925884338e-5</v>
       </c>
       <c r="I20">
-        <v>-8.32542005518783e-6</v>
+        <v>-8.325420055188318e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019581309298500778</v>
+        <v>0.001958130929848124</v>
       </c>
       <c r="K20">
-        <v>4.834289122563915e-5</v>
+        <v>4.834289122562517e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1120,34 +1120,34 @@
         <v>-0.011000000000000003</v>
       </c>
       <c r="B21">
-        <v>7.448250514818589</v>
+        <v>7.4482388623637465</v>
       </c>
       <c r="C21">
         <v>7.362473302737887e-5</v>
       </c>
       <c r="D21">
-        <v>-8.713323492949727e-6</v>
+        <v>-8.713335411610649e-6</v>
       </c>
       <c r="E21">
-        <v>0.001955353880751439</v>
+        <v>0.0019553512641425335</v>
       </c>
       <c r="F21">
-        <v>4.833363524609166e-5</v>
+        <v>4.833344285566858e-5</v>
       </c>
       <c r="G21">
-        <v>7.448214487081852</v>
+        <v>7.4482144870814295</v>
       </c>
       <c r="H21">
-        <v>7.361830206623915e-5</v>
+        <v>7.361830206623685e-5</v>
       </c>
       <c r="I21">
-        <v>-8.717599905969383e-6</v>
+        <v>-8.717599905969883e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019553486371654623</v>
+        <v>0.0019553486371634153</v>
       </c>
       <c r="K21">
-        <v>4.8333429830938264e-5</v>
+        <v>4.833342983092362e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1155,34 +1155,34 @@
         <v>-0.009000000000000001</v>
       </c>
       <c r="B22">
-        <v>7.4173015524623445</v>
+        <v>7.417289141025437</v>
       </c>
       <c r="C22">
         <v>6.472899932675784e-5</v>
       </c>
       <c r="D22">
-        <v>-9.049237737439047e-6</v>
+        <v>-9.049253527712197e-6</v>
       </c>
       <c r="E22">
-        <v>0.0019525700683817803</v>
+        <v>0.0019525673859872945</v>
       </c>
       <c r="F22">
-        <v>4.8326128792558505e-5</v>
+        <v>4.8325923669681576e-5</v>
       </c>
       <c r="G22">
-        <v>7.417245674289782</v>
+        <v>7.417245674289323</v>
       </c>
       <c r="H22">
-        <v>6.471720062950597e-5</v>
+        <v>6.471720062950369e-5</v>
       </c>
       <c r="I22">
-        <v>-9.057016359899626e-6</v>
+        <v>-9.057016359900134e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019525624707530703</v>
+        <v>0.001952562470750932</v>
       </c>
       <c r="K22">
-        <v>4.8325901942654226e-5</v>
+        <v>4.832590194263893e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1190,34 +1190,34 @@
         <v>-0.007000000000000003</v>
       </c>
       <c r="B23">
-        <v>7.388026343868333</v>
+        <v>7.388013394670867</v>
       </c>
       <c r="C23">
         <v>5.5979678520855645e-5</v>
       </c>
       <c r="D23">
-        <v>-9.288648374808258e-6</v>
+        <v>-9.288668266045904e-6</v>
       </c>
       <c r="E23">
-        <v>0.001949816554454086</v>
+        <v>0.0019498138767987242</v>
       </c>
       <c r="F23">
-        <v>4.832042568148443e-5</v>
+        <v>4.8320211670301083e-5</v>
       </c>
       <c r="G23">
-        <v>7.387941998870394</v>
+        <v>7.387941998869904</v>
       </c>
       <c r="H23">
-        <v>5.595972917371913e-5</v>
+        <v>5.5959729173716874e-5</v>
       </c>
       <c r="I23">
-        <v>-9.301731843298978e-6</v>
+        <v>-9.301731843299493e-6</v>
       </c>
       <c r="J23">
-        <v>0.00194980542211389</v>
+        <v>0.001949805422111663</v>
       </c>
       <c r="K23">
-        <v>4.8320178171816586e-5</v>
+        <v>4.832017817180066e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,34 +1225,34 @@
         <v>-0.0050000000000000044</v>
       </c>
       <c r="B24">
-        <v>7.360687515482345</v>
+        <v>7.360674223356878</v>
       </c>
       <c r="C24">
         <v>4.7474949795932286e-5</v>
       </c>
       <c r="D24">
-        <v>-9.36816522051155e-6</v>
+        <v>-9.368189058296613e-6</v>
       </c>
       <c r="E24">
-        <v>0.0019471418828900745</v>
+        <v>0.0019471392666769024</v>
       </c>
       <c r="F24">
-        <v>4.831643686004634e-5</v>
+        <v>4.8316217356175026e-5</v>
       </c>
       <c r="G24">
-        <v>7.360566055580888</v>
+        <v>7.360566055580365</v>
       </c>
       <c r="H24">
-        <v>4.74438473915145e-5</v>
+        <v>4.7443847391512286e-5</v>
       </c>
       <c r="I24">
-        <v>-9.388491769140447e-6</v>
+        <v>-9.388491769140977e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019471258849840995</v>
+        <v>0.0019471258849817865</v>
       </c>
       <c r="K24">
-        <v>4.831616952542943e-5</v>
+        <v>4.83161695254129e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,34 +1260,34 @@
         <v>-0.0030000000000000027</v>
       </c>
       <c r="B25">
-        <v>7.335621828598698</v>
+        <v>7.335608361127836</v>
       </c>
       <c r="C25">
         <v>3.93478069239658e-5</v>
       </c>
       <c r="D25">
-        <v>-9.2021134744197e-6</v>
+        <v>-9.202140535981584e-6</v>
       </c>
       <c r="E25">
-        <v>0.0019446113408005503</v>
+        <v>0.0019446088271483806</v>
       </c>
       <c r="F25">
-        <v>4.831410671731333e-5</v>
+        <v>4.831388460682963e-5</v>
       </c>
       <c r="G25">
-        <v>7.335457058300263</v>
+        <v>7.335457058299712</v>
       </c>
       <c r="H25">
-        <v>3.9303083700162205e-5</v>
+        <v>3.930308370016002e-5</v>
       </c>
       <c r="I25">
-        <v>-9.23126843060417e-6</v>
+        <v>-9.231268430604716e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019445893336915334</v>
+        <v>0.0019445893336891378</v>
       </c>
       <c r="K25">
-        <v>4.831382124968244e-5</v>
+        <v>4.8313821249665295e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1295,34 +1295,34 @@
         <v>-0.0010000000000000009</v>
       </c>
       <c r="B26">
-        <v>7.313213161778408</v>
+        <v>7.31319966237422</v>
       </c>
       <c r="C26">
         <v>3.1759306835106685e-5</v>
       </c>
       <c r="D26">
-        <v>-8.686963460099998e-6</v>
+        <v>-8.686992258947115e-6</v>
       </c>
       <c r="E26">
-        <v>0.0019423042689862822</v>
+        <v>0.0019423018834549735</v>
       </c>
       <c r="F26">
-        <v>4.831339913479396e-5</v>
+        <v>4.831317682044425e-5</v>
       </c>
       <c r="G26">
-        <v>7.313004117819366</v>
+        <v>7.313004117818787</v>
       </c>
       <c r="H26">
-        <v>3.16999878509703e-5</v>
+        <v>3.169998785096815e-5</v>
       </c>
       <c r="I26">
-        <v>-8.725562637997023e-6</v>
+        <v>-8.725562637997607e-6</v>
       </c>
       <c r="J26">
-        <v>0.0019422757495371342</v>
+        <v>0.001942275749534658</v>
       </c>
       <c r="K26">
-        <v>4.8313098837292845e-5</v>
+        <v>4.831309883727511e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1330,34 +1330,34 @@
         <v>0.0009999999999999974</v>
       </c>
       <c r="B27">
-        <v>7.293837405926311</v>
+        <v>7.293823998063809</v>
       </c>
       <c r="C27">
         <v>2.4880873308263723e-5</v>
       </c>
       <c r="D27">
-        <v>-7.712726032238476e-6</v>
+        <v>-7.71275418517256e-6</v>
       </c>
       <c r="E27">
-        <v>0.0019403058330229345</v>
+        <v>0.001940303587010278</v>
       </c>
       <c r="F27">
-        <v>4.8314278677285965e-5</v>
+        <v>4.831405814816276e-5</v>
       </c>
       <c r="G27">
-        <v>7.2935903541714815</v>
+        <v>7.293590354170877</v>
       </c>
       <c r="H27">
-        <v>2.4808296390757413e-5</v>
+        <v>2.4808296390755303e-5</v>
       </c>
       <c r="I27">
-        <v>-7.75989173465107e-6</v>
+        <v>-7.759891734651708e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019402713480130263</v>
+        <v>0.001940271348010472</v>
       </c>
       <c r="K27">
-        <v>4.83139688250022e-5</v>
+        <v>4.8313968824983905e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1365,34 +1365,34 @@
         <v>0.0029999999999999957</v>
       </c>
       <c r="B28">
-        <v>7.277789020039538</v>
+        <v>7.27777581071494</v>
       </c>
       <c r="C28">
         <v>1.8867430323902913e-5</v>
       </c>
       <c r="D28">
-        <v>-6.180126735496908e-6</v>
+        <v>-6.180151001628556e-6</v>
       </c>
       <c r="E28">
-        <v>0.0019386938627705482</v>
+        <v>0.0019386917560015131</v>
       </c>
       <c r="F28">
-        <v>4.831669128791922e-5</v>
+        <v>4.8316474196074364e-5</v>
       </c>
       <c r="G28">
-        <v>7.2775176078825705</v>
+        <v>7.2775176078819435</v>
       </c>
       <c r="H28">
-        <v>1.8785516242044356e-5</v>
+        <v>1.8785516242042272e-5</v>
       </c>
       <c r="I28">
-        <v>-6.233318791590955e-6</v>
+        <v>-6.233318791591677e-6</v>
       </c>
       <c r="J28">
-        <v>0.001938655167482463</v>
+        <v>0.0019386551674798335</v>
       </c>
       <c r="K28">
-        <v>4.8316378877299274e-5</v>
+        <v>4.831637887728043e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1400,34 +1400,34 @@
         <v>0.0049999999999999975</v>
       </c>
       <c r="B29">
-        <v>7.265208753316485</v>
+        <v>7.265195834761343</v>
       </c>
       <c r="C29">
         <v>1.3827717117345496e-5</v>
       </c>
       <c r="D29">
-        <v>-4.019500011211614e-6</v>
+        <v>-4.019516595285592e-6</v>
       </c>
       <c r="E29">
-        <v>0.0019375238793862767</v>
+        <v>0.0019375219031914272</v>
       </c>
       <c r="F29">
-        <v>4.832054918917379e-5</v>
+        <v>4.832033690761476e-5</v>
       </c>
       <c r="G29">
-        <v>7.264931858358907</v>
+        <v>7.264931858358261</v>
       </c>
       <c r="H29">
-        <v>1.3742430882244545e-5</v>
+        <v>1.3742430882242483e-5</v>
       </c>
       <c r="I29">
-        <v>-4.074864904914816e-6</v>
+        <v>-4.0748649049156565e-6</v>
       </c>
       <c r="J29">
-        <v>0.001937483703625965</v>
+        <v>0.001937483703623263</v>
       </c>
       <c r="K29">
-        <v>4.8320242087261375e-5</v>
+        <v>4.8320242087242e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1435,34 +1435,34 @@
         <v>0.006999999999999999</v>
       </c>
       <c r="B30">
-        <v>7.2560354301863805</v>
+        <v>7.2560228798249335</v>
       </c>
       <c r="C30">
         <v>9.800937022175098e-6</v>
       </c>
       <c r="D30">
-        <v>-1.2056233771120099e-6</v>
+        <v>-1.2056284846351893e-6</v>
       </c>
       <c r="E30">
-        <v>0.0019368171278388603</v>
+        <v>0.001936815268768801</v>
       </c>
       <c r="F30">
-        <v>4.8325723584362155e-5</v>
+        <v>4.8325517235956535e-5</v>
       </c>
       <c r="G30">
-        <v>7.255773208184294</v>
+        <v>7.25577320818363</v>
       </c>
       <c r="H30">
-        <v>9.71902242881872e-6</v>
+        <v>9.719022428816684e-6</v>
       </c>
       <c r="I30">
-        <v>-1.2588071231099807e-6</v>
+        <v>-1.2588071231109753e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019367785786768973</v>
+        <v>0.0019367785786741257</v>
       </c>
       <c r="K30">
-        <v>4.8325429313499304e-5</v>
+        <v>4.8325429313479415e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1470,34 +1470,34 @@
         <v>0.008999999999999998</v>
       </c>
       <c r="B31">
-        <v>7.249998911438339</v>
+        <v>7.2499867908249165</v>
       </c>
       <c r="C31">
         <v>6.747886704808096e-6</v>
       </c>
       <c r="D31">
-        <v>2.236627309734534e-6</v>
+        <v>2.236636829267952e-6</v>
       </c>
       <c r="E31">
-        <v>0.0019365560335514807</v>
+        <v>0.0019365542767331154</v>
       </c>
       <c r="F31">
-        <v>4.833204679574935e-5</v>
+        <v>4.8331847258378495e-5</v>
       </c>
       <c r="G31">
-        <v>7.249768375151826</v>
+        <v>7.249768375151146</v>
       </c>
       <c r="H31">
-        <v>6.675308788212257e-6</v>
+        <v>6.675308788210244e-6</v>
       </c>
       <c r="I31">
-        <v>2.189479820852561e-6</v>
+        <v>2.1894798208513766e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019365218493786961</v>
+        <v>0.0019365218493758575</v>
       </c>
       <c r="K31">
-        <v>4.8331771322193414e-5</v>
+        <v>4.833177132217303e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1505,34 +1505,34 @@
         <v>0.010999999999999996</v>
       </c>
       <c r="B32">
-        <v>7.246658007566359</v>
+        <v>7.246646361375678</v>
       </c>
       <c r="C32">
         <v>4.55982692992327e-6</v>
       </c>
       <c r="D32">
-        <v>6.237857252278405e-6</v>
+        <v>6.237883417440914e-6</v>
       </c>
       <c r="E32">
-        <v>0.001936688844383192</v>
+        <v>0.0019366871760536605</v>
       </c>
       <c r="F32">
-        <v>4.833932328414649e-5</v>
+        <v>4.833913118771194e-5</v>
       </c>
       <c r="G32">
-        <v>7.24646969763601</v>
+        <v>7.246469697635318</v>
       </c>
       <c r="H32">
-        <v>4.500506505115165e-6</v>
+        <v>4.500506505113177e-6</v>
       </c>
       <c r="I32">
-        <v>6.199288272960722e-6</v>
+        <v>6.199288272959316e-6</v>
       </c>
       <c r="J32">
-        <v>0.001936660794495586</v>
+        <v>0.0019366607944926832</v>
       </c>
       <c r="K32">
-        <v>4.833907017835751e-5</v>
+        <v>4.8339070178336665e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,34 +1540,34 @@
         <v>0.012999999999999998</v>
       </c>
       <c r="B33">
-        <v>7.245471811966654</v>
+        <v>7.245460667966591</v>
       </c>
       <c r="C33">
         <v>3.081833717054476e-6</v>
       </c>
       <c r="D33">
-        <v>1.0698943337946674e-5</v>
+        <v>1.069898687222564e-5</v>
       </c>
       <c r="E33">
-        <v>0.0019371416175321167</v>
+        <v>0.0019371400264466213</v>
       </c>
       <c r="F33">
-        <v>4.8347346917294265e-5</v>
+        <v>4.834716264882937e-5</v>
       </c>
       <c r="G33">
-        <v>7.245328612564911</v>
+        <v>7.245328612564208</v>
       </c>
       <c r="H33">
-        <v>3.0371086759021925e-6</v>
+        <v>3.0371086759002287e-6</v>
       </c>
       <c r="I33">
-        <v>1.0669831765623768e-5</v>
+        <v>1.0669831765622116e-5</v>
       </c>
       <c r="J33">
-        <v>0.0019371202611254998</v>
+        <v>0.0019371202611225362</v>
       </c>
       <c r="K33">
-        <v>4.8347117121122144e-5</v>
+        <v>4.8347117121100846e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1575,34 +1575,34 @@
         <v>0.015</v>
       </c>
       <c r="B34">
-        <v>7.245882460844676</v>
+        <v>7.245871831282372</v>
       </c>
       <c r="C34">
         <v>2.1424832872932215e-6</v>
       </c>
       <c r="D34">
-        <v>1.550992895232584e-5</v>
+        <v>1.550998944299809e-5</v>
       </c>
       <c r="E34">
-        <v>0.0019378331277727957</v>
+        <v>0.0019378316055532934</v>
       </c>
       <c r="F34">
-        <v>4.835592024807133e-5</v>
+        <v>4.835574397385897e-5</v>
       </c>
       <c r="G34">
-        <v>7.245780652648727</v>
+        <v>7.245780652648015</v>
       </c>
       <c r="H34">
-        <v>2.111378768689629e-6</v>
+        <v>2.1113787686876902e-6</v>
       </c>
       <c r="I34">
-        <v>1.548965856860302e-5</v>
+        <v>1.54896585686011e-5</v>
       </c>
       <c r="J34">
-        <v>0.0019378179623838047</v>
+        <v>0.0019378179623807837</v>
       </c>
       <c r="K34">
-        <v>4.8355712464166996e-5</v>
+        <v>4.8355712464145284e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,34 +1610,34 @@
         <v>0.017</v>
       </c>
       <c r="B35">
-        <v>7.247386158521531</v>
+        <v>7.247376042759014</v>
       </c>
       <c r="C35">
         <v>1.5807187104887417e-6</v>
       </c>
       <c r="D35">
-        <v>2.0567230748202434e-5</v>
+        <v>2.056730698870766e-5</v>
       </c>
       <c r="E35">
-        <v>0.0019386879487816942</v>
+        <v>0.0019386864895504516</v>
       </c>
       <c r="F35">
-        <v>4.836487104378432e-5</v>
+        <v>4.8364702747660526e-5</v>
       </c>
       <c r="G35">
-        <v>7.247317919906844</v>
+        <v>7.2473179199061235</v>
       </c>
       <c r="H35">
-        <v>1.5607670430834206e-6</v>
+        <v>1.5607670430815065e-6</v>
       </c>
       <c r="I35">
-        <v>2.055421441517424e-5</v>
+        <v>2.0554214415172032e-5</v>
       </c>
       <c r="J35">
-        <v>0.0019386778098075656</v>
+        <v>0.00193867780980449</v>
       </c>
       <c r="K35">
-        <v>4.8364682543684406e-5</v>
+        <v>4.83646825436623e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1645,34 +1645,34 @@
         <v>0.019000000000000003</v>
       </c>
       <c r="B36">
-        <v>7.2495770738763925</v>
+        <v>7.2495674616922425</v>
       </c>
       <c r="C36">
         <v>1.263546214663147e-6</v>
       </c>
       <c r="D36">
-        <v>2.578507573471757e-5</v>
+        <v>2.5785166088510168e-5</v>
       </c>
       <c r="E36">
-        <v>0.0019396446661902654</v>
+        <v>0.0019396432659003762</v>
       </c>
       <c r="F36">
-        <v>4.8374062380191075e-5</v>
+        <v>4.837390191044249e-5</v>
       </c>
       <c r="G36">
-        <v>7.24953327087622</v>
+        <v>7.249533270875493</v>
       </c>
       <c r="H36">
-        <v>1.25174508918732e-6</v>
+        <v>1.2517450891854312e-6</v>
       </c>
       <c r="I36">
-        <v>2.5777372742656525e-5</v>
+        <v>2.577737274265402e-5</v>
       </c>
       <c r="J36">
-        <v>0.0019396381747919897</v>
+        <v>0.0019396381747888614</v>
       </c>
       <c r="K36">
-        <v>4.8373889910958894e-5</v>
+        <v>4.837388991093643e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1680,34 +1680,34 @@
         <v>0.020999999999999998</v>
       </c>
       <c r="B37">
-        <v>7.252160680672695</v>
+        <v>7.252151555544621</v>
       </c>
       <c r="C37">
         <v>1.092786613556265e-6</v>
       </c>
       <c r="D37">
-        <v>3.1099963985531124e-5</v>
+        <v>3.110006666943939e-5</v>
       </c>
       <c r="E37">
-        <v>0.0019406586365831606</v>
+        <v>0.0019406572923554425</v>
       </c>
       <c r="F37">
-        <v>4.838339500980442e-5</v>
+        <v>4.838324212538029e-5</v>
       </c>
       <c r="G37">
-        <v>7.252133005929748</v>
+        <v>7.252133005929015</v>
       </c>
       <c r="H37">
-        <v>1.0863532189714524e-6</v>
+        <v>1.0863532189695882e-6</v>
       </c>
       <c r="I37">
-        <v>3.109576928932387e-5</v>
+        <v>3.109576928932106e-5</v>
       </c>
       <c r="J37">
-        <v>0.0019406545386175152</v>
+        <v>0.0019406545386143382</v>
       </c>
       <c r="K37">
-        <v>4.83832355144598e-5</v>
+        <v>4.838323551443701e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1715,34 +1715,34 @@
         <v>0.022999999999999993</v>
       </c>
       <c r="B38">
-        <v>7.254943272985708</v>
+        <v>7.2549346148429334</v>
       </c>
       <c r="C38">
         <v>1.0030157624976026e-6</v>
       </c>
       <c r="D38">
-        <v>3.646945753914176e-5</v>
+        <v>3.646957079888885e-5</v>
       </c>
       <c r="E38">
-        <v>0.0019417005976754462</v>
+        <v>0.001941699307292121</v>
       </c>
       <c r="F38">
-        <v>4.839280330574746e-5</v>
+        <v>4.839265771487697e-5</v>
       </c>
       <c r="G38">
-        <v>7.2549253418343485</v>
+        <v>7.254925341833611</v>
       </c>
       <c r="H38">
-        <v>9.997872100227084e-7</v>
+        <v>9.997872100208695e-7</v>
       </c>
       <c r="I38">
-        <v>3.6467364027039166e-5</v>
+        <v>3.6467364027036056e-5</v>
       </c>
       <c r="J38">
-        <v>0.001941697933559152</v>
+        <v>0.0019416979335559292</v>
       </c>
       <c r="K38">
-        <v>4.839265431885717e-5</v>
+        <v>4.839265431883406e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1750,34 +1750,34 @@
         <v>0.024999999999999994</v>
       </c>
       <c r="B39">
-        <v>7.257808988415138</v>
+        <v>7.2578007756391365</v>
       </c>
       <c r="C39">
         <v>9.54642630225129e-7</v>
       </c>
       <c r="D39">
-        <v>4.186779581526884e-5</v>
+        <v>4.1867918012240055e-5</v>
       </c>
       <c r="E39">
-        <v>0.0019427531597125962</v>
+        <v>0.0019427519212929726</v>
       </c>
       <c r="F39">
-        <v>4.840224764387173e-5</v>
+        <v>4.8402109032140414e-5</v>
       </c>
       <c r="G39">
-        <v>7.257796512920388</v>
+        <v>7.257796512919647</v>
       </c>
       <c r="H39">
-        <v>9.531557217965543e-7</v>
+        <v>9.531557217947403e-7</v>
       </c>
       <c r="I39">
-        <v>4.186684886583288e-5</v>
+        <v>4.1866848865829464e-5</v>
       </c>
       <c r="J39">
-        <v>0.0019427512890772838</v>
+        <v>0.0019427512890740184</v>
       </c>
       <c r="K39">
-        <v>4.840210738269281e-5</v>
+        <v>4.8402107382669375e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1785,34 +1785,34 @@
         <v>0.026999999999999996</v>
       </c>
       <c r="B40">
-        <v>7.260694693663832</v>
+        <v>7.260686904365709</v>
       </c>
       <c r="C40">
         <v>9.258233407286481e-7</v>
       </c>
       <c r="D40">
-        <v>4.7280714241704254e-5</v>
+        <v>4.7280843883753574e-5</v>
       </c>
       <c r="E40">
-        <v>0.001943806935103737</v>
+        <v>0.0019438057469243473</v>
       </c>
       <c r="F40">
-        <v>4.841170615349172e-5</v>
+        <v>4.8411574201824564e-5</v>
       </c>
       <c r="G40">
-        <v>7.260685111897325</v>
+        <v>7.2606851118965805</v>
       </c>
       <c r="H40">
-        <v>9.252002681175822e-7</v>
+        <v>9.252002681157935e-7</v>
       </c>
       <c r="I40">
-        <v>4.728033943370941e-5</v>
+        <v>4.728033943370569e-5</v>
       </c>
       <c r="J40">
-        <v>0.0019438054782214811</v>
+        <v>0.0019438054782181758</v>
       </c>
       <c r="K40">
-        <v>4.841157341748622e-5</v>
+        <v>4.84115734174625e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1820,34 +1820,34 @@
         <v>0.028999999999999998</v>
       </c>
       <c r="B41">
-        <v>7.26356907475673</v>
+        <v>7.263561687494941</v>
       </c>
       <c r="C41">
         <v>9.055387700896936e-7</v>
       </c>
       <c r="D41">
-        <v>5.2700981088630984e-5</v>
+        <v>5.2701116832478624e-5</v>
       </c>
       <c r="E41">
-        <v>0.0019448573330021132</v>
+        <v>0.0019448561934096876</v>
       </c>
       <c r="F41">
-        <v>4.842116778516545e-5</v>
+        <v>4.842104218000005e-5</v>
       </c>
       <c r="G41">
-        <v>7.263561008522442</v>
+        <v>7.263561008521695</v>
       </c>
       <c r="H41">
-        <v>9.053074549950021e-7</v>
+        <v>9.053074549932385e-7</v>
       </c>
       <c r="I41">
-        <v>5.270086838151219e-5</v>
+        <v>5.270086838150818e-5</v>
       </c>
       <c r="J41">
-        <v>0.0019448560874553396</v>
+        <v>0.0019448560874519983</v>
       </c>
       <c r="K41">
-        <v>4.8421041786094525e-5</v>
+        <v>4.8421041786070544e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1855,34 +1855,34 @@
         <v>0.031</v>
       </c>
       <c r="B42">
-        <v>7.266418082326203</v>
+        <v>7.266411076455954</v>
       </c>
       <c r="C42">
         <v>8.886964689017243e-7</v>
       </c>
       <c r="D42">
-        <v>5.8125225715434966e-5</v>
+        <v>5.8125366357681113e-5</v>
       </c>
       <c r="E42">
-        <v>0.0019459023463192756</v>
+        <v>0.0019459012536947066</v>
       </c>
       <c r="F42">
-        <v>4.843062742333663e-5</v>
+        <v>4.843050786164369e-5</v>
       </c>
       <c r="G42">
-        <v>7.266410856562497</v>
+        <v>7.266410856561749</v>
       </c>
       <c r="H42">
-        <v>8.886277575509178e-7</v>
+        <v>8.886277575491793e-7</v>
       </c>
       <c r="I42">
-        <v>5.8125223820964e-5</v>
+        <v>5.812522382095972e-5</v>
       </c>
       <c r="J42">
-        <v>0.0019459012141950496</v>
+        <v>0.0019459012141916753</v>
       </c>
       <c r="K42">
-        <v>4.8430507627467556e-5</v>
+        <v>4.8430507627443324e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1890,34 +1890,34 @@
         <v>0.033</v>
       </c>
       <c r="B43">
-        <v>7.269236139806615</v>
+        <v>7.269229495617753</v>
       </c>
       <c r="C43">
         <v>8.731370770338888e-7</v>
       </c>
       <c r="D43">
-        <v>6.355199338711396e-5</v>
+        <v>6.355213785221227e-5</v>
       </c>
       <c r="E43">
-        <v>0.0019469412261651053</v>
+        <v>0.0019469401789118281</v>
       </c>
       <c r="F43">
-        <v>4.844008289631717e-5</v>
+        <v>4.84399690876494e-5</v>
       </c>
       <c r="G43">
-        <v>7.26922944850187</v>
+        <v>7.269229448501121</v>
       </c>
       <c r="H43">
-        <v>8.731300991951232e-7</v>
+        <v>8.731300991934103e-7</v>
       </c>
       <c r="I43">
-        <v>6.3552035093936e-5</v>
+        <v>6.355203509393144e-5</v>
       </c>
       <c r="J43">
-        <v>0.001946940163976028</v>
+        <v>0.0019469401639726242</v>
       </c>
       <c r="K43">
-        <v>4.8439968911605816e-5</v>
+        <v>4.843996891158137e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1925,34 +1925,34 @@
         <v>0.034999999999999996</v>
       </c>
       <c r="B44">
-        <v>7.272021445629661</v>
+        <v>7.27201514437727</v>
       </c>
       <c r="C44">
         <v>8.580194988822055e-7</v>
       </c>
       <c r="D44">
-        <v>6.898069293615707e-5</v>
+        <v>6.898084026456541e-5</v>
       </c>
       <c r="E44">
-        <v>0.0019479737791485937</v>
+        <v>0.0019479727756911442</v>
       </c>
       <c r="F44">
-        <v>4.844953335960565e-5</v>
+        <v>4.844942502662976e-5</v>
       </c>
       <c r="G44">
-        <v>7.272015156081296</v>
+        <v>7.272015156080547</v>
       </c>
       <c r="H44">
-        <v>8.58033855907274e-7</v>
+        <v>8.58033855905587e-7</v>
       </c>
       <c r="I44">
-        <v>6.898075080243215e-5</v>
+        <v>6.898075080242736e-5</v>
       </c>
       <c r="J44">
-        <v>0.001947972768745861</v>
+        <v>0.0019479727687424313</v>
       </c>
       <c r="K44">
-        <v>4.844942486810764e-5</v>
+        <v>4.844942486808297e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1960,34 +1960,34 @@
         <v>0.03699999999999999</v>
       </c>
       <c r="B45">
-        <v>7.274773727387716</v>
+        <v>7.274767751274644</v>
       </c>
       <c r="C45">
         <v>8.43042516102949e-7</v>
       </c>
       <c r="D45">
-        <v>7.441108820908687e-5</v>
+        <v>7.441123754645731e-5</v>
       </c>
       <c r="E45">
-        <v>0.0019490000339227238</v>
+        <v>0.0019489990727088455</v>
       </c>
       <c r="F45">
-        <v>4.8458978514564904e-5</v>
+        <v>4.845887539290631e-5</v>
       </c>
       <c r="G45">
-        <v>7.2747677804510085</v>
+        <v>7.274767780450261</v>
       </c>
       <c r="H45">
-        <v>8.430634505736105e-7</v>
+        <v>8.430634505719498e-7</v>
       </c>
       <c r="I45">
-        <v>7.441115174385181e-5</v>
+        <v>7.441115174384674e-5</v>
       </c>
       <c r="J45">
-        <v>0.0019489990677870966</v>
+        <v>0.0019489990677836445</v>
       </c>
       <c r="K45">
-        <v>4.845887523720402e-5</v>
+        <v>4.845887523717919e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1995,34 +1995,34 @@
         <v>0.03899999999999999</v>
       </c>
       <c r="B46">
-        <v>7.277493274210191</v>
+        <v>7.277487606350886</v>
       </c>
       <c r="C46">
         <v>8.281068749640652e-7</v>
       </c>
       <c r="D46">
-        <v>7.984307677421956e-5</v>
+        <v>7.984322736166282e-5</v>
       </c>
       <c r="E46">
-        <v>0.0019500200985304813</v>
+        <v>0.001950019178034082</v>
       </c>
       <c r="F46">
-        <v>4.846841826834882e-5</v>
+        <v>4.846832010616382e-5</v>
       </c>
       <c r="G46">
-        <v>7.277487639321052</v>
+        <v>7.277487639320306</v>
       </c>
       <c r="H46">
-        <v>8.28129460631142e-7</v>
+        <v>8.281294606295078e-7</v>
       </c>
       <c r="I46">
-        <v>7.984314205230644e-5</v>
+        <v>7.984314205230113e-5</v>
       </c>
       <c r="J46">
-        <v>0.0019500191731888715</v>
+        <v>0.0019500191731854004</v>
       </c>
       <c r="K46">
-        <v>4.8468319948531425e-5</v>
+        <v>4.846831994850644e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,34 +2030,34 @@
         <v>0.040999999999999995</v>
       </c>
       <c r="B47">
-        <v>7.280180559160953</v>
+        <v>7.280175183539625</v>
       </c>
       <c r="C47">
         <v>8.131824665541284e-7</v>
       </c>
       <c r="D47">
-        <v>8.5276602740223e-5</v>
+        <v>8.527675390549951e-5</v>
       </c>
       <c r="E47">
-        <v>0.0019510341051446486</v>
+        <v>0.0019510332238686593</v>
       </c>
       <c r="F47">
-        <v>4.84778525998705e-5</v>
+        <v>4.847775915732942e-5</v>
       </c>
       <c r="G47">
-        <v>7.280175216196071</v>
+        <v>7.280175216195328</v>
       </c>
       <c r="H47">
-        <v>8.132051983944505e-7</v>
+        <v>8.132051983928428e-7</v>
       </c>
       <c r="I47">
-        <v>8.527666817863027e-5</v>
+        <v>8.52766681786247e-5</v>
       </c>
       <c r="J47">
-        <v>0.0019510332185362826</v>
+        <v>0.0019510332185327963</v>
       </c>
       <c r="K47">
-        <v>4.847775899648572e-5</v>
+        <v>4.847775899646062e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2065,34 +2065,34 @@
         <v>0.043</v>
       </c>
       <c r="B48">
-        <v>7.282836105333553</v>
+        <v>7.282831006761731</v>
       </c>
       <c r="C48">
         <v>7.982608782123173e-7</v>
       </c>
       <c r="D48">
-        <v>9.071162553082659e-5</v>
+        <v>9.071177668032682e-5</v>
       </c>
       <c r="E48">
-        <v>0.0019520421906520078</v>
+        <v>0.001952041347130855</v>
       </c>
       <c r="F48">
-        <v>4.8487281511757385e-5</v>
+        <v>4.848719256051187e-5</v>
       </c>
       <c r="G48">
-        <v>7.282831038009909</v>
+        <v>7.28283103800917</v>
       </c>
       <c r="H48">
-        <v>7.98283334846056e-7</v>
+        <v>7.98283334844475e-7</v>
       </c>
       <c r="I48">
-        <v>9.071169034082596e-5</v>
+        <v>9.07116903408201e-5</v>
       </c>
       <c r="J48">
-        <v>0.0019520413411807402</v>
+        <v>0.0019520413411772408</v>
       </c>
       <c r="K48">
-        <v>4.848719239627592e-5</v>
+        <v>4.848719239625071e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2100,34 +2100,34 @@
         <v>0.045</v>
       </c>
       <c r="B49">
-        <v>7.28546044263769</v>
+        <v>7.285455606712969</v>
       </c>
       <c r="C49">
         <v>7.833399440642403e-7</v>
       </c>
       <c r="D49">
-        <v>9.614810967835841e-5</v>
+        <v>9.614826028977579e-5</v>
       </c>
       <c r="E49">
-        <v>0.0019530444904897815</v>
+        <v>0.0019530436832914408</v>
       </c>
       <c r="F49">
-        <v>4.8496705014612246e-5</v>
+        <v>4.849662033727253e-5</v>
       </c>
       <c r="G49">
-        <v>7.285455636322676</v>
+        <v>7.285455636321941</v>
       </c>
       <c r="H49">
-        <v>7.833620171917237e-7</v>
+        <v>7.833620171901693e-7</v>
       </c>
       <c r="I49">
-        <v>9.614817334968891e-5</v>
+        <v>9.614817334968277e-5</v>
       </c>
       <c r="J49">
-        <v>0.0019530436767164774</v>
+        <v>0.0019530436767129684</v>
       </c>
       <c r="K49">
-        <v>4.8496620169781446e-5</v>
+        <v>4.849662016975616e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2135,34 +2135,34 @@
         <v>0.047</v>
       </c>
       <c r="B50">
-        <v>7.288054095143912</v>
+        <v>7.288049508210398</v>
       </c>
       <c r="C50">
         <v>7.6841915013971e-7</v>
       </c>
       <c r="D50">
-        <v>0.00010158602176177147</v>
+        <v>0.0001015861713773995</v>
       </c>
       <c r="E50">
-        <v>0.001954041136918397</v>
+        <v>0.001954040364646046</v>
       </c>
       <c r="F50">
-        <v>4.8506123122257906e-5</v>
+        <v>4.850604251188804e-5</v>
       </c>
       <c r="G50">
-        <v>7.288049536177042</v>
+        <v>7.288049536176311</v>
       </c>
       <c r="H50">
-        <v>7.684408141085056e-7</v>
+        <v>7.684408141069778e-7</v>
       </c>
       <c r="I50">
-        <v>0.000101586083903628</v>
+        <v>0.0001015860839036216</v>
       </c>
       <c r="J50">
-        <v>0.0019540403574709944</v>
+        <v>0.0019540403574674803</v>
       </c>
       <c r="K50">
-        <v>4.8506042341362824e-5</v>
+        <v>4.8506042341337494e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2170,34 +2170,34 @@
         <v>0.049</v>
       </c>
       <c r="B51">
-        <v>7.2906175777847775</v>
+        <v>7.290613226895337</v>
       </c>
       <c r="C51">
         <v>7.534983839866728e-7</v>
       </c>
       <c r="D51">
-        <v>0.0001070253295506823</v>
+        <v>0.00010702547777128132</v>
       </c>
       <c r="E51">
-        <v>0.001955032258642339</v>
+        <v>0.0019550315199356487</v>
       </c>
       <c r="F51">
-        <v>4.8515535850375437e-5</v>
+        <v>4.851545911000847e-5</v>
       </c>
       <c r="G51">
-        <v>7.290613253267215</v>
+        <v>7.290613253266489</v>
       </c>
       <c r="H51">
-        <v>7.535196331059949e-7</v>
+        <v>7.535196331044941e-7</v>
       </c>
       <c r="I51">
-        <v>0.00010702538984408187</v>
+        <v>0.00010702538984407525</v>
       </c>
       <c r="J51">
-        <v>0.001955031512192502</v>
+        <v>0.001955031512188985</v>
       </c>
       <c r="K51">
-        <v>4.851545893669021e-5</v>
+        <v>4.851545893666486e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2205,34 +2205,34 @@
         <v>0.051</v>
       </c>
       <c r="B52">
-        <v>7.29315139566678</v>
+        <v>7.293147268547074</v>
       </c>
       <c r="C52">
         <v>7.385776229156417e-7</v>
       </c>
       <c r="D52">
-        <v>0.00011246600177024242</v>
+        <v>0.00011246614824943029</v>
       </c>
       <c r="E52">
-        <v>0.0019560179808024596</v>
+        <v>0.001956017274338562</v>
       </c>
       <c r="F52">
-        <v>4.852494321609909e-5</v>
+        <v>4.85248701582724e-5</v>
       </c>
       <c r="G52">
-        <v>7.293147293382806</v>
+        <v>7.293147293382087</v>
       </c>
       <c r="H52">
-        <v>7.385984559109287e-7</v>
+        <v>7.385984559094552e-7</v>
       </c>
       <c r="I52">
-        <v>0.0001124660599521049</v>
+        <v>0.00011246605995209802</v>
       </c>
       <c r="J52">
-        <v>0.0019560172660605087</v>
+        <v>0.0019560172660569937</v>
       </c>
       <c r="K52">
-        <v>4.85248699824064e-5</v>
+        <v>4.8524869982381035e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2240,34 +2240,34 @@
         <v>0.05299999999999999</v>
       </c>
       <c r="B53">
-        <v>7.295656044047891</v>
+        <v>7.295652129062112</v>
       </c>
       <c r="C53">
         <v>7.236568627038564e-7</v>
       </c>
       <c r="D53">
-        <v>0.00011790800802597516</v>
+        <v>0.00011790815246509938</v>
       </c>
       <c r="E53">
-        <v>0.001956998425059804</v>
+        <v>0.0019569977495539795</v>
       </c>
       <c r="F53">
-        <v>4.853434523785975e-5</v>
+        <v>4.8534275684169944e-5</v>
       </c>
       <c r="G53">
-        <v>7.295652152421102</v>
+        <v>7.29565215242039</v>
       </c>
       <c r="H53">
-        <v>7.236772791963098e-7</v>
+        <v>7.236772791948637e-7</v>
       </c>
       <c r="I53">
-        <v>0.00011790806388165373</v>
+        <v>0.00011790806388164665</v>
       </c>
       <c r="J53">
-        <v>0.001956997740774065</v>
+        <v>0.0019569977407705563</v>
       </c>
       <c r="K53">
-        <v>4.8534275506002106e-5</v>
+        <v>4.853427550597677e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,34 +2275,34 @@
         <v>0.05499999999999999</v>
       </c>
       <c r="B54">
-        <v>7.298132008470568</v>
+        <v>7.298128294588841</v>
       </c>
       <c r="C54">
         <v>7.08736102626351e-7</v>
       </c>
       <c r="D54">
-        <v>0.0001233513187668031</v>
+        <v>0.0001233514609102566</v>
       </c>
       <c r="E54">
-        <v>0.001957973709698028</v>
+        <v>0.0019579730639041407</v>
       </c>
       <c r="F54">
-        <v>4.854374193528954e-5</v>
+        <v>4.8543675715966355e-5</v>
       </c>
       <c r="G54">
-        <v>7.298128316529342</v>
+        <v>7.298128316528636</v>
       </c>
       <c r="H54">
-        <v>7.087561024038163e-7</v>
+        <v>7.087561024023976e-7</v>
       </c>
       <c r="I54">
-        <v>0.00012335137212491132</v>
+        <v>0.00012335137212490406</v>
       </c>
       <c r="J54">
-        <v>0.001957973054655006</v>
+        <v>0.0019579730546515055</v>
       </c>
       <c r="K54">
-        <v>4.854367553574249e-5</v>
+        <v>4.85436755357172e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2310,34 +2310,34 @@
         <v>0.056999999999999995</v>
       </c>
       <c r="B55">
-        <v>7.300579764928158</v>
+        <v>7.300576241695499</v>
       </c>
       <c r="C55">
         <v>6.938153425681516e-7</v>
       </c>
       <c r="D55">
-        <v>0.00012879590525694294</v>
+        <v>0.0001287960448878871</v>
       </c>
       <c r="E55">
-        <v>0.0019589439497271384</v>
+        <v>0.0019589433324378497</v>
       </c>
       <c r="F55">
-        <v>4.855313332914224e-5</v>
+        <v>4.855307028264102e-5</v>
       </c>
       <c r="G55">
-        <v>7.300576262274285</v>
+        <v>7.300576262273588</v>
       </c>
       <c r="H55">
-        <v>6.93834925447074e-7</v>
+        <v>6.938349254456828e-7</v>
       </c>
       <c r="I55">
-        <v>0.00012879595598498244</v>
+        <v>0.00012879595598497493</v>
       </c>
       <c r="J55">
-        <v>0.0019589433227516933</v>
+        <v>0.0019589433227482056</v>
       </c>
       <c r="K55">
-        <v>4.855307010060665e-5</v>
+        <v>4.855307010058145e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2345,34 +2345,34 @@
         <v>0.059</v>
       </c>
       <c r="B56">
-        <v>7.3029997800377044</v>
+        <v>7.302996437544514</v>
       </c>
       <c r="C56">
         <v>6.788945825126028e-7</v>
       </c>
       <c r="D56">
-        <v>0.00013424173955020821</v>
+        <v>0.00013424187648667093</v>
       </c>
       <c r="E56">
-        <v>0.0019599092569848697</v>
+        <v>0.0019599086670316584</v>
       </c>
       <c r="F56">
-        <v>4.856251944121992e-5</v>
+        <v>4.856245941383181e-5</v>
       </c>
       <c r="G56">
-        <v>7.302996456816868</v>
+        <v>7.302996456816179</v>
       </c>
       <c r="H56">
-        <v>6.789137483137631e-7</v>
+        <v>6.789137483123995e-7</v>
       </c>
       <c r="I56">
-        <v>0.0001342417875506467</v>
+        <v>0.00013424178755063907</v>
       </c>
       <c r="J56">
-        <v>0.0019599086569402476</v>
+        <v>0.001959908656936775</v>
       </c>
       <c r="K56">
-        <v>4.856245923023221e-5</v>
+        <v>4.85624592302071e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,34 +2380,34 @@
         <v>0.061</v>
       </c>
       <c r="B57">
-        <v>7.305392511213633</v>
+        <v>7.30538934006761</v>
       </c>
       <c r="C57">
         <v>6.639738224573633e-7</v>
       </c>
       <c r="D57">
-        <v>0.00013968879446540406</v>
+        <v>0.00013968892855672192</v>
       </c>
       <c r="E57">
-        <v>0.001960869740235029</v>
+        <v>0.0019608691764880478</v>
       </c>
       <c r="F57">
-        <v>4.8571900294303246e-5</v>
+        <v>4.857184313978261e-5</v>
       </c>
       <c r="G57">
-        <v>7.30538935808735</v>
+        <v>7.30538935808667</v>
       </c>
       <c r="H57">
-        <v>6.639925710022632e-7</v>
+        <v>6.639925710009276e-7</v>
       </c>
       <c r="I57">
-        <v>0.00013968883967211185</v>
+        <v>0.00013968883967210402</v>
       </c>
       <c r="J57">
-        <v>0.001960869166022725</v>
+        <v>0.0019608691660192717</v>
       </c>
       <c r="K57">
-        <v>4.857184295486274e-5</v>
+        <v>4.857184295483775e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2415,34 +2415,34 @@
         <v>0.063</v>
       </c>
       <c r="B58">
-        <v>7.307758406840944</v>
+        <v>7.307755398140413</v>
       </c>
       <c r="C58">
         <v>6.490530624021238e-7</v>
       </c>
       <c r="D58">
-        <v>0.0001451370435625554</v>
+        <v>0.0001451371746861322</v>
       </c>
       <c r="E58">
-        <v>0.001961825505262759</v>
+        <v>0.0019618249666305374</v>
       </c>
       <c r="F58">
-        <v>4.8581275912085146e-5</v>
+        <v>4.858122149129362e-5</v>
       </c>
       <c r="G58">
-        <v>7.307755414959935</v>
+        <v>7.3077554149592645</v>
       </c>
       <c r="H58">
-        <v>6.490713935123779e-7</v>
+        <v>6.490713935110704e-7</v>
       </c>
       <c r="I58">
-        <v>0.0001451370859375601</v>
+        <v>0.0001451370859375521</v>
       </c>
       <c r="J58">
-        <v>0.001961824955822243</v>
+        <v>0.0019618249558188117</v>
       </c>
       <c r="K58">
-        <v>4.858122130529815e-5</v>
+        <v>4.858122130527331e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,34 +2450,34 @@
         <v>0.065</v>
       </c>
       <c r="B59">
-        <v>7.310097906447603</v>
+        <v>7.310095051756129</v>
       </c>
       <c r="C59">
         <v>6.341323023468842e-7</v>
       </c>
       <c r="D59">
-        <v>0.00015058646111990737</v>
+        <v>0.0001505865891782623</v>
       </c>
       <c r="E59">
-        <v>0.0019627766549667742</v>
+        <v>0.0019627761403958064</v>
       </c>
       <c r="F59">
-        <v>4.859064631910775e-5</v>
+        <v>4.8590594499674194e-5</v>
       </c>
       <c r="G59">
-        <v>7.310095067426449</v>
+        <v>7.310095067425789</v>
       </c>
       <c r="H59">
-        <v>6.341502158440852e-7</v>
+        <v>6.341502158428058e-7</v>
       </c>
       <c r="I59">
-        <v>0.0001505865006504386</v>
+        <v>0.00015058650065043048</v>
       </c>
       <c r="J59">
-        <v>0.001962776129275084</v>
+        <v>0.00196277612927168</v>
       </c>
       <c r="K59">
-        <v>4.859059431284752e-5</v>
+        <v>4.8590594312822846e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2485,34 +2485,34 @@
         <v>0.067</v>
       </c>
       <c r="B60">
-        <v>7.312411440875745</v>
+        <v>7.312408732198032</v>
       </c>
       <c r="C60">
         <v>6.192115422916889e-7</v>
       </c>
       <c r="D60">
-        <v>0.0001560370221116685</v>
+        <v>0.00015603714702975028</v>
       </c>
       <c r="E60">
-        <v>0.001963723289448655</v>
+        <v>0.0019637227979228695</v>
       </c>
       <c r="F60">
-        <v>4.860001154070224e-5</v>
+        <v>4.859996219669813e-5</v>
       </c>
       <c r="G60">
-        <v>7.3124087467688295</v>
+        <v>7.312408746768179</v>
       </c>
       <c r="H60">
-        <v>6.192290379973827e-7</v>
+        <v>6.192290379961314e-7</v>
       </c>
       <c r="I60">
-        <v>0.0001560370588074694</v>
+        <v>0.00015603705880746122</v>
       </c>
       <c r="J60">
-        <v>0.001963722786519886</v>
+        <v>0.0019637227865165114</v>
       </c>
       <c r="K60">
-        <v>4.8599962009284353e-5</v>
+        <v>4.859996200925988e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,34 +2520,34 @@
         <v>0.06899999999999999</v>
       </c>
       <c r="B61">
-        <v>7.314699432451568</v>
+        <v>7.314696862210564</v>
       </c>
       <c r="C61">
         <v>6.042907822364494e-7</v>
       </c>
       <c r="D61">
-        <v>0.0001614887021864761</v>
+        <v>0.00016148882390922171</v>
       </c>
       <c r="E61">
-        <v>0.00196466550609927</v>
+        <v>0.001964665036639417</v>
       </c>
       <c r="F61">
-        <v>4.860937160293168e-5</v>
+        <v>4.860932461456126e-5</v>
       </c>
       <c r="G61">
-        <v>7.314696875730214</v>
+        <v>7.314696875729576</v>
       </c>
       <c r="H61">
-        <v>6.043078599722705e-7</v>
+        <v>6.043078599710474e-7</v>
       </c>
       <c r="I61">
-        <v>0.00016148873607735878</v>
+        <v>0.00016148873607735052</v>
       </c>
       <c r="J61">
-        <v>0.0019646650249839715</v>
+        <v>0.0019646650249806295</v>
       </c>
       <c r="K61">
-        <v>4.8609324426804176e-5</v>
+        <v>4.860932442677992e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>0.071</v>
       </c>
       <c r="B62">
-        <v>7.316962295153683</v>
+        <v>7.3169598561688245</v>
       </c>
       <c r="C62">
         <v>5.893700221812099e-7</v>
       </c>
       <c r="D62">
-        <v>0.00016694147764656278</v>
+        <v>0.00016694159613667836</v>
       </c>
       <c r="E62">
-        <v>0.0019656033996824206</v>
+        <v>0.001965602951345377</v>
       </c>
       <c r="F62">
-        <v>4.8618726532536634e-5</v>
+        <v>4.861868178584123e-5</v>
       </c>
       <c r="G62">
-        <v>7.316959868684438</v>
+        <v>7.316959868683811</v>
       </c>
       <c r="H62">
-        <v>5.893866817687484e-7</v>
+        <v>5.893866817675535e-7</v>
       </c>
       <c r="I62">
-        <v>0.0001669415087801866</v>
+        <v>0.00016694150878017818</v>
       </c>
       <c r="J62">
-        <v>0.0019656029394669147</v>
+        <v>0.001965602939463609</v>
       </c>
       <c r="K62">
-        <v>4.861868159798436e-5</v>
+        <v>4.8618681597960345e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2590,34 +2590,34 @@
         <v>0.073</v>
       </c>
       <c r="B63">
-        <v>7.3192004347797495</v>
+        <v>7.319198120246312</v>
       </c>
       <c r="C63">
         <v>5.744492621259814e-7</v>
       </c>
       <c r="D63">
-        <v>0.00017239532542760115</v>
+        <v>0.00017239544066354845</v>
       </c>
       <c r="E63">
-        <v>0.0019665370624157795</v>
+        <v>0.001966536634293794</v>
       </c>
       <c r="F63">
-        <v>4.8628076356883364e-5</v>
+        <v>4.862803374345944e-5</v>
       </c>
       <c r="G63">
-        <v>7.319198131803772</v>
+        <v>7.319198131803158</v>
       </c>
       <c r="H63">
-        <v>5.744655033868163e-7</v>
+        <v>5.744655033856498e-7</v>
       </c>
       <c r="I63">
-        <v>0.0001723953538674563</v>
+        <v>0.00017239535386744792</v>
       </c>
       <c r="J63">
-        <v>0.0019665366222214173</v>
+        <v>0.0019665366222181495</v>
       </c>
       <c r="K63">
-        <v>4.862803355574602e-5</v>
+        <v>4.862803355572228e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2625,34 +2625,34 @@
         <v>0.075</v>
       </c>
       <c r="B64">
-        <v>7.321414249111269</v>
+        <v>7.321412052580754</v>
       </c>
       <c r="C64">
         <v>5.595285020707751e-7</v>
       </c>
       <c r="D64">
-        <v>0.00017785022307920917</v>
+        <v>0.0001778503350533784</v>
       </c>
       <c r="E64">
-        <v>0.001967466584049205</v>
+        <v>0.0019674661752690907</v>
       </c>
       <c r="F64">
-        <v>4.8637421103914775e-5</v>
+        <v>4.8637380520644944e-5</v>
       </c>
       <c r="G64">
-        <v>7.321412063224755</v>
+        <v>7.321412063224152</v>
       </c>
       <c r="H64">
-        <v>5.595443248264742e-7</v>
+        <v>5.595443248253364e-7</v>
       </c>
       <c r="I64">
-        <v>0.000177850248902787</v>
+        <v>0.00017785024890277866</v>
       </c>
       <c r="J64">
-        <v>0.0019674661630315698</v>
+        <v>0.001967466163028344</v>
       </c>
       <c r="K64">
-        <v>4.8637380333317936e-5</v>
+        <v>4.863738033329451e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,34 +2660,34 @@
         <v>0.077</v>
       </c>
       <c r="B65">
-        <v>7.323604128076381</v>
+        <v>7.323602043437909</v>
       </c>
       <c r="C65">
         <v>5.446077420155797e-7</v>
       </c>
       <c r="D65">
-        <v>0.00018330614874609256</v>
+        <v>0.0001833062574631471</v>
       </c>
       <c r="E65">
-        <v>0.001968392051940513</v>
+        <v>0.001968391661662794</v>
       </c>
       <c r="F65">
-        <v>4.864676080210364e-5</v>
+        <v>4.864672215090031e-5</v>
       </c>
       <c r="G65">
-        <v>7.323602053211983</v>
+        <v>7.323602053211395</v>
       </c>
       <c r="H65">
-        <v>5.446231460877223e-7</v>
+        <v>5.446231460866131e-7</v>
       </c>
       <c r="I65">
-        <v>0.00018330617204322783</v>
+        <v>0.00018330617204321948</v>
       </c>
       <c r="J65">
-        <v>0.0019683916492885803</v>
+        <v>0.001968391649285399</v>
       </c>
       <c r="K65">
-        <v>4.864672196420239e-5</v>
+        <v>4.864672196417928e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2695,34 +2695,34 @@
         <v>0.079</v>
       </c>
       <c r="B66">
-        <v>7.325770453910566</v>
+        <v>7.325768475373216</v>
       </c>
       <c r="C66">
         <v>5.296869819603402e-7</v>
       </c>
       <c r="D66">
-        <v>0.00018876308114980757</v>
+        <v>0.00018876318662518478</v>
       </c>
       <c r="E66">
-        <v>0.001969313551128776</v>
+        <v>0.0019693131785468087</v>
       </c>
       <c r="F66">
-        <v>4.865609548040828e-5</v>
+        <v>4.8656058667969276e-5</v>
       </c>
       <c r="G66">
-        <v>7.325768484319773</v>
+        <v>7.325768484319196</v>
       </c>
       <c r="H66">
-        <v>5.297019671705603e-7</v>
+        <v>5.2970196716948e-7</v>
       </c>
       <c r="I66">
-        <v>0.00018876310202117677</v>
+        <v>0.00018876310202116853</v>
       </c>
       <c r="J66">
-        <v>0.0019693131660640426</v>
+        <v>0.0019693131660609093</v>
       </c>
       <c r="K66">
-        <v>4.8656058482142824e-5</v>
+        <v>4.865605848212006e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2730,34 +2730,34 @@
         <v>0.081</v>
       </c>
       <c r="B67">
-        <v>7.327913601315141</v>
+        <v>7.327911723391194</v>
       </c>
       <c r="C67">
         <v>5.147662219051228e-7</v>
       </c>
       <c r="D67">
-        <v>0.00019422099957112275</v>
+        <v>0.00019422110182967786</v>
       </c>
       <c r="E67">
-        <v>0.0019702311644052345</v>
+        <v>0.0019702308087442984</v>
       </c>
       <c r="F67">
-        <v>4.8665425168230425e-5</v>
+        <v>4.866539010580615e-5</v>
       </c>
       <c r="G67">
-        <v>7.327911731551549</v>
+        <v>7.327911731550986</v>
       </c>
       <c r="H67">
-        <v>5.147807880749884e-7</v>
+        <v>5.147807880739371e-7</v>
       </c>
       <c r="I67">
-        <v>0.00019422101812688574</v>
+        <v>0.00019422101812687767</v>
       </c>
       <c r="J67">
-        <v>0.0019702307961808213</v>
+        <v>0.001970230796177739</v>
       </c>
       <c r="K67">
-        <v>4.8665389921093286e-5</v>
+        <v>4.866538992107089e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2765,34 +2765,34 @@
         <v>0.083</v>
       </c>
       <c r="B68">
-        <v>7.330033937613481</v>
+        <v>7.33003215510252</v>
       </c>
       <c r="C68">
         <v>4.998454618498942e-7</v>
       </c>
       <c r="D68">
-        <v>0.00019967988383296073</v>
+        <v>0.00019967998290774163</v>
       </c>
       <c r="E68">
-        <v>0.0019711449723818857</v>
+        <v>0.0019711446328982613</v>
       </c>
       <c r="F68">
-        <v>4.867474989537532e-5</v>
+        <v>4.867471649854688e-5</v>
       </c>
       <c r="G68">
-        <v>7.33003216251693</v>
+        <v>7.330032162516381</v>
       </c>
       <c r="H68">
-        <v>4.998596088010065e-7</v>
+        <v>4.998596087999844e-7</v>
       </c>
       <c r="I68">
-        <v>0.00019967990019153332</v>
+        <v>0.00019967990019152538</v>
       </c>
       <c r="J68">
-        <v>0.0019711446202816236</v>
+        <v>0.0019711446202785956</v>
       </c>
       <c r="K68">
-        <v>4.8674716315189424e-5</v>
+        <v>4.867471631516742e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2800,34 +2800,34 @@
         <v>0.085</v>
       </c>
       <c r="B69">
-        <v>7.332131822904873</v>
+        <v>7.332130130878706</v>
       </c>
       <c r="C69">
         <v>4.849247017946878e-7</v>
       </c>
       <c r="D69">
-        <v>0.00020513971428390222</v>
+        <v>0.0002051398102150433</v>
       </c>
       <c r="E69">
-        <v>0.0019720550535578325</v>
+        <v>0.001972054729537865</v>
       </c>
       <c r="F69">
-        <v>4.868406969201376e-5</v>
+        <v>4.8684037880481694e-5</v>
       </c>
       <c r="G69">
-        <v>7.332130137586397</v>
+        <v>7.332130137585863</v>
       </c>
       <c r="H69">
-        <v>4.849384293486149e-7</v>
+        <v>4.849384293476219e-7</v>
       </c>
       <c r="I69">
-        <v>0.0002051397285708477</v>
+        <v>0.00020513972857084007</v>
       </c>
       <c r="J69">
-        <v>0.0019720547168953365</v>
+        <v>0.0019720547168923658</v>
       </c>
       <c r="K69">
-        <v>4.868403769872121e-5</v>
+        <v>4.8684037698699614e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2835,34 +2835,34 @@
         <v>0.08700000000000001</v>
       </c>
       <c r="B70">
-        <v>7.3342076102159535</v>
+        <v>7.334206004004321</v>
       </c>
       <c r="C70">
         <v>4.700039417394594e-7</v>
       </c>
       <c r="D70">
-        <v>0.00021060047178223383</v>
+        <v>0.00021060056461595818</v>
       </c>
       <c r="E70">
-        <v>0.0019729614843834557</v>
+        <v>0.001972961175142613</v>
       </c>
       <c r="F70">
-        <v>4.869338458864625e-5</v>
+        <v>4.869335428602923e-5</v>
       </c>
       <c r="G70">
-        <v>7.334206010043516</v>
+        <v>7.3342060100429975</v>
       </c>
       <c r="H70">
-        <v>4.700172497178133e-7</v>
+        <v>4.700172497168495e-7</v>
       </c>
       <c r="I70">
-        <v>0.00021060048412926367</v>
+        <v>0.00021060048412925624</v>
       </c>
       <c r="J70">
-        <v>0.001972961162501192</v>
+        <v>0.001972961162498282</v>
       </c>
       <c r="K70">
-        <v>4.869335410610702e-5</v>
+        <v>4.869335410608585e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2870,34 +2870,34 @@
         <v>0.08900000000000001</v>
       </c>
       <c r="B71">
-        <v>7.336261645649691</v>
+        <v>7.336260120826702</v>
       </c>
       <c r="C71">
         <v>4.5508318168425303e-7</v>
       </c>
       <c r="D71">
-        <v>0.00021606213768052116</v>
+        <v>0.00021606222746824305</v>
       </c>
       <c r="E71">
-        <v>0.0019738643393224773</v>
+        <v>0.001973864044204413</v>
       </c>
       <c r="F71">
-        <v>4.870269461606887e-5</v>
+        <v>4.870266574971215e-5</v>
       </c>
       <c r="G71">
-        <v>7.33626012623465</v>
+        <v>7.336260126234146</v>
       </c>
       <c r="H71">
-        <v>4.5509606990860195e-7</v>
+        <v>4.5509606990766746e-7</v>
       </c>
       <c r="I71">
-        <v>0.00021606214822459473</v>
+        <v>0.00021606214822458754</v>
       </c>
       <c r="J71">
-        <v>0.0019738640315908346</v>
+        <v>0.001973864031587988</v>
       </c>
       <c r="K71">
-        <v>4.870266557186923e-5</v>
+        <v>4.8702665571848505e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2905,34 +2905,34 @@
         <v>0.091</v>
       </c>
       <c r="B72">
-        <v>7.338294268531837</v>
+        <v>7.3382928209031135</v>
       </c>
       <c r="C72">
         <v>4.401624216289804e-7</v>
       </c>
       <c r="D72">
-        <v>0.00022152469381069072</v>
+        <v>0.00022152478060820724</v>
       </c>
       <c r="E72">
-        <v>0.001974763690912001</v>
+        <v>0.0019747634092876125</v>
       </c>
       <c r="F72">
-        <v>4.871199980534106e-5</v>
+        <v>4.871197230613404e-5</v>
       </c>
       <c r="G72">
-        <v>7.338292825716122</v>
+        <v>7.338292825715634</v>
       </c>
       <c r="H72">
-        <v>4.401748899209807e-7</v>
+        <v>4.401748899200756e-7</v>
       </c>
       <c r="I72">
-        <v>0.00022152470269320583</v>
+        <v>0.00022152470269319886</v>
       </c>
       <c r="J72">
-        <v>0.0019747633967283577</v>
+        <v>0.0019747633967255765</v>
       </c>
       <c r="K72">
-        <v>4.871197213061115e-5</v>
+        <v>4.87119721305909e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2940,34 +2940,34 @@
         <v>0.09299999999999999</v>
       </c>
       <c r="B73">
-        <v>7.340305811554859</v>
+        <v>7.340304437145357</v>
       </c>
       <c r="C73">
         <v>4.2524166157379606e-7</v>
       </c>
       <c r="D73">
-        <v>0.00022698812246960392</v>
+        <v>0.0002269882063363702</v>
       </c>
       <c r="E73">
-        <v>0.0019756596098205676</v>
+        <v>0.0019756593410870664</v>
       </c>
       <c r="F73">
-        <v>4.872130018775504e-5</v>
+        <v>4.872127398995766e-5</v>
       </c>
       <c r="G73">
-        <v>7.340304441398813</v>
+        <v>7.340304441398341</v>
       </c>
       <c r="H73">
-        <v>4.252537097549497e-7</v>
+        <v>4.2525370975407424e-7</v>
       </c>
       <c r="I73">
-        <v>0.00022698812983566952</v>
+        <v>0.00022698812983566283</v>
       </c>
       <c r="J73">
-        <v>0.0019756593286083695</v>
+        <v>0.0019756593286056577</v>
       </c>
       <c r="K73">
-        <v>4.872127381699529e-5</v>
+        <v>4.8721273816975526e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2975,34 +2975,34 @@
         <v>0.09499999999999999</v>
       </c>
       <c r="B74">
-        <v>7.342296600919305</v>
+        <v>7.342295295961761</v>
       </c>
       <c r="C74">
         <v>4.1032090151857863e-7</v>
       </c>
       <c r="D74">
-        <v>0.00023245240640510671</v>
+        <v>0.00023245248740358474</v>
       </c>
       <c r="E74">
-        <v>0.001976552164904314</v>
+        <v>0.001976551908484308</v>
       </c>
       <c r="F74">
-        <v>4.8730595794806986e-5</v>
+        <v>4.8730570835884444e-5</v>
       </c>
       <c r="G74">
-        <v>7.34229529969016</v>
+        <v>7.342295299689703</v>
       </c>
       <c r="H74">
-        <v>4.1033252941050876e-7</v>
+        <v>4.1033252940966305e-7</v>
       </c>
       <c r="I74">
-        <v>0.00023245241240289036</v>
+        <v>0.00023245241240288389</v>
       </c>
       <c r="J74">
-        <v>0.0019765518961121636</v>
+        <v>0.001976551896109523</v>
       </c>
       <c r="K74">
-        <v>4.873057066572281e-5</v>
+        <v>4.873057066570353e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3010,34 +3010,34 @@
         <v>0.09699999999999999</v>
       </c>
       <c r="B75">
-        <v>7.344266956472587</v>
+        <v>7.344265717396572</v>
       </c>
       <c r="C75">
         <v>3.9540014146333913e-7</v>
       </c>
       <c r="D75">
-        <v>0.00023791752880253692</v>
+        <v>0.00023791760699761404</v>
       </c>
       <c r="E75">
-        <v>0.0019774414232612875</v>
+        <v>0.0019774411786018706</v>
       </c>
       <c r="F75">
-        <v>4.873988665816952e-5</v>
+        <v>4.873986287863508e-5</v>
       </c>
       <c r="G75">
-        <v>7.3442657206335396</v>
+        <v>7.3442657206331</v>
       </c>
       <c r="H75">
-        <v>3.9541134888765785e-7</v>
+        <v>3.9541134888684205e-7</v>
       </c>
       <c r="I75">
-        <v>0.00023791753358268152</v>
+        <v>0.00023791753358267528</v>
       </c>
       <c r="J75">
-        <v>0.0019774411663620413</v>
+        <v>0.0019774411663594743</v>
       </c>
       <c r="K75">
-        <v>4.8739862711514134e-5</v>
+        <v>4.873986271149537e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3045,34 +3045,34 @@
         <v>0.09899999999999999</v>
       </c>
       <c r="B76">
-        <v>7.346217191845181</v>
+        <v>7.346216015266731</v>
       </c>
       <c r="C76">
         <v>3.804793814081217e-7</v>
       </c>
       <c r="D76">
-        <v>0.00024338347327167867</v>
+        <v>0.0002433835487301469</v>
       </c>
       <c r="E76">
-        <v>0.0019783274502839783</v>
+        <v>0.0019783272168558373</v>
       </c>
       <c r="F76">
-        <v>4.8749172809666e-5</v>
+        <v>4.874915015293132e-5</v>
       </c>
       <c r="G76">
-        <v>7.34621601804505</v>
+        <v>7.346216018044626</v>
       </c>
       <c r="H76">
-        <v>3.8049016818639703e-7</v>
+        <v>3.804901681856112e-7</v>
       </c>
       <c r="I76">
-        <v>0.00024338347698678</v>
+        <v>0.00024338347698677406</v>
       </c>
       <c r="J76">
-        <v>0.001978327204773863</v>
+        <v>0.001978327204771372</v>
       </c>
       <c r="K76">
-        <v>4.874914998909074e-5</v>
+        <v>4.87491499890725e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3080,34 +3080,34 @@
         <v>0.10099999999999999</v>
       </c>
       <c r="B77">
-        <v>7.348147614584239</v>
+        <v>7.348146497296017</v>
       </c>
       <c r="C77">
         <v>3.6555862135291535e-7</v>
       </c>
       <c r="D77">
-        <v>0.00024885022383414344</v>
+        <v>0.00024885029662423554</v>
       </c>
       <c r="E77">
-        <v>0.001979210309710129</v>
+        <v>0.001979210087006672</v>
       </c>
       <c r="F77">
-        <v>4.875845428124592e-5</v>
+        <v>4.8758432693478754e-5</v>
       </c>
       <c r="G77">
-        <v>7.348146499647655</v>
+        <v>7.348146499647247</v>
       </c>
       <c r="H77">
-        <v>3.655689873067263e-7</v>
+        <v>3.655689873059706e-7</v>
       </c>
       <c r="I77">
-        <v>0.00024885022663828497</v>
+        <v>0.00024885022663827933</v>
       </c>
       <c r="J77">
-        <v>0.0019792100751078725</v>
+        <v>0.00197921007510546</v>
       </c>
       <c r="K77">
-        <v>4.875843253315799e-5</v>
+        <v>4.87584325331403e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3115,34 +3115,34 @@
         <v>0.103</v>
       </c>
       <c r="B78">
-        <v>7.350058526284609</v>
+        <v>7.350057465246604</v>
       </c>
       <c r="C78">
         <v>3.5063786129772e-7</v>
       </c>
       <c r="D78">
-        <v>0.0002543177649111666</v>
+        <v>0.0002543178351021437</v>
       </c>
       <c r="E78">
-        <v>0.001980090063671882</v>
+        <v>0.001980089851208377</v>
       </c>
       <c r="F78">
-        <v>4.8767731104961906e-5</v>
+        <v>4.876771053495071e-5</v>
       </c>
       <c r="G78">
-        <v>7.350057467202728</v>
+        <v>7.350057467202337</v>
       </c>
       <c r="H78">
-        <v>3.506478062486457e-7</v>
+        <v>3.5064780624792015e-7</v>
       </c>
       <c r="I78">
-        <v>0.0002543177669595054</v>
+        <v>0.0002543177669595</v>
       </c>
       <c r="J78">
-        <v>0.0019800898395178628</v>
+        <v>0.001980089839515531</v>
       </c>
       <c r="K78">
-        <v>4.876771037838892e-5</v>
+        <v>4.876771037837181e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,34 +3150,34 @@
         <v>0.105</v>
       </c>
       <c r="B79">
-        <v>7.351950222717282</v>
+        <v>7.351949215047981</v>
       </c>
       <c r="C79">
         <v>3.357171012424915e-7</v>
       </c>
       <c r="D79">
-        <v>0.00025978608131180486</v>
+        <v>0.0002597861489735899</v>
       </c>
       <c r="E79">
-        <v>0.0019809667727433136</v>
+        <v>0.0019809665700560534</v>
       </c>
       <c r="F79">
-        <v>4.877700331294782e-5</v>
+        <v>4.8776983711972945e-5</v>
       </c>
       <c r="G79">
-        <v>7.351949216638984</v>
+        <v>7.35194921663861</v>
       </c>
       <c r="H79">
-        <v>3.357266250121552e-7</v>
+        <v>3.3572662501146e-7</v>
       </c>
       <c r="I79">
-        <v>0.0002597860827602037</v>
+        <v>0.0002597860827601985</v>
       </c>
       <c r="J79">
-        <v>0.00198096655859873</v>
+        <v>0.001980966558596481</v>
       </c>
       <c r="K79">
-        <v>4.877698355940907e-5</v>
+        <v>4.877698355939256e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,34 +3185,34 @@
         <v>0.107</v>
       </c>
       <c r="B80">
-        <v>7.353822993955268</v>
+        <v>7.3538220369232965</v>
       </c>
       <c r="C80">
         <v>3.2079634118728515e-7</v>
       </c>
       <c r="D80">
-        <v>0.00026525515822152024</v>
+        <v>0.0002652552234243735</v>
       </c>
       <c r="E80">
-        <v>0.001981840495986419</v>
+        <v>0.0019818403026319056</v>
       </c>
       <c r="F80">
-        <v>4.8786270937398226e-5</v>
+        <v>4.878625225910944e-5</v>
       </c>
       <c r="G80">
-        <v>7.353822038178821</v>
+        <v>7.353822038178463</v>
       </c>
       <c r="H80">
-        <v>3.208054435972548e-7</v>
+        <v>3.2080544359658993e-7</v>
       </c>
       <c r="I80">
-        <v>0.00026525515922622167</v>
+        <v>0.0002652551592262167</v>
       </c>
       <c r="J80">
-        <v>0.0019818402914324796</v>
+        <v>0.001981840291430315</v>
       </c>
       <c r="K80">
-        <v>4.878625211078215e-5</v>
+        <v>4.878625211076625e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3220,34 +3220,34 @@
         <v>0.109</v>
       </c>
       <c r="B81">
-        <v>7.355677124496923</v>
+        <v>7.35567621551313</v>
       </c>
       <c r="C81">
         <v>3.058755811320235e-7</v>
       </c>
       <c r="D81">
-        <v>0.0002707249811911369</v>
+        <v>0.0002707250440053705</v>
       </c>
       <c r="E81">
-        <v>0.001982711290995592</v>
+        <v>0.001982711106549739</v>
       </c>
       <c r="F81">
-        <v>4.8795534010548884e-5</v>
+        <v>4.879551621084891e-5</v>
       </c>
       <c r="G81">
-        <v>7.355676216462084</v>
+        <v>7.355676216461743</v>
       </c>
       <c r="H81">
-        <v>3.058842620039445e-7</v>
+        <v>3.058842620033101e-7</v>
       </c>
       <c r="I81">
-        <v>0.0002707249819084765</v>
+        <v>0.00027072498190847176</v>
       </c>
       <c r="J81">
-        <v>0.0019827110956327264</v>
+        <v>0.0019827110956306478</v>
       </c>
       <c r="K81">
-        <v>4.879551606699663e-5</v>
+        <v>4.8795516066981354e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3255,34 +3255,34 @@
         <v>0.111</v>
       </c>
       <c r="B82">
-        <v>7.357512893386736</v>
+        <v>7.357512029996691</v>
       </c>
       <c r="C82">
         <v>2.909548210768282e-7</v>
       </c>
       <c r="D82">
-        <v>0.00027619553612616063</v>
+        <v>0.00027619559662188646</v>
       </c>
       <c r="E82">
-        <v>0.001983579213940653</v>
+        <v>0.0019835790379980163</v>
       </c>
       <c r="F82">
-        <v>4.880479256465848e-5</v>
+        <v>4.880477560159219e-5</v>
       </c>
       <c r="G82">
-        <v>7.357512030667274</v>
+        <v>7.35751203066695</v>
       </c>
       <c r="H82">
-        <v>2.909630802322243e-7</v>
+        <v>2.9096308023162043e-7</v>
       </c>
       <c r="I82">
-        <v>0.00027619553671231345</v>
+        <v>0.00027619553671230895</v>
       </c>
       <c r="J82">
-        <v>0.0019835790273877445</v>
+        <v>0.0019835790273857535</v>
       </c>
       <c r="K82">
-        <v>4.8804775462453097e-5</v>
+        <v>4.880477546243848e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3290,34 +3290,34 @@
         <v>0.113</v>
       </c>
       <c r="B83">
-        <v>7.359330574333613</v>
+        <v>7.359329754210514</v>
       </c>
       <c r="C83">
         <v>2.760340610215942e-7</v>
       </c>
       <c r="D83">
-        <v>0.00028166680927644525</v>
+        <v>0.0002816668675233549</v>
       </c>
       <c r="E83">
-        <v>0.001984444319608479</v>
+        <v>0.001984444151781504</v>
       </c>
       <c r="F83">
-        <v>4.88140466319913e-5</v>
+        <v>4.881403046564046e-5</v>
       </c>
       <c r="G83">
-        <v>7.359329754630228</v>
+        <v>7.359329754629921</v>
       </c>
       <c r="H83">
-        <v>2.760418982820943e-7</v>
+        <v>2.76041898281521e-7</v>
       </c>
       <c r="I83">
-        <v>0.0002816668098872046</v>
+        <v>0.0002816668098872002</v>
       </c>
       <c r="J83">
-        <v>0.001984444141502119</v>
+        <v>0.001984444141500219</v>
       </c>
       <c r="K83">
-        <v>4.881403033145249e-5</v>
+        <v>4.881403033143854e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3325,34 +3325,34 @@
         <v>0.115</v>
       </c>
       <c r="B84">
-        <v>7.36113043582668</v>
+        <v>7.3611296567646125</v>
       </c>
       <c r="C84">
         <v>2.6111330096639884e-7</v>
       </c>
       <c r="D84">
-        <v>0.00028713878722619606</v>
+        <v>0.0002871388432933682</v>
       </c>
       <c r="E84">
-        <v>0.0019853066614432765</v>
+        <v>0.001985306501361572</v>
       </c>
       <c r="F84">
-        <v>4.882329624480103e-5</v>
+        <v>4.8823280837184084e-5</v>
       </c>
       <c r="G84">
-        <v>7.361129656960293</v>
+        <v>7.361129656960003</v>
       </c>
       <c r="H84">
-        <v>2.611207161535544e-7</v>
+        <v>2.611207161530118e-7</v>
       </c>
       <c r="I84">
-        <v>0.0002871387880167798</v>
+        <v>0.0002871387880167757</v>
       </c>
       <c r="J84">
-        <v>0.0019853064914370443</v>
+        <v>0.0019853064914352367</v>
       </c>
       <c r="K84">
-        <v>4.882328070818494e-5</v>
+        <v>4.882328070817166e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,34 +3360,34 @@
         <v>0.117</v>
       </c>
       <c r="B85">
-        <v>7.362912741248618</v>
+        <v>7.362912001156193</v>
       </c>
       <c r="C85">
         <v>2.4619254091116484e-7</v>
       </c>
       <c r="D85">
-        <v>0.0002926114568842984</v>
+        <v>0.0002926115108400325</v>
       </c>
       <c r="E85">
-        <v>0.0019861662915855454</v>
+        <v>0.0019861661388951794</v>
       </c>
       <c r="F85">
-        <v>4.88325414353154e-5</v>
+        <v>4.883252675029233e-5</v>
       </c>
       <c r="G85">
-        <v>7.362912001154018</v>
+        <v>7.362912001153744</v>
       </c>
       <c r="H85">
-        <v>2.461995338466047e-7</v>
+        <v>2.4619953384609276e-7</v>
       </c>
       <c r="I85">
-        <v>0.00029261145800918165</v>
+        <v>0.0002926114580091777</v>
       </c>
       <c r="J85">
-        <v>0.0019861661293493088</v>
+        <v>0.0019861661293475944</v>
       </c>
       <c r="K85">
-        <v>4.8832526626719456e-5</v>
+        <v>4.8832526626706886e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3395,34 +3395,34 @@
         <v>0.11900000000000001</v>
       </c>
       <c r="B86">
-        <v>7.364677748986582</v>
+        <v>7.3646770458809</v>
       </c>
       <c r="C86">
         <v>2.3127178085593087e-7</v>
       </c>
       <c r="D86">
-        <v>0.0002980848054749601</v>
+        <v>0.00029808485738663294</v>
       </c>
       <c r="E86">
-        <v>0.0019870232609097834</v>
+        <v>0.0019870231152726023</v>
       </c>
       <c r="F86">
-        <v>4.884178223572182e-5</v>
+        <v>4.8841768238903565e-5</v>
       </c>
       <c r="G86">
-        <v>7.364677045706409</v>
+        <v>7.364677045706152</v>
       </c>
       <c r="H86">
-        <v>2.3127835136124512e-7</v>
+        <v>2.3127835136076395e-7</v>
       </c>
       <c r="I86">
-        <v>0.0002980848070877298</v>
+        <v>0.0002980848070877262</v>
       </c>
       <c r="J86">
-        <v>0.0019870231061290223</v>
+        <v>0.001987023106127404</v>
       </c>
       <c r="K86">
-        <v>4.884176812099418e-5</v>
+        <v>4.884176812098232e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3430,34 +3430,34 @@
         <v>0.121</v>
       </c>
       <c r="B87">
-        <v>7.366425712540711</v>
+        <v>7.366425044541652</v>
       </c>
       <c r="C87">
         <v>2.1635102080071345e-7</v>
       </c>
       <c r="D87">
-        <v>0.0003035588205286564</v>
+        <v>0.0003035588704625982</v>
       </c>
       <c r="E87">
-        <v>0.001987877619060971</v>
+        <v>0.0019878774801539386</v>
       </c>
       <c r="F87">
-        <v>4.8851018678153754e-5</v>
+        <v>4.885100533681625e-5</v>
       </c>
       <c r="G87">
-        <v>7.366425044219767</v>
+        <v>7.366425044219527</v>
       </c>
       <c r="H87">
-        <v>2.1635716869747569e-7</v>
+        <v>2.1635716869702528e-7</v>
       </c>
       <c r="I87">
-        <v>0.0003035588227818876</v>
+        <v>0.0003035588227818842</v>
       </c>
       <c r="J87">
-        <v>0.0019878774714361235</v>
+        <v>0.0019878774714346017</v>
       </c>
       <c r="K87">
-        <v>4.8851005224807346e-5</v>
+        <v>4.8851005224796206e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3465,34 +3465,34 @@
         <v>0.12299999999999998</v>
       </c>
       <c r="B88">
-        <v>7.368156880630302</v>
+        <v>7.368156245955102</v>
       </c>
       <c r="C88">
         <v>2.0143026074547946e-7</v>
       </c>
       <c r="D88">
-        <v>0.0003090334898733679</v>
+        <v>0.0003090335378947584</v>
       </c>
       <c r="E88">
-        <v>0.001988729414489874</v>
+        <v>0.001988729282004439</v>
       </c>
       <c r="F88">
-        <v>4.8860250794678126e-5</v>
+        <v>4.8860238077680444e-5</v>
       </c>
       <c r="G88">
-        <v>7.368156245510144</v>
+        <v>7.368156245509922</v>
       </c>
       <c r="H88">
-        <v>2.0143598585529647e-7</v>
+        <v>2.0143598585487687e-7</v>
       </c>
       <c r="I88">
-        <v>0.00030903349291851786</v>
+        <v>0.00030903349291851477</v>
       </c>
       <c r="J88">
-        <v>0.001988729273735704</v>
+        <v>0.0019887292737342803</v>
       </c>
       <c r="K88">
-        <v>4.8860237971808766e-5</v>
+        <v>4.8860237971798344e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>0.125</v>
       </c>
       <c r="B89">
-        <v>7.369871497297616</v>
+        <v>7.3698708942557625</v>
       </c>
       <c r="C89">
         <v>1.865095006902786e-7</v>
       </c>
       <c r="D89">
-        <v>0.0003145088016261004</v>
+        <v>0.00031450884779888103</v>
       </c>
       <c r="E89">
-        <v>0.0019895786944872087</v>
+        <v>0.001989578568128691</v>
       </c>
       <c r="F89">
-        <v>4.88694786172833e-5</v>
+        <v>4.886946649498991e-5</v>
       </c>
       <c r="G89">
-        <v>7.369870893711464</v>
+        <v>7.369870893711258</v>
       </c>
       <c r="H89">
-        <v>1.865148028347074e-7</v>
+        <v>1.865148028343187e-7</v>
       </c>
       <c r="I89">
-        <v>0.0003145088056134201</v>
+        <v>0.00031450880561341736</v>
       </c>
       <c r="J89">
-        <v>0.0019895785603321996</v>
+        <v>0.0019895785603308755</v>
       </c>
       <c r="K89">
-        <v>4.8869466395492e-5</v>
+        <v>4.8869466395482296e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3535,34 +3535,34 @@
         <v>0.127</v>
       </c>
       <c r="B90">
-        <v>7.371569802009439</v>
+        <v>7.371569228997806</v>
       </c>
       <c r="C90">
         <v>1.7158874063508879e-7</v>
       </c>
       <c r="D90">
-        <v>0.0003199847441846779</v>
+        <v>0.0003199847885714789</v>
       </c>
       <c r="E90">
-        <v>0.0019904255052167153</v>
+        <v>0.001990425384703711</v>
       </c>
       <c r="F90">
-        <v>4.8878702177867916e-5</v>
+        <v>4.8878690622074796e-5</v>
       </c>
       <c r="G90">
-        <v>7.371569228377328</v>
+        <v>7.3715692283771395</v>
       </c>
       <c r="H90">
-        <v>1.715936196357085e-7</v>
+        <v>1.7159361963535072e-7</v>
       </c>
       <c r="I90">
-        <v>0.00031998474926313845</v>
+        <v>0.0003199847492631359</v>
       </c>
       <c r="J90">
-        <v>0.001990425377402481</v>
+        <v>0.001990425377401257</v>
       </c>
       <c r="K90">
-        <v>4.887869052918693e-5</v>
+        <v>4.8878690529177975e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3570,34 +3570,34 @@
         <v>0.129</v>
       </c>
       <c r="B91">
-        <v>7.373252029756353</v>
+        <v>7.3732514852546105</v>
       </c>
       <c r="C91">
         <v>1.566679805798879e-7</v>
       </c>
       <c r="D91">
-        <v>0.0003254613062197989</v>
+        <v>0.00032546134888188</v>
       </c>
       <c r="E91">
-        <v>0.001991269891747162</v>
+        <v>0.0019912697768109775</v>
       </c>
       <c r="F91">
-        <v>4.88879215082304e-5</v>
+        <v>4.888791049209477e-5</v>
       </c>
       <c r="G91">
-        <v>7.373251484580562</v>
+        <v>7.373251484580391</v>
       </c>
       <c r="H91">
-        <v>1.566724362582998e-7</v>
+        <v>1.56672436257973e-7</v>
       </c>
       <c r="I91">
-        <v>0.00032546131253703096</v>
+        <v>0.0003254613125370286</v>
       </c>
       <c r="J91">
-        <v>0.001991269770027881</v>
+        <v>0.0019912697700267593</v>
       </c>
       <c r="K91">
-        <v>4.8887910406053044e-5</v>
+        <v>4.8887910406044824e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3605,34 +3605,34 @@
         <v>0.131</v>
       </c>
       <c r="B92">
-        <v>7.374918411149808</v>
+        <v>7.3749178937160735</v>
       </c>
       <c r="C92">
         <v>1.4174722052461526e-7</v>
       </c>
       <c r="D92">
-        <v>0.00033093847666734635</v>
+        <v>0.0003309385176645497</v>
       </c>
       <c r="E92">
-        <v>0.001992111898083328</v>
+        <v>0.0019921117884674306</v>
       </c>
       <c r="F92">
-        <v>4.889713664005915e-5</v>
+        <v>4.889712613803271e-5</v>
       </c>
       <c r="G92">
-        <v>7.374917893010523</v>
+        <v>7.374917893010369</v>
       </c>
       <c r="H92">
-        <v>1.4175125270248124e-7</v>
+        <v>1.4175125270218544e-7</v>
       </c>
       <c r="I92">
-        <v>0.00033093848436959204</v>
+        <v>0.00033093848436958987</v>
       </c>
       <c r="J92">
-        <v>0.0019921117822252012</v>
+        <v>0.0019921117822241825</v>
       </c>
       <c r="K92">
-        <v>4.889712605907294e-5</v>
+        <v>4.889712605906548e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3640,34 +3640,34 @@
         <v>0.133</v>
       </c>
       <c r="B93">
-        <v>7.376569172517013</v>
+        <v>7.376568680783737</v>
       </c>
       <c r="C93">
         <v>1.2682646046942545e-7</v>
       </c>
       <c r="D93">
-        <v>0.000336416244720944</v>
+        <v>0.0003364162841116571</v>
       </c>
       <c r="E93">
-        <v>0.001992951567195999</v>
+        <v>0.001992951462655489</v>
       </c>
       <c r="F93">
-        <v>4.890634760492333e-5</v>
+        <v>4.89063375926888e-5</v>
       </c>
       <c r="G93">
-        <v>7.376568680068224</v>
+        <v>7.376568680068086</v>
       </c>
       <c r="H93">
-        <v>1.268300689682528e-7</v>
+        <v>1.2683006896798807e-7</v>
       </c>
       <c r="I93">
-        <v>0.0003364162539530193</v>
+        <v>0.00033641625395301733</v>
       </c>
       <c r="J93">
-        <v>0.001992951456976724</v>
+        <v>0.0019929514569758094</v>
       </c>
       <c r="K93">
-        <v>4.8906337521046596e-5</v>
+        <v>4.890633752103992e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3675,34 +3675,34 @@
         <v>0.135</v>
       </c>
       <c r="B94">
-        <v>7.378204535993691</v>
+        <v>7.378204068663743</v>
       </c>
       <c r="C94">
         <v>1.1190570041419145e-7</v>
       </c>
       <c r="D94">
-        <v>0.0003418945998247485</v>
+        <v>0.00034189463766587716</v>
       </c>
       <c r="E94">
-        <v>0.0019937889410510026</v>
+        <v>0.001993788841352108</v>
       </c>
       <c r="F94">
-        <v>4.891555443426433e-5</v>
+        <v>4.8915544888675076e-5</v>
       </c>
       <c r="G94">
-        <v>7.378204067959299</v>
+        <v>7.378204067959178</v>
       </c>
       <c r="H94">
-        <v>1.1190888505561452e-7</v>
+        <v>1.1190888505538089e-7</v>
       </c>
       <c r="I94">
-        <v>0.0003418946107300154</v>
+        <v>0.0003418946107300137</v>
       </c>
       <c r="J94">
-        <v>0.001993788836259273</v>
+        <v>0.0019937888362584625</v>
       </c>
       <c r="K94">
-        <v>4.891554482458588e-5</v>
+        <v>4.8915544824579964e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3710,34 +3710,34 @@
         <v>0.137</v>
       </c>
       <c r="B95">
-        <v>7.3798247196147235</v>
+        <v>7.379824275457712</v>
       </c>
       <c r="C95">
         <v>9.69849403589961e-8</v>
       </c>
       <c r="D95">
-        <v>0.0003473735316664716</v>
+        <v>0.0003473735680134216</v>
       </c>
       <c r="E95">
-        <v>0.0019946240606373246</v>
+        <v>0.0019946239655569123</v>
       </c>
       <c r="F95">
-        <v>4.8924757159387726e-5</v>
+        <v>4.89247480584105e-5</v>
       </c>
       <c r="G95">
-        <v>7.379824274784869</v>
+        <v>7.379824274784764</v>
       </c>
       <c r="H95">
-        <v>9.698770096456642e-8</v>
+        <v>9.698770096436386e-8</v>
       </c>
       <c r="I95">
-        <v>0.0003473735443868187</v>
+        <v>0.00034737354438681714</v>
       </c>
       <c r="J95">
-        <v>0.0019946239610723437</v>
+        <v>0.0019946239610716403</v>
       </c>
       <c r="K95">
-        <v>4.892474800210947e-5</v>
+        <v>4.892474800210435e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3745,34 +3745,34 @@
         <v>0.139</v>
       </c>
       <c r="B96">
-        <v>7.381429937402748</v>
+        <v>7.3814295152515195</v>
       </c>
       <c r="C96">
         <v>8.206418030376488e-8</v>
       </c>
       <c r="D96">
-        <v>0.00035285303017062243</v>
+        <v>0.00035285306507728815</v>
       </c>
       <c r="E96">
-        <v>0.001995456965994336</v>
+        <v>0.0019954568753194424</v>
       </c>
       <c r="F96">
-        <v>4.893395581145584e-5</v>
+        <v>4.8933947134116206e-5</v>
       </c>
       <c r="G96">
-        <v>7.381429514630321</v>
+        <v>7.381429514630234</v>
       </c>
       <c r="H96">
-        <v>8.206651669510848e-8</v>
+        <v>8.206651669493705e-8</v>
       </c>
       <c r="I96">
-        <v>0.0003528530448464529</v>
+        <v>0.0003528530448464514</v>
       </c>
       <c r="J96">
-        <v>0.001995456871465353</v>
+        <v>0.0019954568714647576</v>
       </c>
       <c r="K96">
-        <v>4.893394708583836e-5</v>
+        <v>4.893394708583402e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3780,34 +3780,34 @@
         <v>0.14100000000000001</v>
       </c>
       <c r="B97">
-        <v>7.383020399454725</v>
+        <v>7.383019998202052</v>
       </c>
       <c r="C97">
         <v>6.714342024853088e-8</v>
       </c>
       <c r="D97">
-        <v>0.0003583330854919629</v>
+        <v>0.00035833311901072316</v>
       </c>
       <c r="E97">
-        <v>0.001996287696238151</v>
+        <v>0.001996287609765537</v>
       </c>
       <c r="F97">
-        <v>4.894315042148079e-5</v>
+        <v>4.894314214781141e-5</v>
       </c>
       <c r="G97">
-        <v>7.383019997652075</v>
+        <v>7.383019997652004</v>
       </c>
       <c r="H97">
-        <v>6.714533224724071e-8</v>
+        <v>6.714533224710039e-8</v>
       </c>
       <c r="I97">
-        <v>0.0003583331022621897</v>
+        <v>0.0003583331022621884</v>
       </c>
       <c r="J97">
-        <v>0.001996287606564017</v>
+        <v>0.0019962876065635284</v>
       </c>
       <c r="K97">
-        <v>4.894314210779149e-5</v>
+        <v>4.8943142107787935e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3815,34 +3815,34 @@
         <v>0.14300000000000002</v>
       </c>
       <c r="B98">
-        <v>7.384596312026537</v>
+        <v>7.3845959306219795</v>
       </c>
       <c r="C98">
         <v>5.2222660193298273e-8</v>
       </c>
       <c r="D98">
-        <v>0.0003638136880091713</v>
+        <v>0.00036381372019088994</v>
       </c>
       <c r="E98">
-        <v>0.0019971162895871643</v>
+        <v>0.0019971162071228806</v>
       </c>
       <c r="F98">
-        <v>4.8952341020318004e-5</v>
+        <v>4.895233313130935e-5</v>
       </c>
       <c r="G98">
-        <v>7.384595930162338</v>
+        <v>7.384595930162283</v>
       </c>
       <c r="H98">
-        <v>5.222414762096311e-8</v>
+        <v>5.222414762085395e-8</v>
       </c>
       <c r="I98">
-        <v>0.000363813707011217</v>
+        <v>0.0003638137070112159</v>
       </c>
       <c r="J98">
-        <v>0.001997116204595902</v>
+        <v>0.0019971162045955217</v>
       </c>
       <c r="K98">
-        <v>4.895233309978194e-5</v>
+        <v>4.895233309977917e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3850,34 +3850,34 @@
         <v>0.14500000000000002</v>
       </c>
       <c r="B99">
-        <v>7.386157877615627</v>
+        <v>7.386157515062574</v>
       </c>
       <c r="C99">
         <v>3.7301900138105e-8</v>
       </c>
       <c r="D99">
-        <v>0.00036929482831870095</v>
+        <v>0.00036929485921273416</v>
       </c>
       <c r="E99">
-        <v>0.00199794278338678</v>
+        <v>0.0019979427047457543</v>
       </c>
       <c r="F99">
-        <v>4.89615276386603e-5</v>
+        <v>4.896152011621389e-5</v>
       </c>
       <c r="G99">
-        <v>7.386157514711934</v>
+        <v>7.386157514711895</v>
       </c>
       <c r="H99">
-        <v>3.7302962816275686e-8</v>
+        <v>3.73029628161977e-8</v>
       </c>
       <c r="I99">
-        <v>0.00036929484968850417</v>
+        <v>0.0003692948496885034</v>
       </c>
       <c r="J99">
-        <v>0.0019979427029151752</v>
+        <v>0.001997942702914903</v>
       </c>
       <c r="K99">
-        <v>4.8961520093413324e-5</v>
+        <v>4.8961520093411346e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3885,34 +3885,34 @@
         <v>0.14700000000000002</v>
       </c>
       <c r="B100">
-        <v>7.387705295041762</v>
+        <v>7.387704950394606</v>
       </c>
       <c r="C100">
         <v>2.238114008287239e-8</v>
       </c>
       <c r="D100">
-        <v>0.0003747764972288353</v>
+        <v>0.0003747765268830424</v>
       </c>
       <c r="E100">
-        <v>0.001998767214133364</v>
+        <v>0.001998767139139007</v>
       </c>
       <c r="F100">
-        <v>4.897071030703227e-5</v>
+        <v>4.89707031339162e-5</v>
       </c>
       <c r="G100">
-        <v>7.387704950171201</v>
+        <v>7.387704950171177</v>
       </c>
       <c r="H100">
-        <v>2.238177783317844e-8</v>
+        <v>2.238177783313164e-8</v>
       </c>
       <c r="I100">
-        <v>0.0003747765211008609</v>
+        <v>0.0003747765211008605</v>
       </c>
       <c r="J100">
-        <v>0.001998767138026572</v>
+        <v>0.0019987671380264083</v>
       </c>
       <c r="K100">
-        <v>4.897070312007662e-5</v>
+        <v>4.897070312007545e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3920,34 +3920,34 @@
         <v>0.14900000000000002</v>
       </c>
       <c r="B101">
-        <v>7.38923875952591</v>
+        <v>7.389238431887395</v>
       </c>
       <c r="C101">
         <v>7.460380027677398e-9</v>
       </c>
       <c r="D101">
-        <v>0.0003802586857539256</v>
+        <v>0.00038025871421468367</v>
       </c>
       <c r="E101">
-        <v>0.0019995896174974537</v>
+        <v>0.0019995895459812758</v>
       </c>
       <c r="F101">
-        <v>4.8979889055785175e-5</v>
+        <v>4.89798822155918e-5</v>
       </c>
       <c r="G101">
-        <v>7.389238431809028</v>
+        <v>7.389238431809021</v>
       </c>
       <c r="H101">
-        <v>7.460592671671374e-9</v>
+        <v>7.460592671655775e-9</v>
       </c>
       <c r="I101">
-        <v>0.00038025871226117877</v>
+        <v>0.00038025871226117855</v>
       </c>
       <c r="J101">
-        <v>0.001999589545608621</v>
+        <v>0.0019995895456085665</v>
       </c>
       <c r="K101">
-        <v>4.897988221094718e-5</v>
+        <v>4.8979882210946785e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
@@ -461,28 +461,28 @@
         <v>0.00024547421372916374</v>
       </c>
       <c r="D2">
-        <v>-2.2974609829764127e-7</v>
+        <v>-2.2974609829766017e-7</v>
       </c>
       <c r="E2">
         <v>0.001999093298062759</v>
       </c>
       <c r="F2">
-        <v>4.895850065801972e-5</v>
+        <v>4.8958500658019716e-5</v>
       </c>
       <c r="G2">
-        <v>8.135096420964159</v>
+        <v>8.135096420964153</v>
       </c>
       <c r="H2">
-        <v>0.00024547421498519916</v>
+        <v>0.00024547421498519927</v>
       </c>
       <c r="I2">
-        <v>-2.2974716097803858e-7</v>
+        <v>-2.2974716097802217e-7</v>
       </c>
       <c r="J2">
-        <v>0.001999093299017785</v>
+        <v>0.001999093299017841</v>
       </c>
       <c r="K2">
-        <v>4.895850067704641e-5</v>
+        <v>4.895850067704679e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -496,28 +496,28 @@
         <v>0.00023642264118749144</v>
       </c>
       <c r="D3">
-        <v>-6.88967110038858e-7</v>
+        <v>-6.889671100388562e-7</v>
       </c>
       <c r="E3">
-        <v>0.001997257777178231</v>
+        <v>0.0019972577771782316</v>
       </c>
       <c r="F3">
         <v>4.890697463079368e-5</v>
       </c>
       <c r="G3">
-        <v>8.104388964815014</v>
+        <v>8.104388964815001</v>
       </c>
       <c r="H3">
-        <v>0.0002364226449035619</v>
+        <v>0.00023642264490356232</v>
       </c>
       <c r="I3">
-        <v>-6.889703013739102e-7</v>
+        <v>-6.889703013738608e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019972577800459533</v>
+        <v>0.001997257780046121</v>
       </c>
       <c r="K3">
-        <v>4.890697468456049e-5</v>
+        <v>4.8906974684561654e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -525,34 +525,34 @@
         <v>-0.045</v>
       </c>
       <c r="B4">
-        <v>8.072458785385555</v>
+        <v>8.072458785385553</v>
       </c>
       <c r="C4">
         <v>0.00022737106864582178</v>
       </c>
       <c r="D4">
-        <v>-1.1477765258355492e-6</v>
+        <v>-1.1477765258355278e-6</v>
       </c>
       <c r="E4">
-        <v>0.0019953895750564224</v>
+        <v>0.001995389575056423</v>
       </c>
       <c r="F4">
-        <v>4.885618896323903e-5</v>
+        <v>4.885618896323904e-5</v>
       </c>
       <c r="G4">
-        <v>8.072458822583476</v>
+        <v>8.072458822583458</v>
       </c>
       <c r="H4">
-        <v>0.00022737107471369845</v>
+        <v>0.00022737107471369918</v>
       </c>
       <c r="I4">
-        <v>-1.1477818514527874e-6</v>
+        <v>-1.147781851452705e-6</v>
       </c>
       <c r="J4">
-        <v>0.0019953895797554296</v>
+        <v>0.00199538957975571</v>
       </c>
       <c r="K4">
-        <v>4.8856189048058554e-5</v>
+        <v>4.8856189048060505e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -566,28 +566,28 @@
         <v>0.00021831949610417155</v>
       </c>
       <c r="D5">
-        <v>-1.6061058253089356e-6</v>
+        <v>-1.6061058253089428e-6</v>
       </c>
       <c r="E5">
-        <v>0.001993484502651988</v>
+        <v>0.0019934845026519884</v>
       </c>
       <c r="F5">
-        <v>4.880639635910193e-5</v>
+        <v>4.880639635910192e-5</v>
       </c>
       <c r="G5">
-        <v>8.039295480982851</v>
+        <v>8.03929548098283</v>
       </c>
       <c r="H5">
-        <v>0.00021831950441562122</v>
+        <v>0.00021831950441562222</v>
       </c>
       <c r="I5">
-        <v>-1.6061132905524348e-6</v>
+        <v>-1.6061132905523196e-6</v>
       </c>
       <c r="J5">
-        <v>0.0019934845091027506</v>
+        <v>0.0019934845091031427</v>
       </c>
       <c r="K5">
-        <v>4.8806396471017576e-5</v>
+        <v>4.88063964710203e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -601,7 +601,7 @@
         <v>0.00020926792356265546</v>
       </c>
       <c r="D6">
-        <v>-2.063876161855621e-6</v>
+        <v>-2.0638761618556067e-6</v>
       </c>
       <c r="E6">
         <v>0.0019915380062756087</v>
@@ -610,19 +610,19 @@
         <v>4.875787685204749e-5</v>
       </c>
       <c r="G6">
-        <v>8.00491280016718</v>
+        <v>8.00491280016716</v>
       </c>
       <c r="H6">
-        <v>0.0002092679340094166</v>
+        <v>0.00020926793400941778</v>
       </c>
       <c r="I6">
-        <v>-2.0638857717555873e-6</v>
+        <v>-2.0638857717554386e-6</v>
       </c>
       <c r="J6">
-        <v>0.001991538014400118</v>
+        <v>0.0019915380144006206</v>
       </c>
       <c r="K6">
-        <v>4.8757876986839825e-5</v>
+        <v>4.8757876986843315e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -630,34 +630,34 @@
         <v>-0.03900000000000001</v>
       </c>
       <c r="B7">
-        <v>7.969355790380775</v>
+        <v>7.969355790380774</v>
       </c>
       <c r="C7">
         <v>0.0002002163510219987</v>
       </c>
       <c r="D7">
-        <v>-2.5209981524535075e-6</v>
+        <v>-2.520998152453522e-6</v>
       </c>
       <c r="E7">
         <v>0.001989545266093469</v>
       </c>
       <c r="F7">
-        <v>4.8710933019802436e-5</v>
+        <v>4.871093301980243e-5</v>
       </c>
       <c r="G7">
-        <v>7.969355873247185</v>
+        <v>7.969355873247168</v>
       </c>
       <c r="H7">
-        <v>0.00020021636349564284</v>
+        <v>0.00020021636349564417</v>
       </c>
       <c r="I7">
-        <v>-2.5210099117677546e-6</v>
+        <v>-2.5210099117675725e-6</v>
       </c>
       <c r="J7">
-        <v>0.001989545275814464</v>
+        <v>0.001989545275815077</v>
       </c>
       <c r="K7">
-        <v>4.87109331730172e-5</v>
+        <v>4.871093317302147e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -671,28 +671,28 @@
         <v>0.00019116477848642389</v>
       </c>
       <c r="D8">
-        <v>-2.9773724393911896e-6</v>
+        <v>-2.9773724393911824e-6</v>
       </c>
       <c r="E8">
         <v>0.001987501358181502</v>
       </c>
       <c r="F8">
-        <v>4.866588133692535e-5</v>
+        <v>4.866588133692536e-5</v>
       </c>
       <c r="G8">
-        <v>7.932707527487873</v>
+        <v>7.932707527487863</v>
       </c>
       <c r="H8">
-        <v>0.00019116479287762696</v>
+        <v>0.00019116479287762845</v>
       </c>
       <c r="I8">
-        <v>-2.9773863530360514e-6</v>
+        <v>-2.9773863530358363e-6</v>
       </c>
       <c r="J8">
-        <v>0.001987501369421037</v>
+        <v>0.0019875013694217593</v>
       </c>
       <c r="K8">
-        <v>4.866588150392841e-5</v>
+        <v>4.866588150393345e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,13 +700,13 @@
         <v>-0.035</v>
       </c>
       <c r="B9">
-        <v>7.895093120536597</v>
+        <v>7.895093120536598</v>
       </c>
       <c r="C9">
         <v>0.0001821132059786206</v>
       </c>
       <c r="D9">
-        <v>-3.4328912973124906e-6</v>
+        <v>-3.4328912973124834e-6</v>
       </c>
       <c r="E9">
         <v>0.001985401485111393</v>
@@ -715,19 +715,19 @@
         <v>4.862303920550112e-5</v>
       </c>
       <c r="G9">
-        <v>7.895093231831868</v>
+        <v>7.8950932318318685</v>
       </c>
       <c r="H9">
-        <v>0.00018211322217364225</v>
+        <v>0.00018211322217364387</v>
       </c>
       <c r="I9">
-        <v>-3.432907372646606e-6</v>
+        <v>-3.432907372646358e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019854014977880043</v>
+        <v>0.0019854014977888352</v>
       </c>
       <c r="K9">
-        <v>4.862303938155446e-5</v>
+        <v>4.8623039381560274e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,34 +735,34 @@
         <v>-0.033</v>
       </c>
       <c r="B10">
-        <v>7.856682767968635</v>
+        <v>7.8566827679686355</v>
       </c>
       <c r="C10">
         <v>0.00017306163361104093</v>
       </c>
       <c r="D10">
-        <v>-3.887441449188127e-6</v>
+        <v>-3.887441449188113e-6</v>
       </c>
       <c r="E10">
-        <v>0.001983241266407608</v>
+        <v>0.0019832412664076084</v>
       </c>
       <c r="F10">
         <v>4.8582707981164e-5</v>
       </c>
       <c r="G10">
-        <v>7.85668289180472</v>
+        <v>7.856682891804744</v>
       </c>
       <c r="H10">
-        <v>0.00017306165147617912</v>
+        <v>0.00017306165147618085</v>
       </c>
       <c r="I10">
-        <v>-3.887459706269515e-6</v>
+        <v>-3.887459706269235e-6</v>
       </c>
       <c r="J10">
-        <v>0.0019832412804291306</v>
+        <v>0.001983241280430069</v>
       </c>
       <c r="K10">
-        <v>4.858270816147962e-5</v>
+        <v>4.8582708161486215e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,13 +770,13 @@
         <v>-0.031</v>
       </c>
       <c r="B11">
-        <v>7.817687950983991</v>
+        <v>7.8176879509839905</v>
       </c>
       <c r="C11">
         <v>0.00016401006189765486</v>
       </c>
       <c r="D11">
-        <v>-4.34090796224581e-6</v>
+        <v>-4.3409079622458175e-6</v>
       </c>
       <c r="E11">
         <v>0.0019810170613944584</v>
@@ -785,19 +785,19 @@
         <v>4.8545153443123554e-5</v>
       </c>
       <c r="G11">
-        <v>7.817688085379634</v>
+        <v>7.8176880853796895</v>
       </c>
       <c r="H11">
-        <v>0.00016401008121656046</v>
+        <v>0.00016401008121656233</v>
       </c>
       <c r="I11">
-        <v>-4.340928475296701e-6</v>
+        <v>-4.340928475296392e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019810170766348424</v>
+        <v>0.0019810170766358885</v>
       </c>
       <c r="K11">
-        <v>4.8545153622737046e-5</v>
+        <v>4.8545153622744405e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,7 +805,7 @@
         <v>-0.029000000000000005</v>
       </c>
       <c r="B12">
-        <v>7.778353772737127</v>
+        <v>7.778353772737129</v>
       </c>
       <c r="C12">
         <v>0.00015495849300433697</v>
@@ -820,19 +820,19 @@
         <v>4.8510586351865914e-5</v>
       </c>
       <c r="G12">
-        <v>7.778353914020131</v>
+        <v>7.778353914020216</v>
       </c>
       <c r="H12">
-        <v>0.00015495851324758063</v>
+        <v>0.00015495851324758266</v>
       </c>
       <c r="I12">
-        <v>-4.793201509599474e-6</v>
+        <v>-4.793201509599137e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019787262945232913</v>
+        <v>0.0019787262945244423</v>
       </c>
       <c r="K12">
-        <v>4.851058652485157e-5</v>
+        <v>4.8510586524859694e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -846,7 +846,7 @@
         <v>0.00014590693534374802</v>
       </c>
       <c r="D13">
-        <v>-5.2441454513988205e-6</v>
+        <v>-5.244145451398814e-6</v>
       </c>
       <c r="E13">
         <v>0.0019763676139495897</v>
@@ -855,19 +855,19 @@
         <v>4.8479146489190035e-5</v>
       </c>
       <c r="G13">
-        <v>7.738945808236911</v>
+        <v>7.738945808237029</v>
       </c>
       <c r="H13">
-        <v>0.0001459069548982573</v>
+        <v>0.0001459069548982594</v>
       </c>
       <c r="I13">
-        <v>-5.2441720336613474e-6</v>
+        <v>-5.244172033660983e-6</v>
       </c>
       <c r="J13">
-        <v>0.001976367630515862</v>
+        <v>0.0019763676305171183</v>
       </c>
       <c r="K13">
-        <v>4.84791466459429e-5</v>
+        <v>4.84791466459518e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,13 +875,13 @@
         <v>-0.025</v>
       </c>
       <c r="B14">
-        <v>7.699732907824909</v>
+        <v>7.6997329078249095</v>
       </c>
       <c r="C14">
         <v>0.0001368554190247995</v>
       </c>
       <c r="D14">
-        <v>-5.693701034573965e-6</v>
+        <v>-5.693701034573951e-6</v>
       </c>
       <c r="E14">
         <v>0.0019739411765365123</v>
@@ -890,19 +890,19 @@
         <v>4.845089338148977e-5</v>
       </c>
       <c r="G14">
-        <v>7.699733021948031</v>
+        <v>7.699733021948187</v>
       </c>
       <c r="H14">
-        <v>0.00013685543285627628</v>
+        <v>0.00013685543285627853</v>
       </c>
       <c r="I14">
-        <v>-5.6937344007084826e-6</v>
+        <v>-5.693734400708094e-6</v>
       </c>
       <c r="J14">
-        <v>0.0019739411915775306</v>
+        <v>0.0019739411915788907</v>
       </c>
       <c r="K14">
-        <v>4.8450893501081796e-5</v>
+        <v>4.845089350109146e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,7 +910,7 @@
         <v>-0.023000000000000003</v>
       </c>
       <c r="B15">
-        <v>7.660971610030515</v>
+        <v>7.660971610030513</v>
       </c>
       <c r="C15">
         <v>0.0001278040433012234</v>
@@ -919,25 +919,25 @@
         <v>-6.1417093232670865e-6</v>
       </c>
       <c r="E15">
-        <v>0.0019714484740208362</v>
+        <v>0.0019714484740208367</v>
       </c>
       <c r="F15">
         <v>4.842580562696035e-5</v>
       </c>
       <c r="G15">
-        <v>7.660971633230791</v>
+        <v>7.660971633230984</v>
       </c>
       <c r="H15">
-        <v>0.00012780403654420267</v>
+        <v>0.000127804036544205</v>
       </c>
       <c r="I15">
-        <v>-6.141759195867816e-6</v>
+        <v>-6.141759195867403e-6</v>
       </c>
       <c r="J15">
-        <v>0.001971448482000378</v>
+        <v>0.001971448482001841</v>
       </c>
       <c r="K15">
-        <v>4.8425805658484125e-5</v>
+        <v>4.8425805658494526e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -951,28 +951,28 @@
         <v>0.00011875310939136336</v>
       </c>
       <c r="D16">
-        <v>-6.587921171736007e-6</v>
+        <v>-6.587921171735994e-6</v>
       </c>
       <c r="E16">
         <v>0.001968892298131471</v>
       </c>
       <c r="F16">
-        <v>4.84037888043337e-5</v>
+        <v>4.840378880433369e-5</v>
       </c>
       <c r="G16">
-        <v>7.622890182162562</v>
+        <v>7.622890182162795</v>
       </c>
       <c r="H16">
-        <v>0.00011875304153915641</v>
+        <v>0.0001187530415391588</v>
       </c>
       <c r="I16">
-        <v>-6.5880141207724244e-6</v>
+        <v>-6.5880141207719924e-6</v>
       </c>
       <c r="J16">
-        <v>0.001968892283685462</v>
+        <v>0.0019688922836870264</v>
       </c>
       <c r="K16">
-        <v>4.840378862683683e-5</v>
+        <v>4.8403788626847986e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -980,7 +980,7 @@
         <v>-0.019000000000000003</v>
       </c>
       <c r="B17">
-        <v>7.585681485973096</v>
+        <v>7.5856814859730965</v>
       </c>
       <c r="C17">
         <v>0.00010970345839082353</v>
@@ -989,25 +989,25 @@
         <v>-7.031752985692715e-6</v>
       </c>
       <c r="E17">
-        <v>0.001966276593588948</v>
+        <v>0.0019662765935889474</v>
       </c>
       <c r="F17">
-        <v>4.8384690141138834e-5</v>
+        <v>4.838469014113883e-5</v>
       </c>
       <c r="G17">
-        <v>7.585680567775357</v>
+        <v>7.585680567775628</v>
       </c>
       <c r="H17">
-        <v>0.00010970322846517686</v>
+        <v>0.00010970322846517925</v>
       </c>
       <c r="I17">
-        <v>-7.031955233886167e-6</v>
+        <v>-7.031955233885717e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019662765174981263</v>
+        <v>0.00196627651749979</v>
       </c>
       <c r="K17">
-        <v>4.838468948819117e-5</v>
+        <v>4.838468948820306e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,13 +1015,13 @@
         <v>-0.017</v>
       </c>
       <c r="B18">
-        <v>7.549498399787184</v>
+        <v>7.549498399787183</v>
       </c>
       <c r="C18">
         <v>0.00010065724965973467</v>
       </c>
       <c r="D18">
-        <v>-7.471776863639057e-6</v>
+        <v>-7.4717768636390565e-6</v>
       </c>
       <c r="E18">
         <v>0.001963606469878319</v>
@@ -1030,19 +1030,19 @@
         <v>4.8368317161177016e-5</v>
       </c>
       <c r="G18">
-        <v>7.549495890368599</v>
+        <v>7.549495890368909</v>
       </c>
       <c r="H18">
-        <v>0.00010065662839890673</v>
+        <v>0.0001006566283989091</v>
       </c>
       <c r="I18">
-        <v>-7.472238568182005e-6</v>
+        <v>-7.47223856818154e-6</v>
       </c>
       <c r="J18">
-        <v>0.001963606240853146</v>
+        <v>0.0019636062408549086</v>
       </c>
       <c r="K18">
-        <v>4.836831549828011e-5</v>
+        <v>4.836831549829271e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1050,34 +1050,34 @@
         <v>-0.015000000000000003</v>
       </c>
       <c r="B19">
-        <v>7.514461991406235</v>
+        <v>7.514461991406236</v>
       </c>
       <c r="C19">
         <v>9.161957564750329e-5</v>
       </c>
       <c r="D19">
-        <v>-7.904666285620873e-6</v>
+        <v>-7.90466628562086e-6</v>
       </c>
       <c r="E19">
         <v>0.001960888587719133</v>
       </c>
       <c r="F19">
-        <v>4.83544575841723e-5</v>
+        <v>4.8354457584172306e-5</v>
       </c>
       <c r="G19">
-        <v>7.514456077231984</v>
+        <v>7.5144560772323326</v>
       </c>
       <c r="H19">
-        <v>9.161809086535874e-5</v>
+        <v>9.161809086536107e-5</v>
       </c>
       <c r="I19">
-        <v>-7.90569616258869e-6</v>
+        <v>-7.905696162588212e-6</v>
       </c>
       <c r="J19">
-        <v>0.001960888013030225</v>
+        <v>0.0019608880130320837</v>
       </c>
       <c r="K19">
-        <v>4.835445394259755e-5</v>
+        <v>4.835445394261085e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1085,7 +1085,7 @@
         <v>-0.013000000000000005</v>
       </c>
       <c r="B20">
-        <v>7.480674109206161</v>
+        <v>7.48067410920616</v>
       </c>
       <c r="C20">
         <v>8.2601455478048e-5</v>
@@ -1094,25 +1094,25 @@
         <v>-8.323249188174777e-6</v>
       </c>
       <c r="E20">
-        <v>0.0019581322173287366</v>
+        <v>0.001958132217328737</v>
       </c>
       <c r="F20">
         <v>4.834289842102452e-5</v>
       </c>
       <c r="G20">
-        <v>7.480661549531513</v>
+        <v>7.4806615495318995</v>
       </c>
       <c r="H20">
-        <v>8.259822925884338e-5</v>
+        <v>8.25982292588457e-5</v>
       </c>
       <c r="I20">
-        <v>-8.325420055188318e-6</v>
+        <v>-8.32542005518783e-6</v>
       </c>
       <c r="J20">
-        <v>0.001958130929848124</v>
+        <v>0.0019581309298500778</v>
       </c>
       <c r="K20">
-        <v>4.834289122562517e-5</v>
+        <v>4.834289122563915e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1120,7 +1120,7 @@
         <v>-0.011000000000000003</v>
       </c>
       <c r="B21">
-        <v>7.4482388623637465</v>
+        <v>7.448238862363746</v>
       </c>
       <c r="C21">
         <v>7.362473302737887e-5</v>
@@ -1129,25 +1129,25 @@
         <v>-8.713335411610649e-6</v>
       </c>
       <c r="E21">
-        <v>0.0019553512641425335</v>
+        <v>0.001955351264142533</v>
       </c>
       <c r="F21">
         <v>4.833344285566858e-5</v>
       </c>
       <c r="G21">
-        <v>7.4482144870814295</v>
+        <v>7.448214487081852</v>
       </c>
       <c r="H21">
-        <v>7.361830206623685e-5</v>
+        <v>7.361830206623915e-5</v>
       </c>
       <c r="I21">
-        <v>-8.717599905969883e-6</v>
+        <v>-8.717599905969383e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019553486371634153</v>
+        <v>0.0019553486371654623</v>
       </c>
       <c r="K21">
-        <v>4.833342983092362e-5</v>
+        <v>4.8333429830938264e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1155,34 +1155,34 @@
         <v>-0.009000000000000001</v>
       </c>
       <c r="B22">
-        <v>7.417289141025437</v>
+        <v>7.417289141025438</v>
       </c>
       <c r="C22">
         <v>6.472899932675784e-5</v>
       </c>
       <c r="D22">
-        <v>-9.049253527712197e-6</v>
+        <v>-9.049253527712212e-6</v>
       </c>
       <c r="E22">
         <v>0.0019525673859872945</v>
       </c>
       <c r="F22">
-        <v>4.8325923669681576e-5</v>
+        <v>4.832592366968158e-5</v>
       </c>
       <c r="G22">
-        <v>7.417245674289323</v>
+        <v>7.417245674289782</v>
       </c>
       <c r="H22">
-        <v>6.471720062950369e-5</v>
+        <v>6.471720062950597e-5</v>
       </c>
       <c r="I22">
-        <v>-9.057016359900134e-6</v>
+        <v>-9.057016359899626e-6</v>
       </c>
       <c r="J22">
-        <v>0.001952562470750932</v>
+        <v>0.0019525624707530703</v>
       </c>
       <c r="K22">
-        <v>4.832590194263893e-5</v>
+        <v>4.8325901942654226e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1190,34 +1190,34 @@
         <v>-0.007000000000000003</v>
       </c>
       <c r="B23">
-        <v>7.388013394670867</v>
+        <v>7.3880133946708675</v>
       </c>
       <c r="C23">
         <v>5.5979678520855645e-5</v>
       </c>
       <c r="D23">
-        <v>-9.288668266045904e-6</v>
+        <v>-9.288668266045919e-6</v>
       </c>
       <c r="E23">
-        <v>0.0019498138767987242</v>
+        <v>0.0019498138767987238</v>
       </c>
       <c r="F23">
         <v>4.8320211670301083e-5</v>
       </c>
       <c r="G23">
-        <v>7.387941998869904</v>
+        <v>7.387941998870394</v>
       </c>
       <c r="H23">
-        <v>5.5959729173716874e-5</v>
+        <v>5.595972917371913e-5</v>
       </c>
       <c r="I23">
-        <v>-9.301731843299493e-6</v>
+        <v>-9.301731843298978e-6</v>
       </c>
       <c r="J23">
-        <v>0.001949805422111663</v>
+        <v>0.00194980542211389</v>
       </c>
       <c r="K23">
-        <v>4.832017817180066e-5</v>
+        <v>4.8320178171816586e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,7 +1225,7 @@
         <v>-0.0050000000000000044</v>
       </c>
       <c r="B24">
-        <v>7.360674223356878</v>
+        <v>7.360674223356879</v>
       </c>
       <c r="C24">
         <v>4.7474949795932286e-5</v>
@@ -1237,22 +1237,22 @@
         <v>0.0019471392666769024</v>
       </c>
       <c r="F24">
-        <v>4.8316217356175026e-5</v>
+        <v>4.831621735617503e-5</v>
       </c>
       <c r="G24">
-        <v>7.360566055580365</v>
+        <v>7.360566055580888</v>
       </c>
       <c r="H24">
-        <v>4.7443847391512286e-5</v>
+        <v>4.74438473915145e-5</v>
       </c>
       <c r="I24">
-        <v>-9.388491769140977e-6</v>
+        <v>-9.388491769140447e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019471258849817865</v>
+        <v>0.0019471258849840995</v>
       </c>
       <c r="K24">
-        <v>4.83161695254129e-5</v>
+        <v>4.831616952542943e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,7 +1260,7 @@
         <v>-0.0030000000000000027</v>
       </c>
       <c r="B25">
-        <v>7.335608361127836</v>
+        <v>7.335608361127835</v>
       </c>
       <c r="C25">
         <v>3.93478069239658e-5</v>
@@ -1269,25 +1269,25 @@
         <v>-9.202140535981584e-6</v>
       </c>
       <c r="E25">
-        <v>0.0019446088271483806</v>
+        <v>0.0019446088271483808</v>
       </c>
       <c r="F25">
-        <v>4.831388460682963e-5</v>
+        <v>4.8313884606829624e-5</v>
       </c>
       <c r="G25">
-        <v>7.335457058299712</v>
+        <v>7.335457058300263</v>
       </c>
       <c r="H25">
-        <v>3.930308370016002e-5</v>
+        <v>3.9303083700162205e-5</v>
       </c>
       <c r="I25">
-        <v>-9.231268430604716e-6</v>
+        <v>-9.23126843060417e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019445893336891378</v>
+        <v>0.0019445893336915334</v>
       </c>
       <c r="K25">
-        <v>4.8313821249665295e-5</v>
+        <v>4.831382124968244e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1301,7 +1301,7 @@
         <v>3.1759306835106685e-5</v>
       </c>
       <c r="D26">
-        <v>-8.686992258947115e-6</v>
+        <v>-8.686992258947142e-6</v>
       </c>
       <c r="E26">
         <v>0.0019423018834549735</v>
@@ -1310,19 +1310,19 @@
         <v>4.831317682044425e-5</v>
       </c>
       <c r="G26">
-        <v>7.313004117818787</v>
+        <v>7.313004117819366</v>
       </c>
       <c r="H26">
-        <v>3.169998785096815e-5</v>
+        <v>3.16999878509703e-5</v>
       </c>
       <c r="I26">
-        <v>-8.725562637997607e-6</v>
+        <v>-8.725562637997023e-6</v>
       </c>
       <c r="J26">
-        <v>0.001942275749534658</v>
+        <v>0.0019422757495371342</v>
       </c>
       <c r="K26">
-        <v>4.831309883727511e-5</v>
+        <v>4.8313098837292845e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1330,34 +1330,34 @@
         <v>0.0009999999999999974</v>
       </c>
       <c r="B27">
-        <v>7.293823998063809</v>
+        <v>7.293823998063808</v>
       </c>
       <c r="C27">
         <v>2.4880873308263723e-5</v>
       </c>
       <c r="D27">
-        <v>-7.71275418517256e-6</v>
+        <v>-7.712754185172589e-6</v>
       </c>
       <c r="E27">
-        <v>0.001940303587010278</v>
+        <v>0.0019403035870102785</v>
       </c>
       <c r="F27">
         <v>4.831405814816276e-5</v>
       </c>
       <c r="G27">
-        <v>7.293590354170877</v>
+        <v>7.2935903541714815</v>
       </c>
       <c r="H27">
-        <v>2.4808296390755303e-5</v>
+        <v>2.4808296390757413e-5</v>
       </c>
       <c r="I27">
-        <v>-7.759891734651708e-6</v>
+        <v>-7.75989173465107e-6</v>
       </c>
       <c r="J27">
-        <v>0.001940271348010472</v>
+        <v>0.0019402713480130263</v>
       </c>
       <c r="K27">
-        <v>4.8313968824983905e-5</v>
+        <v>4.83139688250022e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1371,28 +1371,28 @@
         <v>1.8867430323902913e-5</v>
       </c>
       <c r="D28">
-        <v>-6.180151001628556e-6</v>
+        <v>-6.180151001628528e-6</v>
       </c>
       <c r="E28">
-        <v>0.0019386917560015131</v>
+        <v>0.0019386917560015133</v>
       </c>
       <c r="F28">
-        <v>4.8316474196074364e-5</v>
+        <v>4.831647419607436e-5</v>
       </c>
       <c r="G28">
-        <v>7.2775176078819435</v>
+        <v>7.2775176078825705</v>
       </c>
       <c r="H28">
-        <v>1.8785516242042272e-5</v>
+        <v>1.8785516242044356e-5</v>
       </c>
       <c r="I28">
-        <v>-6.233318791591677e-6</v>
+        <v>-6.233318791590955e-6</v>
       </c>
       <c r="J28">
-        <v>0.0019386551674798335</v>
+        <v>0.001938655167482463</v>
       </c>
       <c r="K28">
-        <v>4.831637887728043e-5</v>
+        <v>4.8316378877299274e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1412,22 +1412,22 @@
         <v>0.0019375219031914272</v>
       </c>
       <c r="F29">
-        <v>4.832033690761476e-5</v>
+        <v>4.832033690761477e-5</v>
       </c>
       <c r="G29">
-        <v>7.264931858358261</v>
+        <v>7.264931858358907</v>
       </c>
       <c r="H29">
-        <v>1.3742430882242483e-5</v>
+        <v>1.3742430882244545e-5</v>
       </c>
       <c r="I29">
-        <v>-4.0748649049156565e-6</v>
+        <v>-4.074864904914816e-6</v>
       </c>
       <c r="J29">
-        <v>0.001937483703623263</v>
+        <v>0.001937483703625965</v>
       </c>
       <c r="K29">
-        <v>4.8320242087242e-5</v>
+        <v>4.8320242087261375e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1444,25 +1444,25 @@
         <v>-1.2056284846351893e-6</v>
       </c>
       <c r="E30">
-        <v>0.001936815268768801</v>
+        <v>0.0019368152687688012</v>
       </c>
       <c r="F30">
         <v>4.8325517235956535e-5</v>
       </c>
       <c r="G30">
-        <v>7.25577320818363</v>
+        <v>7.255773208184294</v>
       </c>
       <c r="H30">
-        <v>9.719022428816684e-6</v>
+        <v>9.71902242881872e-6</v>
       </c>
       <c r="I30">
-        <v>-1.2588071231109753e-6</v>
+        <v>-1.2588071231099807e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019367785786741257</v>
+        <v>0.0019367785786768973</v>
       </c>
       <c r="K30">
-        <v>4.8325429313479415e-5</v>
+        <v>4.8325429313499304e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1470,7 +1470,7 @@
         <v>0.008999999999999998</v>
       </c>
       <c r="B31">
-        <v>7.2499867908249165</v>
+        <v>7.249986790824917</v>
       </c>
       <c r="C31">
         <v>6.747886704808096e-6</v>
@@ -1479,25 +1479,25 @@
         <v>2.236636829267952e-6</v>
       </c>
       <c r="E31">
-        <v>0.0019365542767331154</v>
+        <v>0.001936554276733115</v>
       </c>
       <c r="F31">
         <v>4.8331847258378495e-5</v>
       </c>
       <c r="G31">
-        <v>7.249768375151146</v>
+        <v>7.249768375151826</v>
       </c>
       <c r="H31">
-        <v>6.675308788210244e-6</v>
+        <v>6.675308788212257e-6</v>
       </c>
       <c r="I31">
-        <v>2.1894798208513766e-6</v>
+        <v>2.189479820852561e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019365218493758575</v>
+        <v>0.0019365218493786961</v>
       </c>
       <c r="K31">
-        <v>4.833177132217303e-5</v>
+        <v>4.8331771322193414e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1517,22 +1517,22 @@
         <v>0.0019366871760536605</v>
       </c>
       <c r="F32">
-        <v>4.833913118771194e-5</v>
+        <v>4.8339131187711945e-5</v>
       </c>
       <c r="G32">
-        <v>7.246469697635318</v>
+        <v>7.24646969763601</v>
       </c>
       <c r="H32">
-        <v>4.500506505113177e-6</v>
+        <v>4.500506505115165e-6</v>
       </c>
       <c r="I32">
-        <v>6.199288272959316e-6</v>
+        <v>6.199288272960722e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019366607944926832</v>
+        <v>0.001936660794495586</v>
       </c>
       <c r="K32">
-        <v>4.8339070178336665e-5</v>
+        <v>4.833907017835751e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,7 +1540,7 @@
         <v>0.012999999999999998</v>
       </c>
       <c r="B33">
-        <v>7.245460667966591</v>
+        <v>7.245460667966592</v>
       </c>
       <c r="C33">
         <v>3.081833717054476e-6</v>
@@ -1549,25 +1549,25 @@
         <v>1.069898687222564e-5</v>
       </c>
       <c r="E33">
-        <v>0.0019371400264466213</v>
+        <v>0.001937140026446621</v>
       </c>
       <c r="F33">
-        <v>4.834716264882937e-5</v>
+        <v>4.8347162648829365e-5</v>
       </c>
       <c r="G33">
-        <v>7.245328612564208</v>
+        <v>7.245328612564911</v>
       </c>
       <c r="H33">
-        <v>3.0371086759002287e-6</v>
+        <v>3.0371086759021925e-6</v>
       </c>
       <c r="I33">
-        <v>1.0669831765622116e-5</v>
+        <v>1.0669831765623768e-5</v>
       </c>
       <c r="J33">
-        <v>0.0019371202611225362</v>
+        <v>0.0019371202611254998</v>
       </c>
       <c r="K33">
-        <v>4.8347117121100846e-5</v>
+        <v>4.8347117121122144e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1581,28 +1581,28 @@
         <v>2.1424832872932215e-6</v>
       </c>
       <c r="D34">
-        <v>1.550998944299809e-5</v>
+        <v>1.5509989442998064e-5</v>
       </c>
       <c r="E34">
-        <v>0.0019378316055532934</v>
+        <v>0.0019378316055532936</v>
       </c>
       <c r="F34">
         <v>4.835574397385897e-5</v>
       </c>
       <c r="G34">
-        <v>7.245780652648015</v>
+        <v>7.245780652648727</v>
       </c>
       <c r="H34">
-        <v>2.1113787686876902e-6</v>
+        <v>2.111378768689629e-6</v>
       </c>
       <c r="I34">
-        <v>1.54896585686011e-5</v>
+        <v>1.548965856860302e-5</v>
       </c>
       <c r="J34">
-        <v>0.0019378179623807837</v>
+        <v>0.0019378179623838047</v>
       </c>
       <c r="K34">
-        <v>4.8355712464145284e-5</v>
+        <v>4.8355712464166996e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1616,28 +1616,28 @@
         <v>1.5807187104887417e-6</v>
       </c>
       <c r="D35">
-        <v>2.056730698870766e-5</v>
+        <v>2.0567306988707663e-5</v>
       </c>
       <c r="E35">
         <v>0.0019386864895504516</v>
       </c>
       <c r="F35">
-        <v>4.8364702747660526e-5</v>
+        <v>4.836470274766052e-5</v>
       </c>
       <c r="G35">
-        <v>7.2473179199061235</v>
+        <v>7.247317919906844</v>
       </c>
       <c r="H35">
-        <v>1.5607670430815065e-6</v>
+        <v>1.5607670430834206e-6</v>
       </c>
       <c r="I35">
-        <v>2.0554214415172032e-5</v>
+        <v>2.055421441517424e-5</v>
       </c>
       <c r="J35">
-        <v>0.00193867780980449</v>
+        <v>0.0019386778098075656</v>
       </c>
       <c r="K35">
-        <v>4.83646825436623e-5</v>
+        <v>4.8364682543684406e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1645,7 +1645,7 @@
         <v>0.019000000000000003</v>
       </c>
       <c r="B36">
-        <v>7.2495674616922425</v>
+        <v>7.249567461692243</v>
       </c>
       <c r="C36">
         <v>1.263546214663147e-6</v>
@@ -1654,25 +1654,25 @@
         <v>2.5785166088510168e-5</v>
       </c>
       <c r="E36">
-        <v>0.0019396432659003762</v>
+        <v>0.001939643265900376</v>
       </c>
       <c r="F36">
         <v>4.837390191044249e-5</v>
       </c>
       <c r="G36">
-        <v>7.249533270875493</v>
+        <v>7.24953327087622</v>
       </c>
       <c r="H36">
-        <v>1.2517450891854312e-6</v>
+        <v>1.25174508918732e-6</v>
       </c>
       <c r="I36">
-        <v>2.577737274265402e-5</v>
+        <v>2.5777372742656525e-5</v>
       </c>
       <c r="J36">
-        <v>0.0019396381747888614</v>
+        <v>0.0019396381747919897</v>
       </c>
       <c r="K36">
-        <v>4.837388991093643e-5</v>
+        <v>4.8373889910958894e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1695,19 +1695,19 @@
         <v>4.838324212538029e-5</v>
       </c>
       <c r="G37">
-        <v>7.252133005929015</v>
+        <v>7.252133005929748</v>
       </c>
       <c r="H37">
-        <v>1.0863532189695882e-6</v>
+        <v>1.0863532189714524e-6</v>
       </c>
       <c r="I37">
-        <v>3.109576928932106e-5</v>
+        <v>3.109576928932387e-5</v>
       </c>
       <c r="J37">
-        <v>0.0019406545386143382</v>
+        <v>0.0019406545386175152</v>
       </c>
       <c r="K37">
-        <v>4.838323551443701e-5</v>
+        <v>4.83832355144598e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1724,25 +1724,25 @@
         <v>3.646957079888885e-5</v>
       </c>
       <c r="E38">
-        <v>0.001941699307292121</v>
+        <v>0.0019416993072921213</v>
       </c>
       <c r="F38">
         <v>4.839265771487697e-5</v>
       </c>
       <c r="G38">
-        <v>7.254925341833611</v>
+        <v>7.2549253418343485</v>
       </c>
       <c r="H38">
-        <v>9.997872100208695e-7</v>
+        <v>9.997872100227084e-7</v>
       </c>
       <c r="I38">
-        <v>3.6467364027036056e-5</v>
+        <v>3.6467364027039166e-5</v>
       </c>
       <c r="J38">
-        <v>0.0019416979335559292</v>
+        <v>0.001941697933559152</v>
       </c>
       <c r="K38">
-        <v>4.839265431883406e-5</v>
+        <v>4.839265431885717e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1765,19 +1765,19 @@
         <v>4.8402109032140414e-5</v>
       </c>
       <c r="G39">
-        <v>7.257796512919647</v>
+        <v>7.257796512920388</v>
       </c>
       <c r="H39">
-        <v>9.531557217947403e-7</v>
+        <v>9.531557217965543e-7</v>
       </c>
       <c r="I39">
-        <v>4.1866848865829464e-5</v>
+        <v>4.186684886583288e-5</v>
       </c>
       <c r="J39">
-        <v>0.0019427512890740184</v>
+        <v>0.0019427512890772838</v>
       </c>
       <c r="K39">
-        <v>4.8402107382669375e-5</v>
+        <v>4.840210738269281e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1785,7 +1785,7 @@
         <v>0.026999999999999996</v>
       </c>
       <c r="B40">
-        <v>7.260686904365709</v>
+        <v>7.26068690436571</v>
       </c>
       <c r="C40">
         <v>9.258233407286481e-7</v>
@@ -1800,19 +1800,19 @@
         <v>4.8411574201824564e-5</v>
       </c>
       <c r="G40">
-        <v>7.2606851118965805</v>
+        <v>7.260685111897325</v>
       </c>
       <c r="H40">
-        <v>9.252002681157935e-7</v>
+        <v>9.252002681175822e-7</v>
       </c>
       <c r="I40">
-        <v>4.728033943370569e-5</v>
+        <v>4.728033943370941e-5</v>
       </c>
       <c r="J40">
-        <v>0.0019438054782181758</v>
+        <v>0.0019438054782214811</v>
       </c>
       <c r="K40">
-        <v>4.84115734174625e-5</v>
+        <v>4.841157341748622e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1829,25 +1829,25 @@
         <v>5.2701116832478624e-5</v>
       </c>
       <c r="E41">
-        <v>0.0019448561934096876</v>
+        <v>0.0019448561934096872</v>
       </c>
       <c r="F41">
         <v>4.842104218000005e-5</v>
       </c>
       <c r="G41">
-        <v>7.263561008521695</v>
+        <v>7.263561008522442</v>
       </c>
       <c r="H41">
-        <v>9.053074549932385e-7</v>
+        <v>9.053074549950021e-7</v>
       </c>
       <c r="I41">
-        <v>5.270086838150818e-5</v>
+        <v>5.270086838151219e-5</v>
       </c>
       <c r="J41">
-        <v>0.0019448560874519983</v>
+        <v>0.0019448560874553396</v>
       </c>
       <c r="K41">
-        <v>4.8421041786070544e-5</v>
+        <v>4.8421041786094525e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1864,25 +1864,25 @@
         <v>5.8125366357681113e-5</v>
       </c>
       <c r="E42">
-        <v>0.0019459012536947066</v>
+        <v>0.0019459012536947068</v>
       </c>
       <c r="F42">
         <v>4.843050786164369e-5</v>
       </c>
       <c r="G42">
-        <v>7.266410856561749</v>
+        <v>7.266410856562497</v>
       </c>
       <c r="H42">
-        <v>8.886277575491793e-7</v>
+        <v>8.886277575509178e-7</v>
       </c>
       <c r="I42">
-        <v>5.812522382095972e-5</v>
+        <v>5.8125223820964e-5</v>
       </c>
       <c r="J42">
-        <v>0.0019459012141916753</v>
+        <v>0.0019459012141950496</v>
       </c>
       <c r="K42">
-        <v>4.8430507627443324e-5</v>
+        <v>4.8430507627467556e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1890,7 +1890,7 @@
         <v>0.033</v>
       </c>
       <c r="B43">
-        <v>7.269229495617753</v>
+        <v>7.269229495617752</v>
       </c>
       <c r="C43">
         <v>8.731370770338888e-7</v>
@@ -1899,25 +1899,25 @@
         <v>6.355213785221227e-5</v>
       </c>
       <c r="E43">
-        <v>0.0019469401789118281</v>
+        <v>0.0019469401789118286</v>
       </c>
       <c r="F43">
-        <v>4.84399690876494e-5</v>
+        <v>4.8439969087649396e-5</v>
       </c>
       <c r="G43">
-        <v>7.269229448501121</v>
+        <v>7.26922944850187</v>
       </c>
       <c r="H43">
-        <v>8.731300991934103e-7</v>
+        <v>8.731300991951232e-7</v>
       </c>
       <c r="I43">
-        <v>6.355203509393144e-5</v>
+        <v>6.3552035093936e-5</v>
       </c>
       <c r="J43">
-        <v>0.0019469401639726242</v>
+        <v>0.001946940163976028</v>
       </c>
       <c r="K43">
-        <v>4.843996891158137e-5</v>
+        <v>4.8439968911605816e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1937,22 +1937,22 @@
         <v>0.0019479727756911442</v>
       </c>
       <c r="F44">
-        <v>4.844942502662976e-5</v>
+        <v>4.8449425026629746e-5</v>
       </c>
       <c r="G44">
-        <v>7.272015156080547</v>
+        <v>7.272015156081296</v>
       </c>
       <c r="H44">
-        <v>8.58033855905587e-7</v>
+        <v>8.58033855907274e-7</v>
       </c>
       <c r="I44">
-        <v>6.898075080242736e-5</v>
+        <v>6.898075080243215e-5</v>
       </c>
       <c r="J44">
-        <v>0.0019479727687424313</v>
+        <v>0.001947972768745861</v>
       </c>
       <c r="K44">
-        <v>4.844942486808297e-5</v>
+        <v>4.844942486810764e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1966,28 +1966,28 @@
         <v>8.43042516102949e-7</v>
       </c>
       <c r="D45">
-        <v>7.441123754645731e-5</v>
+        <v>7.44112375464573e-5</v>
       </c>
       <c r="E45">
         <v>0.0019489990727088455</v>
       </c>
       <c r="F45">
-        <v>4.845887539290631e-5</v>
+        <v>4.8458875392906305e-5</v>
       </c>
       <c r="G45">
-        <v>7.274767780450261</v>
+        <v>7.2747677804510085</v>
       </c>
       <c r="H45">
-        <v>8.430634505719498e-7</v>
+        <v>8.430634505736105e-7</v>
       </c>
       <c r="I45">
-        <v>7.441115174384674e-5</v>
+        <v>7.441115174385181e-5</v>
       </c>
       <c r="J45">
-        <v>0.0019489990677836445</v>
+        <v>0.0019489990677870966</v>
       </c>
       <c r="K45">
-        <v>4.845887523717919e-5</v>
+        <v>4.845887523720402e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1995,7 +1995,7 @@
         <v>0.03899999999999999</v>
       </c>
       <c r="B46">
-        <v>7.277487606350886</v>
+        <v>7.277487606350887</v>
       </c>
       <c r="C46">
         <v>8.281068749640652e-7</v>
@@ -2010,19 +2010,19 @@
         <v>4.846832010616382e-5</v>
       </c>
       <c r="G46">
-        <v>7.277487639320306</v>
+        <v>7.277487639321052</v>
       </c>
       <c r="H46">
-        <v>8.281294606295078e-7</v>
+        <v>8.28129460631142e-7</v>
       </c>
       <c r="I46">
-        <v>7.984314205230113e-5</v>
+        <v>7.984314205230644e-5</v>
       </c>
       <c r="J46">
-        <v>0.0019500191731854004</v>
+        <v>0.0019500191731888715</v>
       </c>
       <c r="K46">
-        <v>4.846831994850644e-5</v>
+        <v>4.8468319948531425e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,13 +2030,13 @@
         <v>0.040999999999999995</v>
       </c>
       <c r="B47">
-        <v>7.280175183539625</v>
+        <v>7.280175183539624</v>
       </c>
       <c r="C47">
         <v>8.131824665541284e-7</v>
       </c>
       <c r="D47">
-        <v>8.527675390549951e-5</v>
+        <v>8.527675390549949e-5</v>
       </c>
       <c r="E47">
         <v>0.0019510332238686593</v>
@@ -2045,19 +2045,19 @@
         <v>4.847775915732942e-5</v>
       </c>
       <c r="G47">
-        <v>7.280175216195328</v>
+        <v>7.280175216196071</v>
       </c>
       <c r="H47">
-        <v>8.132051983928428e-7</v>
+        <v>8.132051983944505e-7</v>
       </c>
       <c r="I47">
-        <v>8.52766681786247e-5</v>
+        <v>8.527666817863027e-5</v>
       </c>
       <c r="J47">
-        <v>0.0019510332185327963</v>
+        <v>0.0019510332185362826</v>
       </c>
       <c r="K47">
-        <v>4.847775899646062e-5</v>
+        <v>4.847775899648572e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2065,7 +2065,7 @@
         <v>0.043</v>
       </c>
       <c r="B48">
-        <v>7.282831006761731</v>
+        <v>7.28283100676173</v>
       </c>
       <c r="C48">
         <v>7.982608782123173e-7</v>
@@ -2074,25 +2074,25 @@
         <v>9.071177668032682e-5</v>
       </c>
       <c r="E48">
-        <v>0.001952041347130855</v>
+        <v>0.0019520413471308547</v>
       </c>
       <c r="F48">
         <v>4.848719256051187e-5</v>
       </c>
       <c r="G48">
-        <v>7.28283103800917</v>
+        <v>7.282831038009909</v>
       </c>
       <c r="H48">
-        <v>7.98283334844475e-7</v>
+        <v>7.98283334846056e-7</v>
       </c>
       <c r="I48">
-        <v>9.07116903408201e-5</v>
+        <v>9.071169034082596e-5</v>
       </c>
       <c r="J48">
-        <v>0.0019520413411772408</v>
+        <v>0.0019520413411807402</v>
       </c>
       <c r="K48">
-        <v>4.848719239625071e-5</v>
+        <v>4.848719239627592e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2100,34 +2100,34 @@
         <v>0.045</v>
       </c>
       <c r="B49">
-        <v>7.285455606712969</v>
+        <v>7.28545560671297</v>
       </c>
       <c r="C49">
         <v>7.833399440642403e-7</v>
       </c>
       <c r="D49">
-        <v>9.614826028977579e-5</v>
+        <v>9.61482602897758e-5</v>
       </c>
       <c r="E49">
-        <v>0.0019530436832914408</v>
+        <v>0.0019530436832914404</v>
       </c>
       <c r="F49">
         <v>4.849662033727253e-5</v>
       </c>
       <c r="G49">
-        <v>7.285455636321941</v>
+        <v>7.285455636322676</v>
       </c>
       <c r="H49">
-        <v>7.833620171901693e-7</v>
+        <v>7.833620171917237e-7</v>
       </c>
       <c r="I49">
-        <v>9.614817334968277e-5</v>
+        <v>9.614817334968891e-5</v>
       </c>
       <c r="J49">
-        <v>0.0019530436767129684</v>
+        <v>0.0019530436767164774</v>
       </c>
       <c r="K49">
-        <v>4.849662016975616e-5</v>
+        <v>4.8496620169781446e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2135,7 +2135,7 @@
         <v>0.047</v>
       </c>
       <c r="B50">
-        <v>7.288049508210398</v>
+        <v>7.288049508210397</v>
       </c>
       <c r="C50">
         <v>7.6841915013971e-7</v>
@@ -2147,22 +2147,22 @@
         <v>0.001954040364646046</v>
       </c>
       <c r="F50">
-        <v>4.850604251188804e-5</v>
+        <v>4.850604251188803e-5</v>
       </c>
       <c r="G50">
-        <v>7.288049536176311</v>
+        <v>7.288049536177042</v>
       </c>
       <c r="H50">
-        <v>7.684408141069778e-7</v>
+        <v>7.684408141085056e-7</v>
       </c>
       <c r="I50">
-        <v>0.0001015860839036216</v>
+        <v>0.000101586083903628</v>
       </c>
       <c r="J50">
-        <v>0.0019540403574674803</v>
+        <v>0.0019540403574709944</v>
       </c>
       <c r="K50">
-        <v>4.8506042341337494e-5</v>
+        <v>4.8506042341362824e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2170,7 +2170,7 @@
         <v>0.049</v>
       </c>
       <c r="B51">
-        <v>7.290613226895337</v>
+        <v>7.290613226895338</v>
       </c>
       <c r="C51">
         <v>7.534983839866728e-7</v>
@@ -2179,25 +2179,25 @@
         <v>0.00010702547777128132</v>
       </c>
       <c r="E51">
-        <v>0.0019550315199356487</v>
+        <v>0.0019550315199356482</v>
       </c>
       <c r="F51">
         <v>4.851545911000847e-5</v>
       </c>
       <c r="G51">
-        <v>7.290613253266489</v>
+        <v>7.290613253267215</v>
       </c>
       <c r="H51">
-        <v>7.535196331044941e-7</v>
+        <v>7.535196331059949e-7</v>
       </c>
       <c r="I51">
-        <v>0.00010702538984407525</v>
+        <v>0.00010702538984408187</v>
       </c>
       <c r="J51">
-        <v>0.001955031512188985</v>
+        <v>0.001955031512192502</v>
       </c>
       <c r="K51">
-        <v>4.851545893666486e-5</v>
+        <v>4.851545893669021e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2205,7 +2205,7 @@
         <v>0.051</v>
       </c>
       <c r="B52">
-        <v>7.293147268547074</v>
+        <v>7.293147268547072</v>
       </c>
       <c r="C52">
         <v>7.385776229156417e-7</v>
@@ -2217,22 +2217,22 @@
         <v>0.001956017274338562</v>
       </c>
       <c r="F52">
-        <v>4.85248701582724e-5</v>
+        <v>4.852487015827241e-5</v>
       </c>
       <c r="G52">
-        <v>7.293147293382087</v>
+        <v>7.293147293382806</v>
       </c>
       <c r="H52">
-        <v>7.385984559094552e-7</v>
+        <v>7.385984559109287e-7</v>
       </c>
       <c r="I52">
-        <v>0.00011246605995209802</v>
+        <v>0.0001124660599521049</v>
       </c>
       <c r="J52">
-        <v>0.0019560172660569937</v>
+        <v>0.0019560172660605087</v>
       </c>
       <c r="K52">
-        <v>4.8524869982381035e-5</v>
+        <v>4.85248699824064e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2240,34 +2240,34 @@
         <v>0.05299999999999999</v>
       </c>
       <c r="B53">
-        <v>7.295652129062112</v>
+        <v>7.295652129062113</v>
       </c>
       <c r="C53">
         <v>7.236568627038564e-7</v>
       </c>
       <c r="D53">
-        <v>0.00011790815246509938</v>
+        <v>0.00011790815246509934</v>
       </c>
       <c r="E53">
         <v>0.0019569977495539795</v>
       </c>
       <c r="F53">
-        <v>4.8534275684169944e-5</v>
+        <v>4.853427568416995e-5</v>
       </c>
       <c r="G53">
-        <v>7.29565215242039</v>
+        <v>7.295652152421102</v>
       </c>
       <c r="H53">
-        <v>7.236772791948637e-7</v>
+        <v>7.236772791963098e-7</v>
       </c>
       <c r="I53">
-        <v>0.00011790806388164665</v>
+        <v>0.00011790806388165373</v>
       </c>
       <c r="J53">
-        <v>0.0019569977407705563</v>
+        <v>0.001956997740774065</v>
       </c>
       <c r="K53">
-        <v>4.853427550597677e-5</v>
+        <v>4.8534275506002106e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,13 +2275,13 @@
         <v>0.05499999999999999</v>
       </c>
       <c r="B54">
-        <v>7.298128294588841</v>
+        <v>7.2981282945888415</v>
       </c>
       <c r="C54">
         <v>7.08736102626351e-7</v>
       </c>
       <c r="D54">
-        <v>0.0001233514609102566</v>
+        <v>0.00012335146091025664</v>
       </c>
       <c r="E54">
         <v>0.0019579730639041407</v>
@@ -2290,19 +2290,19 @@
         <v>4.8543675715966355e-5</v>
       </c>
       <c r="G54">
-        <v>7.298128316528636</v>
+        <v>7.298128316529342</v>
       </c>
       <c r="H54">
-        <v>7.087561024023976e-7</v>
+        <v>7.087561024038163e-7</v>
       </c>
       <c r="I54">
-        <v>0.00012335137212490406</v>
+        <v>0.00012335137212491132</v>
       </c>
       <c r="J54">
-        <v>0.0019579730546515055</v>
+        <v>0.001957973054655006</v>
       </c>
       <c r="K54">
-        <v>4.85436755357172e-5</v>
+        <v>4.854367553574249e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2325,19 +2325,19 @@
         <v>4.855307028264102e-5</v>
       </c>
       <c r="G55">
-        <v>7.300576262273588</v>
+        <v>7.300576262274285</v>
       </c>
       <c r="H55">
-        <v>6.938349254456828e-7</v>
+        <v>6.93834925447074e-7</v>
       </c>
       <c r="I55">
-        <v>0.00012879595598497493</v>
+        <v>0.00012879595598498244</v>
       </c>
       <c r="J55">
-        <v>0.0019589433227482056</v>
+        <v>0.0019589433227516933</v>
       </c>
       <c r="K55">
-        <v>4.855307010058145e-5</v>
+        <v>4.855307010060665e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2345,7 +2345,7 @@
         <v>0.059</v>
       </c>
       <c r="B56">
-        <v>7.302996437544514</v>
+        <v>7.302996437544515</v>
       </c>
       <c r="C56">
         <v>6.788945825126028e-7</v>
@@ -2357,22 +2357,22 @@
         <v>0.0019599086670316584</v>
       </c>
       <c r="F56">
-        <v>4.856245941383181e-5</v>
+        <v>4.8562459413831806e-5</v>
       </c>
       <c r="G56">
-        <v>7.302996456816179</v>
+        <v>7.302996456816868</v>
       </c>
       <c r="H56">
-        <v>6.789137483123995e-7</v>
+        <v>6.789137483137631e-7</v>
       </c>
       <c r="I56">
-        <v>0.00013424178755063907</v>
+        <v>0.0001342417875506467</v>
       </c>
       <c r="J56">
-        <v>0.001959908656936775</v>
+        <v>0.0019599086569402476</v>
       </c>
       <c r="K56">
-        <v>4.85624592302071e-5</v>
+        <v>4.856245923023221e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,7 +2380,7 @@
         <v>0.061</v>
       </c>
       <c r="B57">
-        <v>7.30538934006761</v>
+        <v>7.305389340067611</v>
       </c>
       <c r="C57">
         <v>6.639738224573633e-7</v>
@@ -2389,25 +2389,25 @@
         <v>0.00013968892855672192</v>
       </c>
       <c r="E57">
-        <v>0.0019608691764880478</v>
+        <v>0.0019608691764880473</v>
       </c>
       <c r="F57">
-        <v>4.857184313978261e-5</v>
+        <v>4.857184313978262e-5</v>
       </c>
       <c r="G57">
-        <v>7.30538935808667</v>
+        <v>7.30538935808735</v>
       </c>
       <c r="H57">
-        <v>6.639925710009276e-7</v>
+        <v>6.639925710022632e-7</v>
       </c>
       <c r="I57">
-        <v>0.00013968883967210402</v>
+        <v>0.00013968883967211185</v>
       </c>
       <c r="J57">
-        <v>0.0019608691660192717</v>
+        <v>0.001960869166022725</v>
       </c>
       <c r="K57">
-        <v>4.857184295483775e-5</v>
+        <v>4.857184295486274e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2421,28 +2421,28 @@
         <v>6.490530624021238e-7</v>
       </c>
       <c r="D58">
-        <v>0.0001451371746861322</v>
+        <v>0.00014513717468613228</v>
       </c>
       <c r="E58">
         <v>0.0019618249666305374</v>
       </c>
       <c r="F58">
-        <v>4.858122149129362e-5</v>
+        <v>4.8581221491293616e-5</v>
       </c>
       <c r="G58">
-        <v>7.3077554149592645</v>
+        <v>7.307755414959935</v>
       </c>
       <c r="H58">
-        <v>6.490713935110704e-7</v>
+        <v>6.490713935123779e-7</v>
       </c>
       <c r="I58">
-        <v>0.0001451370859375521</v>
+        <v>0.0001451370859375601</v>
       </c>
       <c r="J58">
-        <v>0.0019618249558188117</v>
+        <v>0.001961824955822243</v>
       </c>
       <c r="K58">
-        <v>4.858122130527331e-5</v>
+        <v>4.858122130529815e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,7 +2450,7 @@
         <v>0.065</v>
       </c>
       <c r="B59">
-        <v>7.310095051756129</v>
+        <v>7.310095051756127</v>
       </c>
       <c r="C59">
         <v>6.341323023468842e-7</v>
@@ -2459,25 +2459,25 @@
         <v>0.0001505865891782623</v>
       </c>
       <c r="E59">
-        <v>0.0019627761403958064</v>
+        <v>0.001962776140395807</v>
       </c>
       <c r="F59">
         <v>4.8590594499674194e-5</v>
       </c>
       <c r="G59">
-        <v>7.310095067425789</v>
+        <v>7.310095067426449</v>
       </c>
       <c r="H59">
-        <v>6.341502158428058e-7</v>
+        <v>6.341502158440852e-7</v>
       </c>
       <c r="I59">
-        <v>0.00015058650065043048</v>
+        <v>0.0001505865006504386</v>
       </c>
       <c r="J59">
-        <v>0.00196277612927168</v>
+        <v>0.001962776129275084</v>
       </c>
       <c r="K59">
-        <v>4.8590594312822846e-5</v>
+        <v>4.859059431284752e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2485,7 +2485,7 @@
         <v>0.067</v>
       </c>
       <c r="B60">
-        <v>7.312408732198032</v>
+        <v>7.312408732198031</v>
       </c>
       <c r="C60">
         <v>6.192115422916889e-7</v>
@@ -2494,25 +2494,25 @@
         <v>0.00015603714702975028</v>
       </c>
       <c r="E60">
-        <v>0.0019637227979228695</v>
+        <v>0.00196372279792287</v>
       </c>
       <c r="F60">
         <v>4.859996219669813e-5</v>
       </c>
       <c r="G60">
-        <v>7.312408746768179</v>
+        <v>7.3124087467688295</v>
       </c>
       <c r="H60">
-        <v>6.192290379961314e-7</v>
+        <v>6.192290379973827e-7</v>
       </c>
       <c r="I60">
-        <v>0.00015603705880746122</v>
+        <v>0.0001560370588074694</v>
       </c>
       <c r="J60">
-        <v>0.0019637227865165114</v>
+        <v>0.001963722786519886</v>
       </c>
       <c r="K60">
-        <v>4.859996200925988e-5</v>
+        <v>4.8599962009284353e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,34 +2520,34 @@
         <v>0.06899999999999999</v>
       </c>
       <c r="B61">
-        <v>7.314696862210564</v>
+        <v>7.314696862210565</v>
       </c>
       <c r="C61">
         <v>6.042907822364494e-7</v>
       </c>
       <c r="D61">
-        <v>0.00016148882390922171</v>
+        <v>0.0001614888239092217</v>
       </c>
       <c r="E61">
-        <v>0.001964665036639417</v>
+        <v>0.0019646650366394167</v>
       </c>
       <c r="F61">
-        <v>4.860932461456126e-5</v>
+        <v>4.8609324614561266e-5</v>
       </c>
       <c r="G61">
-        <v>7.314696875729576</v>
+        <v>7.314696875730214</v>
       </c>
       <c r="H61">
-        <v>6.043078599710474e-7</v>
+        <v>6.043078599722705e-7</v>
       </c>
       <c r="I61">
-        <v>0.00016148873607735052</v>
+        <v>0.00016148873607735878</v>
       </c>
       <c r="J61">
-        <v>0.0019646650249806295</v>
+        <v>0.0019646650249839715</v>
       </c>
       <c r="K61">
-        <v>4.860932442677992e-5</v>
+        <v>4.8609324426804176e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2561,28 +2561,28 @@
         <v>5.893700221812099e-7</v>
       </c>
       <c r="D62">
-        <v>0.00016694159613667836</v>
+        <v>0.0001669415961366784</v>
       </c>
       <c r="E62">
-        <v>0.001965602951345377</v>
+        <v>0.0019656029513453774</v>
       </c>
       <c r="F62">
         <v>4.861868178584123e-5</v>
       </c>
       <c r="G62">
-        <v>7.316959868683811</v>
+        <v>7.316959868684438</v>
       </c>
       <c r="H62">
-        <v>5.893866817675535e-7</v>
+        <v>5.893866817687484e-7</v>
       </c>
       <c r="I62">
-        <v>0.00016694150878017818</v>
+        <v>0.0001669415087801866</v>
       </c>
       <c r="J62">
-        <v>0.001965602939463609</v>
+        <v>0.0019656029394669147</v>
       </c>
       <c r="K62">
-        <v>4.8618681597960345e-5</v>
+        <v>4.861868159798436e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2602,22 +2602,22 @@
         <v>0.001966536634293794</v>
       </c>
       <c r="F63">
-        <v>4.862803374345944e-5</v>
+        <v>4.862803374345943e-5</v>
       </c>
       <c r="G63">
-        <v>7.319198131803158</v>
+        <v>7.319198131803772</v>
       </c>
       <c r="H63">
-        <v>5.744655033856498e-7</v>
+        <v>5.744655033868163e-7</v>
       </c>
       <c r="I63">
-        <v>0.00017239535386744792</v>
+        <v>0.0001723953538674563</v>
       </c>
       <c r="J63">
-        <v>0.0019665366222181495</v>
+        <v>0.0019665366222214173</v>
       </c>
       <c r="K63">
-        <v>4.862803355572228e-5</v>
+        <v>4.862803355574602e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2625,34 +2625,34 @@
         <v>0.075</v>
       </c>
       <c r="B64">
-        <v>7.321412052580754</v>
+        <v>7.321412052580755</v>
       </c>
       <c r="C64">
         <v>5.595285020707751e-7</v>
       </c>
       <c r="D64">
-        <v>0.0001778503350533784</v>
+        <v>0.00017785033505337834</v>
       </c>
       <c r="E64">
-        <v>0.0019674661752690907</v>
+        <v>0.0019674661752690902</v>
       </c>
       <c r="F64">
-        <v>4.8637380520644944e-5</v>
+        <v>4.863738052064494e-5</v>
       </c>
       <c r="G64">
-        <v>7.321412063224152</v>
+        <v>7.321412063224755</v>
       </c>
       <c r="H64">
-        <v>5.595443248253364e-7</v>
+        <v>5.595443248264742e-7</v>
       </c>
       <c r="I64">
-        <v>0.00017785024890277866</v>
+        <v>0.000177850248902787</v>
       </c>
       <c r="J64">
-        <v>0.001967466163028344</v>
+        <v>0.0019674661630315698</v>
       </c>
       <c r="K64">
-        <v>4.863738033329451e-5</v>
+        <v>4.8637380333317936e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,13 +2660,13 @@
         <v>0.077</v>
       </c>
       <c r="B65">
-        <v>7.323602043437909</v>
+        <v>7.32360204343791</v>
       </c>
       <c r="C65">
         <v>5.446077420155797e-7</v>
       </c>
       <c r="D65">
-        <v>0.0001833062574631471</v>
+        <v>0.00018330625746314707</v>
       </c>
       <c r="E65">
         <v>0.001968391661662794</v>
@@ -2675,19 +2675,19 @@
         <v>4.864672215090031e-5</v>
       </c>
       <c r="G65">
-        <v>7.323602053211395</v>
+        <v>7.323602053211983</v>
       </c>
       <c r="H65">
-        <v>5.446231460866131e-7</v>
+        <v>5.446231460877223e-7</v>
       </c>
       <c r="I65">
-        <v>0.00018330617204321948</v>
+        <v>0.00018330617204322783</v>
       </c>
       <c r="J65">
-        <v>0.001968391649285399</v>
+        <v>0.0019683916492885803</v>
       </c>
       <c r="K65">
-        <v>4.864672196417928e-5</v>
+        <v>4.864672196420239e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2701,7 +2701,7 @@
         <v>5.296869819603402e-7</v>
       </c>
       <c r="D66">
-        <v>0.00018876318662518478</v>
+        <v>0.0001887631866251848</v>
       </c>
       <c r="E66">
         <v>0.0019693131785468087</v>
@@ -2710,19 +2710,19 @@
         <v>4.8656058667969276e-5</v>
       </c>
       <c r="G66">
-        <v>7.325768484319196</v>
+        <v>7.325768484319773</v>
       </c>
       <c r="H66">
-        <v>5.2970196716948e-7</v>
+        <v>5.297019671705603e-7</v>
       </c>
       <c r="I66">
-        <v>0.00018876310202116853</v>
+        <v>0.00018876310202117677</v>
       </c>
       <c r="J66">
-        <v>0.0019693131660609093</v>
+        <v>0.0019693131660640426</v>
       </c>
       <c r="K66">
-        <v>4.865605848212006e-5</v>
+        <v>4.8656058482142824e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2730,7 +2730,7 @@
         <v>0.081</v>
       </c>
       <c r="B67">
-        <v>7.327911723391194</v>
+        <v>7.327911723391195</v>
       </c>
       <c r="C67">
         <v>5.147662219051228e-7</v>
@@ -2742,22 +2742,22 @@
         <v>0.0019702308087442984</v>
       </c>
       <c r="F67">
-        <v>4.866539010580615e-5</v>
+        <v>4.8665390105806154e-5</v>
       </c>
       <c r="G67">
-        <v>7.327911731550986</v>
+        <v>7.327911731551549</v>
       </c>
       <c r="H67">
-        <v>5.147807880739371e-7</v>
+        <v>5.147807880749884e-7</v>
       </c>
       <c r="I67">
-        <v>0.00019422101812687767</v>
+        <v>0.00019422101812688574</v>
       </c>
       <c r="J67">
-        <v>0.001970230796177739</v>
+        <v>0.0019702307961808213</v>
       </c>
       <c r="K67">
-        <v>4.866538992107089e-5</v>
+        <v>4.8665389921093286e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2765,13 +2765,13 @@
         <v>0.083</v>
       </c>
       <c r="B68">
-        <v>7.33003215510252</v>
+        <v>7.330032155102519</v>
       </c>
       <c r="C68">
         <v>4.998454618498942e-7</v>
       </c>
       <c r="D68">
-        <v>0.00019967998290774163</v>
+        <v>0.00019967998290774169</v>
       </c>
       <c r="E68">
         <v>0.0019711446328982613</v>
@@ -2780,19 +2780,19 @@
         <v>4.867471649854688e-5</v>
       </c>
       <c r="G68">
-        <v>7.330032162516381</v>
+        <v>7.33003216251693</v>
       </c>
       <c r="H68">
-        <v>4.998596087999844e-7</v>
+        <v>4.998596088010065e-7</v>
       </c>
       <c r="I68">
-        <v>0.00019967990019152538</v>
+        <v>0.00019967990019153332</v>
       </c>
       <c r="J68">
-        <v>0.0019711446202785956</v>
+        <v>0.0019711446202816236</v>
       </c>
       <c r="K68">
-        <v>4.867471631516742e-5</v>
+        <v>4.8674716315189424e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2806,7 +2806,7 @@
         <v>4.849247017946878e-7</v>
       </c>
       <c r="D69">
-        <v>0.0002051398102150433</v>
+        <v>0.00020513981021504327</v>
       </c>
       <c r="E69">
         <v>0.001972054729537865</v>
@@ -2815,19 +2815,19 @@
         <v>4.8684037880481694e-5</v>
       </c>
       <c r="G69">
-        <v>7.332130137585863</v>
+        <v>7.332130137586397</v>
       </c>
       <c r="H69">
-        <v>4.849384293476219e-7</v>
+        <v>4.849384293486149e-7</v>
       </c>
       <c r="I69">
-        <v>0.00020513972857084007</v>
+        <v>0.0002051397285708477</v>
       </c>
       <c r="J69">
-        <v>0.0019720547168923658</v>
+        <v>0.0019720547168953365</v>
       </c>
       <c r="K69">
-        <v>4.8684037698699614e-5</v>
+        <v>4.868403769872121e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2835,7 +2835,7 @@
         <v>0.08700000000000001</v>
       </c>
       <c r="B70">
-        <v>7.334206004004321</v>
+        <v>7.334206004004322</v>
       </c>
       <c r="C70">
         <v>4.700039417394594e-7</v>
@@ -2844,25 +2844,25 @@
         <v>0.00021060056461595818</v>
       </c>
       <c r="E70">
-        <v>0.001972961175142613</v>
+        <v>0.0019729611751426127</v>
       </c>
       <c r="F70">
-        <v>4.869335428602923e-5</v>
+        <v>4.869335428602922e-5</v>
       </c>
       <c r="G70">
-        <v>7.3342060100429975</v>
+        <v>7.334206010043516</v>
       </c>
       <c r="H70">
-        <v>4.700172497168495e-7</v>
+        <v>4.700172497178133e-7</v>
       </c>
       <c r="I70">
-        <v>0.00021060048412925624</v>
+        <v>0.00021060048412926367</v>
       </c>
       <c r="J70">
-        <v>0.001972961162498282</v>
+        <v>0.001972961162501192</v>
       </c>
       <c r="K70">
-        <v>4.869335410608585e-5</v>
+        <v>4.869335410610702e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2882,22 +2882,22 @@
         <v>0.001973864044204413</v>
       </c>
       <c r="F71">
-        <v>4.870266574971215e-5</v>
+        <v>4.870266574971214e-5</v>
       </c>
       <c r="G71">
-        <v>7.336260126234146</v>
+        <v>7.33626012623465</v>
       </c>
       <c r="H71">
-        <v>4.5509606990766746e-7</v>
+        <v>4.5509606990860195e-7</v>
       </c>
       <c r="I71">
-        <v>0.00021606214822458754</v>
+        <v>0.00021606214822459473</v>
       </c>
       <c r="J71">
-        <v>0.001973864031587988</v>
+        <v>0.0019738640315908346</v>
       </c>
       <c r="K71">
-        <v>4.8702665571848505e-5</v>
+        <v>4.870266557186923e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2905,34 +2905,34 @@
         <v>0.091</v>
       </c>
       <c r="B72">
-        <v>7.3382928209031135</v>
+        <v>7.338292820903114</v>
       </c>
       <c r="C72">
         <v>4.401624216289804e-7</v>
       </c>
       <c r="D72">
-        <v>0.00022152478060820724</v>
+        <v>0.0002215247806082072</v>
       </c>
       <c r="E72">
         <v>0.0019747634092876125</v>
       </c>
       <c r="F72">
-        <v>4.871197230613404e-5</v>
+        <v>4.871197230613403e-5</v>
       </c>
       <c r="G72">
-        <v>7.338292825715634</v>
+        <v>7.338292825716122</v>
       </c>
       <c r="H72">
-        <v>4.401748899200756e-7</v>
+        <v>4.401748899209807e-7</v>
       </c>
       <c r="I72">
-        <v>0.00022152470269319886</v>
+        <v>0.00022152470269320583</v>
       </c>
       <c r="J72">
-        <v>0.0019747633967255765</v>
+        <v>0.0019747633967283577</v>
       </c>
       <c r="K72">
-        <v>4.87119721305909e-5</v>
+        <v>4.871197213061115e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2949,25 +2949,25 @@
         <v>0.0002269882063363702</v>
       </c>
       <c r="E73">
-        <v>0.0019756593410870664</v>
+        <v>0.001975659341087067</v>
       </c>
       <c r="F73">
         <v>4.872127398995766e-5</v>
       </c>
       <c r="G73">
-        <v>7.340304441398341</v>
+        <v>7.340304441398813</v>
       </c>
       <c r="H73">
-        <v>4.2525370975407424e-7</v>
+        <v>4.252537097549497e-7</v>
       </c>
       <c r="I73">
-        <v>0.00022698812983566283</v>
+        <v>0.00022698812983566952</v>
       </c>
       <c r="J73">
-        <v>0.0019756593286056577</v>
+        <v>0.0019756593286083695</v>
       </c>
       <c r="K73">
-        <v>4.8721273816975526e-5</v>
+        <v>4.872127381699529e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2990,19 +2990,19 @@
         <v>4.8730570835884444e-5</v>
       </c>
       <c r="G74">
-        <v>7.342295299689703</v>
+        <v>7.34229529969016</v>
       </c>
       <c r="H74">
-        <v>4.1033252940966305e-7</v>
+        <v>4.1033252941050876e-7</v>
       </c>
       <c r="I74">
-        <v>0.00023245241240288389</v>
+        <v>0.00023245241240289036</v>
       </c>
       <c r="J74">
-        <v>0.001976551896109523</v>
+        <v>0.0019765518961121636</v>
       </c>
       <c r="K74">
-        <v>4.873057066570353e-5</v>
+        <v>4.873057066572281e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3016,28 +3016,28 @@
         <v>3.9540014146333913e-7</v>
       </c>
       <c r="D75">
-        <v>0.00023791760699761404</v>
+        <v>0.0002379176069976141</v>
       </c>
       <c r="E75">
-        <v>0.0019774411786018706</v>
+        <v>0.00197744117860187</v>
       </c>
       <c r="F75">
-        <v>4.873986287863508e-5</v>
+        <v>4.8739862878635076e-5</v>
       </c>
       <c r="G75">
-        <v>7.3442657206331</v>
+        <v>7.3442657206335396</v>
       </c>
       <c r="H75">
-        <v>3.9541134888684205e-7</v>
+        <v>3.9541134888765785e-7</v>
       </c>
       <c r="I75">
-        <v>0.00023791753358267528</v>
+        <v>0.00023791753358268152</v>
       </c>
       <c r="J75">
-        <v>0.0019774411663594743</v>
+        <v>0.0019774411663620413</v>
       </c>
       <c r="K75">
-        <v>4.873986271149537e-5</v>
+        <v>4.8739862711514134e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3045,34 +3045,34 @@
         <v>0.09899999999999999</v>
       </c>
       <c r="B76">
-        <v>7.346216015266731</v>
+        <v>7.34621601526673</v>
       </c>
       <c r="C76">
         <v>3.804793814081217e-7</v>
       </c>
       <c r="D76">
-        <v>0.0002433835487301469</v>
+        <v>0.0002433835487301468</v>
       </c>
       <c r="E76">
-        <v>0.0019783272168558373</v>
+        <v>0.001978327216855838</v>
       </c>
       <c r="F76">
         <v>4.874915015293132e-5</v>
       </c>
       <c r="G76">
-        <v>7.346216018044626</v>
+        <v>7.34621601804505</v>
       </c>
       <c r="H76">
-        <v>3.804901681856112e-7</v>
+        <v>3.8049016818639703e-7</v>
       </c>
       <c r="I76">
-        <v>0.00024338347698677406</v>
+        <v>0.00024338347698678</v>
       </c>
       <c r="J76">
-        <v>0.001978327204771372</v>
+        <v>0.001978327204773863</v>
       </c>
       <c r="K76">
-        <v>4.87491499890725e-5</v>
+        <v>4.874914998909074e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3080,7 +3080,7 @@
         <v>0.10099999999999999</v>
       </c>
       <c r="B77">
-        <v>7.348146497296017</v>
+        <v>7.348146497296018</v>
       </c>
       <c r="C77">
         <v>3.6555862135291535e-7</v>
@@ -3095,19 +3095,19 @@
         <v>4.8758432693478754e-5</v>
       </c>
       <c r="G77">
-        <v>7.348146499647247</v>
+        <v>7.348146499647655</v>
       </c>
       <c r="H77">
-        <v>3.655689873059706e-7</v>
+        <v>3.655689873067263e-7</v>
       </c>
       <c r="I77">
-        <v>0.00024885022663827933</v>
+        <v>0.00024885022663828497</v>
       </c>
       <c r="J77">
-        <v>0.00197921007510546</v>
+        <v>0.0019792100751078725</v>
       </c>
       <c r="K77">
-        <v>4.87584325331403e-5</v>
+        <v>4.875843253315799e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3124,25 +3124,25 @@
         <v>0.0002543178351021437</v>
       </c>
       <c r="E78">
-        <v>0.001980089851208377</v>
+        <v>0.0019800898512083768</v>
       </c>
       <c r="F78">
-        <v>4.876771053495071e-5</v>
+        <v>4.87677105349507e-5</v>
       </c>
       <c r="G78">
-        <v>7.350057467202337</v>
+        <v>7.350057467202728</v>
       </c>
       <c r="H78">
-        <v>3.5064780624792015e-7</v>
+        <v>3.506478062486457e-7</v>
       </c>
       <c r="I78">
-        <v>0.0002543177669595</v>
+        <v>0.0002543177669595054</v>
       </c>
       <c r="J78">
-        <v>0.001980089839515531</v>
+        <v>0.0019800898395178628</v>
       </c>
       <c r="K78">
-        <v>4.876771037837181e-5</v>
+        <v>4.876771037838892e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,7 +3150,7 @@
         <v>0.105</v>
       </c>
       <c r="B79">
-        <v>7.351949215047981</v>
+        <v>7.3519492150479815</v>
       </c>
       <c r="C79">
         <v>3.357171012424915e-7</v>
@@ -3159,25 +3159,25 @@
         <v>0.0002597861489735899</v>
       </c>
       <c r="E79">
-        <v>0.0019809665700560534</v>
+        <v>0.001980966570056054</v>
       </c>
       <c r="F79">
-        <v>4.8776983711972945e-5</v>
+        <v>4.877698371197295e-5</v>
       </c>
       <c r="G79">
-        <v>7.35194921663861</v>
+        <v>7.351949216638984</v>
       </c>
       <c r="H79">
-        <v>3.3572662501146e-7</v>
+        <v>3.357266250121552e-7</v>
       </c>
       <c r="I79">
-        <v>0.0002597860827601985</v>
+        <v>0.0002597860827602037</v>
       </c>
       <c r="J79">
-        <v>0.001980966558596481</v>
+        <v>0.00198096655859873</v>
       </c>
       <c r="K79">
-        <v>4.877698355939256e-5</v>
+        <v>4.877698355940907e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,34 +3185,34 @@
         <v>0.107</v>
       </c>
       <c r="B80">
-        <v>7.3538220369232965</v>
+        <v>7.353822036923297</v>
       </c>
       <c r="C80">
         <v>3.2079634118728515e-7</v>
       </c>
       <c r="D80">
-        <v>0.0002652552234243735</v>
+        <v>0.00026525522342437356</v>
       </c>
       <c r="E80">
         <v>0.0019818403026319056</v>
       </c>
       <c r="F80">
-        <v>4.878625225910944e-5</v>
+        <v>4.8786252259109445e-5</v>
       </c>
       <c r="G80">
-        <v>7.353822038178463</v>
+        <v>7.353822038178821</v>
       </c>
       <c r="H80">
-        <v>3.2080544359658993e-7</v>
+        <v>3.208054435972548e-7</v>
       </c>
       <c r="I80">
-        <v>0.0002652551592262167</v>
+        <v>0.00026525515922622167</v>
       </c>
       <c r="J80">
-        <v>0.001981840291430315</v>
+        <v>0.0019818402914324796</v>
       </c>
       <c r="K80">
-        <v>4.878625211076625e-5</v>
+        <v>4.878625211078215e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3232,22 +3232,22 @@
         <v>0.001982711106549739</v>
       </c>
       <c r="F81">
-        <v>4.879551621084891e-5</v>
+        <v>4.879551621084892e-5</v>
       </c>
       <c r="G81">
-        <v>7.355676216461743</v>
+        <v>7.355676216462084</v>
       </c>
       <c r="H81">
-        <v>3.058842620033101e-7</v>
+        <v>3.058842620039445e-7</v>
       </c>
       <c r="I81">
-        <v>0.00027072498190847176</v>
+        <v>0.0002707249819084765</v>
       </c>
       <c r="J81">
-        <v>0.0019827110956306478</v>
+        <v>0.0019827110956327264</v>
       </c>
       <c r="K81">
-        <v>4.8795516066981354e-5</v>
+        <v>4.879551606699663e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3255,7 +3255,7 @@
         <v>0.111</v>
       </c>
       <c r="B82">
-        <v>7.357512029996691</v>
+        <v>7.357512029996692</v>
       </c>
       <c r="C82">
         <v>2.909548210768282e-7</v>
@@ -3270,19 +3270,19 @@
         <v>4.880477560159219e-5</v>
       </c>
       <c r="G82">
-        <v>7.35751203066695</v>
+        <v>7.357512030667274</v>
       </c>
       <c r="H82">
-        <v>2.9096308023162043e-7</v>
+        <v>2.909630802322243e-7</v>
       </c>
       <c r="I82">
-        <v>0.00027619553671230895</v>
+        <v>0.00027619553671231345</v>
       </c>
       <c r="J82">
-        <v>0.0019835790273857535</v>
+        <v>0.0019835790273877445</v>
       </c>
       <c r="K82">
-        <v>4.880477546243848e-5</v>
+        <v>4.8804775462453097e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3290,7 +3290,7 @@
         <v>0.113</v>
       </c>
       <c r="B83">
-        <v>7.359329754210514</v>
+        <v>7.3593297542105125</v>
       </c>
       <c r="C83">
         <v>2.760340610215942e-7</v>
@@ -3305,19 +3305,19 @@
         <v>4.881403046564046e-5</v>
       </c>
       <c r="G83">
-        <v>7.359329754629921</v>
+        <v>7.359329754630228</v>
       </c>
       <c r="H83">
-        <v>2.76041898281521e-7</v>
+        <v>2.760418982820943e-7</v>
       </c>
       <c r="I83">
-        <v>0.0002816668098872002</v>
+        <v>0.0002816668098872046</v>
       </c>
       <c r="J83">
-        <v>0.001984444141500219</v>
+        <v>0.001984444141502119</v>
       </c>
       <c r="K83">
-        <v>4.881403033143854e-5</v>
+        <v>4.881403033145249e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3325,7 +3325,7 @@
         <v>0.115</v>
       </c>
       <c r="B84">
-        <v>7.3611296567646125</v>
+        <v>7.361129656764612</v>
       </c>
       <c r="C84">
         <v>2.6111330096639884e-7</v>
@@ -3337,22 +3337,22 @@
         <v>0.001985306501361572</v>
       </c>
       <c r="F84">
-        <v>4.8823280837184084e-5</v>
+        <v>4.882328083718409e-5</v>
       </c>
       <c r="G84">
-        <v>7.361129656960003</v>
+        <v>7.361129656960293</v>
       </c>
       <c r="H84">
-        <v>2.611207161530118e-7</v>
+        <v>2.611207161535544e-7</v>
       </c>
       <c r="I84">
-        <v>0.0002871387880167757</v>
+        <v>0.0002871387880167798</v>
       </c>
       <c r="J84">
-        <v>0.0019853064914352367</v>
+        <v>0.0019853064914370443</v>
       </c>
       <c r="K84">
-        <v>4.882328070817166e-5</v>
+        <v>4.882328070818494e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,34 +3360,34 @@
         <v>0.117</v>
       </c>
       <c r="B85">
-        <v>7.362912001156193</v>
+        <v>7.362912001156194</v>
       </c>
       <c r="C85">
         <v>2.4619254091116484e-7</v>
       </c>
       <c r="D85">
-        <v>0.0002926115108400325</v>
+        <v>0.00029261151084003257</v>
       </c>
       <c r="E85">
-        <v>0.0019861661388951794</v>
+        <v>0.001986166138895179</v>
       </c>
       <c r="F85">
         <v>4.883252675029233e-5</v>
       </c>
       <c r="G85">
-        <v>7.362912001153744</v>
+        <v>7.362912001154018</v>
       </c>
       <c r="H85">
-        <v>2.4619953384609276e-7</v>
+        <v>2.461995338466047e-7</v>
       </c>
       <c r="I85">
-        <v>0.0002926114580091777</v>
+        <v>0.00029261145800918165</v>
       </c>
       <c r="J85">
-        <v>0.0019861661293475944</v>
+        <v>0.0019861661293493088</v>
       </c>
       <c r="K85">
-        <v>4.8832526626706886e-5</v>
+        <v>4.8832526626719456e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3401,28 +3401,28 @@
         <v>2.3127178085593087e-7</v>
       </c>
       <c r="D86">
-        <v>0.00029808485738663294</v>
+        <v>0.000298084857386633</v>
       </c>
       <c r="E86">
-        <v>0.0019870231152726023</v>
+        <v>0.0019870231152726014</v>
       </c>
       <c r="F86">
-        <v>4.8841768238903565e-5</v>
+        <v>4.884176823890357e-5</v>
       </c>
       <c r="G86">
-        <v>7.364677045706152</v>
+        <v>7.364677045706409</v>
       </c>
       <c r="H86">
-        <v>2.3127835136076395e-7</v>
+        <v>2.3127835136124512e-7</v>
       </c>
       <c r="I86">
-        <v>0.0002980848070877262</v>
+        <v>0.0002980848070877298</v>
       </c>
       <c r="J86">
-        <v>0.001987023106127404</v>
+        <v>0.0019870231061290223</v>
       </c>
       <c r="K86">
-        <v>4.884176812098232e-5</v>
+        <v>4.884176812099418e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3430,7 +3430,7 @@
         <v>0.121</v>
       </c>
       <c r="B87">
-        <v>7.366425044541652</v>
+        <v>7.366425044541651</v>
       </c>
       <c r="C87">
         <v>2.1635102080071345e-7</v>
@@ -3439,25 +3439,25 @@
         <v>0.0003035588704625982</v>
       </c>
       <c r="E87">
-        <v>0.0019878774801539386</v>
+        <v>0.0019878774801539395</v>
       </c>
       <c r="F87">
         <v>4.885100533681625e-5</v>
       </c>
       <c r="G87">
-        <v>7.366425044219527</v>
+        <v>7.366425044219767</v>
       </c>
       <c r="H87">
-        <v>2.1635716869702528e-7</v>
+        <v>2.1635716869747569e-7</v>
       </c>
       <c r="I87">
-        <v>0.0003035588227818842</v>
+        <v>0.0003035588227818876</v>
       </c>
       <c r="J87">
-        <v>0.0019878774714346017</v>
+        <v>0.0019878774714361235</v>
       </c>
       <c r="K87">
-        <v>4.8851005224796206e-5</v>
+        <v>4.8851005224807346e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3465,7 +3465,7 @@
         <v>0.12299999999999998</v>
       </c>
       <c r="B88">
-        <v>7.368156245955102</v>
+        <v>7.3681562459551015</v>
       </c>
       <c r="C88">
         <v>2.0143026074547946e-7</v>
@@ -3474,25 +3474,25 @@
         <v>0.0003090335378947584</v>
       </c>
       <c r="E88">
-        <v>0.001988729282004439</v>
+        <v>0.0019887292820044396</v>
       </c>
       <c r="F88">
         <v>4.8860238077680444e-5</v>
       </c>
       <c r="G88">
-        <v>7.368156245509922</v>
+        <v>7.368156245510144</v>
       </c>
       <c r="H88">
-        <v>2.0143598585487687e-7</v>
+        <v>2.0143598585529647e-7</v>
       </c>
       <c r="I88">
-        <v>0.00030903349291851477</v>
+        <v>0.00030903349291851786</v>
       </c>
       <c r="J88">
-        <v>0.0019887292737342803</v>
+        <v>0.001988729273735704</v>
       </c>
       <c r="K88">
-        <v>4.8860237971798344e-5</v>
+        <v>4.8860237971808766e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>0.125</v>
       </c>
       <c r="B89">
-        <v>7.3698708942557625</v>
+        <v>7.369870894255763</v>
       </c>
       <c r="C89">
         <v>1.865095006902786e-7</v>
       </c>
       <c r="D89">
-        <v>0.00031450884779888103</v>
+        <v>0.0003145088477988811</v>
       </c>
       <c r="E89">
-        <v>0.001989578568128691</v>
+        <v>0.0019895785681286905</v>
       </c>
       <c r="F89">
-        <v>4.886946649498991e-5</v>
+        <v>4.8869466494989904e-5</v>
       </c>
       <c r="G89">
-        <v>7.369870893711258</v>
+        <v>7.369870893711464</v>
       </c>
       <c r="H89">
-        <v>1.865148028343187e-7</v>
+        <v>1.865148028347074e-7</v>
       </c>
       <c r="I89">
-        <v>0.00031450880561341736</v>
+        <v>0.0003145088056134201</v>
       </c>
       <c r="J89">
-        <v>0.0019895785603308755</v>
+        <v>0.0019895785603321996</v>
       </c>
       <c r="K89">
-        <v>4.8869466395482296e-5</v>
+        <v>4.8869466395492e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3547,22 +3547,22 @@
         <v>0.001990425384703711</v>
       </c>
       <c r="F90">
-        <v>4.8878690622074796e-5</v>
+        <v>4.88786906220748e-5</v>
       </c>
       <c r="G90">
-        <v>7.3715692283771395</v>
+        <v>7.371569228377328</v>
       </c>
       <c r="H90">
-        <v>1.7159361963535072e-7</v>
+        <v>1.715936196357085e-7</v>
       </c>
       <c r="I90">
-        <v>0.0003199847492631359</v>
+        <v>0.00031998474926313845</v>
       </c>
       <c r="J90">
-        <v>0.001990425377401257</v>
+        <v>0.001990425377402481</v>
       </c>
       <c r="K90">
-        <v>4.8878690529177975e-5</v>
+        <v>4.887869052918693e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3576,28 +3576,28 @@
         <v>1.566679805798879e-7</v>
       </c>
       <c r="D91">
-        <v>0.00032546134888188</v>
+        <v>0.0003254613488818801</v>
       </c>
       <c r="E91">
-        <v>0.0019912697768109775</v>
+        <v>0.001991269776810977</v>
       </c>
       <c r="F91">
-        <v>4.888791049209477e-5</v>
+        <v>4.888791049209478e-5</v>
       </c>
       <c r="G91">
-        <v>7.373251484580391</v>
+        <v>7.373251484580562</v>
       </c>
       <c r="H91">
-        <v>1.56672436257973e-7</v>
+        <v>1.566724362582998e-7</v>
       </c>
       <c r="I91">
-        <v>0.0003254613125370286</v>
+        <v>0.00032546131253703096</v>
       </c>
       <c r="J91">
-        <v>0.0019912697700267593</v>
+        <v>0.001991269770027881</v>
       </c>
       <c r="K91">
-        <v>4.8887910406044824e-5</v>
+        <v>4.8887910406053044e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3605,7 +3605,7 @@
         <v>0.131</v>
       </c>
       <c r="B92">
-        <v>7.3749178937160735</v>
+        <v>7.374917893716074</v>
       </c>
       <c r="C92">
         <v>1.4174722052461526e-7</v>
@@ -3617,22 +3617,22 @@
         <v>0.0019921117884674306</v>
       </c>
       <c r="F92">
-        <v>4.889712613803271e-5</v>
+        <v>4.8897126138032714e-5</v>
       </c>
       <c r="G92">
-        <v>7.374917893010369</v>
+        <v>7.374917893010523</v>
       </c>
       <c r="H92">
-        <v>1.4175125270218544e-7</v>
+        <v>1.4175125270248124e-7</v>
       </c>
       <c r="I92">
-        <v>0.00033093848436958987</v>
+        <v>0.00033093848436959204</v>
       </c>
       <c r="J92">
-        <v>0.0019921117822241825</v>
+        <v>0.0019921117822252012</v>
       </c>
       <c r="K92">
-        <v>4.889712605906548e-5</v>
+        <v>4.889712605907294e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3640,7 +3640,7 @@
         <v>0.133</v>
       </c>
       <c r="B93">
-        <v>7.376568680783737</v>
+        <v>7.376568680783735</v>
       </c>
       <c r="C93">
         <v>1.2682646046942545e-7</v>
@@ -3655,19 +3655,19 @@
         <v>4.89063375926888e-5</v>
       </c>
       <c r="G93">
-        <v>7.376568680068086</v>
+        <v>7.376568680068224</v>
       </c>
       <c r="H93">
-        <v>1.2683006896798807e-7</v>
+        <v>1.268300689682528e-7</v>
       </c>
       <c r="I93">
-        <v>0.00033641625395301733</v>
+        <v>0.0003364162539530193</v>
       </c>
       <c r="J93">
-        <v>0.0019929514569758094</v>
+        <v>0.001992951456976724</v>
       </c>
       <c r="K93">
-        <v>4.890633752103992e-5</v>
+        <v>4.8906337521046596e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3675,7 +3675,7 @@
         <v>0.135</v>
       </c>
       <c r="B94">
-        <v>7.378204068663743</v>
+        <v>7.3782040686637425</v>
       </c>
       <c r="C94">
         <v>1.1190570041419145e-7</v>
@@ -3687,22 +3687,22 @@
         <v>0.001993788841352108</v>
       </c>
       <c r="F94">
-        <v>4.8915544888675076e-5</v>
+        <v>4.891554488867508e-5</v>
       </c>
       <c r="G94">
-        <v>7.378204067959178</v>
+        <v>7.378204067959299</v>
       </c>
       <c r="H94">
-        <v>1.1190888505538089e-7</v>
+        <v>1.1190888505561452e-7</v>
       </c>
       <c r="I94">
-        <v>0.0003418946107300137</v>
+        <v>0.0003418946107300154</v>
       </c>
       <c r="J94">
-        <v>0.0019937888362584625</v>
+        <v>0.001993788836259273</v>
       </c>
       <c r="K94">
-        <v>4.8915544824579964e-5</v>
+        <v>4.891554482458588e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3710,7 +3710,7 @@
         <v>0.137</v>
       </c>
       <c r="B95">
-        <v>7.379824275457712</v>
+        <v>7.379824275457713</v>
       </c>
       <c r="C95">
         <v>9.69849403589961e-8</v>
@@ -3722,22 +3722,22 @@
         <v>0.0019946239655569123</v>
       </c>
       <c r="F95">
-        <v>4.89247480584105e-5</v>
+        <v>4.892474805841049e-5</v>
       </c>
       <c r="G95">
-        <v>7.379824274784764</v>
+        <v>7.379824274784869</v>
       </c>
       <c r="H95">
-        <v>9.698770096436386e-8</v>
+        <v>9.698770096456642e-8</v>
       </c>
       <c r="I95">
-        <v>0.00034737354438681714</v>
+        <v>0.0003473735443868187</v>
       </c>
       <c r="J95">
-        <v>0.0019946239610716403</v>
+        <v>0.0019946239610723437</v>
       </c>
       <c r="K95">
-        <v>4.892474800210435e-5</v>
+        <v>4.892474800210947e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3754,25 +3754,25 @@
         <v>0.00035285306507728815</v>
       </c>
       <c r="E96">
-        <v>0.0019954568753194424</v>
+        <v>0.001995456875319443</v>
       </c>
       <c r="F96">
-        <v>4.8933947134116206e-5</v>
+        <v>4.89339471341162e-5</v>
       </c>
       <c r="G96">
-        <v>7.381429514630234</v>
+        <v>7.381429514630321</v>
       </c>
       <c r="H96">
-        <v>8.206651669493705e-8</v>
+        <v>8.206651669510848e-8</v>
       </c>
       <c r="I96">
-        <v>0.0003528530448464514</v>
+        <v>0.0003528530448464529</v>
       </c>
       <c r="J96">
-        <v>0.0019954568714647576</v>
+        <v>0.001995456871465353</v>
       </c>
       <c r="K96">
-        <v>4.893394708583402e-5</v>
+        <v>4.893394708583836e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3792,22 +3792,22 @@
         <v>0.001996287609765537</v>
       </c>
       <c r="F97">
-        <v>4.894314214781141e-5</v>
+        <v>4.89431421478114e-5</v>
       </c>
       <c r="G97">
-        <v>7.383019997652004</v>
+        <v>7.383019997652075</v>
       </c>
       <c r="H97">
-        <v>6.714533224710039e-8</v>
+        <v>6.714533224724071e-8</v>
       </c>
       <c r="I97">
-        <v>0.0003583331022621884</v>
+        <v>0.0003583331022621897</v>
       </c>
       <c r="J97">
-        <v>0.0019962876065635284</v>
+        <v>0.001996287606564017</v>
       </c>
       <c r="K97">
-        <v>4.8943142107787935e-5</v>
+        <v>4.894314210779149e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3821,7 +3821,7 @@
         <v>5.2222660193298273e-8</v>
       </c>
       <c r="D98">
-        <v>0.00036381372019088994</v>
+        <v>0.00036381372019088983</v>
       </c>
       <c r="E98">
         <v>0.0019971162071228806</v>
@@ -3830,19 +3830,19 @@
         <v>4.895233313130935e-5</v>
       </c>
       <c r="G98">
-        <v>7.384595930162283</v>
+        <v>7.384595930162338</v>
       </c>
       <c r="H98">
-        <v>5.222414762085395e-8</v>
+        <v>5.222414762096311e-8</v>
       </c>
       <c r="I98">
-        <v>0.0003638137070112159</v>
+        <v>0.000363813707011217</v>
       </c>
       <c r="J98">
-        <v>0.0019971162045955217</v>
+        <v>0.001997116204595902</v>
       </c>
       <c r="K98">
-        <v>4.895233309977917e-5</v>
+        <v>4.895233309978194e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3865,19 +3865,19 @@
         <v>4.896152011621389e-5</v>
       </c>
       <c r="G99">
-        <v>7.386157514711895</v>
+        <v>7.386157514711934</v>
       </c>
       <c r="H99">
-        <v>3.73029628161977e-8</v>
+        <v>3.7302962816275686e-8</v>
       </c>
       <c r="I99">
-        <v>0.0003692948496885034</v>
+        <v>0.00036929484968850417</v>
       </c>
       <c r="J99">
-        <v>0.001997942702914903</v>
+        <v>0.0019979427029151752</v>
       </c>
       <c r="K99">
-        <v>4.8961520093411346e-5</v>
+        <v>4.8961520093413324e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3891,28 +3891,28 @@
         <v>2.238114008287239e-8</v>
       </c>
       <c r="D100">
-        <v>0.0003747765268830424</v>
+        <v>0.00037477652688304235</v>
       </c>
       <c r="E100">
         <v>0.001998767139139007</v>
       </c>
       <c r="F100">
-        <v>4.89707031339162e-5</v>
+        <v>4.897070313391619e-5</v>
       </c>
       <c r="G100">
-        <v>7.387704950171177</v>
+        <v>7.387704950171201</v>
       </c>
       <c r="H100">
-        <v>2.238177783313164e-8</v>
+        <v>2.238177783317844e-8</v>
       </c>
       <c r="I100">
-        <v>0.0003747765211008605</v>
+        <v>0.0003747765211008609</v>
       </c>
       <c r="J100">
-        <v>0.0019987671380264083</v>
+        <v>0.001998767138026572</v>
       </c>
       <c r="K100">
-        <v>4.897070312007545e-5</v>
+        <v>4.897070312007662e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3920,7 +3920,7 @@
         <v>0.14900000000000002</v>
       </c>
       <c r="B101">
-        <v>7.389238431887395</v>
+        <v>7.389238431887396</v>
       </c>
       <c r="C101">
         <v>7.460380027677398e-9</v>
@@ -3932,22 +3932,22 @@
         <v>0.0019995895459812758</v>
       </c>
       <c r="F101">
-        <v>4.89798822155918e-5</v>
+        <v>4.8979882215591805e-5</v>
       </c>
       <c r="G101">
-        <v>7.389238431809021</v>
+        <v>7.389238431809028</v>
       </c>
       <c r="H101">
-        <v>7.460592671655775e-9</v>
+        <v>7.460592671671374e-9</v>
       </c>
       <c r="I101">
-        <v>0.00038025871226117855</v>
+        <v>0.00038025871226117877</v>
       </c>
       <c r="J101">
-        <v>0.0019995895456085665</v>
+        <v>0.001999589545608621</v>
       </c>
       <c r="K101">
-        <v>4.8979882210946785e-5</v>
+        <v>4.897988221094718e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
@@ -470,19 +470,19 @@
         <v>4.8958500658019716e-5</v>
       </c>
       <c r="G2">
-        <v>8.135096420964153</v>
+        <v>8.135096420964159</v>
       </c>
       <c r="H2">
-        <v>0.00024547421498519927</v>
+        <v>0.00024547421498519916</v>
       </c>
       <c r="I2">
-        <v>-2.2974716097802217e-7</v>
+        <v>-2.2974716097821093e-7</v>
       </c>
       <c r="J2">
-        <v>0.001999093299017841</v>
+        <v>0.001999093299017627</v>
       </c>
       <c r="K2">
-        <v>4.895850067704679e-5</v>
+        <v>4.895850067704521e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -505,19 +505,19 @@
         <v>4.890697463079368e-5</v>
       </c>
       <c r="G3">
-        <v>8.104388964815001</v>
+        <v>8.104388964815012</v>
       </c>
       <c r="H3">
-        <v>0.00023642264490356232</v>
+        <v>0.00023642264490356194</v>
       </c>
       <c r="I3">
-        <v>-6.889703013738608e-7</v>
+        <v>-6.889703013744268e-7</v>
       </c>
       <c r="J3">
-        <v>0.001997257780046121</v>
+        <v>0.0019972577800454797</v>
       </c>
       <c r="K3">
-        <v>4.8906974684561654e-5</v>
+        <v>4.8906974684556897e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -540,19 +540,19 @@
         <v>4.885618896323904e-5</v>
       </c>
       <c r="G4">
-        <v>8.072458822583458</v>
+        <v>8.07245882258346</v>
       </c>
       <c r="H4">
-        <v>0.00022737107471369918</v>
+        <v>0.0002273710747136986</v>
       </c>
       <c r="I4">
-        <v>-1.147781851452705e-6</v>
+        <v>-1.1477818514536477e-6</v>
       </c>
       <c r="J4">
-        <v>0.00199538957975571</v>
+        <v>0.0019953895797546416</v>
       </c>
       <c r="K4">
-        <v>4.8856189048060505e-5</v>
+        <v>4.885618904805255e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -575,19 +575,19 @@
         <v>4.880639635910192e-5</v>
       </c>
       <c r="G5">
-        <v>8.03929548098283</v>
+        <v>8.039295480982812</v>
       </c>
       <c r="H5">
-        <v>0.00021831950441562222</v>
+        <v>0.00021831950441562146</v>
       </c>
       <c r="I5">
-        <v>-1.6061132905523196e-6</v>
+        <v>-1.606113290553638e-6</v>
       </c>
       <c r="J5">
-        <v>0.0019934845091031427</v>
+        <v>0.0019934845091016495</v>
       </c>
       <c r="K5">
-        <v>4.88063964710203e-5</v>
+        <v>4.880639647100916e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -610,19 +610,19 @@
         <v>4.875787685204749e-5</v>
       </c>
       <c r="G6">
-        <v>8.00491280016716</v>
+        <v>8.004912800167105</v>
       </c>
       <c r="H6">
-        <v>0.00020926793400941778</v>
+        <v>0.00020926793400941686</v>
       </c>
       <c r="I6">
-        <v>-2.0638857717554386e-6</v>
+        <v>-2.063885771757132e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019915380144006206</v>
+        <v>0.001991538014398704</v>
       </c>
       <c r="K6">
-        <v>4.8757876986843315e-5</v>
+        <v>4.875787698682899e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -645,19 +645,19 @@
         <v>4.871093301980243e-5</v>
       </c>
       <c r="G7">
-        <v>7.969355873247168</v>
+        <v>7.969355873247062</v>
       </c>
       <c r="H7">
-        <v>0.00020021636349564417</v>
+        <v>0.00020021636349564314</v>
       </c>
       <c r="I7">
-        <v>-2.5210099117675725e-6</v>
+        <v>-2.5210099117696397e-6</v>
       </c>
       <c r="J7">
-        <v>0.001989545275815077</v>
+        <v>0.001989545275812739</v>
       </c>
       <c r="K7">
-        <v>4.871093317302147e-5</v>
+        <v>4.871093317300394e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -680,19 +680,19 @@
         <v>4.866588133692536e-5</v>
       </c>
       <c r="G8">
-        <v>7.932707527487863</v>
+        <v>7.932707527487691</v>
       </c>
       <c r="H8">
-        <v>0.00019116479287762845</v>
+        <v>0.00019116479287762737</v>
       </c>
       <c r="I8">
-        <v>-2.9773863530358363e-6</v>
+        <v>-2.9773863530382745e-6</v>
       </c>
       <c r="J8">
-        <v>0.0019875013694217593</v>
+        <v>0.0019875013694190024</v>
       </c>
       <c r="K8">
-        <v>4.866588150393345e-5</v>
+        <v>4.8665881503912734e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -715,19 +715,19 @@
         <v>4.862303920550112e-5</v>
       </c>
       <c r="G9">
-        <v>7.8950932318318685</v>
+        <v>7.895093231831614</v>
       </c>
       <c r="H9">
-        <v>0.00018211322217364387</v>
+        <v>0.00018211322217364273</v>
       </c>
       <c r="I9">
-        <v>-3.432907372646358e-6</v>
+        <v>-3.4329073726491638e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019854014977888352</v>
+        <v>0.001985401497785662</v>
       </c>
       <c r="K9">
-        <v>4.8623039381560274e-5</v>
+        <v>4.862303938153638e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -750,19 +750,19 @@
         <v>4.8582707981164e-5</v>
       </c>
       <c r="G10">
-        <v>7.856682891804744</v>
+        <v>7.8566828918043905</v>
       </c>
       <c r="H10">
-        <v>0.00017306165147618085</v>
+        <v>0.00017306165147617966</v>
       </c>
       <c r="I10">
-        <v>-3.887459706269235e-6</v>
+        <v>-3.887459706272403e-6</v>
       </c>
       <c r="J10">
-        <v>0.001983241280430069</v>
+        <v>0.001983241280426482</v>
       </c>
       <c r="K10">
-        <v>4.8582708161486215e-5</v>
+        <v>4.8582708161459184e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -785,19 +785,19 @@
         <v>4.8545153443123554e-5</v>
       </c>
       <c r="G11">
-        <v>7.8176880853796895</v>
+        <v>7.81768808537922</v>
       </c>
       <c r="H11">
-        <v>0.00016401008121656233</v>
+        <v>0.0001640100812165611</v>
       </c>
       <c r="I11">
-        <v>-4.340928475296392e-6</v>
+        <v>-4.340928475299915e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019810170766358885</v>
+        <v>0.00198101707663189</v>
       </c>
       <c r="K11">
-        <v>4.8545153622744405e-5</v>
+        <v>4.854515362271428e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -820,19 +820,19 @@
         <v>4.8510586351865914e-5</v>
       </c>
       <c r="G12">
-        <v>7.778353914020216</v>
+        <v>7.778353914019619</v>
       </c>
       <c r="H12">
-        <v>0.00015495851324758266</v>
+        <v>0.00015495851324758136</v>
       </c>
       <c r="I12">
-        <v>-4.793201509599137e-6</v>
+        <v>-4.793201509603008e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019787262945244423</v>
+        <v>0.0019787262945200374</v>
       </c>
       <c r="K12">
-        <v>4.8510586524859694e-5</v>
+        <v>4.85105865248265e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -855,19 +855,19 @@
         <v>4.8479146489190035e-5</v>
       </c>
       <c r="G13">
-        <v>7.738945808237029</v>
+        <v>7.738945808236293</v>
       </c>
       <c r="H13">
-        <v>0.0001459069548982594</v>
+        <v>0.00014590695489825802</v>
       </c>
       <c r="I13">
-        <v>-5.244172033660983e-6</v>
+        <v>-5.2441720336651904e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019763676305171183</v>
+        <v>0.0019763676305123083</v>
       </c>
       <c r="K13">
-        <v>4.84791466459518e-5</v>
+        <v>4.8479146645915566e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -890,19 +890,19 @@
         <v>4.845089338148977e-5</v>
       </c>
       <c r="G14">
-        <v>7.699733021948187</v>
+        <v>7.6997330219473055</v>
       </c>
       <c r="H14">
-        <v>0.00013685543285627853</v>
+        <v>0.00013685543285627707</v>
       </c>
       <c r="I14">
-        <v>-5.693734400708094e-6</v>
+        <v>-5.693734400712625e-6</v>
       </c>
       <c r="J14">
-        <v>0.0019739411915788907</v>
+        <v>0.0019739411915736813</v>
       </c>
       <c r="K14">
-        <v>4.845089350109146e-5</v>
+        <v>4.845089350105224e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -925,19 +925,19 @@
         <v>4.842580562696035e-5</v>
       </c>
       <c r="G15">
-        <v>7.660971633230984</v>
+        <v>7.660971633229951</v>
       </c>
       <c r="H15">
-        <v>0.000127804036544205</v>
+        <v>0.00012780403654420345</v>
       </c>
       <c r="I15">
-        <v>-6.141759195867403e-6</v>
+        <v>-6.141759195872249e-6</v>
       </c>
       <c r="J15">
-        <v>0.001971448482001841</v>
+        <v>0.0019714484819962365</v>
       </c>
       <c r="K15">
-        <v>4.8425805658494526e-5</v>
+        <v>4.842580565845237e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -960,19 +960,19 @@
         <v>4.840378880433369e-5</v>
       </c>
       <c r="G16">
-        <v>7.622890182162795</v>
+        <v>7.62289018216161</v>
       </c>
       <c r="H16">
-        <v>0.0001187530415391588</v>
+        <v>0.0001187530415391572</v>
       </c>
       <c r="I16">
-        <v>-6.5880141207719924e-6</v>
+        <v>-6.588014120777137e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019688922836870264</v>
+        <v>0.001968892283681032</v>
       </c>
       <c r="K16">
-        <v>4.8403788626847986e-5</v>
+        <v>4.8403788626802944e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -995,19 +995,19 @@
         <v>4.838469014113883e-5</v>
       </c>
       <c r="G17">
-        <v>7.585680567775628</v>
+        <v>7.5856805677742924</v>
       </c>
       <c r="H17">
-        <v>0.00010970322846517925</v>
+        <v>0.0001097032284651776</v>
       </c>
       <c r="I17">
-        <v>-7.031955233885717e-6</v>
+        <v>-7.0319552338911484e-6</v>
       </c>
       <c r="J17">
-        <v>0.00196627651749979</v>
+        <v>0.0019662765174934117</v>
       </c>
       <c r="K17">
-        <v>4.838468948820306e-5</v>
+        <v>4.8384689488155185e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1030,19 +1030,19 @@
         <v>4.8368317161177016e-5</v>
       </c>
       <c r="G18">
-        <v>7.549495890368909</v>
+        <v>7.549495890367424</v>
       </c>
       <c r="H18">
-        <v>0.0001006566283989091</v>
+        <v>0.00010065662839890745</v>
       </c>
       <c r="I18">
-        <v>-7.47223856818154e-6</v>
+        <v>-7.472238568187246e-6</v>
       </c>
       <c r="J18">
-        <v>0.0019636062408549086</v>
+        <v>0.0019636062408481527</v>
       </c>
       <c r="K18">
-        <v>4.836831549829271e-5</v>
+        <v>4.836831549824207e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1065,19 +1065,19 @@
         <v>4.8354457584172306e-5</v>
       </c>
       <c r="G19">
-        <v>7.5144560772323326</v>
+        <v>7.514456077230703</v>
       </c>
       <c r="H19">
-        <v>9.161809086536107e-5</v>
+        <v>9.161809086535942e-5</v>
       </c>
       <c r="I19">
-        <v>-7.905696162588212e-6</v>
+        <v>-7.905696162594178e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019608880130320837</v>
+        <v>0.0019608880130249575</v>
       </c>
       <c r="K19">
-        <v>4.835445394261085e-5</v>
+        <v>4.83544539425575e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1100,19 +1100,19 @@
         <v>4.834289842102452e-5</v>
       </c>
       <c r="G20">
-        <v>7.4806615495318995</v>
+        <v>7.480661549530129</v>
       </c>
       <c r="H20">
-        <v>8.25982292588457e-5</v>
+        <v>8.259822925884403e-5</v>
       </c>
       <c r="I20">
-        <v>-8.32542005518783e-6</v>
+        <v>-8.325420055194045e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019581309298500778</v>
+        <v>0.0019581309298425872</v>
       </c>
       <c r="K20">
-        <v>4.834289122563915e-5</v>
+        <v>4.8342891225583166e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1135,19 +1135,19 @@
         <v>4.833344285566858e-5</v>
       </c>
       <c r="G21">
-        <v>7.448214487081852</v>
+        <v>7.448214487079949</v>
       </c>
       <c r="H21">
-        <v>7.361830206623915e-5</v>
+        <v>7.361830206623749e-5</v>
       </c>
       <c r="I21">
-        <v>-8.717599905969383e-6</v>
+        <v>-8.717599905975844e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019553486371654623</v>
+        <v>0.0019553486371576157</v>
       </c>
       <c r="K21">
-        <v>4.8333429830938264e-5</v>
+        <v>4.83334298308797e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1170,19 +1170,19 @@
         <v>4.832592366968158e-5</v>
       </c>
       <c r="G22">
-        <v>7.417245674289782</v>
+        <v>7.41724567428775</v>
       </c>
       <c r="H22">
-        <v>6.471720062950597e-5</v>
+        <v>6.471720062950433e-5</v>
       </c>
       <c r="I22">
-        <v>-9.057016359899626e-6</v>
+        <v>-9.057016359906322e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019525624707530703</v>
+        <v>0.0019525624707448753</v>
       </c>
       <c r="K22">
-        <v>4.8325901942654226e-5</v>
+        <v>4.832590194259312e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1205,19 +1205,19 @@
         <v>4.8320211670301083e-5</v>
       </c>
       <c r="G23">
-        <v>7.387941998870394</v>
+        <v>7.387941998868243</v>
       </c>
       <c r="H23">
-        <v>5.595972917371913e-5</v>
+        <v>5.595972917371749e-5</v>
       </c>
       <c r="I23">
-        <v>-9.301731843298978e-6</v>
+        <v>-9.301731843305912e-6</v>
       </c>
       <c r="J23">
-        <v>0.00194980542211389</v>
+        <v>0.001949805422105355</v>
       </c>
       <c r="K23">
-        <v>4.8320178171816586e-5</v>
+        <v>4.832017817175302e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1240,19 +1240,19 @@
         <v>4.831621735617503e-5</v>
       </c>
       <c r="G24">
-        <v>7.360566055580888</v>
+        <v>7.360566055578621</v>
       </c>
       <c r="H24">
-        <v>4.74438473915145e-5</v>
+        <v>4.7443847391512896e-5</v>
       </c>
       <c r="I24">
-        <v>-9.388491769140447e-6</v>
+        <v>-9.388491769147636e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019471258849840995</v>
+        <v>0.0019471258849752334</v>
       </c>
       <c r="K24">
-        <v>4.831616952542943e-5</v>
+        <v>4.831616952536347e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1275,19 +1275,19 @@
         <v>4.8313884606829624e-5</v>
       </c>
       <c r="G25">
-        <v>7.335457058300263</v>
+        <v>7.335457058297891</v>
       </c>
       <c r="H25">
-        <v>3.9303083700162205e-5</v>
+        <v>3.9303083700160626e-5</v>
       </c>
       <c r="I25">
-        <v>-9.23126843060417e-6</v>
+        <v>-9.231268430611643e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019445893336915334</v>
+        <v>0.0019445893336823457</v>
       </c>
       <c r="K25">
-        <v>4.831382124968244e-5</v>
+        <v>4.8313821249614134e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1310,19 +1310,19 @@
         <v>4.831317682044425e-5</v>
       </c>
       <c r="G26">
-        <v>7.313004117819366</v>
+        <v>7.313004117816894</v>
       </c>
       <c r="H26">
-        <v>3.16999878509703e-5</v>
+        <v>3.1699987850968746e-5</v>
       </c>
       <c r="I26">
-        <v>-8.725562637997023e-6</v>
+        <v>-8.725562638004843e-6</v>
       </c>
       <c r="J26">
-        <v>0.0019422757495371342</v>
+        <v>0.0019422757495276344</v>
       </c>
       <c r="K26">
-        <v>4.8313098837292845e-5</v>
+        <v>4.831309883722226e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1345,19 +1345,19 @@
         <v>4.831405814816276e-5</v>
       </c>
       <c r="G27">
-        <v>7.2935903541714815</v>
+        <v>7.293590354168918</v>
       </c>
       <c r="H27">
-        <v>2.4808296390757413e-5</v>
+        <v>2.480829639075589e-5</v>
       </c>
       <c r="I27">
-        <v>-7.75989173465107e-6</v>
+        <v>-7.759891734659316e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019402713480130263</v>
+        <v>0.0019402713480032243</v>
       </c>
       <c r="K27">
-        <v>4.83139688250022e-5</v>
+        <v>4.83139688249294e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1380,19 +1380,19 @@
         <v>4.831647419607436e-5</v>
       </c>
       <c r="G28">
-        <v>7.2775176078825705</v>
+        <v>7.2775176078799255</v>
       </c>
       <c r="H28">
-        <v>1.8785516242044356e-5</v>
+        <v>1.8785516242042855e-5</v>
       </c>
       <c r="I28">
-        <v>-6.233318791590955e-6</v>
+        <v>-6.233318791599741e-6</v>
       </c>
       <c r="J28">
-        <v>0.001938655167482463</v>
+        <v>0.0019386551674723694</v>
       </c>
       <c r="K28">
-        <v>4.8316378877299274e-5</v>
+        <v>4.831637887722434e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1415,19 +1415,19 @@
         <v>4.832033690761477e-5</v>
       </c>
       <c r="G29">
-        <v>7.264931858358907</v>
+        <v>7.2649318583561895</v>
       </c>
       <c r="H29">
-        <v>1.3742430882244545e-5</v>
+        <v>1.3742430882243064e-5</v>
       </c>
       <c r="I29">
-        <v>-4.074864904914816e-6</v>
+        <v>-4.074864904924278e-6</v>
       </c>
       <c r="J29">
-        <v>0.001937483703625965</v>
+        <v>0.0019374837036155907</v>
       </c>
       <c r="K29">
-        <v>4.8320242087261375e-5</v>
+        <v>4.832024208718436e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1450,19 +1450,19 @@
         <v>4.8325517235956535e-5</v>
       </c>
       <c r="G30">
-        <v>7.255773208184294</v>
+        <v>7.255773208181512</v>
       </c>
       <c r="H30">
-        <v>9.71902242881872e-6</v>
+        <v>9.719022428817262e-6</v>
       </c>
       <c r="I30">
-        <v>-1.2588071231099807e-6</v>
+        <v>-1.2588071231202622e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019367785786768973</v>
+        <v>0.0019367785786662533</v>
       </c>
       <c r="K30">
-        <v>4.8325429313499304e-5</v>
+        <v>4.83254293134203e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1485,19 +1485,19 @@
         <v>4.8331847258378495e-5</v>
       </c>
       <c r="G31">
-        <v>7.249768375151826</v>
+        <v>7.249768375148987</v>
       </c>
       <c r="H31">
-        <v>6.675308788212257e-6</v>
+        <v>6.6753087882108176e-6</v>
       </c>
       <c r="I31">
-        <v>2.189479820852561e-6</v>
+        <v>2.1894798208413163e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019365218493786961</v>
+        <v>0.0019365218493677932</v>
       </c>
       <c r="K31">
-        <v>4.8331771322193414e-5</v>
+        <v>4.833177132211246e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1520,19 +1520,19 @@
         <v>4.8339131187711945e-5</v>
       </c>
       <c r="G32">
-        <v>7.24646969763601</v>
+        <v>7.246469697633124</v>
       </c>
       <c r="H32">
-        <v>4.500506505115165e-6</v>
+        <v>4.500506505113746e-6</v>
       </c>
       <c r="I32">
-        <v>6.199288272960722e-6</v>
+        <v>6.199288272948385e-6</v>
       </c>
       <c r="J32">
-        <v>0.001936660794495586</v>
+        <v>0.0019366607944844361</v>
       </c>
       <c r="K32">
-        <v>4.833907017835751e-5</v>
+        <v>4.833907017827468e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1555,19 +1555,19 @@
         <v>4.8347162648829365e-5</v>
       </c>
       <c r="G33">
-        <v>7.245328612564911</v>
+        <v>7.245328612561984</v>
       </c>
       <c r="H33">
-        <v>3.0371086759021925e-6</v>
+        <v>3.0371086759007928e-6</v>
       </c>
       <c r="I33">
-        <v>1.0669831765623768e-5</v>
+        <v>1.066983176561024e-5</v>
       </c>
       <c r="J33">
-        <v>0.0019371202611254998</v>
+        <v>0.0019371202611141146</v>
       </c>
       <c r="K33">
-        <v>4.8347117121122144e-5</v>
+        <v>4.834711712103753e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1590,19 +1590,19 @@
         <v>4.835574397385897e-5</v>
       </c>
       <c r="G34">
-        <v>7.245780652648727</v>
+        <v>7.245780652645765</v>
       </c>
       <c r="H34">
-        <v>2.111378768689629e-6</v>
+        <v>2.111378768688249e-6</v>
       </c>
       <c r="I34">
-        <v>1.548965856860302e-5</v>
+        <v>1.548965856858822e-5</v>
       </c>
       <c r="J34">
-        <v>0.0019378179623838047</v>
+        <v>0.001937817962372195</v>
       </c>
       <c r="K34">
-        <v>4.8355712464166996e-5</v>
+        <v>4.835571246408068e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1625,19 +1625,19 @@
         <v>4.836470274766052e-5</v>
       </c>
       <c r="G35">
-        <v>7.247317919906844</v>
+        <v>7.247317919903853</v>
       </c>
       <c r="H35">
-        <v>1.5607670430834206e-6</v>
+        <v>1.5607670430820603e-6</v>
       </c>
       <c r="I35">
-        <v>2.055421441517424e-5</v>
+        <v>2.0554214415158117e-5</v>
       </c>
       <c r="J35">
-        <v>0.0019386778098075656</v>
+        <v>0.0019386778097957437</v>
       </c>
       <c r="K35">
-        <v>4.8364682543684406e-5</v>
+        <v>4.836468254359647e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1660,19 +1660,19 @@
         <v>4.837390191044249e-5</v>
       </c>
       <c r="G36">
-        <v>7.24953327087622</v>
+        <v>7.249533270873204</v>
       </c>
       <c r="H36">
-        <v>1.25174508918732e-6</v>
+        <v>1.25174508918598e-6</v>
       </c>
       <c r="I36">
-        <v>2.5777372742656525e-5</v>
+        <v>2.5777372742639042e-5</v>
       </c>
       <c r="J36">
-        <v>0.0019396381747919897</v>
+        <v>0.001939638174779967</v>
       </c>
       <c r="K36">
-        <v>4.8373889910958894e-5</v>
+        <v>4.837388991086944e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1695,19 +1695,19 @@
         <v>4.838324212538029e-5</v>
       </c>
       <c r="G37">
-        <v>7.252133005929748</v>
+        <v>7.252133005926711</v>
       </c>
       <c r="H37">
-        <v>1.0863532189714524e-6</v>
+        <v>1.086353218970132e-6</v>
       </c>
       <c r="I37">
-        <v>3.109576928932387e-5</v>
+        <v>3.109576928930502e-5</v>
       </c>
       <c r="J37">
-        <v>0.0019406545386175152</v>
+        <v>0.0019406545386053036</v>
       </c>
       <c r="K37">
-        <v>4.83832355144598e-5</v>
+        <v>4.8383235514368926e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1730,19 +1730,19 @@
         <v>4.839265771487697e-5</v>
       </c>
       <c r="G38">
-        <v>7.2549253418343485</v>
+        <v>7.254925341831296</v>
       </c>
       <c r="H38">
-        <v>9.997872100227084e-7</v>
+        <v>9.99787210021408e-7</v>
       </c>
       <c r="I38">
-        <v>3.6467364027039166e-5</v>
+        <v>3.646736402701895e-5</v>
       </c>
       <c r="J38">
-        <v>0.001941697933559152</v>
+        <v>0.0019416979335467634</v>
       </c>
       <c r="K38">
-        <v>4.839265431885717e-5</v>
+        <v>4.8392654318764955e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1765,19 +1765,19 @@
         <v>4.8402109032140414e-5</v>
       </c>
       <c r="G39">
-        <v>7.257796512920388</v>
+        <v>7.257796512917321</v>
       </c>
       <c r="H39">
-        <v>9.531557217965543e-7</v>
+        <v>9.531557217952737e-7</v>
       </c>
       <c r="I39">
-        <v>4.186684886583288e-5</v>
+        <v>4.1866848865811303e-5</v>
       </c>
       <c r="J39">
-        <v>0.0019427512890772838</v>
+        <v>0.00194275128906473</v>
       </c>
       <c r="K39">
-        <v>4.840210738269281e-5</v>
+        <v>4.840210738259934e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1800,19 +1800,19 @@
         <v>4.8411574201824564e-5</v>
       </c>
       <c r="G40">
-        <v>7.260685111897325</v>
+        <v>7.260685111894248</v>
       </c>
       <c r="H40">
-        <v>9.252002681175822e-7</v>
+        <v>9.252002681163215e-7</v>
       </c>
       <c r="I40">
-        <v>4.728033943370941e-5</v>
+        <v>4.7280339433686495e-5</v>
       </c>
       <c r="J40">
-        <v>0.0019438054782214811</v>
+        <v>0.0019438054782087743</v>
       </c>
       <c r="K40">
-        <v>4.841157341748622e-5</v>
+        <v>4.84115734173916e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1835,19 +1835,19 @@
         <v>4.842104218000005e-5</v>
       </c>
       <c r="G41">
-        <v>7.263561008522442</v>
+        <v>7.263561008519358</v>
       </c>
       <c r="H41">
-        <v>9.053074549950021e-7</v>
+        <v>9.053074549937612e-7</v>
       </c>
       <c r="I41">
-        <v>5.270086838151219e-5</v>
+        <v>5.270086838148794e-5</v>
       </c>
       <c r="J41">
-        <v>0.0019448560874553396</v>
+        <v>0.0019448560874424927</v>
       </c>
       <c r="K41">
-        <v>4.8421041786094525e-5</v>
+        <v>4.842104178599884e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1870,19 +1870,19 @@
         <v>4.843050786164369e-5</v>
       </c>
       <c r="G42">
-        <v>7.266410856562497</v>
+        <v>7.2664108565594105</v>
       </c>
       <c r="H42">
-        <v>8.886277575509178e-7</v>
+        <v>8.886277575496965e-7</v>
       </c>
       <c r="I42">
-        <v>5.8125223820964e-5</v>
+        <v>5.812522382093845e-5</v>
       </c>
       <c r="J42">
-        <v>0.0019459012141950496</v>
+        <v>0.0019459012141820758</v>
       </c>
       <c r="K42">
-        <v>4.8430507627467556e-5</v>
+        <v>4.84305076273709e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1905,19 +1905,19 @@
         <v>4.8439969087649396e-5</v>
       </c>
       <c r="G43">
-        <v>7.26922944850187</v>
+        <v>7.269229448498782</v>
       </c>
       <c r="H43">
-        <v>8.731300991951232e-7</v>
+        <v>8.731300991939217e-7</v>
       </c>
       <c r="I43">
-        <v>6.3552035093936e-5</v>
+        <v>6.355203509390913e-5</v>
       </c>
       <c r="J43">
-        <v>0.001946940163976028</v>
+        <v>0.0019469401639629397</v>
       </c>
       <c r="K43">
-        <v>4.8439968911605816e-5</v>
+        <v>4.8439968911508285e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1940,19 +1940,19 @@
         <v>4.8449425026629746e-5</v>
       </c>
       <c r="G44">
-        <v>7.272015156081296</v>
+        <v>7.272015156078211</v>
       </c>
       <c r="H44">
-        <v>8.58033855907274e-7</v>
+        <v>8.580338559060927e-7</v>
       </c>
       <c r="I44">
-        <v>6.898075080243215e-5</v>
+        <v>6.898075080240405e-5</v>
       </c>
       <c r="J44">
-        <v>0.001947972768745861</v>
+        <v>0.0019479727687326711</v>
       </c>
       <c r="K44">
-        <v>4.844942486810764e-5</v>
+        <v>4.8449424868009315e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1975,19 +1975,19 @@
         <v>4.8458875392906305e-5</v>
       </c>
       <c r="G45">
-        <v>7.2747677804510085</v>
+        <v>7.274767780447929</v>
       </c>
       <c r="H45">
-        <v>8.430634505736105e-7</v>
+        <v>8.430634505724492e-7</v>
       </c>
       <c r="I45">
-        <v>7.441115174385181e-5</v>
+        <v>7.441115174382245e-5</v>
       </c>
       <c r="J45">
-        <v>0.0019489990677870966</v>
+        <v>0.0019489990677738183</v>
       </c>
       <c r="K45">
-        <v>4.845887523720402e-5</v>
+        <v>4.8458875237105016e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2010,19 +2010,19 @@
         <v>4.846832010616382e-5</v>
       </c>
       <c r="G46">
-        <v>7.277487639321052</v>
+        <v>7.2774876393179815</v>
       </c>
       <c r="H46">
-        <v>8.28129460631142e-7</v>
+        <v>8.281294606300009e-7</v>
       </c>
       <c r="I46">
-        <v>7.984314205230644e-5</v>
+        <v>7.984314205227591e-5</v>
       </c>
       <c r="J46">
-        <v>0.0019500191731888715</v>
+        <v>0.0019500191731755187</v>
       </c>
       <c r="K46">
-        <v>4.8468319948531425e-5</v>
+        <v>4.846831994843182e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2045,19 +2045,19 @@
         <v>4.847775915732942e-5</v>
       </c>
       <c r="G47">
-        <v>7.280175216196071</v>
+        <v>7.280175216193013</v>
       </c>
       <c r="H47">
-        <v>8.132051983944505e-7</v>
+        <v>8.132051983933295e-7</v>
       </c>
       <c r="I47">
-        <v>8.527666817863027e-5</v>
+        <v>8.527666817859859e-5</v>
       </c>
       <c r="J47">
-        <v>0.0019510332185362826</v>
+        <v>0.0019510332185228682</v>
       </c>
       <c r="K47">
-        <v>4.847775899648572e-5</v>
+        <v>4.847775899638564e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2080,19 +2080,19 @@
         <v>4.848719256051187e-5</v>
       </c>
       <c r="G48">
-        <v>7.282831038009909</v>
+        <v>7.282831038006866</v>
       </c>
       <c r="H48">
-        <v>7.98283334846056e-7</v>
+        <v>7.982833348449552e-7</v>
       </c>
       <c r="I48">
-        <v>9.071169034082596e-5</v>
+        <v>9.071169034079314e-5</v>
       </c>
       <c r="J48">
-        <v>0.0019520413411807402</v>
+        <v>0.0019520413411672772</v>
       </c>
       <c r="K48">
-        <v>4.848719239627592e-5</v>
+        <v>4.8487192396175446e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2115,19 +2115,19 @@
         <v>4.849662033727253e-5</v>
       </c>
       <c r="G49">
-        <v>7.285455636322676</v>
+        <v>7.28545563631965</v>
       </c>
       <c r="H49">
-        <v>7.833620171917237e-7</v>
+        <v>7.833620171906432e-7</v>
       </c>
       <c r="I49">
-        <v>9.614817334968891e-5</v>
+        <v>9.614817334965499e-5</v>
       </c>
       <c r="J49">
-        <v>0.0019530436767164774</v>
+        <v>0.001953043676702978</v>
       </c>
       <c r="K49">
-        <v>4.8496620169781446e-5</v>
+        <v>4.8496620169680703e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2150,19 +2150,19 @@
         <v>4.850604251188803e-5</v>
       </c>
       <c r="G50">
-        <v>7.288049536177042</v>
+        <v>7.288049536174036</v>
       </c>
       <c r="H50">
-        <v>7.684408141085056e-7</v>
+        <v>7.684408141074453e-7</v>
       </c>
       <c r="I50">
-        <v>0.000101586083903628</v>
+        <v>0.00010158608390359303</v>
       </c>
       <c r="J50">
-        <v>0.0019540403574709944</v>
+        <v>0.0019540403574574735</v>
       </c>
       <c r="K50">
-        <v>4.8506042341362824e-5</v>
+        <v>4.850604234126192e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2185,19 +2185,19 @@
         <v>4.851545911000847e-5</v>
       </c>
       <c r="G51">
-        <v>7.290613253267215</v>
+        <v>7.2906132532642305</v>
       </c>
       <c r="H51">
-        <v>7.535196331059949e-7</v>
+        <v>7.53519633104955e-7</v>
       </c>
       <c r="I51">
-        <v>0.00010702538984408187</v>
+        <v>0.00010702538984404597</v>
       </c>
       <c r="J51">
-        <v>0.001955031512192502</v>
+        <v>0.001955031512178972</v>
       </c>
       <c r="K51">
-        <v>4.851545893669021e-5</v>
+        <v>4.851545893658923e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2220,19 +2220,19 @@
         <v>4.852487015827241e-5</v>
       </c>
       <c r="G52">
-        <v>7.293147293382806</v>
+        <v>7.293147293379848</v>
       </c>
       <c r="H52">
-        <v>7.385984559109287e-7</v>
+        <v>7.385984559099092e-7</v>
       </c>
       <c r="I52">
-        <v>0.0001124660599521049</v>
+        <v>0.00011246605995206808</v>
       </c>
       <c r="J52">
-        <v>0.0019560172660605087</v>
+        <v>0.0019560172660469835</v>
       </c>
       <c r="K52">
-        <v>4.85248699824064e-5</v>
+        <v>4.8524869982305446e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2255,19 +2255,19 @@
         <v>4.853427568416995e-5</v>
       </c>
       <c r="G53">
-        <v>7.295652152421102</v>
+        <v>7.295652152418172</v>
       </c>
       <c r="H53">
-        <v>7.236772791963098e-7</v>
+        <v>7.23677279195311e-7</v>
       </c>
       <c r="I53">
-        <v>0.00011790806388165373</v>
+        <v>0.00011790806388161602</v>
       </c>
       <c r="J53">
-        <v>0.001956997740774065</v>
+        <v>0.001956997740760558</v>
       </c>
       <c r="K53">
-        <v>4.8534275506002106e-5</v>
+        <v>4.853427550590129e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2290,19 +2290,19 @@
         <v>4.8543675715966355e-5</v>
       </c>
       <c r="G54">
-        <v>7.298128316529342</v>
+        <v>7.298128316526441</v>
       </c>
       <c r="H54">
-        <v>7.087561024038163e-7</v>
+        <v>7.087561024028379e-7</v>
       </c>
       <c r="I54">
-        <v>0.00012335137212491132</v>
+        <v>0.00012335137212487278</v>
       </c>
       <c r="J54">
-        <v>0.001957973054655006</v>
+        <v>0.001957973054641531</v>
       </c>
       <c r="K54">
-        <v>4.854367553574249e-5</v>
+        <v>4.85436755356419e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2325,19 +2325,19 @@
         <v>4.855307028264102e-5</v>
       </c>
       <c r="G55">
-        <v>7.300576262274285</v>
+        <v>7.300576262271417</v>
       </c>
       <c r="H55">
-        <v>6.93834925447074e-7</v>
+        <v>6.93834925446116e-7</v>
       </c>
       <c r="I55">
-        <v>0.00012879595598498244</v>
+        <v>0.00012879595598494308</v>
       </c>
       <c r="J55">
-        <v>0.0019589433227516933</v>
+        <v>0.0019589433227382635</v>
       </c>
       <c r="K55">
-        <v>4.855307010060665e-5</v>
+        <v>4.8553070100506394e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2360,19 +2360,19 @@
         <v>4.8562459413831806e-5</v>
       </c>
       <c r="G56">
-        <v>7.302996456816868</v>
+        <v>7.302996456814035</v>
       </c>
       <c r="H56">
-        <v>6.789137483137631e-7</v>
+        <v>6.789137483128258e-7</v>
       </c>
       <c r="I56">
-        <v>0.0001342417875506467</v>
+        <v>0.00013424178755060666</v>
       </c>
       <c r="J56">
-        <v>0.0019599086569402476</v>
+        <v>0.001959908656926875</v>
       </c>
       <c r="K56">
-        <v>4.856245923023221e-5</v>
+        <v>4.8562459230132356e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2395,19 +2395,19 @@
         <v>4.857184313978262e-5</v>
       </c>
       <c r="G57">
-        <v>7.30538935808735</v>
+        <v>7.305389358084553</v>
       </c>
       <c r="H57">
-        <v>6.639925710022632e-7</v>
+        <v>6.639925710013465e-7</v>
       </c>
       <c r="I57">
-        <v>0.00013968883967211185</v>
+        <v>0.00013968883967207109</v>
       </c>
       <c r="J57">
-        <v>0.001960869166022725</v>
+        <v>0.001960869166009424</v>
       </c>
       <c r="K57">
-        <v>4.857184295486274e-5</v>
+        <v>4.8571842954763385e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2430,19 +2430,19 @@
         <v>4.8581221491293616e-5</v>
       </c>
       <c r="G58">
-        <v>7.307755414959935</v>
+        <v>7.307755414957177</v>
       </c>
       <c r="H58">
-        <v>6.490713935123779e-7</v>
+        <v>6.49071393511482e-7</v>
       </c>
       <c r="I58">
-        <v>0.0001451370859375601</v>
+        <v>0.00014513708593751873</v>
       </c>
       <c r="J58">
-        <v>0.001961824955822243</v>
+        <v>0.001961824955809026</v>
       </c>
       <c r="K58">
-        <v>4.858122130529815e-5</v>
+        <v>4.858122130519941e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2465,19 +2465,19 @@
         <v>4.8590594499674194e-5</v>
       </c>
       <c r="G59">
-        <v>7.310095067426449</v>
+        <v>7.310095067423733</v>
       </c>
       <c r="H59">
-        <v>6.341502158440852e-7</v>
+        <v>6.341502158432099e-7</v>
       </c>
       <c r="I59">
-        <v>0.0001505865006504386</v>
+        <v>0.00015058650065039668</v>
       </c>
       <c r="J59">
-        <v>0.001962776129275084</v>
+        <v>0.0019627761292619647</v>
       </c>
       <c r="K59">
-        <v>4.859059431284752e-5</v>
+        <v>4.8590594312749466e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2500,19 +2500,19 @@
         <v>4.859996219669813e-5</v>
       </c>
       <c r="G60">
-        <v>7.3124087467688295</v>
+        <v>7.312408746766156</v>
       </c>
       <c r="H60">
-        <v>6.192290379973827e-7</v>
+        <v>6.192290379965282e-7</v>
       </c>
       <c r="I60">
-        <v>0.0001560370588074694</v>
+        <v>0.00015603705880742706</v>
       </c>
       <c r="J60">
-        <v>0.001963722786519886</v>
+        <v>0.001963722786506876</v>
       </c>
       <c r="K60">
-        <v>4.8599962009284353e-5</v>
+        <v>4.8599962009187094e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2535,19 +2535,19 @@
         <v>4.8609324614561266e-5</v>
       </c>
       <c r="G61">
-        <v>7.314696875730214</v>
+        <v>7.314696875727585</v>
       </c>
       <c r="H61">
-        <v>6.043078599722705e-7</v>
+        <v>6.043078599714367e-7</v>
       </c>
       <c r="I61">
-        <v>0.00016148873607735878</v>
+        <v>0.000161488736077316</v>
       </c>
       <c r="J61">
-        <v>0.0019646650249839715</v>
+        <v>0.0019646650249710838</v>
       </c>
       <c r="K61">
-        <v>4.8609324426804176e-5</v>
+        <v>4.86093244267078e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2570,19 +2570,19 @@
         <v>4.861868178584123e-5</v>
       </c>
       <c r="G62">
-        <v>7.316959868684438</v>
+        <v>7.316959868681857</v>
       </c>
       <c r="H62">
-        <v>5.893866817687484e-7</v>
+        <v>5.893866817679354e-7</v>
       </c>
       <c r="I62">
-        <v>0.0001669415087801866</v>
+        <v>0.00016694150878014352</v>
       </c>
       <c r="J62">
-        <v>0.0019656029394669147</v>
+        <v>0.001965602939454162</v>
       </c>
       <c r="K62">
-        <v>4.861868159798436e-5</v>
+        <v>4.8618681597888964e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2605,19 +2605,19 @@
         <v>4.862803374345943e-5</v>
       </c>
       <c r="G63">
-        <v>7.319198131803772</v>
+        <v>7.319198131801239</v>
       </c>
       <c r="H63">
-        <v>5.744655033868163e-7</v>
+        <v>5.74465503386024e-7</v>
       </c>
       <c r="I63">
-        <v>0.0001723953538674563</v>
+        <v>0.000172395353867413</v>
       </c>
       <c r="J63">
-        <v>0.0019665366222214173</v>
+        <v>0.0019665366222088114</v>
       </c>
       <c r="K63">
-        <v>4.862803355574602e-5</v>
+        <v>4.8628033555651695e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2640,19 +2640,19 @@
         <v>4.863738052064494e-5</v>
       </c>
       <c r="G64">
-        <v>7.321412063224755</v>
+        <v>7.3214120632222714</v>
       </c>
       <c r="H64">
-        <v>5.595443248264742e-7</v>
+        <v>5.595443248257026e-7</v>
       </c>
       <c r="I64">
-        <v>0.000177850248902787</v>
+        <v>0.00017785024890274356</v>
       </c>
       <c r="J64">
-        <v>0.0019674661630315698</v>
+        <v>0.0019674661630191236</v>
       </c>
       <c r="K64">
-        <v>4.8637380333317936e-5</v>
+        <v>4.863738033322476e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2675,19 +2675,19 @@
         <v>4.864672215090031e-5</v>
       </c>
       <c r="G65">
-        <v>7.323602053211983</v>
+        <v>7.323602053209553</v>
       </c>
       <c r="H65">
-        <v>5.446231460877223e-7</v>
+        <v>5.446231460869713e-7</v>
       </c>
       <c r="I65">
-        <v>0.00018330617204322783</v>
+        <v>0.0001833061720431843</v>
       </c>
       <c r="J65">
-        <v>0.0019683916492885803</v>
+        <v>0.0019683916492763045</v>
       </c>
       <c r="K65">
-        <v>4.864672196420239e-5</v>
+        <v>4.8646721964110465e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2710,19 +2710,19 @@
         <v>4.8656058667969276e-5</v>
       </c>
       <c r="G66">
-        <v>7.325768484319773</v>
+        <v>7.325768484317396</v>
       </c>
       <c r="H66">
-        <v>5.297019671705603e-7</v>
+        <v>5.2970196716983e-7</v>
       </c>
       <c r="I66">
-        <v>0.00018876310202117677</v>
+        <v>0.0001887631020211333</v>
       </c>
       <c r="J66">
-        <v>0.0019693131660640426</v>
+        <v>0.00196931316605195</v>
       </c>
       <c r="K66">
-        <v>4.8656058482142824e-5</v>
+        <v>4.8656058482052246e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2745,19 +2745,19 @@
         <v>4.8665390105806154e-5</v>
       </c>
       <c r="G67">
-        <v>7.327911731551549</v>
+        <v>7.327911731549228</v>
       </c>
       <c r="H67">
-        <v>5.147807880749884e-7</v>
+        <v>5.14780788074279e-7</v>
       </c>
       <c r="I67">
-        <v>0.00019422101812688574</v>
+        <v>0.00019422101812684243</v>
       </c>
       <c r="J67">
-        <v>0.0019702307961808213</v>
+        <v>0.001970230796168923</v>
       </c>
       <c r="K67">
-        <v>4.8665389921093286e-5</v>
+        <v>4.866538992100413e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2780,19 +2780,19 @@
         <v>4.867471649854688e-5</v>
       </c>
       <c r="G68">
-        <v>7.33003216251693</v>
+        <v>7.330032162514664</v>
       </c>
       <c r="H68">
-        <v>4.998596088010065e-7</v>
+        <v>4.998596088003179e-7</v>
       </c>
       <c r="I68">
-        <v>0.00019967990019153332</v>
+        <v>0.00019967990019149025</v>
       </c>
       <c r="J68">
-        <v>0.0019711446202816236</v>
+        <v>0.001971144620269931</v>
       </c>
       <c r="K68">
-        <v>4.8674716315189424e-5</v>
+        <v>4.86747163151018e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2815,19 +2815,19 @@
         <v>4.8684037880481694e-5</v>
       </c>
       <c r="G69">
-        <v>7.332130137586397</v>
+        <v>7.33213013758419</v>
       </c>
       <c r="H69">
-        <v>4.849384293486149e-7</v>
+        <v>4.849384293479469e-7</v>
       </c>
       <c r="I69">
-        <v>0.0002051397285708477</v>
+        <v>0.000205139728570805</v>
       </c>
       <c r="J69">
-        <v>0.0019720547168953365</v>
+        <v>0.0019720547168838617</v>
       </c>
       <c r="K69">
-        <v>4.868403769872121e-5</v>
+        <v>4.8684037698635206e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2850,19 +2850,19 @@
         <v>4.869335428602922e-5</v>
       </c>
       <c r="G70">
-        <v>7.334206010043516</v>
+        <v>7.334206010041369</v>
       </c>
       <c r="H70">
-        <v>4.700172497178133e-7</v>
+        <v>4.70017249717166e-7</v>
       </c>
       <c r="I70">
-        <v>0.00021060048412926367</v>
+        <v>0.00021060048412922133</v>
       </c>
       <c r="J70">
-        <v>0.001972961162501192</v>
+        <v>0.001972961162489947</v>
       </c>
       <c r="K70">
-        <v>4.869335410610702e-5</v>
+        <v>4.8693354106022705e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2885,19 +2885,19 @@
         <v>4.870266574971214e-5</v>
       </c>
       <c r="G71">
-        <v>7.33626012623465</v>
+        <v>7.336260126232563</v>
       </c>
       <c r="H71">
-        <v>4.5509606990860195e-7</v>
+        <v>4.550960699079751e-7</v>
       </c>
       <c r="I71">
-        <v>0.00021606214822459473</v>
+        <v>0.00021606214822455282</v>
       </c>
       <c r="J71">
-        <v>0.0019738640315908346</v>
+        <v>0.001973864031579831</v>
       </c>
       <c r="K71">
-        <v>4.870266557186923e-5</v>
+        <v>4.870266557178669e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2920,19 +2920,19 @@
         <v>4.871197230613403e-5</v>
       </c>
       <c r="G72">
-        <v>7.338292825716122</v>
+        <v>7.338292825714097</v>
       </c>
       <c r="H72">
-        <v>4.401748899209807e-7</v>
+        <v>4.4017488992037425e-7</v>
       </c>
       <c r="I72">
-        <v>0.00022152470269320583</v>
+        <v>0.0002215247026931645</v>
       </c>
       <c r="J72">
-        <v>0.0019747633967283577</v>
+        <v>0.001974763396717605</v>
       </c>
       <c r="K72">
-        <v>4.871197213061115e-5</v>
+        <v>4.871197213053047e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2955,19 +2955,19 @@
         <v>4.872127398995766e-5</v>
       </c>
       <c r="G73">
-        <v>7.340304441398813</v>
+        <v>7.340304441396851</v>
       </c>
       <c r="H73">
-        <v>4.252537097549497e-7</v>
+        <v>4.2525370975436366e-7</v>
       </c>
       <c r="I73">
-        <v>0.00022698812983566952</v>
+        <v>0.00022698812983562878</v>
       </c>
       <c r="J73">
-        <v>0.0019756593286083695</v>
+        <v>0.0019756593285978788</v>
       </c>
       <c r="K73">
-        <v>4.872127381699529e-5</v>
+        <v>4.8721273816916545e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2990,19 +2990,19 @@
         <v>4.8730570835884444e-5</v>
       </c>
       <c r="G74">
-        <v>7.34229529969016</v>
+        <v>7.342295299688262</v>
       </c>
       <c r="H74">
-        <v>4.1033252941050876e-7</v>
+        <v>4.103325294099432e-7</v>
       </c>
       <c r="I74">
-        <v>0.00023245241240289036</v>
+        <v>0.00023245241240285022</v>
       </c>
       <c r="J74">
-        <v>0.0019765518961121636</v>
+        <v>0.0019765518961019444</v>
       </c>
       <c r="K74">
-        <v>4.873057066572281e-5</v>
+        <v>4.873057066564608e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3025,19 +3025,19 @@
         <v>4.8739862878635076e-5</v>
       </c>
       <c r="G75">
-        <v>7.3442657206335396</v>
+        <v>7.344265720631706</v>
       </c>
       <c r="H75">
-        <v>3.9541134888765785e-7</v>
+        <v>3.954113488871129e-7</v>
       </c>
       <c r="I75">
-        <v>0.00023791753358268152</v>
+        <v>0.00023791753358264208</v>
       </c>
       <c r="J75">
-        <v>0.0019774411663620413</v>
+        <v>0.001977441166352104</v>
       </c>
       <c r="K75">
-        <v>4.8739862711514134e-5</v>
+        <v>4.873986271143949e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3060,19 +3060,19 @@
         <v>4.874915015293132e-5</v>
       </c>
       <c r="G76">
-        <v>7.34621601804505</v>
+        <v>7.3462160180432825</v>
       </c>
       <c r="H76">
-        <v>3.8049016818639703e-7</v>
+        <v>3.8049016818587277e-7</v>
       </c>
       <c r="I76">
-        <v>0.00024338347698678</v>
+        <v>0.00024338347698674132</v>
       </c>
       <c r="J76">
-        <v>0.001978327204773863</v>
+        <v>0.0019783272047642175</v>
       </c>
       <c r="K76">
-        <v>4.874914998909074e-5</v>
+        <v>4.874914998901827e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3095,19 +3095,19 @@
         <v>4.8758432693478754e-5</v>
       </c>
       <c r="G77">
-        <v>7.348146499647655</v>
+        <v>7.348146499645954</v>
       </c>
       <c r="H77">
-        <v>3.655689873067263e-7</v>
+        <v>3.6556898730622273e-7</v>
       </c>
       <c r="I77">
-        <v>0.00024885022663828497</v>
+        <v>0.00024885022663824724</v>
       </c>
       <c r="J77">
-        <v>0.0019792100751078725</v>
+        <v>0.001979210075098528</v>
       </c>
       <c r="K77">
-        <v>4.875843253315799e-5</v>
+        <v>4.8758432533087766e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3130,19 +3130,19 @@
         <v>4.87677105349507e-5</v>
       </c>
       <c r="G78">
-        <v>7.350057467202728</v>
+        <v>7.350057467201094</v>
       </c>
       <c r="H78">
-        <v>3.506478062486457e-7</v>
+        <v>3.5064780624816283e-7</v>
       </c>
       <c r="I78">
-        <v>0.0002543177669595054</v>
+        <v>0.0002543177669594685</v>
       </c>
       <c r="J78">
-        <v>0.0019800898395178628</v>
+        <v>0.001980089839508828</v>
       </c>
       <c r="K78">
-        <v>4.876771037838892e-5</v>
+        <v>4.8767710378321016e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3165,19 +3165,19 @@
         <v>4.877698371197295e-5</v>
       </c>
       <c r="G79">
-        <v>7.351949216638984</v>
+        <v>7.3519492166374185</v>
       </c>
       <c r="H79">
-        <v>3.357266250121552e-7</v>
+        <v>3.35726625011693e-7</v>
       </c>
       <c r="I79">
-        <v>0.0002597860827602037</v>
+        <v>0.00025978608276016783</v>
       </c>
       <c r="J79">
-        <v>0.00198096655859873</v>
+        <v>0.001980966558590014</v>
       </c>
       <c r="K79">
-        <v>4.877698355940907e-5</v>
+        <v>4.877698355934355e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3200,19 +3200,19 @@
         <v>4.8786252259109445e-5</v>
       </c>
       <c r="G80">
-        <v>7.353822038178821</v>
+        <v>7.3538220381773245</v>
       </c>
       <c r="H80">
-        <v>3.208054435972548e-7</v>
+        <v>3.2080544359681323e-7</v>
       </c>
       <c r="I80">
-        <v>0.00026525515922622167</v>
+        <v>0.00026525515922618697</v>
       </c>
       <c r="J80">
-        <v>0.0019818402914324796</v>
+        <v>0.0019818402914240896</v>
       </c>
       <c r="K80">
-        <v>4.878625211078215e-5</v>
+        <v>4.878625211071909e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3235,19 +3235,19 @@
         <v>4.879551621084892e-5</v>
       </c>
       <c r="G81">
-        <v>7.355676216462084</v>
+        <v>7.3556762164606555</v>
       </c>
       <c r="H81">
-        <v>3.058842620039445e-7</v>
+        <v>3.0588426200352364e-7</v>
       </c>
       <c r="I81">
-        <v>0.0002707249819084765</v>
+        <v>0.00027072498190844287</v>
       </c>
       <c r="J81">
-        <v>0.0019827110956327264</v>
+        <v>0.0019827110956246704</v>
       </c>
       <c r="K81">
-        <v>4.879551606699663e-5</v>
+        <v>4.879551606693607e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3270,19 +3270,19 @@
         <v>4.880477560159219e-5</v>
       </c>
       <c r="G82">
-        <v>7.357512030667274</v>
+        <v>7.357512030665915</v>
       </c>
       <c r="H82">
-        <v>2.909630802322243e-7</v>
+        <v>2.909630802318241e-7</v>
       </c>
       <c r="I82">
-        <v>0.00027619553671231345</v>
+        <v>0.00027619553671228103</v>
       </c>
       <c r="J82">
-        <v>0.0019835790273877445</v>
+        <v>0.0019835790273800293</v>
       </c>
       <c r="K82">
-        <v>4.8804775462453097e-5</v>
+        <v>4.880477546239512e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3305,19 +3305,19 @@
         <v>4.881403046564046e-5</v>
       </c>
       <c r="G83">
-        <v>7.359329754630228</v>
+        <v>7.35932975462894</v>
       </c>
       <c r="H83">
-        <v>2.760418982820943e-7</v>
+        <v>2.760418982817147e-7</v>
       </c>
       <c r="I83">
-        <v>0.0002816668098872046</v>
+        <v>0.0002816668098871733</v>
       </c>
       <c r="J83">
-        <v>0.001984444141502119</v>
+        <v>0.0019844441414947536</v>
       </c>
       <c r="K83">
-        <v>4.881403033145249e-5</v>
+        <v>4.881403033139713e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3340,19 +3340,19 @@
         <v>4.882328083718409e-5</v>
       </c>
       <c r="G84">
-        <v>7.361129656960293</v>
+        <v>7.361129656959074</v>
       </c>
       <c r="H84">
-        <v>2.611207161535544e-7</v>
+        <v>2.611207161531955e-7</v>
       </c>
       <c r="I84">
-        <v>0.0002871387880167798</v>
+        <v>0.00028713878801674977</v>
       </c>
       <c r="J84">
-        <v>0.0019853064914370443</v>
+        <v>0.0019853064914300356</v>
       </c>
       <c r="K84">
-        <v>4.882328070818494e-5</v>
+        <v>4.8823280708132266e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3375,19 +3375,19 @@
         <v>4.883252675029233e-5</v>
       </c>
       <c r="G85">
-        <v>7.362912001154018</v>
+        <v>7.3629120011528695</v>
       </c>
       <c r="H85">
-        <v>2.461995338466047e-7</v>
+        <v>2.4619953384626635e-7</v>
       </c>
       <c r="I85">
-        <v>0.00029261145800918165</v>
+        <v>0.0002926114580091529</v>
       </c>
       <c r="J85">
-        <v>0.0019861661293493088</v>
+        <v>0.0019861661293426635</v>
       </c>
       <c r="K85">
-        <v>4.8832526626719456e-5</v>
+        <v>4.8832526626669515e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3410,19 +3410,19 @@
         <v>4.884176823890357e-5</v>
       </c>
       <c r="G86">
-        <v>7.364677045706409</v>
+        <v>7.364677045705331</v>
       </c>
       <c r="H86">
-        <v>2.3127835136124512e-7</v>
+        <v>2.3127835136092735e-7</v>
       </c>
       <c r="I86">
-        <v>0.0002980848070877298</v>
+        <v>0.0002980848070877025</v>
       </c>
       <c r="J86">
-        <v>0.0019870231061290223</v>
+        <v>0.001987023106122747</v>
       </c>
       <c r="K86">
-        <v>4.884176812099418e-5</v>
+        <v>4.884176812094701e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3445,19 +3445,19 @@
         <v>4.885100533681625e-5</v>
       </c>
       <c r="G87">
-        <v>7.366425044219767</v>
+        <v>7.36642504421876</v>
       </c>
       <c r="H87">
-        <v>2.1635716869747569e-7</v>
+        <v>2.1635716869717846e-7</v>
       </c>
       <c r="I87">
-        <v>0.0003035588227818876</v>
+        <v>0.0003035588227818618</v>
       </c>
       <c r="J87">
-        <v>0.0019878774714361235</v>
+        <v>0.0019878774714302237</v>
       </c>
       <c r="K87">
-        <v>4.8851005224807346e-5</v>
+        <v>4.8851005224762995e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3480,19 +3480,19 @@
         <v>4.8860238077680444e-5</v>
       </c>
       <c r="G88">
-        <v>7.368156245510144</v>
+        <v>7.3681562455092084</v>
       </c>
       <c r="H88">
-        <v>2.0143598585529647e-7</v>
+        <v>2.0143598585501973e-7</v>
       </c>
       <c r="I88">
-        <v>0.00030903349291851786</v>
+        <v>0.0003090334929184935</v>
       </c>
       <c r="J88">
-        <v>0.001988729273735704</v>
+        <v>0.001988729273730185</v>
       </c>
       <c r="K88">
-        <v>4.8860237971808766e-5</v>
+        <v>4.886023797176728e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3515,19 +3515,19 @@
         <v>4.8869466494989904e-5</v>
       </c>
       <c r="G89">
-        <v>7.369870893711464</v>
+        <v>7.369870893710599</v>
       </c>
       <c r="H89">
-        <v>1.865148028347074e-7</v>
+        <v>1.8651480283445112e-7</v>
       </c>
       <c r="I89">
-        <v>0.0003145088056134201</v>
+        <v>0.00031450880561339735</v>
       </c>
       <c r="J89">
-        <v>0.0019895785603321996</v>
+        <v>0.001989578560327067</v>
       </c>
       <c r="K89">
-        <v>4.8869466395492e-5</v>
+        <v>4.88694663954534e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3550,19 +3550,19 @@
         <v>4.88786906220748e-5</v>
       </c>
       <c r="G90">
-        <v>7.371569228377328</v>
+        <v>7.371569228376535</v>
       </c>
       <c r="H90">
-        <v>1.715936196357085e-7</v>
+        <v>1.7159361963547275e-7</v>
       </c>
       <c r="I90">
-        <v>0.00031998474926313845</v>
+        <v>0.00031998474926311725</v>
       </c>
       <c r="J90">
-        <v>0.001990425377402481</v>
+        <v>0.0019904253773977395</v>
       </c>
       <c r="K90">
-        <v>4.887869052918693e-5</v>
+        <v>4.887869052915129e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3585,19 +3585,19 @@
         <v>4.888791049209478e-5</v>
       </c>
       <c r="G91">
-        <v>7.373251484580562</v>
+        <v>7.373251484579839</v>
       </c>
       <c r="H91">
-        <v>1.566724362582998e-7</v>
+        <v>1.566724362580845e-7</v>
       </c>
       <c r="I91">
-        <v>0.00032546131253703096</v>
+        <v>0.0003254613125370114</v>
       </c>
       <c r="J91">
-        <v>0.001991269770027881</v>
+        <v>0.0019912697700235353</v>
       </c>
       <c r="K91">
-        <v>4.8887910406053044e-5</v>
+        <v>4.888791040602036e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3620,19 +3620,19 @@
         <v>4.8897126138032714e-5</v>
       </c>
       <c r="G92">
-        <v>7.374917893010523</v>
+        <v>7.374917893009871</v>
       </c>
       <c r="H92">
-        <v>1.4175125270248124e-7</v>
+        <v>1.417512527022864e-7</v>
       </c>
       <c r="I92">
-        <v>0.00033093848436959204</v>
+        <v>0.0003309384843695742</v>
       </c>
       <c r="J92">
-        <v>0.0019921117822252012</v>
+        <v>0.0019921117822212565</v>
       </c>
       <c r="K92">
-        <v>4.889712605907294e-5</v>
+        <v>4.889712605904328e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3655,19 +3655,19 @@
         <v>4.89063375926888e-5</v>
       </c>
       <c r="G93">
-        <v>7.376568680068224</v>
+        <v>7.376568680067642</v>
       </c>
       <c r="H93">
-        <v>1.268300689682528e-7</v>
+        <v>1.2683006896807847e-7</v>
       </c>
       <c r="I93">
-        <v>0.0003364162539530193</v>
+        <v>0.0003364162539530032</v>
       </c>
       <c r="J93">
-        <v>0.001992951456976724</v>
+        <v>0.0019929514569731843</v>
       </c>
       <c r="K93">
-        <v>4.8906337521046596e-5</v>
+        <v>4.890633752101998e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3690,19 +3690,19 @@
         <v>4.891554488867508e-5</v>
       </c>
       <c r="G94">
-        <v>7.378204067959299</v>
+        <v>7.378204067958787</v>
       </c>
       <c r="H94">
-        <v>1.1190888505561452e-7</v>
+        <v>1.1190888505546068e-7</v>
       </c>
       <c r="I94">
-        <v>0.0003418946107300154</v>
+        <v>0.0003418946107300011</v>
       </c>
       <c r="J94">
-        <v>0.001993788836259273</v>
+        <v>0.001993788836256141</v>
       </c>
       <c r="K94">
-        <v>4.891554482458588e-5</v>
+        <v>4.8915544824562325e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3725,19 +3725,19 @@
         <v>4.892474805841049e-5</v>
       </c>
       <c r="G95">
-        <v>7.379824274784869</v>
+        <v>7.379824274784427</v>
       </c>
       <c r="H95">
-        <v>9.698770096456642e-8</v>
+        <v>9.698770096443308e-8</v>
       </c>
       <c r="I95">
-        <v>0.0003473735443868187</v>
+        <v>0.00034737354438680625</v>
       </c>
       <c r="J95">
-        <v>0.0019946239610723437</v>
+        <v>0.0019946239610696232</v>
       </c>
       <c r="K95">
-        <v>4.892474800210947e-5</v>
+        <v>4.892474800208902e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3760,19 +3760,19 @@
         <v>4.89339471341162e-5</v>
       </c>
       <c r="G96">
-        <v>7.381429514630321</v>
+        <v>7.38142951462995</v>
       </c>
       <c r="H96">
-        <v>8.206651669510848e-8</v>
+        <v>8.206651669499565e-8</v>
       </c>
       <c r="I96">
-        <v>0.0003528530448464529</v>
+        <v>0.0003528530448464423</v>
       </c>
       <c r="J96">
-        <v>0.001995456871465353</v>
+        <v>0.0019954568714630467</v>
       </c>
       <c r="K96">
-        <v>4.893394708583836e-5</v>
+        <v>4.893394708582102e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3795,19 +3795,19 @@
         <v>4.89431421478114e-5</v>
       </c>
       <c r="G97">
-        <v>7.383019997652075</v>
+        <v>7.383019997651772</v>
       </c>
       <c r="H97">
-        <v>6.714533224724071e-8</v>
+        <v>6.714533224714838e-8</v>
       </c>
       <c r="I97">
-        <v>0.0003583331022621897</v>
+        <v>0.00035833310226218094</v>
       </c>
       <c r="J97">
-        <v>0.001996287606564017</v>
+        <v>0.0019962876065621267</v>
       </c>
       <c r="K97">
-        <v>4.894314210779149e-5</v>
+        <v>4.894314210777727e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3830,19 +3830,19 @@
         <v>4.895233313130935e-5</v>
       </c>
       <c r="G98">
-        <v>7.384595930162338</v>
+        <v>7.384595930162105</v>
       </c>
       <c r="H98">
-        <v>5.222414762096311e-8</v>
+        <v>5.2224147620891306e-8</v>
       </c>
       <c r="I98">
-        <v>0.000363813707011217</v>
+        <v>0.00036381370701120993</v>
       </c>
       <c r="J98">
-        <v>0.001997116204595902</v>
+        <v>0.00199711620459443</v>
       </c>
       <c r="K98">
-        <v>4.895233309978194e-5</v>
+        <v>4.8952333099770865e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3865,19 +3865,19 @@
         <v>4.896152011621389e-5</v>
       </c>
       <c r="G99">
-        <v>7.386157514711934</v>
+        <v>7.386157514711768</v>
       </c>
       <c r="H99">
-        <v>3.7302962816275686e-8</v>
+        <v>3.7302962816224395e-8</v>
       </c>
       <c r="I99">
-        <v>0.00036929484968850417</v>
+        <v>0.0003692948496884992</v>
       </c>
       <c r="J99">
-        <v>0.0019979427029151752</v>
+        <v>0.0019979427029141227</v>
       </c>
       <c r="K99">
-        <v>4.8961520093413324e-5</v>
+        <v>4.896152009340541e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3900,19 +3900,19 @@
         <v>4.897070313391619e-5</v>
       </c>
       <c r="G100">
-        <v>7.387704950171201</v>
+        <v>7.387704950171101</v>
       </c>
       <c r="H100">
-        <v>2.238177783317844e-8</v>
+        <v>2.2381777833147662e-8</v>
       </c>
       <c r="I100">
-        <v>0.0003747765211008609</v>
+        <v>0.0003747765211008579</v>
       </c>
       <c r="J100">
-        <v>0.001998767138026572</v>
+        <v>0.0019987671380259408</v>
       </c>
       <c r="K100">
-        <v>4.897070312007662e-5</v>
+        <v>4.897070312007187e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3935,19 +3935,19 @@
         <v>4.8979882215591805e-5</v>
       </c>
       <c r="G101">
-        <v>7.389238431809028</v>
+        <v>7.389238431808995</v>
       </c>
       <c r="H101">
-        <v>7.460592671671374e-9</v>
+        <v>7.460592671661115e-9</v>
       </c>
       <c r="I101">
-        <v>0.00038025871226117877</v>
+        <v>0.0003802587122611778</v>
       </c>
       <c r="J101">
-        <v>0.001999589545608621</v>
+        <v>0.001999589545608411</v>
       </c>
       <c r="K101">
-        <v>4.897988221094718e-5</v>
+        <v>4.89798822109456e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
@@ -455,19 +455,19 @@
         <v>-0.049</v>
       </c>
       <c r="B2">
-        <v>8.135096413656667</v>
+        <v>8.135096413656665</v>
       </c>
       <c r="C2">
         <v>0.00024547421372916374</v>
       </c>
       <c r="D2">
-        <v>-2.2974609829766017e-7</v>
+        <v>-2.297460982976381e-7</v>
       </c>
       <c r="E2">
-        <v>0.001999093298062759</v>
+        <v>0.0019990932980627593</v>
       </c>
       <c r="F2">
-        <v>4.8958500658019716e-5</v>
+        <v>4.895850065801972e-5</v>
       </c>
       <c r="G2">
         <v>8.135096420964159</v>
@@ -496,7 +496,7 @@
         <v>0.00023642264118749144</v>
       </c>
       <c r="D3">
-        <v>-6.889671100388562e-7</v>
+        <v>-6.889671100388418e-7</v>
       </c>
       <c r="E3">
         <v>0.0019972577771782316</v>
@@ -566,7 +566,7 @@
         <v>0.00021831949610417155</v>
       </c>
       <c r="D5">
-        <v>-1.6061058253089428e-6</v>
+        <v>-1.606105825308922e-6</v>
       </c>
       <c r="E5">
         <v>0.0019934845026519884</v>
@@ -601,10 +601,10 @@
         <v>0.00020926792356265546</v>
       </c>
       <c r="D6">
-        <v>-2.0638761618556067e-6</v>
+        <v>-2.0638761618556105e-6</v>
       </c>
       <c r="E6">
-        <v>0.0019915380062756087</v>
+        <v>0.0019915380062756082</v>
       </c>
       <c r="F6">
         <v>4.875787685204749e-5</v>
@@ -630,13 +630,13 @@
         <v>-0.03900000000000001</v>
       </c>
       <c r="B7">
-        <v>7.969355790380774</v>
+        <v>7.969355790380776</v>
       </c>
       <c r="C7">
         <v>0.0002002163510219987</v>
       </c>
       <c r="D7">
-        <v>-2.520998152453522e-6</v>
+        <v>-2.520998152453509e-6</v>
       </c>
       <c r="E7">
         <v>0.001989545266093469</v>
@@ -671,7 +671,7 @@
         <v>0.00019116477848642389</v>
       </c>
       <c r="D8">
-        <v>-2.9773724393911824e-6</v>
+        <v>-2.977372439391187e-6</v>
       </c>
       <c r="E8">
         <v>0.001987501358181502</v>
@@ -706,7 +706,7 @@
         <v>0.0001821132059786206</v>
       </c>
       <c r="D9">
-        <v>-3.4328912973124834e-6</v>
+        <v>-3.4328912973124923e-6</v>
       </c>
       <c r="E9">
         <v>0.001985401485111393</v>
@@ -735,7 +735,7 @@
         <v>-0.033</v>
       </c>
       <c r="B10">
-        <v>7.8566827679686355</v>
+        <v>7.856682767968634</v>
       </c>
       <c r="C10">
         <v>0.00017306163361104093</v>
@@ -811,13 +811,13 @@
         <v>0.00015495849300433697</v>
       </c>
       <c r="D12">
-        <v>-4.793178459866295e-6</v>
+        <v>-4.793178459866301e-6</v>
       </c>
       <c r="E12">
         <v>0.0019787262783050345</v>
       </c>
       <c r="F12">
-        <v>4.8510586351865914e-5</v>
+        <v>4.851058635186591e-5</v>
       </c>
       <c r="G12">
         <v>7.778353914019619</v>
@@ -840,13 +840,13 @@
         <v>-0.027000000000000003</v>
       </c>
       <c r="B13">
-        <v>7.738945668722421</v>
+        <v>7.73894566872242</v>
       </c>
       <c r="C13">
         <v>0.00014590693534374802</v>
       </c>
       <c r="D13">
-        <v>-5.244145451398814e-6</v>
+        <v>-5.244145451398819e-6</v>
       </c>
       <c r="E13">
         <v>0.0019763676139495897</v>
@@ -875,19 +875,19 @@
         <v>-0.025</v>
       </c>
       <c r="B14">
-        <v>7.6997329078249095</v>
+        <v>7.69973290782491</v>
       </c>
       <c r="C14">
         <v>0.0001368554190247995</v>
       </c>
       <c r="D14">
-        <v>-5.693701034573951e-6</v>
+        <v>-5.693701034573965e-6</v>
       </c>
       <c r="E14">
-        <v>0.0019739411765365123</v>
+        <v>0.001973941176536512</v>
       </c>
       <c r="F14">
-        <v>4.845089338148977e-5</v>
+        <v>4.845089338148976e-5</v>
       </c>
       <c r="G14">
         <v>7.6997330219473055</v>
@@ -910,7 +910,7 @@
         <v>-0.023000000000000003</v>
       </c>
       <c r="B15">
-        <v>7.660971610030513</v>
+        <v>7.660971610030514</v>
       </c>
       <c r="C15">
         <v>0.0001278040433012234</v>
@@ -945,7 +945,7 @@
         <v>-0.021000000000000005</v>
       </c>
       <c r="B16">
-        <v>7.6228904219242395</v>
+        <v>7.62289042192424</v>
       </c>
       <c r="C16">
         <v>0.00011875310939136336</v>
@@ -954,10 +954,10 @@
         <v>-6.587921171735994e-6</v>
       </c>
       <c r="E16">
-        <v>0.001968892298131471</v>
+        <v>0.0019688922981314708</v>
       </c>
       <c r="F16">
-        <v>4.840378880433369e-5</v>
+        <v>4.8403788804333704e-5</v>
       </c>
       <c r="G16">
         <v>7.62289018216161</v>
@@ -986,7 +986,7 @@
         <v>0.00010970345839082353</v>
       </c>
       <c r="D17">
-        <v>-7.031752985692715e-6</v>
+        <v>-7.031752985692713e-6</v>
       </c>
       <c r="E17">
         <v>0.0019662765935889474</v>
@@ -1056,13 +1056,13 @@
         <v>9.161957564750329e-5</v>
       </c>
       <c r="D19">
-        <v>-7.90466628562086e-6</v>
+        <v>-7.904666285620873e-6</v>
       </c>
       <c r="E19">
         <v>0.001960888587719133</v>
       </c>
       <c r="F19">
-        <v>4.8354457584172306e-5</v>
+        <v>4.83544575841723e-5</v>
       </c>
       <c r="G19">
         <v>7.514456077230703</v>
@@ -1091,13 +1091,13 @@
         <v>8.2601455478048e-5</v>
       </c>
       <c r="D20">
-        <v>-8.323249188174777e-6</v>
+        <v>-8.323249188174772e-6</v>
       </c>
       <c r="E20">
         <v>0.001958132217328737</v>
       </c>
       <c r="F20">
-        <v>4.834289842102452e-5</v>
+        <v>4.8342898421024525e-5</v>
       </c>
       <c r="G20">
         <v>7.480661549530129</v>
@@ -1120,16 +1120,16 @@
         <v>-0.011000000000000003</v>
       </c>
       <c r="B21">
-        <v>7.448238862363746</v>
+        <v>7.4482388623637465</v>
       </c>
       <c r="C21">
         <v>7.362473302737887e-5</v>
       </c>
       <c r="D21">
-        <v>-8.713335411610649e-6</v>
+        <v>-8.713335411610664e-6</v>
       </c>
       <c r="E21">
-        <v>0.001955351264142533</v>
+        <v>0.0019553512641425335</v>
       </c>
       <c r="F21">
         <v>4.833344285566858e-5</v>
@@ -1190,16 +1190,16 @@
         <v>-0.007000000000000003</v>
       </c>
       <c r="B23">
-        <v>7.3880133946708675</v>
+        <v>7.388013394670867</v>
       </c>
       <c r="C23">
         <v>5.5979678520855645e-5</v>
       </c>
       <c r="D23">
-        <v>-9.288668266045919e-6</v>
+        <v>-9.28866826604591e-6</v>
       </c>
       <c r="E23">
-        <v>0.0019498138767987238</v>
+        <v>0.0019498138767987242</v>
       </c>
       <c r="F23">
         <v>4.8320211670301083e-5</v>
@@ -1231,10 +1231,10 @@
         <v>4.7474949795932286e-5</v>
       </c>
       <c r="D24">
-        <v>-9.368189058296613e-6</v>
+        <v>-9.368189058296603e-6</v>
       </c>
       <c r="E24">
-        <v>0.0019471392666769024</v>
+        <v>0.0019471392666769022</v>
       </c>
       <c r="F24">
         <v>4.831621735617503e-5</v>
@@ -1266,10 +1266,10 @@
         <v>3.93478069239658e-5</v>
       </c>
       <c r="D25">
-        <v>-9.202140535981584e-6</v>
+        <v>-9.202140535981562e-6</v>
       </c>
       <c r="E25">
-        <v>0.0019446088271483808</v>
+        <v>0.001944608827148381</v>
       </c>
       <c r="F25">
         <v>4.8313884606829624e-5</v>
@@ -1295,16 +1295,16 @@
         <v>-0.0010000000000000009</v>
       </c>
       <c r="B26">
-        <v>7.31319966237422</v>
+        <v>7.313199662374219</v>
       </c>
       <c r="C26">
         <v>3.1759306835106685e-5</v>
       </c>
       <c r="D26">
-        <v>-8.686992258947142e-6</v>
+        <v>-8.686992258947113e-6</v>
       </c>
       <c r="E26">
-        <v>0.0019423018834549735</v>
+        <v>0.0019423018834549737</v>
       </c>
       <c r="F26">
         <v>4.831317682044425e-5</v>
@@ -1336,10 +1336,10 @@
         <v>2.4880873308263723e-5</v>
       </c>
       <c r="D27">
-        <v>-7.712754185172589e-6</v>
+        <v>-7.712754185172577e-6</v>
       </c>
       <c r="E27">
-        <v>0.0019403035870102785</v>
+        <v>0.0019403035870102783</v>
       </c>
       <c r="F27">
         <v>4.831405814816276e-5</v>
@@ -1371,10 +1371,10 @@
         <v>1.8867430323902913e-5</v>
       </c>
       <c r="D28">
-        <v>-6.180151001628528e-6</v>
+        <v>-6.180151001628555e-6</v>
       </c>
       <c r="E28">
-        <v>0.0019386917560015133</v>
+        <v>0.001938691756001513</v>
       </c>
       <c r="F28">
         <v>4.831647419607436e-5</v>
@@ -1400,13 +1400,13 @@
         <v>0.0049999999999999975</v>
       </c>
       <c r="B29">
-        <v>7.265195834761343</v>
+        <v>7.265195834761342</v>
       </c>
       <c r="C29">
         <v>1.3827717117345496e-5</v>
       </c>
       <c r="D29">
-        <v>-4.019516595285592e-6</v>
+        <v>-4.019516595285569e-6</v>
       </c>
       <c r="E29">
         <v>0.0019375219031914272</v>
@@ -1435,7 +1435,7 @@
         <v>0.006999999999999999</v>
       </c>
       <c r="B30">
-        <v>7.2560228798249335</v>
+        <v>7.256022879824934</v>
       </c>
       <c r="C30">
         <v>9.800937022175098e-6</v>
@@ -1447,7 +1447,7 @@
         <v>0.0019368152687688012</v>
       </c>
       <c r="F30">
-        <v>4.8325517235956535e-5</v>
+        <v>4.832551723595654e-5</v>
       </c>
       <c r="G30">
         <v>7.255773208181512</v>
@@ -1476,10 +1476,10 @@
         <v>6.747886704808096e-6</v>
       </c>
       <c r="D31">
-        <v>2.236636829267952e-6</v>
+        <v>2.2366368292679576e-6</v>
       </c>
       <c r="E31">
-        <v>0.001936554276733115</v>
+        <v>0.0019365542767331152</v>
       </c>
       <c r="F31">
         <v>4.8331847258378495e-5</v>
@@ -1514,10 +1514,10 @@
         <v>6.237883417440914e-6</v>
       </c>
       <c r="E32">
-        <v>0.0019366871760536605</v>
+        <v>0.0019366871760536607</v>
       </c>
       <c r="F32">
-        <v>4.8339131187711945e-5</v>
+        <v>4.833913118771194e-5</v>
       </c>
       <c r="G32">
         <v>7.246469697633124</v>
@@ -1546,10 +1546,10 @@
         <v>3.081833717054476e-6</v>
       </c>
       <c r="D33">
-        <v>1.069898687222564e-5</v>
+        <v>1.0698986872225635e-5</v>
       </c>
       <c r="E33">
-        <v>0.001937140026446621</v>
+        <v>0.0019371400264466213</v>
       </c>
       <c r="F33">
         <v>4.8347162648829365e-5</v>
@@ -1575,7 +1575,7 @@
         <v>0.015</v>
       </c>
       <c r="B34">
-        <v>7.245871831282372</v>
+        <v>7.245871831282373</v>
       </c>
       <c r="C34">
         <v>2.1424832872932215e-6</v>
@@ -1584,7 +1584,7 @@
         <v>1.5509989442998064e-5</v>
       </c>
       <c r="E34">
-        <v>0.0019378316055532936</v>
+        <v>0.0019378316055532934</v>
       </c>
       <c r="F34">
         <v>4.835574397385897e-5</v>
@@ -1610,13 +1610,13 @@
         <v>0.017</v>
       </c>
       <c r="B35">
-        <v>7.247376042759014</v>
+        <v>7.247376042759015</v>
       </c>
       <c r="C35">
         <v>1.5807187104887417e-6</v>
       </c>
       <c r="D35">
-        <v>2.0567306988707663e-5</v>
+        <v>2.0567306988707643e-5</v>
       </c>
       <c r="E35">
         <v>0.0019386864895504516</v>
@@ -1651,7 +1651,7 @@
         <v>1.263546214663147e-6</v>
       </c>
       <c r="D36">
-        <v>2.5785166088510168e-5</v>
+        <v>2.578516608851017e-5</v>
       </c>
       <c r="E36">
         <v>0.001939643265900376</v>
@@ -1721,13 +1721,13 @@
         <v>1.0030157624976026e-6</v>
       </c>
       <c r="D38">
-        <v>3.646957079888885e-5</v>
+        <v>3.6469570798888853e-5</v>
       </c>
       <c r="E38">
-        <v>0.0019416993072921213</v>
+        <v>0.0019416993072921215</v>
       </c>
       <c r="F38">
-        <v>4.839265771487697e-5</v>
+        <v>4.839265771487696e-5</v>
       </c>
       <c r="G38">
         <v>7.254925341831296</v>
@@ -1750,16 +1750,16 @@
         <v>0.024999999999999994</v>
       </c>
       <c r="B39">
-        <v>7.2578007756391365</v>
+        <v>7.257800775639136</v>
       </c>
       <c r="C39">
         <v>9.54642630225129e-7</v>
       </c>
       <c r="D39">
-        <v>4.1867918012240055e-5</v>
+        <v>4.1867918012240075e-5</v>
       </c>
       <c r="E39">
-        <v>0.0019427519212929726</v>
+        <v>0.0019427519212929728</v>
       </c>
       <c r="F39">
         <v>4.8402109032140414e-5</v>
@@ -1785,13 +1785,13 @@
         <v>0.026999999999999996</v>
       </c>
       <c r="B40">
-        <v>7.26068690436571</v>
+        <v>7.260686904365709</v>
       </c>
       <c r="C40">
         <v>9.258233407286481e-7</v>
       </c>
       <c r="D40">
-        <v>4.7280843883753574e-5</v>
+        <v>4.728084388375357e-5</v>
       </c>
       <c r="E40">
         <v>0.0019438057469243473</v>
@@ -1820,7 +1820,7 @@
         <v>0.028999999999999998</v>
       </c>
       <c r="B41">
-        <v>7.263561687494941</v>
+        <v>7.26356168749494</v>
       </c>
       <c r="C41">
         <v>9.055387700896936e-7</v>
@@ -1829,10 +1829,10 @@
         <v>5.2701116832478624e-5</v>
       </c>
       <c r="E41">
-        <v>0.0019448561934096872</v>
+        <v>0.0019448561934096876</v>
       </c>
       <c r="F41">
-        <v>4.842104218000005e-5</v>
+        <v>4.842104218000004e-5</v>
       </c>
       <c r="G41">
         <v>7.263561008519358</v>
@@ -1855,7 +1855,7 @@
         <v>0.031</v>
       </c>
       <c r="B42">
-        <v>7.266411076455954</v>
+        <v>7.266411076455955</v>
       </c>
       <c r="C42">
         <v>8.886964689017243e-7</v>
@@ -1864,7 +1864,7 @@
         <v>5.8125366357681113e-5</v>
       </c>
       <c r="E42">
-        <v>0.0019459012536947068</v>
+        <v>0.0019459012536947066</v>
       </c>
       <c r="F42">
         <v>4.843050786164369e-5</v>
@@ -1890,19 +1890,19 @@
         <v>0.033</v>
       </c>
       <c r="B43">
-        <v>7.269229495617752</v>
+        <v>7.269229495617753</v>
       </c>
       <c r="C43">
         <v>8.731370770338888e-7</v>
       </c>
       <c r="D43">
-        <v>6.355213785221227e-5</v>
+        <v>6.355213785221226e-5</v>
       </c>
       <c r="E43">
-        <v>0.0019469401789118286</v>
+        <v>0.0019469401789118281</v>
       </c>
       <c r="F43">
-        <v>4.8439969087649396e-5</v>
+        <v>4.84399690876494e-5</v>
       </c>
       <c r="G43">
         <v>7.269229448498782</v>
@@ -1966,13 +1966,13 @@
         <v>8.43042516102949e-7</v>
       </c>
       <c r="D45">
-        <v>7.44112375464573e-5</v>
+        <v>7.441123754645728e-5</v>
       </c>
       <c r="E45">
         <v>0.0019489990727088455</v>
       </c>
       <c r="F45">
-        <v>4.8458875392906305e-5</v>
+        <v>4.845887539290632e-5</v>
       </c>
       <c r="G45">
         <v>7.274767780447929</v>
@@ -1995,19 +1995,19 @@
         <v>0.03899999999999999</v>
       </c>
       <c r="B46">
-        <v>7.277487606350887</v>
+        <v>7.277487606350886</v>
       </c>
       <c r="C46">
         <v>8.281068749640652e-7</v>
       </c>
       <c r="D46">
-        <v>7.984322736166282e-5</v>
+        <v>7.984322736166281e-5</v>
       </c>
       <c r="E46">
-        <v>0.001950019178034082</v>
+        <v>0.0019500191780340822</v>
       </c>
       <c r="F46">
-        <v>4.846832010616382e-5</v>
+        <v>4.846832010616383e-5</v>
       </c>
       <c r="G46">
         <v>7.2774876393179815</v>
@@ -2074,7 +2074,7 @@
         <v>9.071177668032682e-5</v>
       </c>
       <c r="E48">
-        <v>0.0019520413471308547</v>
+        <v>0.001952041347130855</v>
       </c>
       <c r="F48">
         <v>4.848719256051187e-5</v>
@@ -2100,13 +2100,13 @@
         <v>0.045</v>
       </c>
       <c r="B49">
-        <v>7.28545560671297</v>
+        <v>7.2854556067129685</v>
       </c>
       <c r="C49">
         <v>7.833399440642403e-7</v>
       </c>
       <c r="D49">
-        <v>9.61482602897758e-5</v>
+        <v>9.614826028977586e-5</v>
       </c>
       <c r="E49">
         <v>0.0019530436832914404</v>
@@ -2141,13 +2141,13 @@
         <v>7.6841915013971e-7</v>
       </c>
       <c r="D50">
-        <v>0.0001015861713773995</v>
+        <v>0.00010158617137739947</v>
       </c>
       <c r="E50">
         <v>0.001954040364646046</v>
       </c>
       <c r="F50">
-        <v>4.850604251188803e-5</v>
+        <v>4.850604251188804e-5</v>
       </c>
       <c r="G50">
         <v>7.288049536174036</v>
@@ -2170,19 +2170,19 @@
         <v>0.049</v>
       </c>
       <c r="B51">
-        <v>7.290613226895338</v>
+        <v>7.290613226895337</v>
       </c>
       <c r="C51">
         <v>7.534983839866728e-7</v>
       </c>
       <c r="D51">
-        <v>0.00010702547777128132</v>
+        <v>0.00010702547777128126</v>
       </c>
       <c r="E51">
-        <v>0.0019550315199356482</v>
+        <v>0.0019550315199356487</v>
       </c>
       <c r="F51">
-        <v>4.851545911000847e-5</v>
+        <v>4.851545911000848e-5</v>
       </c>
       <c r="G51">
         <v>7.2906132532642305</v>
@@ -2240,19 +2240,19 @@
         <v>0.05299999999999999</v>
       </c>
       <c r="B53">
-        <v>7.295652129062113</v>
+        <v>7.295652129062112</v>
       </c>
       <c r="C53">
         <v>7.236568627038564e-7</v>
       </c>
       <c r="D53">
-        <v>0.00011790815246509934</v>
+        <v>0.0001179081524650994</v>
       </c>
       <c r="E53">
         <v>0.0019569977495539795</v>
       </c>
       <c r="F53">
-        <v>4.853427568416995e-5</v>
+        <v>4.8534275684169944e-5</v>
       </c>
       <c r="G53">
         <v>7.295652152418172</v>
@@ -2275,19 +2275,19 @@
         <v>0.05499999999999999</v>
       </c>
       <c r="B54">
-        <v>7.2981282945888415</v>
+        <v>7.298128294588841</v>
       </c>
       <c r="C54">
         <v>7.08736102626351e-7</v>
       </c>
       <c r="D54">
-        <v>0.00012335146091025664</v>
+        <v>0.0001233514609102566</v>
       </c>
       <c r="E54">
         <v>0.0019579730639041407</v>
       </c>
       <c r="F54">
-        <v>4.8543675715966355e-5</v>
+        <v>4.854367571596635e-5</v>
       </c>
       <c r="G54">
         <v>7.298128316526441</v>
@@ -2310,7 +2310,7 @@
         <v>0.056999999999999995</v>
       </c>
       <c r="B55">
-        <v>7.300576241695499</v>
+        <v>7.300576241695498</v>
       </c>
       <c r="C55">
         <v>6.938153425681516e-7</v>
@@ -2322,7 +2322,7 @@
         <v>0.0019589433324378497</v>
       </c>
       <c r="F55">
-        <v>4.855307028264102e-5</v>
+        <v>4.8553070282641016e-5</v>
       </c>
       <c r="G55">
         <v>7.300576262271417</v>
@@ -2351,7 +2351,7 @@
         <v>6.788945825126028e-7</v>
       </c>
       <c r="D56">
-        <v>0.00013424187648667093</v>
+        <v>0.0001342418764866709</v>
       </c>
       <c r="E56">
         <v>0.0019599086670316584</v>
@@ -2491,13 +2491,13 @@
         <v>6.192115422916889e-7</v>
       </c>
       <c r="D60">
-        <v>0.00015603714702975028</v>
+        <v>0.0001560371470297503</v>
       </c>
       <c r="E60">
-        <v>0.00196372279792287</v>
+        <v>0.0019637227979228695</v>
       </c>
       <c r="F60">
-        <v>4.859996219669813e-5</v>
+        <v>4.859996219669814e-5</v>
       </c>
       <c r="G60">
         <v>7.312408746766156</v>
@@ -2520,7 +2520,7 @@
         <v>0.06899999999999999</v>
       </c>
       <c r="B61">
-        <v>7.314696862210565</v>
+        <v>7.314696862210564</v>
       </c>
       <c r="C61">
         <v>6.042907822364494e-7</v>
@@ -2529,7 +2529,7 @@
         <v>0.0001614888239092217</v>
       </c>
       <c r="E61">
-        <v>0.0019646650366394167</v>
+        <v>0.001964665036639417</v>
       </c>
       <c r="F61">
         <v>4.8609324614561266e-5</v>
@@ -2555,13 +2555,13 @@
         <v>0.071</v>
       </c>
       <c r="B62">
-        <v>7.3169598561688245</v>
+        <v>7.316959856168824</v>
       </c>
       <c r="C62">
         <v>5.893700221812099e-7</v>
       </c>
       <c r="D62">
-        <v>0.0001669415961366784</v>
+        <v>0.00016694159613667836</v>
       </c>
       <c r="E62">
         <v>0.0019656029513453774</v>
@@ -2596,10 +2596,10 @@
         <v>5.744492621259814e-7</v>
       </c>
       <c r="D63">
-        <v>0.00017239544066354845</v>
+        <v>0.0001723954406635484</v>
       </c>
       <c r="E63">
-        <v>0.001966536634293794</v>
+        <v>0.0019665366342937946</v>
       </c>
       <c r="F63">
         <v>4.862803374345943e-5</v>
@@ -2625,16 +2625,16 @@
         <v>0.075</v>
       </c>
       <c r="B64">
-        <v>7.321412052580755</v>
+        <v>7.3214120525807544</v>
       </c>
       <c r="C64">
         <v>5.595285020707751e-7</v>
       </c>
       <c r="D64">
-        <v>0.00017785033505337834</v>
+        <v>0.0001778503350533784</v>
       </c>
       <c r="E64">
-        <v>0.0019674661752690902</v>
+        <v>0.0019674661752690907</v>
       </c>
       <c r="F64">
         <v>4.863738052064494e-5</v>
@@ -2701,7 +2701,7 @@
         <v>5.296869819603402e-7</v>
       </c>
       <c r="D66">
-        <v>0.0001887631866251848</v>
+        <v>0.00018876318662518478</v>
       </c>
       <c r="E66">
         <v>0.0019693131785468087</v>
@@ -2730,13 +2730,13 @@
         <v>0.081</v>
       </c>
       <c r="B67">
-        <v>7.327911723391195</v>
+        <v>7.327911723391194</v>
       </c>
       <c r="C67">
         <v>5.147662219051228e-7</v>
       </c>
       <c r="D67">
-        <v>0.00019422110182967786</v>
+        <v>0.0001942211018296779</v>
       </c>
       <c r="E67">
         <v>0.0019702308087442984</v>
@@ -2771,13 +2771,13 @@
         <v>4.998454618498942e-7</v>
       </c>
       <c r="D68">
-        <v>0.00019967998290774169</v>
+        <v>0.00019967998290774166</v>
       </c>
       <c r="E68">
         <v>0.0019711446328982613</v>
       </c>
       <c r="F68">
-        <v>4.867471649854688e-5</v>
+        <v>4.867471649854689e-5</v>
       </c>
       <c r="G68">
         <v>7.330032162514664</v>
@@ -2841,7 +2841,7 @@
         <v>4.700039417394594e-7</v>
       </c>
       <c r="D70">
-        <v>0.00021060056461595818</v>
+        <v>0.0002106005646159582</v>
       </c>
       <c r="E70">
         <v>0.0019729611751426127</v>
@@ -2870,13 +2870,13 @@
         <v>0.08900000000000001</v>
       </c>
       <c r="B71">
-        <v>7.336260120826702</v>
+        <v>7.336260120826701</v>
       </c>
       <c r="C71">
         <v>4.5508318168425303e-7</v>
       </c>
       <c r="D71">
-        <v>0.00021606222746824305</v>
+        <v>0.00021606222746824302</v>
       </c>
       <c r="E71">
         <v>0.001973864044204413</v>
@@ -2905,19 +2905,19 @@
         <v>0.091</v>
       </c>
       <c r="B72">
-        <v>7.338292820903114</v>
+        <v>7.3382928209031135</v>
       </c>
       <c r="C72">
         <v>4.401624216289804e-7</v>
       </c>
       <c r="D72">
-        <v>0.0002215247806082072</v>
+        <v>0.00022152478060820724</v>
       </c>
       <c r="E72">
         <v>0.0019747634092876125</v>
       </c>
       <c r="F72">
-        <v>4.871197230613403e-5</v>
+        <v>4.871197230613404e-5</v>
       </c>
       <c r="G72">
         <v>7.338292825714097</v>
@@ -2984,7 +2984,7 @@
         <v>0.00023245248740358474</v>
       </c>
       <c r="E74">
-        <v>0.001976551908484308</v>
+        <v>0.0019765519084843077</v>
       </c>
       <c r="F74">
         <v>4.8730570835884444e-5</v>
@@ -3010,19 +3010,19 @@
         <v>0.09699999999999999</v>
       </c>
       <c r="B75">
-        <v>7.344265717396572</v>
+        <v>7.3442657173965715</v>
       </c>
       <c r="C75">
         <v>3.9540014146333913e-7</v>
       </c>
       <c r="D75">
-        <v>0.0002379176069976141</v>
+        <v>0.00023791760699761407</v>
       </c>
       <c r="E75">
         <v>0.00197744117860187</v>
       </c>
       <c r="F75">
-        <v>4.8739862878635076e-5</v>
+        <v>4.873986287863508e-5</v>
       </c>
       <c r="G75">
         <v>7.344265720631706</v>
@@ -3051,13 +3051,13 @@
         <v>3.804793814081217e-7</v>
       </c>
       <c r="D76">
-        <v>0.0002433835487301468</v>
+        <v>0.0002433835487301469</v>
       </c>
       <c r="E76">
-        <v>0.001978327216855838</v>
+        <v>0.0019783272168558373</v>
       </c>
       <c r="F76">
-        <v>4.874915015293132e-5</v>
+        <v>4.874915015293131e-5</v>
       </c>
       <c r="G76">
         <v>7.3462160180432825</v>
@@ -3185,16 +3185,16 @@
         <v>0.107</v>
       </c>
       <c r="B80">
-        <v>7.353822036923297</v>
+        <v>7.353822036923298</v>
       </c>
       <c r="C80">
         <v>3.2079634118728515e-7</v>
       </c>
       <c r="D80">
-        <v>0.00026525522342437356</v>
+        <v>0.0002652552234243735</v>
       </c>
       <c r="E80">
-        <v>0.0019818403026319056</v>
+        <v>0.001981840302631905</v>
       </c>
       <c r="F80">
         <v>4.8786252259109445e-5</v>
@@ -3226,13 +3226,13 @@
         <v>3.058755811320235e-7</v>
       </c>
       <c r="D81">
-        <v>0.0002707250440053705</v>
+        <v>0.00027072504400537056</v>
       </c>
       <c r="E81">
         <v>0.001982711106549739</v>
       </c>
       <c r="F81">
-        <v>4.879551621084892e-5</v>
+        <v>4.879551621084891e-5</v>
       </c>
       <c r="G81">
         <v>7.3556762164606555</v>
@@ -3261,7 +3261,7 @@
         <v>2.909548210768282e-7</v>
       </c>
       <c r="D82">
-        <v>0.00027619559662188646</v>
+        <v>0.0002761955966218864</v>
       </c>
       <c r="E82">
         <v>0.0019835790379980163</v>
@@ -3290,16 +3290,16 @@
         <v>0.113</v>
       </c>
       <c r="B83">
-        <v>7.3593297542105125</v>
+        <v>7.359329754210513</v>
       </c>
       <c r="C83">
         <v>2.760340610215942e-7</v>
       </c>
       <c r="D83">
-        <v>0.0002816668675233549</v>
+        <v>0.00028166686752335477</v>
       </c>
       <c r="E83">
-        <v>0.001984444151781504</v>
+        <v>0.0019844441517815046</v>
       </c>
       <c r="F83">
         <v>4.881403046564046e-5</v>
@@ -3325,7 +3325,7 @@
         <v>0.115</v>
       </c>
       <c r="B84">
-        <v>7.361129656764612</v>
+        <v>7.361129656764613</v>
       </c>
       <c r="C84">
         <v>2.6111330096639884e-7</v>
@@ -3366,7 +3366,7 @@
         <v>2.4619254091116484e-7</v>
       </c>
       <c r="D85">
-        <v>0.00029261151084003257</v>
+        <v>0.0002926115108400327</v>
       </c>
       <c r="E85">
         <v>0.001986166138895179</v>
@@ -3395,16 +3395,16 @@
         <v>0.11900000000000001</v>
       </c>
       <c r="B86">
-        <v>7.3646770458809</v>
+        <v>7.364677045880899</v>
       </c>
       <c r="C86">
         <v>2.3127178085593087e-7</v>
       </c>
       <c r="D86">
-        <v>0.000298084857386633</v>
+        <v>0.00029808485738663294</v>
       </c>
       <c r="E86">
-        <v>0.0019870231152726014</v>
+        <v>0.001987023115272602</v>
       </c>
       <c r="F86">
         <v>4.884176823890357e-5</v>
@@ -3436,7 +3436,7 @@
         <v>2.1635102080071345e-7</v>
       </c>
       <c r="D87">
-        <v>0.0003035588704625982</v>
+        <v>0.00030355887046259816</v>
       </c>
       <c r="E87">
         <v>0.0019878774801539395</v>
@@ -3465,16 +3465,16 @@
         <v>0.12299999999999998</v>
       </c>
       <c r="B88">
-        <v>7.3681562459551015</v>
+        <v>7.368156245955103</v>
       </c>
       <c r="C88">
         <v>2.0143026074547946e-7</v>
       </c>
       <c r="D88">
-        <v>0.0003090335378947584</v>
+        <v>0.00030903353789475836</v>
       </c>
       <c r="E88">
-        <v>0.0019887292820044396</v>
+        <v>0.001988729282004439</v>
       </c>
       <c r="F88">
         <v>4.8860238077680444e-5</v>
@@ -3500,19 +3500,19 @@
         <v>0.125</v>
       </c>
       <c r="B89">
-        <v>7.369870894255763</v>
+        <v>7.3698708942557625</v>
       </c>
       <c r="C89">
         <v>1.865095006902786e-7</v>
       </c>
       <c r="D89">
-        <v>0.0003145088477988811</v>
+        <v>0.00031450884779888103</v>
       </c>
       <c r="E89">
-        <v>0.0019895785681286905</v>
+        <v>0.001989578568128691</v>
       </c>
       <c r="F89">
-        <v>4.8869466494989904e-5</v>
+        <v>4.886946649498991e-5</v>
       </c>
       <c r="G89">
         <v>7.369870893710599</v>
@@ -3547,7 +3547,7 @@
         <v>0.001990425384703711</v>
       </c>
       <c r="F90">
-        <v>4.88786906220748e-5</v>
+        <v>4.8878690622074796e-5</v>
       </c>
       <c r="G90">
         <v>7.371569228376535</v>
@@ -3576,10 +3576,10 @@
         <v>1.566679805798879e-7</v>
       </c>
       <c r="D91">
-        <v>0.0003254613488818801</v>
+        <v>0.00032546134888188007</v>
       </c>
       <c r="E91">
-        <v>0.001991269776810977</v>
+        <v>0.0019912697768109775</v>
       </c>
       <c r="F91">
         <v>4.888791049209478e-5</v>
@@ -3605,7 +3605,7 @@
         <v>0.131</v>
       </c>
       <c r="B92">
-        <v>7.374917893716074</v>
+        <v>7.3749178937160735</v>
       </c>
       <c r="C92">
         <v>1.4174722052461526e-7</v>
@@ -3617,7 +3617,7 @@
         <v>0.0019921117884674306</v>
       </c>
       <c r="F92">
-        <v>4.8897126138032714e-5</v>
+        <v>4.889712613803271e-5</v>
       </c>
       <c r="G92">
         <v>7.374917893009871</v>
@@ -3646,7 +3646,7 @@
         <v>1.2682646046942545e-7</v>
       </c>
       <c r="D93">
-        <v>0.0003364162841116571</v>
+        <v>0.00033641628411165713</v>
       </c>
       <c r="E93">
         <v>0.001992951462655489</v>
@@ -3675,7 +3675,7 @@
         <v>0.135</v>
       </c>
       <c r="B94">
-        <v>7.3782040686637425</v>
+        <v>7.378204068663743</v>
       </c>
       <c r="C94">
         <v>1.1190570041419145e-7</v>
@@ -3687,7 +3687,7 @@
         <v>0.001993788841352108</v>
       </c>
       <c r="F94">
-        <v>4.891554488867508e-5</v>
+        <v>4.8915544888675076e-5</v>
       </c>
       <c r="G94">
         <v>7.378204067958787</v>
@@ -3757,7 +3757,7 @@
         <v>0.001995456875319443</v>
       </c>
       <c r="F96">
-        <v>4.89339471341162e-5</v>
+        <v>4.8933947134116206e-5</v>
       </c>
       <c r="G96">
         <v>7.38142951462995</v>
@@ -3786,10 +3786,10 @@
         <v>6.714342024853088e-8</v>
       </c>
       <c r="D97">
-        <v>0.00035833311901072316</v>
+        <v>0.0003583331190107231</v>
       </c>
       <c r="E97">
-        <v>0.001996287609765537</v>
+        <v>0.0019962876097655373</v>
       </c>
       <c r="F97">
         <v>4.89431421478114e-5</v>
@@ -3824,7 +3824,7 @@
         <v>0.00036381372019088983</v>
       </c>
       <c r="E98">
-        <v>0.0019971162071228806</v>
+        <v>0.00199711620712288</v>
       </c>
       <c r="F98">
         <v>4.895233313130935e-5</v>
@@ -3856,7 +3856,7 @@
         <v>3.7301900138105e-8</v>
       </c>
       <c r="D99">
-        <v>0.00036929485921273416</v>
+        <v>0.0003692948592127342</v>
       </c>
       <c r="E99">
         <v>0.0019979427047457543</v>
@@ -3891,7 +3891,7 @@
         <v>2.238114008287239e-8</v>
       </c>
       <c r="D100">
-        <v>0.00037477652688304235</v>
+        <v>0.0003747765268830424</v>
       </c>
       <c r="E100">
         <v>0.001998767139139007</v>
@@ -3920,7 +3920,7 @@
         <v>0.14900000000000002</v>
       </c>
       <c r="B101">
-        <v>7.389238431887396</v>
+        <v>7.389238431887395</v>
       </c>
       <c r="C101">
         <v>7.460380027677398e-9</v>
@@ -3932,7 +3932,7 @@
         <v>0.0019995895459812758</v>
       </c>
       <c r="F101">
-        <v>4.8979882215591805e-5</v>
+        <v>4.89798822155918e-5</v>
       </c>
       <c r="G101">
         <v>7.389238431808995</v>

--- a/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform_analytical.solution.xlsx
@@ -455,34 +455,34 @@
         <v>-0.049</v>
       </c>
       <c r="B2">
-        <v>8.135096413656665</v>
+        <v>8.135096413656667</v>
       </c>
       <c r="C2">
         <v>0.00024547421372916374</v>
       </c>
       <c r="D2">
-        <v>-2.297460982976381e-7</v>
+        <v>-2.297460982976439e-7</v>
       </c>
       <c r="E2">
-        <v>0.0019990932980627593</v>
+        <v>0.001999093298062759</v>
       </c>
       <c r="F2">
         <v>4.895850065801972e-5</v>
       </c>
       <c r="G2">
-        <v>8.135096420964159</v>
+        <v>8.135096420964155</v>
       </c>
       <c r="H2">
-        <v>0.00024547421498519916</v>
+        <v>0.0002454742149851991</v>
       </c>
       <c r="I2">
-        <v>-2.2974716097821093e-7</v>
+        <v>-2.297471609780252e-7</v>
       </c>
       <c r="J2">
-        <v>0.001999093299017627</v>
+        <v>0.001999093299017785</v>
       </c>
       <c r="K2">
-        <v>4.895850067704521e-5</v>
+        <v>4.89585006770464e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -496,28 +496,28 @@
         <v>0.00023642264118749144</v>
       </c>
       <c r="D3">
-        <v>-6.889671100388418e-7</v>
+        <v>-6.889671100388616e-7</v>
       </c>
       <c r="E3">
-        <v>0.0019972577771782316</v>
+        <v>0.001997257777178231</v>
       </c>
       <c r="F3">
-        <v>4.890697463079368e-5</v>
+        <v>4.890697463079369e-5</v>
       </c>
       <c r="G3">
-        <v>8.104388964815012</v>
+        <v>8.104388964815007</v>
       </c>
       <c r="H3">
-        <v>0.00023642264490356194</v>
+        <v>0.0002364226449035617</v>
       </c>
       <c r="I3">
-        <v>-6.889703013744268e-7</v>
+        <v>-6.889703013738698e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019972577800454797</v>
+        <v>0.0019972577800459533</v>
       </c>
       <c r="K3">
-        <v>4.8906974684556897e-5</v>
+        <v>4.890697468456046e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -525,34 +525,34 @@
         <v>-0.045</v>
       </c>
       <c r="B4">
-        <v>8.072458785385553</v>
+        <v>8.072458785385555</v>
       </c>
       <c r="C4">
         <v>0.00022737106864582178</v>
       </c>
       <c r="D4">
-        <v>-1.1477765258355278e-6</v>
+        <v>-1.147776525835535e-6</v>
       </c>
       <c r="E4">
-        <v>0.001995389575056423</v>
+        <v>0.0019953895750564224</v>
       </c>
       <c r="F4">
         <v>4.885618896323904e-5</v>
       </c>
       <c r="G4">
-        <v>8.07245882258346</v>
+        <v>8.072458822583464</v>
       </c>
       <c r="H4">
-        <v>0.0002273710747136986</v>
+        <v>0.0002273710747136982</v>
       </c>
       <c r="I4">
-        <v>-1.1477818514536477e-6</v>
+        <v>-1.1477818514527198e-6</v>
       </c>
       <c r="J4">
-        <v>0.0019953895797546416</v>
+        <v>0.00199538957975543</v>
       </c>
       <c r="K4">
-        <v>4.885618904805255e-5</v>
+        <v>4.885618904805851e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -566,28 +566,28 @@
         <v>0.00021831949610417155</v>
       </c>
       <c r="D5">
-        <v>-1.606105825308922e-6</v>
+        <v>-1.6061058253089436e-6</v>
       </c>
       <c r="E5">
         <v>0.0019934845026519884</v>
       </c>
       <c r="F5">
-        <v>4.880639635910192e-5</v>
+        <v>4.8806396359101925e-5</v>
       </c>
       <c r="G5">
-        <v>8.039295480982812</v>
+        <v>8.039295480982833</v>
       </c>
       <c r="H5">
-        <v>0.00021831950441562146</v>
+        <v>0.0002183195044156209</v>
       </c>
       <c r="I5">
-        <v>-1.606113290553638e-6</v>
+        <v>-1.6061132905523408e-6</v>
       </c>
       <c r="J5">
-        <v>0.0019934845091016495</v>
+        <v>0.0019934845091027515</v>
       </c>
       <c r="K5">
-        <v>4.880639647100916e-5</v>
+        <v>4.8806396471017515e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -601,28 +601,28 @@
         <v>0.00020926792356265546</v>
       </c>
       <c r="D6">
-        <v>-2.0638761618556105e-6</v>
+        <v>-2.0638761618556147e-6</v>
       </c>
       <c r="E6">
-        <v>0.0019915380062756082</v>
+        <v>0.0019915380062756087</v>
       </c>
       <c r="F6">
-        <v>4.875787685204749e-5</v>
+        <v>4.8757876852047495e-5</v>
       </c>
       <c r="G6">
-        <v>8.004912800167105</v>
+        <v>8.004912800167155</v>
       </c>
       <c r="H6">
-        <v>0.00020926793400941686</v>
+        <v>0.00020926793400941616</v>
       </c>
       <c r="I6">
-        <v>-2.063885771757132e-6</v>
+        <v>-2.0638857717554657e-6</v>
       </c>
       <c r="J6">
-        <v>0.001991538014398704</v>
+        <v>0.0019915380144001184</v>
       </c>
       <c r="K6">
-        <v>4.875787698682899e-5</v>
+        <v>4.875787698683974e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -630,13 +630,13 @@
         <v>-0.03900000000000001</v>
       </c>
       <c r="B7">
-        <v>7.969355790380776</v>
+        <v>7.969355790380774</v>
       </c>
       <c r="C7">
         <v>0.0002002163510219987</v>
       </c>
       <c r="D7">
-        <v>-2.520998152453509e-6</v>
+        <v>-2.5209981524535105e-6</v>
       </c>
       <c r="E7">
         <v>0.001989545266093469</v>
@@ -645,19 +645,19 @@
         <v>4.871093301980243e-5</v>
       </c>
       <c r="G7">
-        <v>7.969355873247062</v>
+        <v>7.969355873247153</v>
       </c>
       <c r="H7">
-        <v>0.00020021636349564314</v>
+        <v>0.00020021636349564235</v>
       </c>
       <c r="I7">
-        <v>-2.5210099117696397e-6</v>
+        <v>-2.5210099117676064e-6</v>
       </c>
       <c r="J7">
-        <v>0.001989545275812739</v>
+        <v>0.0019895452758144647</v>
       </c>
       <c r="K7">
-        <v>4.871093317300394e-5</v>
+        <v>4.8710933173017096e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -665,34 +665,34 @@
         <v>-0.037000000000000005</v>
       </c>
       <c r="B8">
-        <v>7.932707429996983</v>
+        <v>7.9327074299969835</v>
       </c>
       <c r="C8">
         <v>0.00019116477848642389</v>
       </c>
       <c r="D8">
-        <v>-2.977372439391187e-6</v>
+        <v>-2.977372439391178e-6</v>
       </c>
       <c r="E8">
-        <v>0.001987501358181502</v>
+        <v>0.0019875013581815023</v>
       </c>
       <c r="F8">
         <v>4.866588133692536e-5</v>
       </c>
       <c r="G8">
-        <v>7.932707527487691</v>
+        <v>7.932707527487834</v>
       </c>
       <c r="H8">
-        <v>0.00019116479287762737</v>
+        <v>0.00019116479287762647</v>
       </c>
       <c r="I8">
-        <v>-2.9773863530382745e-6</v>
+        <v>-2.977386353035878e-6</v>
       </c>
       <c r="J8">
-        <v>0.0019875013694190024</v>
+        <v>0.0019875013694210385</v>
       </c>
       <c r="K8">
-        <v>4.8665881503912734e-5</v>
+        <v>4.8665881503928285e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -706,28 +706,28 @@
         <v>0.0001821132059786206</v>
       </c>
       <c r="D9">
-        <v>-3.4328912973124923e-6</v>
+        <v>-3.4328912973124915e-6</v>
       </c>
       <c r="E9">
-        <v>0.001985401485111393</v>
+        <v>0.0019854014851113924</v>
       </c>
       <c r="F9">
         <v>4.862303920550112e-5</v>
       </c>
       <c r="G9">
-        <v>7.895093231831614</v>
+        <v>7.8950932318318205</v>
       </c>
       <c r="H9">
-        <v>0.00018211322217364273</v>
+        <v>0.00018211322217364176</v>
       </c>
       <c r="I9">
-        <v>-3.4329073726491638e-6</v>
+        <v>-3.432907372646406e-6</v>
       </c>
       <c r="J9">
-        <v>0.001985401497785662</v>
+        <v>0.0019854014977880056</v>
       </c>
       <c r="K9">
-        <v>4.862303938153638e-5</v>
+        <v>4.862303938155433e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,34 +735,34 @@
         <v>-0.033</v>
       </c>
       <c r="B10">
-        <v>7.856682767968634</v>
+        <v>7.856682767968635</v>
       </c>
       <c r="C10">
         <v>0.00017306163361104093</v>
       </c>
       <c r="D10">
-        <v>-3.887441449188113e-6</v>
+        <v>-3.887441449188121e-6</v>
       </c>
       <c r="E10">
-        <v>0.0019832412664076084</v>
+        <v>0.001983241266407608</v>
       </c>
       <c r="F10">
         <v>4.8582707981164e-5</v>
       </c>
       <c r="G10">
-        <v>7.8566828918043905</v>
+        <v>7.856682891804674</v>
       </c>
       <c r="H10">
-        <v>0.00017306165147617966</v>
+        <v>0.00017306165147617863</v>
       </c>
       <c r="I10">
-        <v>-3.887459706272403e-6</v>
+        <v>-3.887459706269289e-6</v>
       </c>
       <c r="J10">
-        <v>0.001983241280426482</v>
+        <v>0.001983241280429132</v>
       </c>
       <c r="K10">
-        <v>4.8582708161459184e-5</v>
+        <v>4.858270816147949e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,13 +770,13 @@
         <v>-0.031</v>
       </c>
       <c r="B11">
-        <v>7.8176879509839905</v>
+        <v>7.817687950983991</v>
       </c>
       <c r="C11">
         <v>0.00016401006189765486</v>
       </c>
       <c r="D11">
-        <v>-4.3409079622458175e-6</v>
+        <v>-4.34090796224581e-6</v>
       </c>
       <c r="E11">
         <v>0.0019810170613944584</v>
@@ -785,19 +785,19 @@
         <v>4.8545153443123554e-5</v>
       </c>
       <c r="G11">
-        <v>7.81768808537922</v>
+        <v>7.81768808537959</v>
       </c>
       <c r="H11">
-        <v>0.0001640100812165611</v>
+        <v>0.00016401008121655998</v>
       </c>
       <c r="I11">
-        <v>-4.340928475299915e-6</v>
+        <v>-4.340928475296451e-6</v>
       </c>
       <c r="J11">
-        <v>0.00198101707663189</v>
+        <v>0.0019810170766348437</v>
       </c>
       <c r="K11">
-        <v>4.854515362271428e-5</v>
+        <v>4.854515362273692e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,13 +805,13 @@
         <v>-0.029000000000000005</v>
       </c>
       <c r="B12">
-        <v>7.778353772737129</v>
+        <v>7.778353772737128</v>
       </c>
       <c r="C12">
         <v>0.00015495849300433697</v>
       </c>
       <c r="D12">
-        <v>-4.793178459866301e-6</v>
+        <v>-4.793178459866297e-6</v>
       </c>
       <c r="E12">
         <v>0.0019787262783050345</v>
@@ -820,19 +820,19 @@
         <v>4.851058635186591e-5</v>
       </c>
       <c r="G12">
-        <v>7.778353914019619</v>
+        <v>7.7783539140200855</v>
       </c>
       <c r="H12">
-        <v>0.00015495851324758136</v>
+        <v>0.00015495851324758017</v>
       </c>
       <c r="I12">
-        <v>-4.793201509603008e-6</v>
+        <v>-4.793201509599201e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019787262945200374</v>
+        <v>0.0019787262945232913</v>
       </c>
       <c r="K12">
-        <v>4.85105865248265e-5</v>
+        <v>4.8510586524851434e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -840,13 +840,13 @@
         <v>-0.027000000000000003</v>
       </c>
       <c r="B13">
-        <v>7.73894566872242</v>
+        <v>7.738945668722421</v>
       </c>
       <c r="C13">
         <v>0.00014590693534374802</v>
       </c>
       <c r="D13">
-        <v>-5.244145451398819e-6</v>
+        <v>-5.244145451398821e-6</v>
       </c>
       <c r="E13">
         <v>0.0019763676139495897</v>
@@ -855,19 +855,19 @@
         <v>4.8479146489190035e-5</v>
       </c>
       <c r="G13">
-        <v>7.738945808236293</v>
+        <v>7.738945808236864</v>
       </c>
       <c r="H13">
-        <v>0.00014590695489825802</v>
+        <v>0.00014590695489825678</v>
       </c>
       <c r="I13">
-        <v>-5.2441720336651904e-6</v>
+        <v>-5.2441720336610484e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019763676305123083</v>
+        <v>0.0019763676305158606</v>
       </c>
       <c r="K13">
-        <v>4.8479146645915566e-5</v>
+        <v>4.847914664594277e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,34 +875,34 @@
         <v>-0.025</v>
       </c>
       <c r="B14">
-        <v>7.69973290782491</v>
+        <v>7.699732907824911</v>
       </c>
       <c r="C14">
         <v>0.0001368554190247995</v>
       </c>
       <c r="D14">
-        <v>-5.693701034573965e-6</v>
+        <v>-5.693701034573964e-6</v>
       </c>
       <c r="E14">
         <v>0.001973941176536512</v>
       </c>
       <c r="F14">
-        <v>4.845089338148976e-5</v>
+        <v>4.845089338148977e-5</v>
       </c>
       <c r="G14">
-        <v>7.6997330219473055</v>
+        <v>7.699733021947986</v>
       </c>
       <c r="H14">
-        <v>0.00013685543285627707</v>
+        <v>0.00013685543285627574</v>
       </c>
       <c r="I14">
-        <v>-5.693734400712625e-6</v>
+        <v>-5.693734400708158e-6</v>
       </c>
       <c r="J14">
-        <v>0.0019739411915736813</v>
+        <v>0.001973941191577529</v>
       </c>
       <c r="K14">
-        <v>4.845089350105224e-5</v>
+        <v>4.8450893501081674e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -916,28 +916,28 @@
         <v>0.0001278040433012234</v>
       </c>
       <c r="D15">
-        <v>-6.1417093232670865e-6</v>
+        <v>-6.141709323267086e-6</v>
       </c>
       <c r="E15">
-        <v>0.0019714484740208367</v>
+        <v>0.0019714484740208362</v>
       </c>
       <c r="F15">
         <v>4.842580562696035e-5</v>
       </c>
       <c r="G15">
-        <v>7.660971633229951</v>
+        <v>7.660971633230744</v>
       </c>
       <c r="H15">
-        <v>0.00012780403654420345</v>
+        <v>0.00012780403654420207</v>
       </c>
       <c r="I15">
-        <v>-6.141759195872249e-6</v>
+        <v>-6.141759195867467e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019714484819962365</v>
+        <v>0.001971448482000375</v>
       </c>
       <c r="K15">
-        <v>4.842580565845237e-5</v>
+        <v>4.8425805658484e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -951,28 +951,28 @@
         <v>0.00011875310939136336</v>
       </c>
       <c r="D16">
-        <v>-6.587921171735994e-6</v>
+        <v>-6.587921171736004e-6</v>
       </c>
       <c r="E16">
-        <v>0.0019688922981314708</v>
+        <v>0.001968892298131471</v>
       </c>
       <c r="F16">
-        <v>4.8403788804333704e-5</v>
+        <v>4.840378880433369e-5</v>
       </c>
       <c r="G16">
-        <v>7.62289018216161</v>
+        <v>7.622890182162516</v>
       </c>
       <c r="H16">
-        <v>0.0001187530415391572</v>
+        <v>0.00011875304153915576</v>
       </c>
       <c r="I16">
-        <v>-6.588014120777137e-6</v>
+        <v>-6.588014120772053e-6</v>
       </c>
       <c r="J16">
-        <v>0.001968892283681032</v>
+        <v>0.0019688922836854574</v>
       </c>
       <c r="K16">
-        <v>4.8403788626802944e-5</v>
+        <v>4.8403788626836724e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -986,28 +986,28 @@
         <v>0.00010970345839082353</v>
       </c>
       <c r="D17">
-        <v>-7.031752985692713e-6</v>
+        <v>-7.031752985692707e-6</v>
       </c>
       <c r="E17">
-        <v>0.0019662765935889474</v>
+        <v>0.001966276593588948</v>
       </c>
       <c r="F17">
-        <v>4.838469014113883e-5</v>
+        <v>4.8384690141138834e-5</v>
       </c>
       <c r="G17">
-        <v>7.5856805677742924</v>
+        <v>7.58568056777531</v>
       </c>
       <c r="H17">
-        <v>0.0001097032284651776</v>
+        <v>0.00010970322846517616</v>
       </c>
       <c r="I17">
-        <v>-7.0319552338911484e-6</v>
+        <v>-7.031955233885768e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019662765174934117</v>
+        <v>0.001966276517498121</v>
       </c>
       <c r="K17">
-        <v>4.8384689488155185e-5</v>
+        <v>4.8384689488191086e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.017</v>
       </c>
       <c r="B18">
-        <v>7.549498399787183</v>
+        <v>7.5494983997871845</v>
       </c>
       <c r="C18">
         <v>0.00010065724965973467</v>
       </c>
       <c r="D18">
-        <v>-7.4717768636390565e-6</v>
+        <v>-7.471776863639043e-6</v>
       </c>
       <c r="E18">
-        <v>0.001963606469878319</v>
+        <v>0.0019636064698783187</v>
       </c>
       <c r="F18">
-        <v>4.8368317161177016e-5</v>
+        <v>4.836831716117702e-5</v>
       </c>
       <c r="G18">
-        <v>7.549495890367424</v>
+        <v>7.5494958903685525</v>
       </c>
       <c r="H18">
-        <v>0.00010065662839890745</v>
+        <v>0.00010065662839890597</v>
       </c>
       <c r="I18">
-        <v>-7.472238568187246e-6</v>
+        <v>-7.472238568181581e-6</v>
       </c>
       <c r="J18">
-        <v>0.0019636062408481527</v>
+        <v>0.0019636062408531405</v>
       </c>
       <c r="K18">
-        <v>4.836831549824207e-5</v>
+        <v>4.836831549828004e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1056,28 +1056,28 @@
         <v>9.161957564750329e-5</v>
       </c>
       <c r="D19">
-        <v>-7.904666285620873e-6</v>
+        <v>-7.90466628562086e-6</v>
       </c>
       <c r="E19">
         <v>0.001960888587719133</v>
       </c>
       <c r="F19">
-        <v>4.83544575841723e-5</v>
+        <v>4.8354457584172306e-5</v>
       </c>
       <c r="G19">
-        <v>7.514456077230703</v>
+        <v>7.514456077231938</v>
       </c>
       <c r="H19">
-        <v>9.161809086535942e-5</v>
+        <v>9.161809086535792e-5</v>
       </c>
       <c r="I19">
-        <v>-7.905696162594178e-6</v>
+        <v>-7.905696162588244e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019608880130249575</v>
+        <v>0.0019608880130302184</v>
       </c>
       <c r="K19">
-        <v>4.83544539425575e-5</v>
+        <v>4.835445394259749e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1091,28 +1091,28 @@
         <v>8.2601455478048e-5</v>
       </c>
       <c r="D20">
-        <v>-8.323249188174772e-6</v>
+        <v>-8.323249188174777e-6</v>
       </c>
       <c r="E20">
         <v>0.001958132217328737</v>
       </c>
       <c r="F20">
-        <v>4.8342898421024525e-5</v>
+        <v>4.834289842102452e-5</v>
       </c>
       <c r="G20">
-        <v>7.480661549530129</v>
+        <v>7.480661549531468</v>
       </c>
       <c r="H20">
-        <v>8.259822925884403e-5</v>
+        <v>8.259822925884254e-5</v>
       </c>
       <c r="I20">
-        <v>-8.325420055194045e-6</v>
+        <v>-8.325420055187849e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019581309298425872</v>
+        <v>0.001958130929848117</v>
       </c>
       <c r="K20">
-        <v>4.8342891225583166e-5</v>
+        <v>4.834289122562514e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1126,7 +1126,7 @@
         <v>7.362473302737887e-5</v>
       </c>
       <c r="D21">
-        <v>-8.713335411610664e-6</v>
+        <v>-8.713335411610654e-6</v>
       </c>
       <c r="E21">
         <v>0.0019553512641425335</v>
@@ -1135,19 +1135,19 @@
         <v>4.833344285566858e-5</v>
       </c>
       <c r="G21">
-        <v>7.448214487079949</v>
+        <v>7.448214487081386</v>
       </c>
       <c r="H21">
-        <v>7.361830206623749e-5</v>
+        <v>7.3618302066236e-5</v>
       </c>
       <c r="I21">
-        <v>-8.717599905975844e-6</v>
+        <v>-8.71759990596939e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019553486371576157</v>
+        <v>0.0019553486371634084</v>
       </c>
       <c r="K21">
-        <v>4.83334298308797e-5</v>
+        <v>4.833342983092361e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1161,28 +1161,28 @@
         <v>6.472899932675784e-5</v>
       </c>
       <c r="D22">
-        <v>-9.049253527712212e-6</v>
+        <v>-9.049253527712197e-6</v>
       </c>
       <c r="E22">
         <v>0.0019525673859872945</v>
       </c>
       <c r="F22">
-        <v>4.832592366968158e-5</v>
+        <v>4.8325923669681576e-5</v>
       </c>
       <c r="G22">
-        <v>7.41724567428775</v>
+        <v>7.417245674289281</v>
       </c>
       <c r="H22">
-        <v>6.471720062950433e-5</v>
+        <v>6.471720062950282e-5</v>
       </c>
       <c r="I22">
-        <v>-9.057016359906322e-6</v>
+        <v>-9.057016359899615e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019525624707448753</v>
+        <v>0.0019525624707509243</v>
       </c>
       <c r="K22">
-        <v>4.832590194259312e-5</v>
+        <v>4.832590194263894e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1190,34 +1190,34 @@
         <v>-0.007000000000000003</v>
       </c>
       <c r="B23">
-        <v>7.388013394670867</v>
+        <v>7.3880133946708675</v>
       </c>
       <c r="C23">
         <v>5.5979678520855645e-5</v>
       </c>
       <c r="D23">
-        <v>-9.28866826604591e-6</v>
+        <v>-9.288668266045912e-6</v>
       </c>
       <c r="E23">
-        <v>0.0019498138767987242</v>
+        <v>0.0019498138767987238</v>
       </c>
       <c r="F23">
         <v>4.8320211670301083e-5</v>
       </c>
       <c r="G23">
-        <v>7.387941998868243</v>
+        <v>7.387941998869862</v>
       </c>
       <c r="H23">
-        <v>5.595972917371749e-5</v>
+        <v>5.5959729173716e-5</v>
       </c>
       <c r="I23">
-        <v>-9.301731843305912e-6</v>
+        <v>-9.301731843298952e-6</v>
       </c>
       <c r="J23">
-        <v>0.001949805422105355</v>
+        <v>0.001949805422111655</v>
       </c>
       <c r="K23">
-        <v>4.832017817175302e-5</v>
+        <v>4.8320178171800696e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,34 +1225,34 @@
         <v>-0.0050000000000000044</v>
       </c>
       <c r="B24">
-        <v>7.360674223356879</v>
+        <v>7.360674223356878</v>
       </c>
       <c r="C24">
         <v>4.7474949795932286e-5</v>
       </c>
       <c r="D24">
-        <v>-9.368189058296603e-6</v>
+        <v>-9.368189058296612e-6</v>
       </c>
       <c r="E24">
-        <v>0.0019471392666769022</v>
+        <v>0.0019471392666769024</v>
       </c>
       <c r="F24">
         <v>4.831621735617503e-5</v>
       </c>
       <c r="G24">
-        <v>7.360566055578621</v>
+        <v>7.360566055580325</v>
       </c>
       <c r="H24">
-        <v>4.7443847391512896e-5</v>
+        <v>4.744384739151141e-5</v>
       </c>
       <c r="I24">
-        <v>-9.388491769147636e-6</v>
+        <v>-9.388491769140413e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019471258849752334</v>
+        <v>0.0019471258849817774</v>
       </c>
       <c r="K24">
-        <v>4.831616952536347e-5</v>
+        <v>4.831616952541295e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,7 +1260,7 @@
         <v>-0.0030000000000000027</v>
       </c>
       <c r="B25">
-        <v>7.335608361127835</v>
+        <v>7.335608361127836</v>
       </c>
       <c r="C25">
         <v>3.93478069239658e-5</v>
@@ -1269,25 +1269,25 @@
         <v>-9.202140535981562e-6</v>
       </c>
       <c r="E25">
-        <v>0.001944608827148381</v>
+        <v>0.0019446088271483806</v>
       </c>
       <c r="F25">
-        <v>4.8313884606829624e-5</v>
+        <v>4.831388460682963e-5</v>
       </c>
       <c r="G25">
-        <v>7.335457058297891</v>
+        <v>7.3354570582996725</v>
       </c>
       <c r="H25">
-        <v>3.9303083700160626e-5</v>
+        <v>3.930308370015915e-5</v>
       </c>
       <c r="I25">
-        <v>-9.231268430611643e-6</v>
+        <v>-9.231268430604134e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019445893336823457</v>
+        <v>0.0019445893336891274</v>
       </c>
       <c r="K25">
-        <v>4.8313821249614134e-5</v>
+        <v>4.8313821249665376e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1295,34 +1295,34 @@
         <v>-0.0010000000000000009</v>
       </c>
       <c r="B26">
-        <v>7.313199662374219</v>
+        <v>7.31319966237422</v>
       </c>
       <c r="C26">
         <v>3.1759306835106685e-5</v>
       </c>
       <c r="D26">
-        <v>-8.686992258947113e-6</v>
+        <v>-8.68699225894712e-6</v>
       </c>
       <c r="E26">
-        <v>0.0019423018834549737</v>
+        <v>0.0019423018834549735</v>
       </c>
       <c r="F26">
         <v>4.831317682044425e-5</v>
       </c>
       <c r="G26">
-        <v>7.313004117816894</v>
+        <v>7.313004117818748</v>
       </c>
       <c r="H26">
-        <v>3.1699987850968746e-5</v>
+        <v>3.169998785096729e-5</v>
       </c>
       <c r="I26">
-        <v>-8.725562638004843e-6</v>
+        <v>-8.725562637997002e-6</v>
       </c>
       <c r="J26">
-        <v>0.0019422757495276344</v>
+        <v>0.0019422757495346458</v>
       </c>
       <c r="K26">
-        <v>4.831309883722226e-5</v>
+        <v>4.8313098837275234e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1330,34 +1330,34 @@
         <v>0.0009999999999999974</v>
       </c>
       <c r="B27">
-        <v>7.293823998063808</v>
+        <v>7.293823998063809</v>
       </c>
       <c r="C27">
         <v>2.4880873308263723e-5</v>
       </c>
       <c r="D27">
-        <v>-7.712754185172577e-6</v>
+        <v>-7.712754185172562e-6</v>
       </c>
       <c r="E27">
-        <v>0.0019403035870102783</v>
+        <v>0.001940303587010278</v>
       </c>
       <c r="F27">
         <v>4.831405814816276e-5</v>
       </c>
       <c r="G27">
-        <v>7.293590354168918</v>
+        <v>7.293590354170839</v>
       </c>
       <c r="H27">
-        <v>2.480829639075589e-5</v>
+        <v>2.4808296390754452e-5</v>
       </c>
       <c r="I27">
-        <v>-7.759891734659316e-6</v>
+        <v>-7.759891734651086e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019402713480032243</v>
+        <v>0.001940271348010458</v>
       </c>
       <c r="K27">
-        <v>4.83139688249294e-5</v>
+        <v>4.831396882498406e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1371,7 +1371,7 @@
         <v>1.8867430323902913e-5</v>
       </c>
       <c r="D28">
-        <v>-6.180151001628555e-6</v>
+        <v>-6.180151001628558e-6</v>
       </c>
       <c r="E28">
         <v>0.001938691756001513</v>
@@ -1380,19 +1380,19 @@
         <v>4.831647419607436e-5</v>
       </c>
       <c r="G28">
-        <v>7.2775176078799255</v>
+        <v>7.277517607881906</v>
       </c>
       <c r="H28">
-        <v>1.8785516242042855e-5</v>
+        <v>1.8785516242041432e-5</v>
       </c>
       <c r="I28">
-        <v>-6.233318791599741e-6</v>
+        <v>-6.233318791591037e-6</v>
       </c>
       <c r="J28">
-        <v>0.0019386551674723694</v>
+        <v>0.0019386551674798178</v>
       </c>
       <c r="K28">
-        <v>4.831637887722434e-5</v>
+        <v>4.831637887728062e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1406,7 +1406,7 @@
         <v>1.3827717117345496e-5</v>
       </c>
       <c r="D29">
-        <v>-4.019516595285569e-6</v>
+        <v>-4.019516595285577e-6</v>
       </c>
       <c r="E29">
         <v>0.0019375219031914272</v>
@@ -1415,19 +1415,19 @@
         <v>4.832033690761477e-5</v>
       </c>
       <c r="G29">
-        <v>7.2649318583561895</v>
+        <v>7.264931858358223</v>
       </c>
       <c r="H29">
-        <v>1.3742430882243064e-5</v>
+        <v>1.3742430882241658e-5</v>
       </c>
       <c r="I29">
-        <v>-4.074864904924278e-6</v>
+        <v>-4.074864904915002e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019374837036155907</v>
+        <v>0.0019374837036232456</v>
       </c>
       <c r="K29">
-        <v>4.832024208718436e-5</v>
+        <v>4.832024208724221e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1435,7 +1435,7 @@
         <v>0.006999999999999999</v>
       </c>
       <c r="B30">
-        <v>7.256022879824934</v>
+        <v>7.2560228798249335</v>
       </c>
       <c r="C30">
         <v>9.800937022175098e-6</v>
@@ -1444,25 +1444,25 @@
         <v>-1.2056284846351893e-6</v>
       </c>
       <c r="E30">
-        <v>0.0019368152687688012</v>
+        <v>0.001936815268768801</v>
       </c>
       <c r="F30">
-        <v>4.832551723595654e-5</v>
+        <v>4.8325517235956535e-5</v>
       </c>
       <c r="G30">
-        <v>7.255773208181512</v>
+        <v>7.255773208183593</v>
       </c>
       <c r="H30">
-        <v>9.719022428817262e-6</v>
+        <v>9.71902242881587e-6</v>
       </c>
       <c r="I30">
-        <v>-1.2588071231202622e-6</v>
+        <v>-1.2588071231103043e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019367785786662533</v>
+        <v>0.0019367785786741066</v>
       </c>
       <c r="K30">
-        <v>4.83254293134203e-5</v>
+        <v>4.8325429313479666e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1476,28 +1476,28 @@
         <v>6.747886704808096e-6</v>
       </c>
       <c r="D31">
-        <v>2.2366368292679576e-6</v>
+        <v>2.2366368292679584e-6</v>
       </c>
       <c r="E31">
         <v>0.0019365542767331152</v>
       </c>
       <c r="F31">
-        <v>4.8331847258378495e-5</v>
+        <v>4.83318472583785e-5</v>
       </c>
       <c r="G31">
-        <v>7.249768375148987</v>
+        <v>7.24976837515111</v>
       </c>
       <c r="H31">
-        <v>6.6753087882108176e-6</v>
+        <v>6.675308788209445e-6</v>
       </c>
       <c r="I31">
-        <v>2.1894798208413163e-6</v>
+        <v>2.1894798208520614e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019365218493677932</v>
+        <v>0.0019365218493758373</v>
       </c>
       <c r="K31">
-        <v>4.833177132211246e-5</v>
+        <v>4.83317713221733e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1511,28 +1511,28 @@
         <v>4.55982692992327e-6</v>
       </c>
       <c r="D32">
-        <v>6.237883417440914e-6</v>
+        <v>6.23788341744089e-6</v>
       </c>
       <c r="E32">
-        <v>0.0019366871760536607</v>
+        <v>0.0019366871760536605</v>
       </c>
       <c r="F32">
-        <v>4.833913118771194e-5</v>
+        <v>4.8339131187711945e-5</v>
       </c>
       <c r="G32">
-        <v>7.246469697633124</v>
+        <v>7.246469697635281</v>
       </c>
       <c r="H32">
-        <v>4.500506505113746e-6</v>
+        <v>4.500506505112391e-6</v>
       </c>
       <c r="I32">
-        <v>6.199288272948385e-6</v>
+        <v>6.199288272960014e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019366607944844361</v>
+        <v>0.001936660794492662</v>
       </c>
       <c r="K32">
-        <v>4.833907017827468e-5</v>
+        <v>4.8339070178336964e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1546,7 +1546,7 @@
         <v>3.081833717054476e-6</v>
       </c>
       <c r="D33">
-        <v>1.0698986872225635e-5</v>
+        <v>1.0698986872225629e-5</v>
       </c>
       <c r="E33">
         <v>0.0019371400264466213</v>
@@ -1555,19 +1555,19 @@
         <v>4.8347162648829365e-5</v>
       </c>
       <c r="G33">
-        <v>7.245328612561984</v>
+        <v>7.245328612564172</v>
       </c>
       <c r="H33">
-        <v>3.0371086759007928e-6</v>
+        <v>3.0371086758994557e-6</v>
       </c>
       <c r="I33">
-        <v>1.066983176561024e-5</v>
+        <v>1.0669831765622824e-5</v>
       </c>
       <c r="J33">
-        <v>0.0019371202611141146</v>
+        <v>0.001937120261122514</v>
       </c>
       <c r="K33">
-        <v>4.834711712103753e-5</v>
+        <v>4.834711712110118e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1575,34 +1575,34 @@
         <v>0.015</v>
       </c>
       <c r="B34">
-        <v>7.245871831282373</v>
+        <v>7.245871831282372</v>
       </c>
       <c r="C34">
         <v>2.1424832872932215e-6</v>
       </c>
       <c r="D34">
-        <v>1.5509989442998064e-5</v>
+        <v>1.550998944299808e-5</v>
       </c>
       <c r="E34">
-        <v>0.0019378316055532934</v>
+        <v>0.0019378316055532936</v>
       </c>
       <c r="F34">
         <v>4.835574397385897e-5</v>
       </c>
       <c r="G34">
-        <v>7.245780652645765</v>
+        <v>7.245780652647979</v>
       </c>
       <c r="H34">
-        <v>2.111378768688249e-6</v>
+        <v>2.1113787686869296e-6</v>
       </c>
       <c r="I34">
-        <v>1.548965856858822e-5</v>
+        <v>1.548965856860182e-5</v>
       </c>
       <c r="J34">
-        <v>0.001937817962372195</v>
+        <v>0.0019378179623807603</v>
       </c>
       <c r="K34">
-        <v>4.835571246408068e-5</v>
+        <v>4.8355712464145644e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,13 +1610,13 @@
         <v>0.017</v>
       </c>
       <c r="B35">
-        <v>7.247376042759015</v>
+        <v>7.247376042759014</v>
       </c>
       <c r="C35">
         <v>1.5807187104887417e-6</v>
       </c>
       <c r="D35">
-        <v>2.0567306988707643e-5</v>
+        <v>2.056730698870766e-5</v>
       </c>
       <c r="E35">
         <v>0.0019386864895504516</v>
@@ -1625,19 +1625,19 @@
         <v>4.836470274766052e-5</v>
       </c>
       <c r="G35">
-        <v>7.247317919903853</v>
+        <v>7.247317919906089</v>
       </c>
       <c r="H35">
-        <v>1.5607670430820603e-6</v>
+        <v>1.560767043080759e-6</v>
       </c>
       <c r="I35">
-        <v>2.0554214415158117e-5</v>
+        <v>2.0554214415172768e-5</v>
       </c>
       <c r="J35">
-        <v>0.0019386778097957437</v>
+        <v>0.0019386778098044659</v>
       </c>
       <c r="K35">
-        <v>4.836468254359647e-5</v>
+        <v>4.836468254366269e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1660,19 +1660,19 @@
         <v>4.837390191044249e-5</v>
       </c>
       <c r="G36">
-        <v>7.249533270873204</v>
+        <v>7.249533270875458</v>
       </c>
       <c r="H36">
-        <v>1.25174508918598e-6</v>
+        <v>1.2517450891846966e-6</v>
       </c>
       <c r="I36">
-        <v>2.5777372742639042e-5</v>
+        <v>2.5777372742654776e-5</v>
       </c>
       <c r="J36">
-        <v>0.001939638174779967</v>
+        <v>0.001939638174788837</v>
       </c>
       <c r="K36">
-        <v>4.837388991086944e-5</v>
+        <v>4.837388991093684e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1695,19 +1695,19 @@
         <v>4.838324212538029e-5</v>
       </c>
       <c r="G37">
-        <v>7.252133005926711</v>
+        <v>7.252133005928981</v>
       </c>
       <c r="H37">
-        <v>1.086353218970132e-6</v>
+        <v>1.0863532189688664e-6</v>
       </c>
       <c r="I37">
-        <v>3.109576928930502e-5</v>
+        <v>3.109576928932183e-5</v>
       </c>
       <c r="J37">
-        <v>0.0019406545386053036</v>
+        <v>0.0019406545386143133</v>
       </c>
       <c r="K37">
-        <v>4.8383235514368926e-5</v>
+        <v>4.8383235514437434e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1721,28 +1721,28 @@
         <v>1.0030157624976026e-6</v>
       </c>
       <c r="D38">
-        <v>3.6469570798888853e-5</v>
+        <v>3.646957079888887e-5</v>
       </c>
       <c r="E38">
-        <v>0.0019416993072921215</v>
+        <v>0.0019416993072921213</v>
       </c>
       <c r="F38">
         <v>4.839265771487696e-5</v>
       </c>
       <c r="G38">
-        <v>7.254925341831296</v>
+        <v>7.254925341833577</v>
       </c>
       <c r="H38">
-        <v>9.99787210021408e-7</v>
+        <v>9.997872100201604e-7</v>
       </c>
       <c r="I38">
-        <v>3.646736402701895e-5</v>
+        <v>3.6467364027036835e-5</v>
       </c>
       <c r="J38">
-        <v>0.0019416979335467634</v>
+        <v>0.0019416979335559038</v>
       </c>
       <c r="K38">
-        <v>4.8392654318764955e-5</v>
+        <v>4.839265431883451e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1756,7 +1756,7 @@
         <v>9.54642630225129e-7</v>
       </c>
       <c r="D39">
-        <v>4.1867918012240075e-5</v>
+        <v>4.186791801224006e-5</v>
       </c>
       <c r="E39">
         <v>0.0019427519212929728</v>
@@ -1765,19 +1765,19 @@
         <v>4.8402109032140414e-5</v>
       </c>
       <c r="G39">
-        <v>7.257796512917321</v>
+        <v>7.2577965129196125</v>
       </c>
       <c r="H39">
-        <v>9.531557217952737e-7</v>
+        <v>9.531557217940437e-7</v>
       </c>
       <c r="I39">
-        <v>4.1866848865811303e-5</v>
+        <v>4.1866848865830263e-5</v>
       </c>
       <c r="J39">
-        <v>0.00194275128906473</v>
+        <v>0.0019427512890739921</v>
       </c>
       <c r="K39">
-        <v>4.840210738259934e-5</v>
+        <v>4.840210738266985e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1785,34 +1785,34 @@
         <v>0.026999999999999996</v>
       </c>
       <c r="B40">
-        <v>7.260686904365709</v>
+        <v>7.26068690436571</v>
       </c>
       <c r="C40">
         <v>9.258233407286481e-7</v>
       </c>
       <c r="D40">
-        <v>4.728084388375357e-5</v>
+        <v>4.728084388375359e-5</v>
       </c>
       <c r="E40">
-        <v>0.0019438057469243473</v>
+        <v>0.001943805746924347</v>
       </c>
       <c r="F40">
         <v>4.8411574201824564e-5</v>
       </c>
       <c r="G40">
-        <v>7.260685111894248</v>
+        <v>7.260685111896547</v>
       </c>
       <c r="H40">
-        <v>9.252002681163215e-7</v>
+        <v>9.252002681151093e-7</v>
       </c>
       <c r="I40">
-        <v>4.7280339433686495e-5</v>
+        <v>4.728033943370651e-5</v>
       </c>
       <c r="J40">
-        <v>0.0019438054782087743</v>
+        <v>0.0019438054782181492</v>
       </c>
       <c r="K40">
-        <v>4.84115734173916e-5</v>
+        <v>4.841157341746299e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1820,34 +1820,34 @@
         <v>0.028999999999999998</v>
       </c>
       <c r="B41">
-        <v>7.26356168749494</v>
+        <v>7.263561687494941</v>
       </c>
       <c r="C41">
         <v>9.055387700896936e-7</v>
       </c>
       <c r="D41">
-        <v>5.2701116832478624e-5</v>
+        <v>5.270111683247863e-5</v>
       </c>
       <c r="E41">
         <v>0.0019448561934096876</v>
       </c>
       <c r="F41">
-        <v>4.842104218000004e-5</v>
+        <v>4.842104218000005e-5</v>
       </c>
       <c r="G41">
-        <v>7.263561008519358</v>
+        <v>7.263561008521661</v>
       </c>
       <c r="H41">
-        <v>9.053074549937612e-7</v>
+        <v>9.053074549925665e-7</v>
       </c>
       <c r="I41">
-        <v>5.270086838148794e-5</v>
+        <v>5.270086838150902e-5</v>
       </c>
       <c r="J41">
-        <v>0.0019448560874424927</v>
+        <v>0.0019448560874519706</v>
       </c>
       <c r="K41">
-        <v>4.842104178599884e-5</v>
+        <v>4.842104178607104e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1861,28 +1861,28 @@
         <v>8.886964689017243e-7</v>
       </c>
       <c r="D42">
-        <v>5.8125366357681113e-5</v>
+        <v>5.812536635768111e-5</v>
       </c>
       <c r="E42">
         <v>0.0019459012536947066</v>
       </c>
       <c r="F42">
-        <v>4.843050786164369e-5</v>
+        <v>4.8430507861643685e-5</v>
       </c>
       <c r="G42">
-        <v>7.2664108565594105</v>
+        <v>7.266410856561716</v>
       </c>
       <c r="H42">
-        <v>8.886277575496965e-7</v>
+        <v>8.886277575485196e-7</v>
       </c>
       <c r="I42">
-        <v>5.812522382093845e-5</v>
+        <v>5.812522382096056e-5</v>
       </c>
       <c r="J42">
-        <v>0.0019459012141820758</v>
+        <v>0.001945901214191647</v>
       </c>
       <c r="K42">
-        <v>4.84305076273709e-5</v>
+        <v>4.8430507627443825e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1896,7 +1896,7 @@
         <v>8.731370770338888e-7</v>
       </c>
       <c r="D43">
-        <v>6.355213785221226e-5</v>
+        <v>6.355213785221227e-5</v>
       </c>
       <c r="E43">
         <v>0.0019469401789118281</v>
@@ -1905,19 +1905,19 @@
         <v>4.84399690876494e-5</v>
       </c>
       <c r="G43">
-        <v>7.269229448498782</v>
+        <v>7.269229448501089</v>
       </c>
       <c r="H43">
-        <v>8.731300991939217e-7</v>
+        <v>8.731300991927626e-7</v>
       </c>
       <c r="I43">
-        <v>6.355203509390913e-5</v>
+        <v>6.355203509393227e-5</v>
       </c>
       <c r="J43">
-        <v>0.0019469401639629397</v>
+        <v>0.0019469401639725951</v>
       </c>
       <c r="K43">
-        <v>4.8439968911508285e-5</v>
+        <v>4.843996891158187e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1934,25 +1934,25 @@
         <v>6.898084026456541e-5</v>
       </c>
       <c r="E44">
-        <v>0.0019479727756911442</v>
+        <v>0.0019479727756911444</v>
       </c>
       <c r="F44">
-        <v>4.8449425026629746e-5</v>
+        <v>4.844942502662975e-5</v>
       </c>
       <c r="G44">
-        <v>7.272015156078211</v>
+        <v>7.272015156080515</v>
       </c>
       <c r="H44">
-        <v>8.580338559060927e-7</v>
+        <v>8.580338559049514e-7</v>
       </c>
       <c r="I44">
-        <v>6.898075080240405e-5</v>
+        <v>6.898075080242818e-5</v>
       </c>
       <c r="J44">
-        <v>0.0019479727687326711</v>
+        <v>0.0019479727687424014</v>
       </c>
       <c r="K44">
-        <v>4.8449424868009315e-5</v>
+        <v>4.8449424868083494e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1960,13 +1960,13 @@
         <v>0.03699999999999999</v>
       </c>
       <c r="B45">
-        <v>7.274767751274644</v>
+        <v>7.274767751274645</v>
       </c>
       <c r="C45">
         <v>8.43042516102949e-7</v>
       </c>
       <c r="D45">
-        <v>7.441123754645728e-5</v>
+        <v>7.441123754645731e-5</v>
       </c>
       <c r="E45">
         <v>0.0019489990727088455</v>
@@ -1975,19 +1975,19 @@
         <v>4.845887539290632e-5</v>
       </c>
       <c r="G45">
-        <v>7.274767780447929</v>
+        <v>7.2747677804502295</v>
       </c>
       <c r="H45">
-        <v>8.430634505724492e-7</v>
+        <v>8.43063450571326e-7</v>
       </c>
       <c r="I45">
-        <v>7.441115174382245e-5</v>
+        <v>7.441115174384755e-5</v>
       </c>
       <c r="J45">
-        <v>0.0019489990677738183</v>
+        <v>0.0019489990677836128</v>
       </c>
       <c r="K45">
-        <v>4.8458875237105016e-5</v>
+        <v>4.845887523717972e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2010,19 +2010,19 @@
         <v>4.846832010616383e-5</v>
       </c>
       <c r="G46">
-        <v>7.2774876393179815</v>
+        <v>7.277487639320275</v>
       </c>
       <c r="H46">
-        <v>8.281294606300009e-7</v>
+        <v>8.281294606288956e-7</v>
       </c>
       <c r="I46">
-        <v>7.984314205227591e-5</v>
+        <v>7.984314205230194e-5</v>
       </c>
       <c r="J46">
-        <v>0.0019500191731755187</v>
+        <v>0.0019500191731853678</v>
       </c>
       <c r="K46">
-        <v>4.846831994843182e-5</v>
+        <v>4.846831994850698e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,13 +2030,13 @@
         <v>0.040999999999999995</v>
       </c>
       <c r="B47">
-        <v>7.280175183539624</v>
+        <v>7.280175183539625</v>
       </c>
       <c r="C47">
         <v>8.131824665541284e-7</v>
       </c>
       <c r="D47">
-        <v>8.527675390549949e-5</v>
+        <v>8.527675390549951e-5</v>
       </c>
       <c r="E47">
         <v>0.0019510332238686593</v>
@@ -2045,19 +2045,19 @@
         <v>4.847775915732942e-5</v>
       </c>
       <c r="G47">
-        <v>7.280175216193013</v>
+        <v>7.280175216195297</v>
       </c>
       <c r="H47">
-        <v>8.132051983933295e-7</v>
+        <v>8.132051983922421e-7</v>
       </c>
       <c r="I47">
-        <v>8.527666817859859e-5</v>
+        <v>8.527666817862551e-5</v>
       </c>
       <c r="J47">
-        <v>0.0019510332185228682</v>
+        <v>0.0019510332185327622</v>
       </c>
       <c r="K47">
-        <v>4.847775899638564e-5</v>
+        <v>4.847775899646118e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2080,19 +2080,19 @@
         <v>4.848719256051187e-5</v>
       </c>
       <c r="G48">
-        <v>7.282831038006866</v>
+        <v>7.282831038009139</v>
       </c>
       <c r="H48">
-        <v>7.982833348449552e-7</v>
+        <v>7.982833348438857e-7</v>
       </c>
       <c r="I48">
-        <v>9.071169034079314e-5</v>
+        <v>9.071169034082093e-5</v>
       </c>
       <c r="J48">
-        <v>0.0019520413411672772</v>
+        <v>0.0019520413411772055</v>
       </c>
       <c r="K48">
-        <v>4.8487192396175446e-5</v>
+        <v>4.8487192396251266e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2106,7 +2106,7 @@
         <v>7.833399440642403e-7</v>
       </c>
       <c r="D49">
-        <v>9.614826028977586e-5</v>
+        <v>9.614826028977585e-5</v>
       </c>
       <c r="E49">
         <v>0.0019530436832914404</v>
@@ -2115,19 +2115,19 @@
         <v>4.849662033727253e-5</v>
       </c>
       <c r="G49">
-        <v>7.28545563631965</v>
+        <v>7.2854556363219105</v>
       </c>
       <c r="H49">
-        <v>7.833620171906432e-7</v>
+        <v>7.833620171895913e-7</v>
       </c>
       <c r="I49">
-        <v>9.614817334965499e-5</v>
+        <v>9.614817334968362e-5</v>
       </c>
       <c r="J49">
-        <v>0.001953043676702978</v>
+        <v>0.0019530436767129322</v>
       </c>
       <c r="K49">
-        <v>4.8496620169680703e-5</v>
+        <v>4.8496620169756726e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2150,19 +2150,19 @@
         <v>4.850604251188804e-5</v>
       </c>
       <c r="G50">
-        <v>7.288049536174036</v>
+        <v>7.288049536176281</v>
       </c>
       <c r="H50">
-        <v>7.684408141074453e-7</v>
+        <v>7.684408141064111e-7</v>
       </c>
       <c r="I50">
-        <v>0.00010158608390359303</v>
+        <v>0.00010158608390362247</v>
       </c>
       <c r="J50">
-        <v>0.0019540403574574735</v>
+        <v>0.0019540403574674434</v>
       </c>
       <c r="K50">
-        <v>4.850604234126192e-5</v>
+        <v>4.850604234133806e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2176,7 +2176,7 @@
         <v>7.534983839866728e-7</v>
       </c>
       <c r="D51">
-        <v>0.00010702547777128126</v>
+        <v>0.00010702547777128132</v>
       </c>
       <c r="E51">
         <v>0.0019550315199356487</v>
@@ -2185,19 +2185,19 @@
         <v>4.851545911000848e-5</v>
       </c>
       <c r="G51">
-        <v>7.2906132532642305</v>
+        <v>7.290613253266459</v>
       </c>
       <c r="H51">
-        <v>7.53519633104955e-7</v>
+        <v>7.535196331039387e-7</v>
       </c>
       <c r="I51">
-        <v>0.00010702538984404597</v>
+        <v>0.00010702538984407614</v>
       </c>
       <c r="J51">
-        <v>0.001955031512178972</v>
+        <v>0.0019550315121889482</v>
       </c>
       <c r="K51">
-        <v>4.851545893658923e-5</v>
+        <v>4.851545893666545e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2205,13 +2205,13 @@
         <v>0.051</v>
       </c>
       <c r="B52">
-        <v>7.293147268547072</v>
+        <v>7.293147268547073</v>
       </c>
       <c r="C52">
         <v>7.385776229156417e-7</v>
       </c>
       <c r="D52">
-        <v>0.00011246614824943029</v>
+        <v>0.00011246614824943023</v>
       </c>
       <c r="E52">
         <v>0.001956017274338562</v>
@@ -2220,19 +2220,19 @@
         <v>4.852487015827241e-5</v>
       </c>
       <c r="G52">
-        <v>7.293147293379848</v>
+        <v>7.2931472933820585</v>
       </c>
       <c r="H52">
-        <v>7.385984559099092e-7</v>
+        <v>7.385984559089109e-7</v>
       </c>
       <c r="I52">
-        <v>0.00011246605995206808</v>
+        <v>0.00011246605995209894</v>
       </c>
       <c r="J52">
-        <v>0.0019560172660469835</v>
+        <v>0.0019560172660569564</v>
       </c>
       <c r="K52">
-        <v>4.8524869982305446e-5</v>
+        <v>4.852486998238163e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2240,34 +2240,34 @@
         <v>0.05299999999999999</v>
       </c>
       <c r="B53">
-        <v>7.295652129062112</v>
+        <v>7.295652129062113</v>
       </c>
       <c r="C53">
         <v>7.236568627038564e-7</v>
       </c>
       <c r="D53">
-        <v>0.0001179081524650994</v>
+        <v>0.00011790815246509937</v>
       </c>
       <c r="E53">
-        <v>0.0019569977495539795</v>
+        <v>0.001956997749553979</v>
       </c>
       <c r="F53">
-        <v>4.8534275684169944e-5</v>
+        <v>4.853427568416995e-5</v>
       </c>
       <c r="G53">
-        <v>7.295652152418172</v>
+        <v>7.295652152420361</v>
       </c>
       <c r="H53">
-        <v>7.23677279195311e-7</v>
+        <v>7.236772791943306e-7</v>
       </c>
       <c r="I53">
-        <v>0.00011790806388161602</v>
+        <v>0.00011790806388164758</v>
       </c>
       <c r="J53">
-        <v>0.001956997740760558</v>
+        <v>0.0019569977407705185</v>
       </c>
       <c r="K53">
-        <v>4.853427550590129e-5</v>
+        <v>4.853427550597737e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2287,22 +2287,22 @@
         <v>0.0019579730639041407</v>
       </c>
       <c r="F54">
-        <v>4.854367571596635e-5</v>
+        <v>4.8543675715966355e-5</v>
       </c>
       <c r="G54">
-        <v>7.298128316526441</v>
+        <v>7.298128316528608</v>
       </c>
       <c r="H54">
-        <v>7.087561024028379e-7</v>
+        <v>7.087561024018757e-7</v>
       </c>
       <c r="I54">
-        <v>0.00012335137212487278</v>
+        <v>0.00012335137212490498</v>
       </c>
       <c r="J54">
-        <v>0.001957973054641531</v>
+        <v>0.0019579730546514674</v>
       </c>
       <c r="K54">
-        <v>4.85436755356419e-5</v>
+        <v>4.8543675535717804e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2310,7 +2310,7 @@
         <v>0.056999999999999995</v>
       </c>
       <c r="B55">
-        <v>7.300576241695498</v>
+        <v>7.300576241695499</v>
       </c>
       <c r="C55">
         <v>6.938153425681516e-7</v>
@@ -2322,22 +2322,22 @@
         <v>0.0019589433324378497</v>
       </c>
       <c r="F55">
-        <v>4.8553070282641016e-5</v>
+        <v>4.855307028264102e-5</v>
       </c>
       <c r="G55">
-        <v>7.300576262271417</v>
+        <v>7.300576262273561</v>
       </c>
       <c r="H55">
-        <v>6.93834925446116e-7</v>
+        <v>6.938349254451721e-7</v>
       </c>
       <c r="I55">
-        <v>0.00012879595598494308</v>
+        <v>0.00012879595598497588</v>
       </c>
       <c r="J55">
-        <v>0.0019589433227382635</v>
+        <v>0.001958943322748168</v>
       </c>
       <c r="K55">
-        <v>4.8553070100506394e-5</v>
+        <v>4.8553070100582065e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2345,7 +2345,7 @@
         <v>0.059</v>
       </c>
       <c r="B56">
-        <v>7.302996437544515</v>
+        <v>7.302996437544514</v>
       </c>
       <c r="C56">
         <v>6.788945825126028e-7</v>
@@ -2357,22 +2357,22 @@
         <v>0.0019599086670316584</v>
       </c>
       <c r="F56">
-        <v>4.8562459413831806e-5</v>
+        <v>4.856245941383181e-5</v>
       </c>
       <c r="G56">
-        <v>7.302996456814035</v>
+        <v>7.302996456816151</v>
       </c>
       <c r="H56">
-        <v>6.789137483128258e-7</v>
+        <v>6.789137483119e-7</v>
       </c>
       <c r="I56">
-        <v>0.00013424178755060666</v>
+        <v>0.00013424178755063997</v>
       </c>
       <c r="J56">
-        <v>0.001959908656926875</v>
+        <v>0.0019599086569367374</v>
       </c>
       <c r="K56">
-        <v>4.8562459230132356e-5</v>
+        <v>4.856245923020772e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,7 +2380,7 @@
         <v>0.061</v>
       </c>
       <c r="B57">
-        <v>7.305389340067611</v>
+        <v>7.30538934006761</v>
       </c>
       <c r="C57">
         <v>6.639738224573633e-7</v>
@@ -2389,25 +2389,25 @@
         <v>0.00013968892855672192</v>
       </c>
       <c r="E57">
-        <v>0.0019608691764880473</v>
+        <v>0.0019608691764880478</v>
       </c>
       <c r="F57">
-        <v>4.857184313978262e-5</v>
+        <v>4.857184313978261e-5</v>
       </c>
       <c r="G57">
-        <v>7.305389358084553</v>
+        <v>7.305389358086643</v>
       </c>
       <c r="H57">
-        <v>6.639925710013465e-7</v>
+        <v>6.639925710004389e-7</v>
       </c>
       <c r="I57">
-        <v>0.00013968883967207109</v>
+        <v>0.00013968883967210489</v>
       </c>
       <c r="J57">
-        <v>0.001960869166009424</v>
+        <v>0.001960869166019234</v>
       </c>
       <c r="K57">
-        <v>4.8571842954763385e-5</v>
+        <v>4.8571842954838384e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2421,28 +2421,28 @@
         <v>6.490530624021238e-7</v>
       </c>
       <c r="D58">
-        <v>0.00014513717468613228</v>
+        <v>0.00014513717468613225</v>
       </c>
       <c r="E58">
         <v>0.0019618249666305374</v>
       </c>
       <c r="F58">
-        <v>4.8581221491293616e-5</v>
+        <v>4.858122149129362e-5</v>
       </c>
       <c r="G58">
-        <v>7.307755414957177</v>
+        <v>7.307755414959238</v>
       </c>
       <c r="H58">
-        <v>6.49071393511482e-7</v>
+        <v>6.490713935105926e-7</v>
       </c>
       <c r="I58">
-        <v>0.00014513708593751873</v>
+        <v>0.00014513708593755293</v>
       </c>
       <c r="J58">
-        <v>0.001961824955809026</v>
+        <v>0.001961824955818774</v>
       </c>
       <c r="K58">
-        <v>4.858122130519941e-5</v>
+        <v>4.8581221305273946e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,7 +2450,7 @@
         <v>0.065</v>
       </c>
       <c r="B59">
-        <v>7.310095051756127</v>
+        <v>7.310095051756128</v>
       </c>
       <c r="C59">
         <v>6.341323023468842e-7</v>
@@ -2459,25 +2459,25 @@
         <v>0.0001505865891782623</v>
       </c>
       <c r="E59">
-        <v>0.001962776140395807</v>
+        <v>0.0019627761403958064</v>
       </c>
       <c r="F59">
         <v>4.8590594499674194e-5</v>
       </c>
       <c r="G59">
-        <v>7.310095067423733</v>
+        <v>7.310095067425762</v>
       </c>
       <c r="H59">
-        <v>6.341502158432099e-7</v>
+        <v>6.341502158423387e-7</v>
       </c>
       <c r="I59">
-        <v>0.00015058650065039668</v>
+        <v>0.00015058650065043124</v>
       </c>
       <c r="J59">
-        <v>0.0019627761292619647</v>
+        <v>0.001962776129271641</v>
       </c>
       <c r="K59">
-        <v>4.8590594312749466e-5</v>
+        <v>4.859059431282348e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2500,19 +2500,19 @@
         <v>4.859996219669814e-5</v>
       </c>
       <c r="G60">
-        <v>7.312408746766156</v>
+        <v>7.3124087467681536</v>
       </c>
       <c r="H60">
-        <v>6.192290379965282e-7</v>
+        <v>6.192290379956754e-7</v>
       </c>
       <c r="I60">
-        <v>0.00015603705880742706</v>
+        <v>0.00015603705880746192</v>
       </c>
       <c r="J60">
-        <v>0.001963722786506876</v>
+        <v>0.001963722786516473</v>
       </c>
       <c r="K60">
-        <v>4.8599962009187094e-5</v>
+        <v>4.859996200926049e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,7 +2520,7 @@
         <v>0.06899999999999999</v>
       </c>
       <c r="B61">
-        <v>7.314696862210564</v>
+        <v>7.314696862210565</v>
       </c>
       <c r="C61">
         <v>6.042907822364494e-7</v>
@@ -2529,25 +2529,25 @@
         <v>0.0001614888239092217</v>
       </c>
       <c r="E61">
-        <v>0.001964665036639417</v>
+        <v>0.0019646650366394167</v>
       </c>
       <c r="F61">
         <v>4.8609324614561266e-5</v>
       </c>
       <c r="G61">
-        <v>7.314696875727585</v>
+        <v>7.31469687572955</v>
       </c>
       <c r="H61">
-        <v>6.043078599714367e-7</v>
+        <v>6.043078599706024e-7</v>
       </c>
       <c r="I61">
-        <v>0.000161488736077316</v>
+        <v>0.00016148873607735117</v>
       </c>
       <c r="J61">
-        <v>0.0019646650249710838</v>
+        <v>0.0019646650249805905</v>
       </c>
       <c r="K61">
-        <v>4.86093244267078e-5</v>
+        <v>4.860932442678051e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2561,7 +2561,7 @@
         <v>5.893700221812099e-7</v>
       </c>
       <c r="D62">
-        <v>0.00016694159613667836</v>
+        <v>0.0001669415961366784</v>
       </c>
       <c r="E62">
         <v>0.0019656029513453774</v>
@@ -2570,19 +2570,19 @@
         <v>4.861868178584123e-5</v>
       </c>
       <c r="G62">
-        <v>7.316959868681857</v>
+        <v>7.316959868683786</v>
       </c>
       <c r="H62">
-        <v>5.893866817679354e-7</v>
+        <v>5.893866817671196e-7</v>
       </c>
       <c r="I62">
-        <v>0.00016694150878014352</v>
+        <v>0.00016694150878017883</v>
       </c>
       <c r="J62">
-        <v>0.001965602939454162</v>
+        <v>0.0019656029394635685</v>
       </c>
       <c r="K62">
-        <v>4.8618681597888964e-5</v>
+        <v>4.861868159796094e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2596,28 +2596,28 @@
         <v>5.744492621259814e-7</v>
       </c>
       <c r="D63">
-        <v>0.0001723954406635484</v>
+        <v>0.00017239544066354842</v>
       </c>
       <c r="E63">
         <v>0.0019665366342937946</v>
       </c>
       <c r="F63">
-        <v>4.862803374345943e-5</v>
+        <v>4.862803374345944e-5</v>
       </c>
       <c r="G63">
-        <v>7.319198131801239</v>
+        <v>7.319198131803133</v>
       </c>
       <c r="H63">
-        <v>5.74465503386024e-7</v>
+        <v>5.744655033852271e-7</v>
       </c>
       <c r="I63">
-        <v>0.000172395353867413</v>
+        <v>0.00017239535386744852</v>
       </c>
       <c r="J63">
-        <v>0.0019665366222088114</v>
+        <v>0.0019665366222181087</v>
       </c>
       <c r="K63">
-        <v>4.8628033555651695e-5</v>
+        <v>4.862803355572286e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2631,28 +2631,28 @@
         <v>5.595285020707751e-7</v>
       </c>
       <c r="D64">
-        <v>0.0001778503350533784</v>
+        <v>0.00017785033505337837</v>
       </c>
       <c r="E64">
-        <v>0.0019674661752690907</v>
+        <v>0.0019674661752690902</v>
       </c>
       <c r="F64">
         <v>4.863738052064494e-5</v>
       </c>
       <c r="G64">
-        <v>7.3214120632222714</v>
+        <v>7.321412063224127</v>
       </c>
       <c r="H64">
-        <v>5.595443248257026e-7</v>
+        <v>5.595443248249248e-7</v>
       </c>
       <c r="I64">
-        <v>0.00017785024890274356</v>
+        <v>0.00017785024890277918</v>
       </c>
       <c r="J64">
-        <v>0.0019674661630191236</v>
+        <v>0.0019674661630283024</v>
       </c>
       <c r="K64">
-        <v>4.863738033322476e-5</v>
+        <v>4.863738033329506e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,13 +2660,13 @@
         <v>0.077</v>
       </c>
       <c r="B65">
-        <v>7.32360204343791</v>
+        <v>7.323602043437909</v>
       </c>
       <c r="C65">
         <v>5.446077420155797e-7</v>
       </c>
       <c r="D65">
-        <v>0.00018330625746314707</v>
+        <v>0.0001833062574631471</v>
       </c>
       <c r="E65">
         <v>0.001968391661662794</v>
@@ -2675,19 +2675,19 @@
         <v>4.864672215090031e-5</v>
       </c>
       <c r="G65">
-        <v>7.323602053209553</v>
+        <v>7.32360205321137</v>
       </c>
       <c r="H65">
-        <v>5.446231460869713e-7</v>
+        <v>5.446231460862126e-7</v>
       </c>
       <c r="I65">
-        <v>0.0001833061720431843</v>
+        <v>0.00018330617204322</v>
       </c>
       <c r="J65">
-        <v>0.0019683916492763045</v>
+        <v>0.0019683916492853576</v>
       </c>
       <c r="K65">
-        <v>4.8646721964110465e-5</v>
+        <v>4.864672196417982e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2701,7 +2701,7 @@
         <v>5.296869819603402e-7</v>
       </c>
       <c r="D66">
-        <v>0.00018876318662518478</v>
+        <v>0.00018876318662518484</v>
       </c>
       <c r="E66">
         <v>0.0019693131785468087</v>
@@ -2710,19 +2710,19 @@
         <v>4.8656058667969276e-5</v>
       </c>
       <c r="G66">
-        <v>7.325768484317396</v>
+        <v>7.325768484319172</v>
       </c>
       <c r="H66">
-        <v>5.2970196716983e-7</v>
+        <v>5.297019671690907e-7</v>
       </c>
       <c r="I66">
-        <v>0.0001887631020211333</v>
+        <v>0.00018876310202116893</v>
       </c>
       <c r="J66">
-        <v>0.00196931316605195</v>
+        <v>0.0019693131660608676</v>
       </c>
       <c r="K66">
-        <v>4.8656058482052246e-5</v>
+        <v>4.8656058482120584e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2730,7 +2730,7 @@
         <v>0.081</v>
       </c>
       <c r="B67">
-        <v>7.327911723391194</v>
+        <v>7.327911723391195</v>
       </c>
       <c r="C67">
         <v>5.147662219051228e-7</v>
@@ -2745,19 +2745,19 @@
         <v>4.8665390105806154e-5</v>
       </c>
       <c r="G67">
-        <v>7.327911731549228</v>
+        <v>7.327911731550963</v>
       </c>
       <c r="H67">
-        <v>5.14780788074279e-7</v>
+        <v>5.14780788073559e-7</v>
       </c>
       <c r="I67">
-        <v>0.00019422101812684243</v>
+        <v>0.00019422101812687807</v>
       </c>
       <c r="J67">
-        <v>0.001970230796168923</v>
+        <v>0.001970230796177697</v>
       </c>
       <c r="K67">
-        <v>4.866538992100413e-5</v>
+        <v>4.8665389921071386e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2771,28 +2771,28 @@
         <v>4.998454618498942e-7</v>
       </c>
       <c r="D68">
-        <v>0.00019967998290774166</v>
+        <v>0.00019967998290774169</v>
       </c>
       <c r="E68">
         <v>0.0019711446328982613</v>
       </c>
       <c r="F68">
-        <v>4.867471649854689e-5</v>
+        <v>4.867471649854688e-5</v>
       </c>
       <c r="G68">
-        <v>7.330032162514664</v>
+        <v>7.330032162516358</v>
       </c>
       <c r="H68">
-        <v>4.998596088003179e-7</v>
+        <v>4.998596087996175e-7</v>
       </c>
       <c r="I68">
-        <v>0.00019967990019149025</v>
+        <v>0.0001996799001915257</v>
       </c>
       <c r="J68">
-        <v>0.001971144620269931</v>
+        <v>0.0019711446202785535</v>
       </c>
       <c r="K68">
-        <v>4.86747163151018e-5</v>
+        <v>4.86747163151679e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2806,28 +2806,28 @@
         <v>4.849247017946878e-7</v>
       </c>
       <c r="D69">
-        <v>0.00020513981021504327</v>
+        <v>0.0002051398102150433</v>
       </c>
       <c r="E69">
         <v>0.001972054729537865</v>
       </c>
       <c r="F69">
-        <v>4.8684037880481694e-5</v>
+        <v>4.868403788048169e-5</v>
       </c>
       <c r="G69">
-        <v>7.33213013758419</v>
+        <v>7.33213013758584</v>
       </c>
       <c r="H69">
-        <v>4.849384293479469e-7</v>
+        <v>4.849384293472662e-7</v>
       </c>
       <c r="I69">
-        <v>0.000205139728570805</v>
+        <v>0.00020513972857084028</v>
       </c>
       <c r="J69">
-        <v>0.0019720547168838617</v>
+        <v>0.0019720547168923237</v>
       </c>
       <c r="K69">
-        <v>4.8684037698635206e-5</v>
+        <v>4.868403769870009e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2841,28 +2841,28 @@
         <v>4.700039417394594e-7</v>
       </c>
       <c r="D70">
-        <v>0.0002106005646159582</v>
+        <v>0.00021060056461595815</v>
       </c>
       <c r="E70">
-        <v>0.0019729611751426127</v>
+        <v>0.001972961175142613</v>
       </c>
       <c r="F70">
         <v>4.869335428602922e-5</v>
       </c>
       <c r="G70">
-        <v>7.334206010041369</v>
+        <v>7.3342060100429745</v>
       </c>
       <c r="H70">
-        <v>4.70017249717166e-7</v>
+        <v>4.7001724971650495e-7</v>
       </c>
       <c r="I70">
-        <v>0.00021060048412922133</v>
+        <v>0.00021060048412925635</v>
       </c>
       <c r="J70">
-        <v>0.001972961162489947</v>
+        <v>0.001972961162498239</v>
       </c>
       <c r="K70">
-        <v>4.8693354106022705e-5</v>
+        <v>4.869335410608631e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2876,28 +2876,28 @@
         <v>4.5508318168425303e-7</v>
       </c>
       <c r="D71">
-        <v>0.00021606222746824302</v>
+        <v>0.00021606222746824305</v>
       </c>
       <c r="E71">
-        <v>0.001973864044204413</v>
+        <v>0.0019738640442044132</v>
       </c>
       <c r="F71">
         <v>4.870266574971214e-5</v>
       </c>
       <c r="G71">
-        <v>7.336260126232563</v>
+        <v>7.336260126234124</v>
       </c>
       <c r="H71">
-        <v>4.550960699079751e-7</v>
+        <v>4.5509606990733394e-7</v>
       </c>
       <c r="I71">
-        <v>0.00021606214822455282</v>
+        <v>0.00021606214822458752</v>
       </c>
       <c r="J71">
-        <v>0.001973864031579831</v>
+        <v>0.001973864031587945</v>
       </c>
       <c r="K71">
-        <v>4.870266557178669e-5</v>
+        <v>4.8702665571848946e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2917,22 +2917,22 @@
         <v>0.0019747634092876125</v>
       </c>
       <c r="F72">
-        <v>4.871197230613404e-5</v>
+        <v>4.871197230613403e-5</v>
       </c>
       <c r="G72">
-        <v>7.338292825714097</v>
+        <v>7.338292825715612</v>
       </c>
       <c r="H72">
-        <v>4.4017488992037425e-7</v>
+        <v>4.4017488991975306e-7</v>
       </c>
       <c r="I72">
-        <v>0.0002215247026931645</v>
+        <v>0.00022152470269319876</v>
       </c>
       <c r="J72">
-        <v>0.001974763396717605</v>
+        <v>0.001974763396725533</v>
       </c>
       <c r="K72">
-        <v>4.871197213053047e-5</v>
+        <v>4.8711972130591326e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2940,7 +2940,7 @@
         <v>0.09299999999999999</v>
       </c>
       <c r="B73">
-        <v>7.340304437145357</v>
+        <v>7.340304437145356</v>
       </c>
       <c r="C73">
         <v>4.2524166157379606e-7</v>
@@ -2955,19 +2955,19 @@
         <v>4.872127398995766e-5</v>
       </c>
       <c r="G73">
-        <v>7.340304441396851</v>
+        <v>7.340304441398319</v>
       </c>
       <c r="H73">
-        <v>4.2525370975436366e-7</v>
+        <v>4.2525370975376264e-7</v>
       </c>
       <c r="I73">
-        <v>0.00022698812983562878</v>
+        <v>0.0002269881298356626</v>
       </c>
       <c r="J73">
-        <v>0.0019756593285978788</v>
+        <v>0.0019756593286056135</v>
       </c>
       <c r="K73">
-        <v>4.8721273816916545e-5</v>
+        <v>4.872127381697594e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2984,25 +2984,25 @@
         <v>0.00023245248740358474</v>
       </c>
       <c r="E74">
-        <v>0.0019765519084843077</v>
+        <v>0.001976551908484308</v>
       </c>
       <c r="F74">
         <v>4.8730570835884444e-5</v>
       </c>
       <c r="G74">
-        <v>7.342295299688262</v>
+        <v>7.342295299689682</v>
       </c>
       <c r="H74">
-        <v>4.103325294099432e-7</v>
+        <v>4.103325294093624e-7</v>
       </c>
       <c r="I74">
-        <v>0.00023245241240285022</v>
+        <v>0.0002324524124028835</v>
       </c>
       <c r="J74">
-        <v>0.0019765518961019444</v>
+        <v>0.0019765518961094783</v>
       </c>
       <c r="K74">
-        <v>4.873057066564608e-5</v>
+        <v>4.8730570665703944e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3010,13 +3010,13 @@
         <v>0.09699999999999999</v>
       </c>
       <c r="B75">
-        <v>7.3442657173965715</v>
+        <v>7.344265717396572</v>
       </c>
       <c r="C75">
         <v>3.9540014146333913e-7</v>
       </c>
       <c r="D75">
-        <v>0.00023791760699761407</v>
+        <v>0.0002379176069976141</v>
       </c>
       <c r="E75">
         <v>0.00197744117860187</v>
@@ -3025,19 +3025,19 @@
         <v>4.873986287863508e-5</v>
       </c>
       <c r="G75">
-        <v>7.344265720631706</v>
+        <v>7.344265720633079</v>
       </c>
       <c r="H75">
-        <v>3.954113488871129e-7</v>
+        <v>3.954113488865523e-7</v>
       </c>
       <c r="I75">
-        <v>0.00023791753358264208</v>
+        <v>0.0002379175335826748</v>
       </c>
       <c r="J75">
-        <v>0.001977441166352104</v>
+        <v>0.001977441166359429</v>
       </c>
       <c r="K75">
-        <v>4.873986271143949e-5</v>
+        <v>4.873986271149578e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3051,28 +3051,28 @@
         <v>3.804793814081217e-7</v>
       </c>
       <c r="D76">
-        <v>0.0002433835487301469</v>
+        <v>0.00024338354873014686</v>
       </c>
       <c r="E76">
-        <v>0.0019783272168558373</v>
+        <v>0.0019783272168558378</v>
       </c>
       <c r="F76">
-        <v>4.874915015293131e-5</v>
+        <v>4.874915015293132e-5</v>
       </c>
       <c r="G76">
-        <v>7.3462160180432825</v>
+        <v>7.346216018044606</v>
       </c>
       <c r="H76">
-        <v>3.8049016818587277e-7</v>
+        <v>3.8049016818533246e-7</v>
       </c>
       <c r="I76">
-        <v>0.00024338347698674132</v>
+        <v>0.0002433834769867735</v>
       </c>
       <c r="J76">
-        <v>0.0019783272047642175</v>
+        <v>0.001978327204771327</v>
       </c>
       <c r="K76">
-        <v>4.874914998901827e-5</v>
+        <v>4.874914998907291e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3080,13 +3080,13 @@
         <v>0.10099999999999999</v>
       </c>
       <c r="B77">
-        <v>7.348146497296018</v>
+        <v>7.3481464972960175</v>
       </c>
       <c r="C77">
         <v>3.6555862135291535e-7</v>
       </c>
       <c r="D77">
-        <v>0.00024885029662423554</v>
+        <v>0.0002488502966242356</v>
       </c>
       <c r="E77">
         <v>0.001979210087006672</v>
@@ -3095,19 +3095,19 @@
         <v>4.8758432693478754e-5</v>
       </c>
       <c r="G77">
-        <v>7.348146499645954</v>
+        <v>7.348146499647227</v>
       </c>
       <c r="H77">
-        <v>3.6556898730622273e-7</v>
+        <v>3.6556898730570276e-7</v>
       </c>
       <c r="I77">
-        <v>0.00024885022663824724</v>
+        <v>0.0002488502266382787</v>
       </c>
       <c r="J77">
-        <v>0.001979210075098528</v>
+        <v>0.0019792100751054153</v>
       </c>
       <c r="K77">
-        <v>4.8758432533087766e-5</v>
+        <v>4.87584325331407e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3124,25 +3124,25 @@
         <v>0.0002543178351021437</v>
       </c>
       <c r="E78">
-        <v>0.0019800898512083768</v>
+        <v>0.001980089851208377</v>
       </c>
       <c r="F78">
-        <v>4.87677105349507e-5</v>
+        <v>4.876771053495071e-5</v>
       </c>
       <c r="G78">
-        <v>7.350057467201094</v>
+        <v>7.350057467202317</v>
       </c>
       <c r="H78">
-        <v>3.5064780624816283e-7</v>
+        <v>3.5064780624766324e-7</v>
       </c>
       <c r="I78">
-        <v>0.0002543177669594685</v>
+        <v>0.0002543177669594993</v>
       </c>
       <c r="J78">
-        <v>0.001980089839508828</v>
+        <v>0.001980089839515486</v>
       </c>
       <c r="K78">
-        <v>4.8767710378321016e-5</v>
+        <v>4.876771037837222e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,34 +3150,34 @@
         <v>0.105</v>
       </c>
       <c r="B79">
-        <v>7.3519492150479815</v>
+        <v>7.351949215047981</v>
       </c>
       <c r="C79">
         <v>3.357171012424915e-7</v>
       </c>
       <c r="D79">
-        <v>0.0002597861489735899</v>
+        <v>0.0002597861489735898</v>
       </c>
       <c r="E79">
-        <v>0.001980966570056054</v>
+        <v>0.0019809665700560534</v>
       </c>
       <c r="F79">
-        <v>4.877698371197295e-5</v>
+        <v>4.8776983711972945e-5</v>
       </c>
       <c r="G79">
-        <v>7.3519492166374185</v>
+        <v>7.351949216638592</v>
       </c>
       <c r="H79">
-        <v>3.35726625011693e-7</v>
+        <v>3.357266250112139e-7</v>
       </c>
       <c r="I79">
-        <v>0.00025978608276016783</v>
+        <v>0.00025978608276019786</v>
       </c>
       <c r="J79">
-        <v>0.001980966558590014</v>
+        <v>0.001980966558596437</v>
       </c>
       <c r="K79">
-        <v>4.877698355934355e-5</v>
+        <v>4.877698355939295e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,34 +3185,34 @@
         <v>0.107</v>
       </c>
       <c r="B80">
-        <v>7.353822036923298</v>
+        <v>7.3538220369232965</v>
       </c>
       <c r="C80">
         <v>3.2079634118728515e-7</v>
       </c>
       <c r="D80">
-        <v>0.0002652552234243735</v>
+        <v>0.00026525522342437345</v>
       </c>
       <c r="E80">
-        <v>0.001981840302631905</v>
+        <v>0.0019818403026319056</v>
       </c>
       <c r="F80">
-        <v>4.8786252259109445e-5</v>
+        <v>4.878625225910944e-5</v>
       </c>
       <c r="G80">
-        <v>7.3538220381773245</v>
+        <v>7.353822038178445</v>
       </c>
       <c r="H80">
-        <v>3.2080544359681323e-7</v>
+        <v>3.2080544359635483e-7</v>
       </c>
       <c r="I80">
-        <v>0.00026525515922618697</v>
+        <v>0.00026525515922621614</v>
       </c>
       <c r="J80">
-        <v>0.0019818402914240896</v>
+        <v>0.001981840291430272</v>
       </c>
       <c r="K80">
-        <v>4.878625211071909e-5</v>
+        <v>4.878625211076664e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3229,25 +3229,25 @@
         <v>0.00027072504400537056</v>
       </c>
       <c r="E81">
-        <v>0.001982711106549739</v>
+        <v>0.0019827111065497394</v>
       </c>
       <c r="F81">
         <v>4.879551621084891e-5</v>
       </c>
       <c r="G81">
-        <v>7.3556762164606555</v>
+        <v>7.355676216461726</v>
       </c>
       <c r="H81">
-        <v>3.0588426200352364e-7</v>
+        <v>3.058842620030859e-7</v>
       </c>
       <c r="I81">
-        <v>0.00027072498190844287</v>
+        <v>0.0002707249819084711</v>
       </c>
       <c r="J81">
-        <v>0.0019827110956246704</v>
+        <v>0.0019827110956306066</v>
       </c>
       <c r="K81">
-        <v>4.879551606693607e-5</v>
+        <v>4.879551606698175e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3255,13 +3255,13 @@
         <v>0.111</v>
       </c>
       <c r="B82">
-        <v>7.357512029996692</v>
+        <v>7.357512029996691</v>
       </c>
       <c r="C82">
         <v>2.909548210768282e-7</v>
       </c>
       <c r="D82">
-        <v>0.0002761955966218864</v>
+        <v>0.00027619559662188646</v>
       </c>
       <c r="E82">
         <v>0.0019835790379980163</v>
@@ -3270,19 +3270,19 @@
         <v>4.880477560159219e-5</v>
       </c>
       <c r="G82">
-        <v>7.357512030665915</v>
+        <v>7.357512030666934</v>
       </c>
       <c r="H82">
-        <v>2.909630802318241e-7</v>
+        <v>2.909630802314072e-7</v>
       </c>
       <c r="I82">
-        <v>0.00027619553671228103</v>
+        <v>0.0002761955367123083</v>
       </c>
       <c r="J82">
-        <v>0.0019835790273800293</v>
+        <v>0.0019835790273857136</v>
       </c>
       <c r="K82">
-        <v>4.880477546239512e-5</v>
+        <v>4.880477546243885e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3296,7 +3296,7 @@
         <v>2.760340610215942e-7</v>
       </c>
       <c r="D83">
-        <v>0.00028166686752335477</v>
+        <v>0.0002816668675233548</v>
       </c>
       <c r="E83">
         <v>0.0019844441517815046</v>
@@ -3305,19 +3305,19 @@
         <v>4.881403046564046e-5</v>
       </c>
       <c r="G83">
-        <v>7.35932975462894</v>
+        <v>7.359329754629906</v>
       </c>
       <c r="H83">
-        <v>2.760418982817147e-7</v>
+        <v>2.760418982813186e-7</v>
       </c>
       <c r="I83">
-        <v>0.0002816668098871733</v>
+        <v>0.0002816668098871996</v>
       </c>
       <c r="J83">
-        <v>0.0019844441414947536</v>
+        <v>0.0019844441415001798</v>
       </c>
       <c r="K83">
-        <v>4.881403033139713e-5</v>
+        <v>4.881403033143889e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3331,7 +3331,7 @@
         <v>2.6111330096639884e-7</v>
       </c>
       <c r="D84">
-        <v>0.0002871388432933682</v>
+        <v>0.0002871388432933681</v>
       </c>
       <c r="E84">
         <v>0.001985306501361572</v>
@@ -3340,19 +3340,19 @@
         <v>4.882328083718409e-5</v>
       </c>
       <c r="G84">
-        <v>7.361129656959074</v>
+        <v>7.361129656959989</v>
       </c>
       <c r="H84">
-        <v>2.611207161531955e-7</v>
+        <v>2.611207161528203e-7</v>
       </c>
       <c r="I84">
-        <v>0.00028713878801674977</v>
+        <v>0.00028713878801677503</v>
       </c>
       <c r="J84">
-        <v>0.0019853064914300356</v>
+        <v>0.0019853064914351986</v>
       </c>
       <c r="K84">
-        <v>4.8823280708132266e-5</v>
+        <v>4.8823280708172e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,34 +3360,34 @@
         <v>0.117</v>
       </c>
       <c r="B85">
-        <v>7.362912001156194</v>
+        <v>7.362912001156193</v>
       </c>
       <c r="C85">
         <v>2.4619254091116484e-7</v>
       </c>
       <c r="D85">
-        <v>0.0002926115108400327</v>
+        <v>0.0002926115108400326</v>
       </c>
       <c r="E85">
-        <v>0.001986166138895179</v>
+        <v>0.0019861661388951794</v>
       </c>
       <c r="F85">
         <v>4.883252675029233e-5</v>
       </c>
       <c r="G85">
-        <v>7.3629120011528695</v>
+        <v>7.362912001153731</v>
       </c>
       <c r="H85">
-        <v>2.4619953384626635e-7</v>
+        <v>2.4619953384591224e-7</v>
       </c>
       <c r="I85">
-        <v>0.0002926114580091529</v>
+        <v>0.00029261145800917705</v>
       </c>
       <c r="J85">
-        <v>0.0019861661293426635</v>
+        <v>0.0019861661293475593</v>
       </c>
       <c r="K85">
-        <v>4.8832526626669515e-5</v>
+        <v>4.8832526626707204e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3410,19 +3410,19 @@
         <v>4.884176823890357e-5</v>
       </c>
       <c r="G86">
-        <v>7.364677045705331</v>
+        <v>7.364677045706141</v>
       </c>
       <c r="H86">
-        <v>2.3127835136092735e-7</v>
+        <v>2.3127835136059433e-7</v>
       </c>
       <c r="I86">
-        <v>0.0002980848070877025</v>
+        <v>0.0002980848070877255</v>
       </c>
       <c r="J86">
-        <v>0.001987023106122747</v>
+        <v>0.001987023106127371</v>
       </c>
       <c r="K86">
-        <v>4.884176812094701e-5</v>
+        <v>4.884176812098261e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3436,7 +3436,7 @@
         <v>2.1635102080071345e-7</v>
       </c>
       <c r="D87">
-        <v>0.00030355887046259816</v>
+        <v>0.0003035588704625982</v>
       </c>
       <c r="E87">
         <v>0.0019878774801539395</v>
@@ -3445,19 +3445,19 @@
         <v>4.885100533681625e-5</v>
       </c>
       <c r="G87">
-        <v>7.36642504421876</v>
+        <v>7.366425044219516</v>
       </c>
       <c r="H87">
-        <v>2.1635716869717846e-7</v>
+        <v>2.1635716869686664e-7</v>
       </c>
       <c r="I87">
-        <v>0.0003035588227818618</v>
+        <v>0.00030355882278188353</v>
       </c>
       <c r="J87">
-        <v>0.0019878774714302237</v>
+        <v>0.001987877471434571</v>
       </c>
       <c r="K87">
-        <v>4.8851005224762995e-5</v>
+        <v>4.8851005224796484e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3465,7 +3465,7 @@
         <v>0.12299999999999998</v>
       </c>
       <c r="B88">
-        <v>7.368156245955103</v>
+        <v>7.368156245955102</v>
       </c>
       <c r="C88">
         <v>2.0143026074547946e-7</v>
@@ -3474,25 +3474,25 @@
         <v>0.00030903353789475836</v>
       </c>
       <c r="E88">
-        <v>0.001988729282004439</v>
+        <v>0.0019887292820044396</v>
       </c>
       <c r="F88">
-        <v>4.8860238077680444e-5</v>
+        <v>4.886023807768044e-5</v>
       </c>
       <c r="G88">
-        <v>7.3681562455092084</v>
+        <v>7.368156245509911</v>
       </c>
       <c r="H88">
-        <v>2.0143598585501973e-7</v>
+        <v>2.0143598585472925e-7</v>
       </c>
       <c r="I88">
-        <v>0.0003090334929184935</v>
+        <v>0.00030903349291851396</v>
       </c>
       <c r="J88">
-        <v>0.001988729273730185</v>
+        <v>0.001988729273734252</v>
       </c>
       <c r="K88">
-        <v>4.886023797176728e-5</v>
+        <v>4.8860237971798615e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,7 +3500,7 @@
         <v>0.125</v>
       </c>
       <c r="B89">
-        <v>7.3698708942557625</v>
+        <v>7.369870894255763</v>
       </c>
       <c r="C89">
         <v>1.865095006902786e-7</v>
@@ -3509,25 +3509,25 @@
         <v>0.00031450884779888103</v>
       </c>
       <c r="E89">
-        <v>0.001989578568128691</v>
+        <v>0.0019895785681286905</v>
       </c>
       <c r="F89">
         <v>4.886946649498991e-5</v>
       </c>
       <c r="G89">
-        <v>7.369870893710599</v>
+        <v>7.369870893711248</v>
       </c>
       <c r="H89">
-        <v>1.8651480283445112e-7</v>
+        <v>1.8651480283418205e-7</v>
       </c>
       <c r="I89">
-        <v>0.00031450880561339735</v>
+        <v>0.0003145088056134165</v>
       </c>
       <c r="J89">
-        <v>0.001989578560327067</v>
+        <v>0.0019895785603308495</v>
       </c>
       <c r="K89">
-        <v>4.88694663954534e-5</v>
+        <v>4.886946639548255e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3544,25 +3544,25 @@
         <v>0.0003199847885714789</v>
       </c>
       <c r="E90">
-        <v>0.001990425384703711</v>
+        <v>0.0019904253847037104</v>
       </c>
       <c r="F90">
         <v>4.8878690622074796e-5</v>
       </c>
       <c r="G90">
-        <v>7.371569228376535</v>
+        <v>7.371569228377131</v>
       </c>
       <c r="H90">
-        <v>1.7159361963547275e-7</v>
+        <v>1.715936196352251e-7</v>
       </c>
       <c r="I90">
-        <v>0.00031998474926311725</v>
+        <v>0.00031998474926313503</v>
       </c>
       <c r="J90">
-        <v>0.0019904253773977395</v>
+        <v>0.001990425377401234</v>
       </c>
       <c r="K90">
-        <v>4.887869052915129e-5</v>
+        <v>4.8878690529178206e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3576,28 +3576,28 @@
         <v>1.566679805798879e-7</v>
       </c>
       <c r="D91">
-        <v>0.00032546134888188007</v>
+        <v>0.00032546134888188</v>
       </c>
       <c r="E91">
-        <v>0.0019912697768109775</v>
+        <v>0.001991269776810977</v>
       </c>
       <c r="F91">
         <v>4.888791049209478e-5</v>
       </c>
       <c r="G91">
-        <v>7.373251484579839</v>
+        <v>7.373251484580383</v>
       </c>
       <c r="H91">
-        <v>1.566724362580845e-7</v>
+        <v>1.5667243625785833e-7</v>
       </c>
       <c r="I91">
-        <v>0.0003254613125370114</v>
+        <v>0.00032546131253702776</v>
       </c>
       <c r="J91">
-        <v>0.0019912697700235353</v>
+        <v>0.001991269770026738</v>
       </c>
       <c r="K91">
-        <v>4.888791040602036e-5</v>
+        <v>4.888791040604505e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3611,28 +3611,28 @@
         <v>1.4174722052461526e-7</v>
       </c>
       <c r="D92">
-        <v>0.0003309385176645497</v>
+        <v>0.0003309385176645498</v>
       </c>
       <c r="E92">
         <v>0.0019921117884674306</v>
       </c>
       <c r="F92">
-        <v>4.889712613803271e-5</v>
+        <v>4.8897126138032714e-5</v>
       </c>
       <c r="G92">
-        <v>7.374917893009871</v>
+        <v>7.374917893010362</v>
       </c>
       <c r="H92">
-        <v>1.417512527022864e-7</v>
+        <v>1.417512527020817e-7</v>
       </c>
       <c r="I92">
-        <v>0.0003309384843695742</v>
+        <v>0.0003309384843695891</v>
       </c>
       <c r="J92">
-        <v>0.0019921117822212565</v>
+        <v>0.0019921117822241634</v>
       </c>
       <c r="K92">
-        <v>4.889712605904328e-5</v>
+        <v>4.889712605906568e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3640,13 +3640,13 @@
         <v>0.133</v>
       </c>
       <c r="B93">
-        <v>7.376568680783735</v>
+        <v>7.376568680783736</v>
       </c>
       <c r="C93">
         <v>1.2682646046942545e-7</v>
       </c>
       <c r="D93">
-        <v>0.00033641628411165713</v>
+        <v>0.0003364162841116571</v>
       </c>
       <c r="E93">
         <v>0.001992951462655489</v>
@@ -3655,19 +3655,19 @@
         <v>4.89063375926888e-5</v>
       </c>
       <c r="G93">
-        <v>7.376568680067642</v>
+        <v>7.376568680068079</v>
       </c>
       <c r="H93">
-        <v>1.2683006896807847e-7</v>
+        <v>1.2683006896789524e-7</v>
       </c>
       <c r="I93">
-        <v>0.0003364162539530032</v>
+        <v>0.0003364162539530167</v>
       </c>
       <c r="J93">
-        <v>0.0019929514569731843</v>
+        <v>0.0019929514569757925</v>
       </c>
       <c r="K93">
-        <v>4.890633752101998e-5</v>
+        <v>4.890633752104009e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3681,7 +3681,7 @@
         <v>1.1190570041419145e-7</v>
       </c>
       <c r="D94">
-        <v>0.00034189463766587716</v>
+        <v>0.0003418946376658772</v>
       </c>
       <c r="E94">
         <v>0.001993788841352108</v>
@@ -3690,19 +3690,19 @@
         <v>4.8915544888675076e-5</v>
       </c>
       <c r="G94">
-        <v>7.378204067958787</v>
+        <v>7.378204067959172</v>
       </c>
       <c r="H94">
-        <v>1.1190888505546068e-7</v>
+        <v>1.11908885055299e-7</v>
       </c>
       <c r="I94">
-        <v>0.0003418946107300011</v>
+        <v>0.00034189461073001314</v>
       </c>
       <c r="J94">
-        <v>0.001993788836256141</v>
+        <v>0.001993788836258448</v>
       </c>
       <c r="K94">
-        <v>4.8915544824562325e-5</v>
+        <v>4.891554482458012e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3710,13 +3710,13 @@
         <v>0.137</v>
       </c>
       <c r="B95">
-        <v>7.379824275457713</v>
+        <v>7.379824275457714</v>
       </c>
       <c r="C95">
         <v>9.69849403589961e-8</v>
       </c>
       <c r="D95">
-        <v>0.0003473735680134216</v>
+        <v>0.0003473735680134218</v>
       </c>
       <c r="E95">
         <v>0.0019946239655569123</v>
@@ -3725,19 +3725,19 @@
         <v>4.892474805841049e-5</v>
       </c>
       <c r="G95">
-        <v>7.379824274784427</v>
+        <v>7.3798242747847596</v>
       </c>
       <c r="H95">
-        <v>9.698770096443308e-8</v>
+        <v>9.698770096429292e-8</v>
       </c>
       <c r="I95">
-        <v>0.00034737354438680625</v>
+        <v>0.0003473735443868168</v>
       </c>
       <c r="J95">
-        <v>0.0019946239610696232</v>
+        <v>0.0019946239610716273</v>
       </c>
       <c r="K95">
-        <v>4.892474800208902e-5</v>
+        <v>4.8924748002104485e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3757,22 +3757,22 @@
         <v>0.001995456875319443</v>
       </c>
       <c r="F96">
-        <v>4.8933947134116206e-5</v>
+        <v>4.89339471341162e-5</v>
       </c>
       <c r="G96">
-        <v>7.38142951462995</v>
+        <v>7.38142951463023</v>
       </c>
       <c r="H96">
-        <v>8.206651669499565e-8</v>
+        <v>8.206651669487701e-8</v>
       </c>
       <c r="I96">
-        <v>0.0003528530448464423</v>
+        <v>0.0003528530448464513</v>
       </c>
       <c r="J96">
-        <v>0.0019954568714630467</v>
+        <v>0.0019954568714647455</v>
       </c>
       <c r="K96">
-        <v>4.893394708582102e-5</v>
+        <v>4.893394708583412e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3789,25 +3789,25 @@
         <v>0.0003583331190107231</v>
       </c>
       <c r="E97">
-        <v>0.0019962876097655373</v>
+        <v>0.001996287609765537</v>
       </c>
       <c r="F97">
-        <v>4.89431421478114e-5</v>
+        <v>4.894314214781141e-5</v>
       </c>
       <c r="G97">
-        <v>7.383019997651772</v>
+        <v>7.383019997652</v>
       </c>
       <c r="H97">
-        <v>6.714533224714838e-8</v>
+        <v>6.714533224705129e-8</v>
       </c>
       <c r="I97">
-        <v>0.00035833310226218094</v>
+        <v>0.0003583331022621884</v>
       </c>
       <c r="J97">
-        <v>0.0019962876065621267</v>
+        <v>0.0019962876065635193</v>
       </c>
       <c r="K97">
-        <v>4.894314210777727e-5</v>
+        <v>4.8943142107788016e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3815,34 +3815,34 @@
         <v>0.14300000000000002</v>
       </c>
       <c r="B98">
-        <v>7.3845959306219795</v>
+        <v>7.38459593062198</v>
       </c>
       <c r="C98">
         <v>5.2222660193298273e-8</v>
       </c>
       <c r="D98">
-        <v>0.00036381372019088983</v>
+        <v>0.0003638137201908899</v>
       </c>
       <c r="E98">
         <v>0.00199711620712288</v>
       </c>
       <c r="F98">
-        <v>4.895233313130935e-5</v>
+        <v>4.8952333131309344e-5</v>
       </c>
       <c r="G98">
-        <v>7.384595930162105</v>
+        <v>7.3845959301622806</v>
       </c>
       <c r="H98">
-        <v>5.2224147620891306e-8</v>
+        <v>5.222414762081576e-8</v>
       </c>
       <c r="I98">
-        <v>0.00036381370701120993</v>
+        <v>0.00036381370701121584</v>
       </c>
       <c r="J98">
-        <v>0.00199711620459443</v>
+        <v>0.0019971162045955156</v>
       </c>
       <c r="K98">
-        <v>4.8952333099770865e-5</v>
+        <v>4.895233309977922e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3859,25 +3859,25 @@
         <v>0.0003692948592127342</v>
       </c>
       <c r="E99">
-        <v>0.0019979427047457543</v>
+        <v>0.0019979427047457548</v>
       </c>
       <c r="F99">
-        <v>4.896152011621389e-5</v>
+        <v>4.8961520116213886e-5</v>
       </c>
       <c r="G99">
-        <v>7.386157514711768</v>
+        <v>7.386157514711893</v>
       </c>
       <c r="H99">
-        <v>3.7302962816224395e-8</v>
+        <v>3.730296281617042e-8</v>
       </c>
       <c r="I99">
-        <v>0.0003692948496884992</v>
+        <v>0.0003692948496885034</v>
       </c>
       <c r="J99">
-        <v>0.0019979427029141227</v>
+        <v>0.001997942702914899</v>
       </c>
       <c r="K99">
-        <v>4.896152009340541e-5</v>
+        <v>4.8961520093411386e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3897,22 +3897,22 @@
         <v>0.001998767139139007</v>
       </c>
       <c r="F100">
-        <v>4.897070313391619e-5</v>
+        <v>4.89707031339162e-5</v>
       </c>
       <c r="G100">
-        <v>7.387704950171101</v>
+        <v>7.387704950171176</v>
       </c>
       <c r="H100">
-        <v>2.2381777833147662e-8</v>
+        <v>2.238177783311528e-8</v>
       </c>
       <c r="I100">
-        <v>0.0003747765211008579</v>
+        <v>0.00037477652110086055</v>
       </c>
       <c r="J100">
-        <v>0.0019987671380259408</v>
+        <v>0.0019987671380264065</v>
       </c>
       <c r="K100">
-        <v>4.897070312007187e-5</v>
+        <v>4.897070312007545e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3935,19 +3935,19 @@
         <v>4.89798822155918e-5</v>
       </c>
       <c r="G101">
-        <v>7.389238431808995</v>
+        <v>7.38923843180902</v>
       </c>
       <c r="H101">
-        <v>7.460592671661115e-9</v>
+        <v>7.46059267165032e-9</v>
       </c>
       <c r="I101">
-        <v>0.0003802587122611778</v>
+        <v>0.00038025871226117866</v>
       </c>
       <c r="J101">
-        <v>0.001999589545608411</v>
+        <v>0.001999589545608566</v>
       </c>
       <c r="K101">
-        <v>4.89798822109456e-5</v>
+        <v>4.897988221094679e-5</v>
       </c>
     </row>
   </sheetData>
